--- a/C2B1A1/iotable.xlsx
+++ b/C2B1A1/iotable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F205CC-7849-42F3-BB16-30CA674A9411}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47760FBE-5610-4FE0-9988-A7742BA4A528}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -1406,8 +1406,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1635,11 +1635,11 @@
         <v>12</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ref="E10:E73" si="0">IF(P10="",$B$1,$B$1+1)</f>
+        <f>IF(P10="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:F73" si="1">IF(L10&lt;&gt;"",IF(P10="",FLOOR((L10-MIN(L:L))/2,1),FLOOR((L10-$B$6)/2,1)),"")</f>
+        <f>IF(L10&lt;&gt;"",IF(P10="",FLOOR((L10-MIN(L:L))/2,1),FLOOR((L10-$B$6)/2,1)),"")</f>
         <v>745</v>
       </c>
       <c r="G10" s="1">
@@ -1647,11 +1647,11 @@
         <v>8</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" ref="H10:H73" si="2">DEC2HEX(E10*HEX2DEC(1000000) +G10*HEX2DEC(10000) +F10)</f>
+        <f>DEC2HEX(E10*HEX2DEC(1000000) +G10*HEX2DEC(10000) +F10)</f>
         <v>10802E9</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:I13" si="3">HEX2DEC(H10)</f>
+        <f>HEX2DEC(H10)</f>
         <v>17302249</v>
       </c>
       <c r="K10">
@@ -1659,7 +1659,7 @@
         <v>522827</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10:L13" si="4">IF(J10&lt;&gt;"",J10,K10)</f>
+        <f>IF(J10&lt;&gt;"",J10,K10)</f>
         <v>522827</v>
       </c>
       <c r="O10" t="s">
@@ -1690,11 +1690,11 @@
         <v>13</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P11="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L11&lt;&gt;"",IF(P11="",FLOOR((L11-MIN(L:L))/2,1),FLOOR((L11-$B$6)/2,1)),"")</f>
         <v>785</v>
       </c>
       <c r="G11" s="1">
@@ -1702,11 +1702,11 @@
         <v>8</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E11*HEX2DEC(1000000) +G11*HEX2DEC(10000) +F11)</f>
         <v>1080311</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(H11)</f>
         <v>17302289</v>
       </c>
       <c r="K11">
@@ -1714,7 +1714,7 @@
         <v>522907</v>
       </c>
       <c r="L11">
-        <f t="shared" si="4"/>
+        <f>IF(J11&lt;&gt;"",J11,K11)</f>
         <v>522907</v>
       </c>
       <c r="O11" t="s">
@@ -1745,11 +1745,11 @@
         <v>14</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P12="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L12&lt;&gt;"",IF(P12="",FLOOR((L12-MIN(L:L))/2,1),FLOOR((L12-$B$6)/2,1)),"")</f>
         <v>825</v>
       </c>
       <c r="G12" s="1">
@@ -1757,11 +1757,11 @@
         <v>8</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E12*HEX2DEC(1000000) +G12*HEX2DEC(10000) +F12)</f>
         <v>1080339</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(H12)</f>
         <v>17302329</v>
       </c>
       <c r="K12">
@@ -1769,7 +1769,7 @@
         <v>522987</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
+        <f>IF(J12&lt;&gt;"",J12,K12)</f>
         <v>522987</v>
       </c>
       <c r="O12" t="s">
@@ -1800,11 +1800,11 @@
         <v>15</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P13="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L13&lt;&gt;"",IF(P13="",FLOOR((L13-MIN(L:L))/2,1),FLOOR((L13-$B$6)/2,1)),"")</f>
         <v>865</v>
       </c>
       <c r="G13" s="1">
@@ -1812,11 +1812,11 @@
         <v>8</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E13*HEX2DEC(1000000) +G13*HEX2DEC(10000) +F13)</f>
         <v>1080361</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
+        <f>HEX2DEC(H13)</f>
         <v>17302369</v>
       </c>
       <c r="K13">
@@ -1824,7 +1824,7 @@
         <v>523067</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f>IF(J13&lt;&gt;"",J13,K13)</f>
         <v>523067</v>
       </c>
       <c r="O13" t="s">
@@ -1852,11 +1852,11 @@
         <v>6</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P14="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L14&lt;&gt;"",IF(P14="",FLOOR((L14-MIN(L:L))/2,1),FLOOR((L14-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G14" s="1" t="e">
@@ -1864,7 +1864,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H14" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E14*HEX2DEC(1000000) +G14*HEX2DEC(10000) +F14)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I14" t="e">
@@ -1891,11 +1891,11 @@
         <v>7</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P15="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L15&lt;&gt;"",IF(P15="",FLOOR((L15-MIN(L:L))/2,1),FLOOR((L15-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G15" s="1" t="e">
@@ -1903,7 +1903,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H15" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E15*HEX2DEC(1000000) +G15*HEX2DEC(10000) +F15)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I15" t="e">
@@ -1930,11 +1930,11 @@
         <v>8</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P16="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L16&lt;&gt;"",IF(P16="",FLOOR((L16-MIN(L:L))/2,1),FLOOR((L16-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G16" s="1" t="e">
@@ -1942,7 +1942,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H16" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E16*HEX2DEC(1000000) +G16*HEX2DEC(10000) +F16)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I16" t="e">
@@ -1958,7 +1958,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1972,11 +1972,11 @@
         <v>71</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P17="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L17&lt;&gt;"",IF(P17="",FLOOR((L17-MIN(L:L))/2,1),FLOOR((L17-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G17" s="1" t="e">
@@ -1984,7 +1984,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H17" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E17*HEX2DEC(1000000) +G17*HEX2DEC(10000) +F17)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I17" t="e">
@@ -2011,11 +2011,11 @@
         <v>10</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P18="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L18&lt;&gt;"",IF(P18="",FLOOR((L18-MIN(L:L))/2,1),FLOOR((L18-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G18" s="1" t="e">
@@ -2023,7 +2023,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H18" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E18*HEX2DEC(1000000) +G18*HEX2DEC(10000) +F18)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I18" t="e">
@@ -2050,11 +2050,11 @@
         <v>11</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P19="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L19&lt;&gt;"",IF(P19="",FLOOR((L19-MIN(L:L))/2,1),FLOOR((L19-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G19" s="1" t="e">
@@ -2062,7 +2062,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H19" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E19*HEX2DEC(1000000) +G19*HEX2DEC(10000) +F19)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I19" t="e">
@@ -2089,11 +2089,11 @@
         <v>12</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P20="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L20&lt;&gt;"",IF(P20="",FLOOR((L20-MIN(L:L))/2,1),FLOOR((L20-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G20" s="1" t="e">
@@ -2101,7 +2101,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H20" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E20*HEX2DEC(1000000) +G20*HEX2DEC(10000) +F20)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I20" t="e">
@@ -2128,11 +2128,11 @@
         <v>13</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P21="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L21&lt;&gt;"",IF(P21="",FLOOR((L21-MIN(L:L))/2,1),FLOOR((L21-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G21" s="1" t="e">
@@ -2140,7 +2140,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H21" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E21*HEX2DEC(1000000) +G21*HEX2DEC(10000) +F21)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I21" t="e">
@@ -2167,11 +2167,11 @@
         <v>14</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P22="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L22&lt;&gt;"",IF(P22="",FLOOR((L22-MIN(L:L))/2,1),FLOOR((L22-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G22" s="1" t="e">
@@ -2179,7 +2179,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H22" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E22*HEX2DEC(1000000) +G22*HEX2DEC(10000) +F22)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I22" t="e">
@@ -2206,11 +2206,11 @@
         <v>15</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P23="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L23&lt;&gt;"",IF(P23="",FLOOR((L23-MIN(L:L))/2,1),FLOOR((L23-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G23" s="1" t="e">
@@ -2218,7 +2218,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H23" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E23*HEX2DEC(1000000) +G23*HEX2DEC(10000) +F23)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I23" t="e">
@@ -2248,11 +2248,11 @@
         <v>16</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P24="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L24&lt;&gt;"",IF(P24="",FLOOR((L24-MIN(L:L))/2,1),FLOOR((L24-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G24" s="1" t="e">
@@ -2260,7 +2260,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H24" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E24*HEX2DEC(1000000) +G24*HEX2DEC(10000) +F24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I24" t="e">
@@ -2287,11 +2287,11 @@
         <v>3</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P25="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L25&lt;&gt;"",IF(P25="",FLOOR((L25-MIN(L:L))/2,1),FLOOR((L25-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G25" s="1" t="e">
@@ -2299,7 +2299,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H25" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E25*HEX2DEC(1000000) +G25*HEX2DEC(10000) +F25)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I25" t="e">
@@ -2326,11 +2326,11 @@
         <v>4</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P26="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L26&lt;&gt;"",IF(P26="",FLOOR((L26-MIN(L:L))/2,1),FLOOR((L26-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G26" s="1" t="e">
@@ -2338,7 +2338,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H26" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E26*HEX2DEC(1000000) +G26*HEX2DEC(10000) +F26)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I26" t="e">
@@ -2365,11 +2365,11 @@
         <v>5</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P27="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L27&lt;&gt;"",IF(P27="",FLOOR((L27-MIN(L:L))/2,1),FLOOR((L27-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G27" s="1" t="e">
@@ -2377,7 +2377,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H27" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E27*HEX2DEC(1000000) +G27*HEX2DEC(10000) +F27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I27" t="e">
@@ -2404,11 +2404,11 @@
         <v>6</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P28="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L28&lt;&gt;"",IF(P28="",FLOOR((L28-MIN(L:L))/2,1),FLOOR((L28-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G28" s="1" t="e">
@@ -2416,7 +2416,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H28" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E28*HEX2DEC(1000000) +G28*HEX2DEC(10000) +F28)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I28" t="e">
@@ -2443,11 +2443,11 @@
         <v>7</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P29="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L29&lt;&gt;"",IF(P29="",FLOOR((L29-MIN(L:L))/2,1),FLOOR((L29-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G29" s="1" t="e">
@@ -2455,7 +2455,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H29" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E29*HEX2DEC(1000000) +G29*HEX2DEC(10000) +F29)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I29" t="e">
@@ -2482,11 +2482,11 @@
         <v>10</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P30="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L30&lt;&gt;"",IF(P30="",FLOOR((L30-MIN(L:L))/2,1),FLOOR((L30-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G30" s="1" t="e">
@@ -2494,7 +2494,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H30" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E30*HEX2DEC(1000000) +G30*HEX2DEC(10000) +F30)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I30" t="e">
@@ -2521,11 +2521,11 @@
         <v>13</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P31="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L31&lt;&gt;"",IF(P31="",FLOOR((L31-MIN(L:L))/2,1),FLOOR((L31-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G31" s="1" t="e">
@@ -2533,7 +2533,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H31" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E31*HEX2DEC(1000000) +G31*HEX2DEC(10000) +F31)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I31" t="e">
@@ -2560,11 +2560,11 @@
         <v>14</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P32="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L32&lt;&gt;"",IF(P32="",FLOOR((L32-MIN(L:L))/2,1),FLOOR((L32-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G32" s="1" t="e">
@@ -2572,7 +2572,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H32" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E32*HEX2DEC(1000000) +G32*HEX2DEC(10000) +F32)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I32" t="e">
@@ -2599,11 +2599,11 @@
         <v>15</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P33="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L33&lt;&gt;"",IF(P33="",FLOOR((L33-MIN(L:L))/2,1),FLOOR((L33-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G33" s="1" t="e">
@@ -2611,7 +2611,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H33" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E33*HEX2DEC(1000000) +G33*HEX2DEC(10000) +F33)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I33" t="e">
@@ -2638,11 +2638,11 @@
         <v>16</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P34="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L34&lt;&gt;"",IF(P34="",FLOOR((L34-MIN(L:L))/2,1),FLOOR((L34-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G34" s="1" t="e">
@@ -2650,7 +2650,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H34" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E34*HEX2DEC(1000000) +G34*HEX2DEC(10000) +F34)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I34" t="e">
@@ -2668,60 +2668,60 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>26</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>86</v>
+        <v>32</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P35="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="1"/>
-        <v>1305</v>
+        <f>IF(L35&lt;&gt;"",IF(P35="",FLOOR((L35-MIN(L:L))/2,1),FLOOR((L35-$B$6)/2,1)),"")</f>
+        <v>905</v>
       </c>
       <c r="G35" s="1">
         <f>IF(MOD(L35-$B$5,2)=1,8+M35,M35)</f>
         <v>8</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="2"/>
-        <v>1080519</v>
+        <f>DEC2HEX(E35*HEX2DEC(1000000) +G35*HEX2DEC(10000) +F35)</f>
+        <v>1080389</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35:I48" si="5">HEX2DEC(H35)</f>
-        <v>17302809</v>
+        <f>HEX2DEC(H35)</f>
+        <v>17302409</v>
       </c>
       <c r="K35">
         <f>IF(Q35&lt;&gt;"",Q35*136+$B$2,IF(R35&lt;&gt;"",R35*136+$B$2,IF(T35&lt;&gt;"",T35*80+$B$4,"")))</f>
-        <v>523947</v>
+        <v>523147</v>
       </c>
       <c r="L35">
-        <f t="shared" ref="L35:L48" si="6">IF(J35&lt;&gt;"",J35,K35)</f>
-        <v>523947</v>
+        <f>IF(J35&lt;&gt;"",J35,K35)</f>
+        <v>523147</v>
       </c>
       <c r="O35" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="S35" t="s">
         <v>38</v>
       </c>
       <c r="T35">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="U35" t="str">
         <f>IF(S35="*",D35&amp;" : INT := "&amp;(T35+1)&amp;";")</f>
-        <v>SfB1 : INT := 16;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+        <v>SfA01 : INT := 6;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>27</v>
       </c>
@@ -2735,11 +2735,11 @@
         <v>91</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P36="",$B$1,$B$1+1)</f>
         <v>2</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L36&lt;&gt;"",IF(P36="",FLOOR((L36-MIN(L:L))/2,1),FLOOR((L36-$B$6)/2,1)),"")</f>
         <v>408</v>
       </c>
       <c r="G36" s="1">
@@ -2747,11 +2747,11 @@
         <v>0</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E36*HEX2DEC(1000000) +G36*HEX2DEC(10000) +F36)</f>
         <v>2000198</v>
       </c>
       <c r="I36">
-        <f t="shared" si="5"/>
+        <f>HEX2DEC(H36)</f>
         <v>33554840</v>
       </c>
       <c r="K36">
@@ -2759,7 +2759,7 @@
         <v>1051192</v>
       </c>
       <c r="L36">
-        <f t="shared" si="6"/>
+        <f>IF(J36&lt;&gt;"",J36,K36)</f>
         <v>1051192</v>
       </c>
       <c r="O36" t="s">
@@ -2772,7 +2772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>28</v>
       </c>
@@ -2786,11 +2786,11 @@
         <v>92</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P37="",$B$1,$B$1+1)</f>
         <v>2</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L37&lt;&gt;"",IF(P37="",FLOOR((L37-MIN(L:L))/2,1),FLOOR((L37-$B$6)/2,1)),"")</f>
         <v>476</v>
       </c>
       <c r="G37" s="1">
@@ -2798,11 +2798,11 @@
         <v>0</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E37*HEX2DEC(1000000) +G37*HEX2DEC(10000) +F37)</f>
         <v>20001DC</v>
       </c>
       <c r="I37">
-        <f t="shared" si="5"/>
+        <f>HEX2DEC(H37)</f>
         <v>33554908</v>
       </c>
       <c r="K37">
@@ -2810,7 +2810,7 @@
         <v>1051328</v>
       </c>
       <c r="L37">
-        <f t="shared" si="6"/>
+        <f>IF(J37&lt;&gt;"",J37,K37)</f>
         <v>1051328</v>
       </c>
       <c r="O37" t="s">
@@ -2825,390 +2825,390 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>29</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>86</v>
+        <v>33</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P38="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="1"/>
-        <v>1345</v>
+        <f>IF(L38&lt;&gt;"",IF(P38="",FLOOR((L38-MIN(L:L))/2,1),FLOOR((L38-$B$6)/2,1)),"")</f>
+        <v>945</v>
       </c>
       <c r="G38" s="1">
         <f>IF(MOD(L38-$B$5,2)=1,8+M38,M38)</f>
         <v>8</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="2"/>
-        <v>1080541</v>
+        <f>DEC2HEX(E38*HEX2DEC(1000000) +G38*HEX2DEC(10000) +F38)</f>
+        <v>10803B1</v>
       </c>
       <c r="I38">
-        <f t="shared" si="5"/>
-        <v>17302849</v>
+        <f>HEX2DEC(H38)</f>
+        <v>17302449</v>
       </c>
       <c r="K38">
         <f>IF(Q38&lt;&gt;"",Q38*136+$B$2,IF(R38&lt;&gt;"",R38*136+$B$2,IF(T38&lt;&gt;"",T38*80+$B$4,"")))</f>
-        <v>524027</v>
+        <v>523227</v>
       </c>
       <c r="L38">
-        <f t="shared" si="6"/>
-        <v>524027</v>
+        <f>IF(J38&lt;&gt;"",J38,K38)</f>
+        <v>523227</v>
       </c>
       <c r="O38" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="S38" t="s">
         <v>38</v>
       </c>
       <c r="T38">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="U38" t="str">
         <f>IF(S38="*",D38&amp;" : INT := "&amp;(T38+1)&amp;";")</f>
-        <v>SfB2 : INT := 17;</v>
+        <v>SfA02 : INT := 7;</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>30</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>86</v>
+        <v>34</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P39="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="1"/>
-        <v>1385</v>
+        <f>IF(L39&lt;&gt;"",IF(P39="",FLOOR((L39-MIN(L:L))/2,1),FLOOR((L39-$B$6)/2,1)),"")</f>
+        <v>985</v>
       </c>
       <c r="G39" s="1">
         <f>IF(MOD(L39-$B$5,2)=1,8+M39,M39)</f>
         <v>8</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="2"/>
-        <v>1080569</v>
+        <f>DEC2HEX(E39*HEX2DEC(1000000) +G39*HEX2DEC(10000) +F39)</f>
+        <v>10803D9</v>
       </c>
       <c r="I39">
-        <f t="shared" si="5"/>
-        <v>17302889</v>
+        <f>HEX2DEC(H39)</f>
+        <v>17302489</v>
       </c>
       <c r="K39">
         <f>IF(Q39&lt;&gt;"",Q39*136+$B$2,IF(R39&lt;&gt;"",R39*136+$B$2,IF(T39&lt;&gt;"",T39*80+$B$4,"")))</f>
-        <v>524107</v>
+        <v>523307</v>
       </c>
       <c r="L39">
-        <f t="shared" si="6"/>
-        <v>524107</v>
+        <f>IF(J39&lt;&gt;"",J39,K39)</f>
+        <v>523307</v>
       </c>
       <c r="O39" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="S39" t="s">
         <v>38</v>
       </c>
       <c r="T39">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="U39" t="str">
         <f>IF(S39="*",D39&amp;" : INT := "&amp;(T39+1)&amp;";")</f>
-        <v>SpB1 : INT := 18;</v>
+        <v>SfA03 : INT := 8;</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>31</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>86</v>
+        <v>35</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C40">
         <v>9</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P40="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="1"/>
-        <v>1425</v>
+        <f>IF(L40&lt;&gt;"",IF(P40="",FLOOR((L40-MIN(L:L))/2,1),FLOOR((L40-$B$6)/2,1)),"")</f>
+        <v>1025</v>
       </c>
       <c r="G40" s="1">
         <f>IF(MOD(L40-$B$5,2)=1,8+M40,M40)</f>
         <v>8</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="2"/>
-        <v>1080591</v>
+        <f>DEC2HEX(E40*HEX2DEC(1000000) +G40*HEX2DEC(10000) +F40)</f>
+        <v>1080401</v>
       </c>
       <c r="I40">
-        <f t="shared" si="5"/>
-        <v>17302929</v>
+        <f>HEX2DEC(H40)</f>
+        <v>17302529</v>
       </c>
       <c r="K40">
         <f>IF(Q40&lt;&gt;"",Q40*136+$B$2,IF(R40&lt;&gt;"",R40*136+$B$2,IF(T40&lt;&gt;"",T40*80+$B$4,"")))</f>
-        <v>524187</v>
+        <v>523387</v>
       </c>
       <c r="L40">
-        <f t="shared" si="6"/>
-        <v>524187</v>
+        <f>IF(J40&lt;&gt;"",J40,K40)</f>
+        <v>523387</v>
       </c>
       <c r="O40" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="S40" t="s">
         <v>38</v>
       </c>
       <c r="T40">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="U40" t="str">
         <f>IF(S40="*",D40&amp;" : INT := "&amp;(T40+1)&amp;";")</f>
-        <v>SpB2 : INT := 19;</v>
+        <v>SpA01 : INT := 9;</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P41="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="1"/>
-        <v>905</v>
+        <f>IF(L41&lt;&gt;"",IF(P41="",FLOOR((L41-MIN(L:L))/2,1),FLOOR((L41-$B$6)/2,1)),"")</f>
+        <v>1065</v>
       </c>
       <c r="G41" s="1">
         <f>IF(MOD(L41-$B$5,2)=1,8+M41,M41)</f>
         <v>8</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="2"/>
-        <v>1080389</v>
+        <f>DEC2HEX(E41*HEX2DEC(1000000) +G41*HEX2DEC(10000) +F41)</f>
+        <v>1080429</v>
       </c>
       <c r="I41">
-        <f t="shared" si="5"/>
-        <v>17302409</v>
+        <f>HEX2DEC(H41)</f>
+        <v>17302569</v>
       </c>
       <c r="K41">
         <f>IF(Q41&lt;&gt;"",Q41*136+$B$2,IF(R41&lt;&gt;"",R41*136+$B$2,IF(T41&lt;&gt;"",T41*80+$B$4,"")))</f>
-        <v>523147</v>
+        <v>523467</v>
       </c>
       <c r="L41">
-        <f t="shared" si="6"/>
-        <v>523147</v>
+        <f>IF(J41&lt;&gt;"",J41,K41)</f>
+        <v>523467</v>
       </c>
       <c r="O41" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="S41" t="s">
         <v>38</v>
       </c>
       <c r="T41">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U41" t="str">
         <f>IF(S41="*",D41&amp;" : INT := "&amp;(T41+1)&amp;";")</f>
-        <v>SfA01 : INT := 6;</v>
+        <v>SpA02 : INT := 10;</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P42="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="1"/>
-        <v>945</v>
+        <f>IF(L42&lt;&gt;"",IF(P42="",FLOOR((L42-MIN(L:L))/2,1),FLOOR((L42-$B$6)/2,1)),"")</f>
+        <v>1105</v>
       </c>
       <c r="G42" s="1">
         <f>IF(MOD(L42-$B$5,2)=1,8+M42,M42)</f>
         <v>8</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="2"/>
-        <v>10803B1</v>
+        <f>DEC2HEX(E42*HEX2DEC(1000000) +G42*HEX2DEC(10000) +F42)</f>
+        <v>1080451</v>
       </c>
       <c r="I42">
-        <f t="shared" si="5"/>
-        <v>17302449</v>
+        <f>HEX2DEC(H42)</f>
+        <v>17302609</v>
       </c>
       <c r="K42">
         <f>IF(Q42&lt;&gt;"",Q42*136+$B$2,IF(R42&lt;&gt;"",R42*136+$B$2,IF(T42&lt;&gt;"",T42*80+$B$4,"")))</f>
-        <v>523227</v>
+        <v>523547</v>
       </c>
       <c r="L42">
-        <f t="shared" si="6"/>
-        <v>523227</v>
+        <f>IF(J42&lt;&gt;"",J42,K42)</f>
+        <v>523547</v>
       </c>
       <c r="O42" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="S42" t="s">
         <v>38</v>
       </c>
       <c r="T42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U42" t="str">
         <f>IF(S42="*",D42&amp;" : INT := "&amp;(T42+1)&amp;";")</f>
-        <v>SfA02 : INT := 7;</v>
+        <v>SpA03 : INT := 11;</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>34</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>9</v>
+        <v>64</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P43="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="1"/>
-        <v>985</v>
+        <f>IF(L43&lt;&gt;"",IF(P43="",FLOOR((L43-MIN(L:L))/2,1),FLOOR((L43-$B$6)/2,1)),"")</f>
+        <v>1145</v>
       </c>
       <c r="G43" s="1">
         <f>IF(MOD(L43-$B$5,2)=1,8+M43,M43)</f>
         <v>8</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="2"/>
-        <v>10803D9</v>
+        <f>DEC2HEX(E43*HEX2DEC(1000000) +G43*HEX2DEC(10000) +F43)</f>
+        <v>1080479</v>
       </c>
       <c r="I43">
-        <f t="shared" si="5"/>
-        <v>17302489</v>
+        <f>HEX2DEC(H43)</f>
+        <v>17302649</v>
       </c>
       <c r="K43">
         <f>IF(Q43&lt;&gt;"",Q43*136+$B$2,IF(R43&lt;&gt;"",R43*136+$B$2,IF(T43&lt;&gt;"",T43*80+$B$4,"")))</f>
-        <v>523307</v>
+        <v>523627</v>
       </c>
       <c r="L43">
-        <f t="shared" si="6"/>
-        <v>523307</v>
+        <f>IF(J43&lt;&gt;"",J43,K43)</f>
+        <v>523627</v>
       </c>
       <c r="O43" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="S43" t="s">
         <v>38</v>
       </c>
       <c r="T43">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="U43" t="str">
         <f>IF(S43="*",D43&amp;" : INT := "&amp;(T43+1)&amp;";")</f>
-        <v>SfA03 : INT := 8;</v>
+        <v>ASp01 : INT := 12;</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>35</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>9</v>
+        <v>65</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P44="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="1"/>
-        <v>1025</v>
+        <f>IF(L44&lt;&gt;"",IF(P44="",FLOOR((L44-MIN(L:L))/2,1),FLOOR((L44-$B$6)/2,1)),"")</f>
+        <v>1185</v>
       </c>
       <c r="G44" s="1">
         <f>IF(MOD(L44-$B$5,2)=1,8+M44,M44)</f>
         <v>8</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="2"/>
-        <v>1080401</v>
+        <f>DEC2HEX(E44*HEX2DEC(1000000) +G44*HEX2DEC(10000) +F44)</f>
+        <v>10804A1</v>
       </c>
       <c r="I44">
-        <f t="shared" si="5"/>
-        <v>17302529</v>
+        <f>HEX2DEC(H44)</f>
+        <v>17302689</v>
       </c>
       <c r="K44">
         <f>IF(Q44&lt;&gt;"",Q44*136+$B$2,IF(R44&lt;&gt;"",R44*136+$B$2,IF(T44&lt;&gt;"",T44*80+$B$4,"")))</f>
-        <v>523387</v>
+        <v>523707</v>
       </c>
       <c r="L44">
-        <f t="shared" si="6"/>
-        <v>523387</v>
+        <f>IF(J44&lt;&gt;"",J44,K44)</f>
+        <v>523707</v>
       </c>
       <c r="O44" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="S44" t="s">
         <v>38</v>
       </c>
       <c r="T44">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U44" t="str">
         <f>IF(S44="*",D44&amp;" : INT := "&amp;(T44+1)&amp;";")</f>
-        <v>SpA01 : INT := 9;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+        <v>ASp02 : INT := 13;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>36</v>
       </c>
@@ -3222,11 +3222,11 @@
         <v>78</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P45="",$B$1,$B$1+1)</f>
         <v>2</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L45&lt;&gt;"",IF(P45="",FLOOR((L45-MIN(L:L))/2,1),FLOOR((L45-$B$6)/2,1)),"")</f>
         <v>0</v>
       </c>
       <c r="G45" s="1">
@@ -3234,11 +3234,11 @@
         <v>0</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E45*HEX2DEC(1000000) +G45*HEX2DEC(10000) +F45)</f>
         <v>2000000</v>
       </c>
       <c r="I45">
-        <f t="shared" si="5"/>
+        <f>HEX2DEC(H45)</f>
         <v>33554432</v>
       </c>
       <c r="K45">
@@ -3246,7 +3246,7 @@
         <v>1050376</v>
       </c>
       <c r="L45">
-        <f t="shared" si="6"/>
+        <f>IF(J45&lt;&gt;"",J45,K45)</f>
         <v>1050376</v>
       </c>
       <c r="O45" t="s">
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>37</v>
       </c>
@@ -3273,11 +3273,11 @@
         <v>79</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P46="",$B$1,$B$1+1)</f>
         <v>2</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L46&lt;&gt;"",IF(P46="",FLOOR((L46-MIN(L:L))/2,1),FLOOR((L46-$B$6)/2,1)),"")</f>
         <v>68</v>
       </c>
       <c r="G46" s="1">
@@ -3285,11 +3285,11 @@
         <v>0</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E46*HEX2DEC(1000000) +G46*HEX2DEC(10000) +F46)</f>
         <v>2000044</v>
       </c>
       <c r="I46">
-        <f t="shared" si="5"/>
+        <f>HEX2DEC(H46)</f>
         <v>33554500</v>
       </c>
       <c r="K46">
@@ -3297,7 +3297,7 @@
         <v>1050512</v>
       </c>
       <c r="L46">
-        <f t="shared" si="6"/>
+        <f>IF(J46&lt;&gt;"",J46,K46)</f>
         <v>1050512</v>
       </c>
       <c r="O46" t="s">
@@ -3312,112 +3312,112 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>38</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>9</v>
+        <v>66</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P47="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="1"/>
-        <v>1065</v>
+        <f>IF(L47&lt;&gt;"",IF(P47="",FLOOR((L47-MIN(L:L))/2,1),FLOOR((L47-$B$6)/2,1)),"")</f>
+        <v>1225</v>
       </c>
       <c r="G47" s="1">
         <f>IF(MOD(L47-$B$5,2)=1,8+M47,M47)</f>
         <v>8</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="2"/>
-        <v>1080429</v>
+        <f>DEC2HEX(E47*HEX2DEC(1000000) +G47*HEX2DEC(10000) +F47)</f>
+        <v>10804C9</v>
       </c>
       <c r="I47">
-        <f t="shared" si="5"/>
-        <v>17302569</v>
+        <f>HEX2DEC(H47)</f>
+        <v>17302729</v>
       </c>
       <c r="K47">
         <f>IF(Q47&lt;&gt;"",Q47*136+$B$2,IF(R47&lt;&gt;"",R47*136+$B$2,IF(T47&lt;&gt;"",T47*80+$B$4,"")))</f>
-        <v>523467</v>
+        <v>523787</v>
       </c>
       <c r="L47">
-        <f t="shared" si="6"/>
-        <v>523467</v>
+        <f>IF(J47&lt;&gt;"",J47,K47)</f>
+        <v>523787</v>
       </c>
       <c r="O47" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="S47" t="s">
         <v>38</v>
       </c>
       <c r="T47">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="U47" t="str">
         <f>IF(S47="*",D47&amp;" : INT := "&amp;(T47+1)&amp;";")</f>
-        <v>SpA02 : INT := 10;</v>
+        <v>ASp03 : INT := 14;</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>39</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>9</v>
+        <v>67</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C48">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P48="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="1"/>
-        <v>1105</v>
+        <f>IF(L48&lt;&gt;"",IF(P48="",FLOOR((L48-MIN(L:L))/2,1),FLOOR((L48-$B$6)/2,1)),"")</f>
+        <v>1265</v>
       </c>
       <c r="G48" s="1">
         <f>IF(MOD(L48-$B$5,2)=1,8+M48,M48)</f>
         <v>8</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="2"/>
-        <v>1080451</v>
+        <f>DEC2HEX(E48*HEX2DEC(1000000) +G48*HEX2DEC(10000) +F48)</f>
+        <v>10804F1</v>
       </c>
       <c r="I48">
-        <f t="shared" si="5"/>
-        <v>17302609</v>
+        <f>HEX2DEC(H48)</f>
+        <v>17302769</v>
       </c>
       <c r="K48">
         <f>IF(Q48&lt;&gt;"",Q48*136+$B$2,IF(R48&lt;&gt;"",R48*136+$B$2,IF(T48&lt;&gt;"",T48*80+$B$4,"")))</f>
-        <v>523547</v>
+        <v>523867</v>
       </c>
       <c r="L48">
-        <f t="shared" si="6"/>
-        <v>523547</v>
+        <f>IF(J48&lt;&gt;"",J48,K48)</f>
+        <v>523867</v>
       </c>
       <c r="O48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="S48" t="s">
         <v>38</v>
       </c>
       <c r="T48">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="U48" t="str">
         <f>IF(S48="*",D48&amp;" : INT := "&amp;(T48+1)&amp;";")</f>
-        <v>SpA03 : INT := 11;</v>
+        <v>ASp04 : INT := 15;</v>
       </c>
     </row>
     <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -3431,11 +3431,11 @@
         <v>4</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P49="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L49&lt;&gt;"",IF(P49="",FLOOR((L49-MIN(L:L))/2,1),FLOOR((L49-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G49" s="1" t="e">
@@ -3443,7 +3443,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H49" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E49*HEX2DEC(1000000) +G49*HEX2DEC(10000) +F49)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I49" t="e">
@@ -3470,11 +3470,11 @@
         <v>5</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P50="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L50&lt;&gt;"",IF(P50="",FLOOR((L50-MIN(L:L))/2,1),FLOOR((L50-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G50" s="1" t="e">
@@ -3482,7 +3482,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H50" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E50*HEX2DEC(1000000) +G50*HEX2DEC(10000) +F50)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I50" t="e">
@@ -3509,11 +3509,11 @@
         <v>6</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P51="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L51&lt;&gt;"",IF(P51="",FLOOR((L51-MIN(L:L))/2,1),FLOOR((L51-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G51" s="1" t="e">
@@ -3521,7 +3521,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H51" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E51*HEX2DEC(1000000) +G51*HEX2DEC(10000) +F51)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I51" t="e">
@@ -3548,11 +3548,11 @@
         <v>7</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P52="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L52&lt;&gt;"",IF(P52="",FLOOR((L52-MIN(L:L))/2,1),FLOOR((L52-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G52" s="1" t="e">
@@ -3560,7 +3560,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H52" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E52*HEX2DEC(1000000) +G52*HEX2DEC(10000) +F52)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I52" t="e">
@@ -3587,11 +3587,11 @@
         <v>8</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P53="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L53&lt;&gt;"",IF(P53="",FLOOR((L53-MIN(L:L))/2,1),FLOOR((L53-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G53" s="1" t="e">
@@ -3599,7 +3599,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H53" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E53*HEX2DEC(1000000) +G53*HEX2DEC(10000) +F53)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I53" t="e">
@@ -3615,7 +3615,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>45</v>
       </c>
@@ -3629,11 +3629,11 @@
         <v>80</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P54="",$B$1,$B$1+1)</f>
         <v>2</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L54&lt;&gt;"",IF(P54="",FLOOR((L54-MIN(L:L))/2,1),FLOOR((L54-$B$6)/2,1)),"")</f>
         <v>136</v>
       </c>
       <c r="G54" s="1">
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E54*HEX2DEC(1000000) +G54*HEX2DEC(10000) +F54)</f>
         <v>2000088</v>
       </c>
       <c r="I54">
@@ -3677,11 +3677,11 @@
         <v>15</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P55="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L55&lt;&gt;"",IF(P55="",FLOOR((L55-MIN(L:L))/2,1),FLOOR((L55-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G55" s="1" t="e">
@@ -3689,7 +3689,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H55" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E55*HEX2DEC(1000000) +G55*HEX2DEC(10000) +F55)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I55" t="e">
@@ -3716,11 +3716,11 @@
         <v>16</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P56="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L56&lt;&gt;"",IF(P56="",FLOOR((L56-MIN(L:L))/2,1),FLOOR((L56-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G56" s="1" t="e">
@@ -3728,7 +3728,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H56" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E56*HEX2DEC(1000000) +G56*HEX2DEC(10000) +F56)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I56" t="e">
@@ -3755,11 +3755,11 @@
         <v>5</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P57="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L57&lt;&gt;"",IF(P57="",FLOOR((L57-MIN(L:L))/2,1),FLOOR((L57-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G57" s="1" t="e">
@@ -3767,7 +3767,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H57" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E57*HEX2DEC(1000000) +G57*HEX2DEC(10000) +F57)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I57" t="e">
@@ -3794,11 +3794,11 @@
         <v>6</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P58="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L58&lt;&gt;"",IF(P58="",FLOOR((L58-MIN(L:L))/2,1),FLOOR((L58-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G58" s="1" t="e">
@@ -3806,7 +3806,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H58" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E58*HEX2DEC(1000000) +G58*HEX2DEC(10000) +F58)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I58" t="e">
@@ -3833,11 +3833,11 @@
         <v>7</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P59="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L59&lt;&gt;"",IF(P59="",FLOOR((L59-MIN(L:L))/2,1),FLOOR((L59-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G59" s="1" t="e">
@@ -3845,7 +3845,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H59" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E59*HEX2DEC(1000000) +G59*HEX2DEC(10000) +F59)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I59" t="e">
@@ -3872,11 +3872,11 @@
         <v>8</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P60="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L60&lt;&gt;"",IF(P60="",FLOOR((L60-MIN(L:L))/2,1),FLOOR((L60-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G60" s="1" t="e">
@@ -3884,7 +3884,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H60" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E60*HEX2DEC(1000000) +G60*HEX2DEC(10000) +F60)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I60" t="e">
@@ -3911,11 +3911,11 @@
         <v>9</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P61="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L61&lt;&gt;"",IF(P61="",FLOOR((L61-MIN(L:L))/2,1),FLOOR((L61-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G61" s="1" t="e">
@@ -3923,7 +3923,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H61" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E61*HEX2DEC(1000000) +G61*HEX2DEC(10000) +F61)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I61" t="e">
@@ -3950,11 +3950,11 @@
         <v>10</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P62="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L62&lt;&gt;"",IF(P62="",FLOOR((L62-MIN(L:L))/2,1),FLOOR((L62-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G62" s="1" t="e">
@@ -3962,7 +3962,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H62" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E62*HEX2DEC(1000000) +G62*HEX2DEC(10000) +F62)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I62" t="e">
@@ -3989,11 +3989,11 @@
         <v>11</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P63="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L63&lt;&gt;"",IF(P63="",FLOOR((L63-MIN(L:L))/2,1),FLOOR((L63-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G63" s="1" t="e">
@@ -4001,7 +4001,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H63" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E63*HEX2DEC(1000000) +G63*HEX2DEC(10000) +F63)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I63" t="e">
@@ -4028,11 +4028,11 @@
         <v>12</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P64="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L64&lt;&gt;"",IF(P64="",FLOOR((L64-MIN(L:L))/2,1),FLOOR((L64-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G64" s="1" t="e">
@@ -4040,7 +4040,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H64" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E64*HEX2DEC(1000000) +G64*HEX2DEC(10000) +F64)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I64" t="e">
@@ -4067,11 +4067,11 @@
         <v>13</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P65="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L65&lt;&gt;"",IF(P65="",FLOOR((L65-MIN(L:L))/2,1),FLOOR((L65-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G65" s="1" t="e">
@@ -4079,7 +4079,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H65" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E65*HEX2DEC(1000000) +G65*HEX2DEC(10000) +F65)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I65" t="e">
@@ -4106,11 +4106,11 @@
         <v>14</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P66="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L66&lt;&gt;"",IF(P66="",FLOOR((L66-MIN(L:L))/2,1),FLOOR((L66-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G66" s="1" t="e">
@@ -4118,7 +4118,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H66" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E66*HEX2DEC(1000000) +G66*HEX2DEC(10000) +F66)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I66" t="e">
@@ -4145,11 +4145,11 @@
         <v>15</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P67="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L67&lt;&gt;"",IF(P67="",FLOOR((L67-MIN(L:L))/2,1),FLOOR((L67-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G67" s="1" t="e">
@@ -4157,7 +4157,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H67" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E67*HEX2DEC(1000000) +G67*HEX2DEC(10000) +F67)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I67" t="e">
@@ -4184,11 +4184,11 @@
         <v>16</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P68="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L68&lt;&gt;"",IF(P68="",FLOOR((L68-MIN(L:L))/2,1),FLOOR((L68-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G68" s="1" t="e">
@@ -4196,7 +4196,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H68" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E68*HEX2DEC(1000000) +G68*HEX2DEC(10000) +F68)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I68" t="e">
@@ -4212,7 +4212,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>60</v>
       </c>
@@ -4226,11 +4226,11 @@
         <v>124</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P69="",$B$1,$B$1+1)</f>
         <v>2</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L69&lt;&gt;"",IF(P69="",FLOOR((L69-MIN(L:L))/2,1),FLOOR((L69-$B$6)/2,1)),"")</f>
         <v>544</v>
       </c>
       <c r="G69" s="1">
@@ -4238,11 +4238,11 @@
         <v>0</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E69*HEX2DEC(1000000) +G69*HEX2DEC(10000) +F69)</f>
         <v>2000220</v>
       </c>
       <c r="I69">
-        <f t="shared" ref="I69:I89" si="7">HEX2DEC(H69)</f>
+        <f>HEX2DEC(H69)</f>
         <v>33554976</v>
       </c>
       <c r="K69">
@@ -4250,7 +4250,7 @@
         <v>1051464</v>
       </c>
       <c r="L69">
-        <f t="shared" ref="L69:L89" si="8">IF(J69&lt;&gt;"",J69,K69)</f>
+        <f>IF(J69&lt;&gt;"",J69,K69)</f>
         <v>1051464</v>
       </c>
       <c r="O69" t="s">
@@ -4263,7 +4263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>61</v>
       </c>
@@ -4277,11 +4277,11 @@
         <v>125</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P70="",$B$1,$B$1+1)</f>
         <v>2</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L70&lt;&gt;"",IF(P70="",FLOOR((L70-MIN(L:L))/2,1),FLOOR((L70-$B$6)/2,1)),"")</f>
         <v>612</v>
       </c>
       <c r="G70" s="1">
@@ -4289,11 +4289,11 @@
         <v>0</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E70*HEX2DEC(1000000) +G70*HEX2DEC(10000) +F70)</f>
         <v>2000264</v>
       </c>
       <c r="I70">
-        <f t="shared" si="7"/>
+        <f>HEX2DEC(H70)</f>
         <v>33555044</v>
       </c>
       <c r="K70">
@@ -4301,7 +4301,7 @@
         <v>1051600</v>
       </c>
       <c r="L70">
-        <f t="shared" si="8"/>
+        <f>IF(J70&lt;&gt;"",J70,K70)</f>
         <v>1051600</v>
       </c>
       <c r="O70" t="s">
@@ -4314,7 +4314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>62</v>
       </c>
@@ -4328,11 +4328,11 @@
         <v>126</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P71="",$B$1,$B$1+1)</f>
         <v>2</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L71&lt;&gt;"",IF(P71="",FLOOR((L71-MIN(L:L))/2,1),FLOOR((L71-$B$6)/2,1)),"")</f>
         <v>612</v>
       </c>
       <c r="G71" s="1">
@@ -4340,11 +4340,11 @@
         <v>0</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E71*HEX2DEC(1000000) +G71*HEX2DEC(10000) +F71)</f>
         <v>2000264</v>
       </c>
       <c r="I71">
-        <f t="shared" si="7"/>
+        <f>HEX2DEC(H71)</f>
         <v>33555044</v>
       </c>
       <c r="K71">
@@ -4352,7 +4352,7 @@
         <v>1051600</v>
       </c>
       <c r="L71">
-        <f t="shared" si="8"/>
+        <f>IF(J71&lt;&gt;"",J71,K71)</f>
         <v>1051600</v>
       </c>
       <c r="O71" t="s">
@@ -4367,280 +4367,280 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>63</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>122</v>
+        <v>26</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P72="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="1"/>
-        <v>1585</v>
+        <f>IF(L72&lt;&gt;"",IF(P72="",FLOOR((L72-MIN(L:L))/2,1),FLOOR((L72-$B$6)/2,1)),"")</f>
+        <v>1305</v>
       </c>
       <c r="G72" s="1">
         <f>IF(MOD(L72-$B$5,2)=1,8+M72,M72)</f>
         <v>8</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="2"/>
-        <v>1080631</v>
+        <f>DEC2HEX(E72*HEX2DEC(1000000) +G72*HEX2DEC(10000) +F72)</f>
+        <v>1080519</v>
       </c>
       <c r="I72">
-        <f t="shared" si="7"/>
-        <v>17303089</v>
+        <f>HEX2DEC(H72)</f>
+        <v>17302809</v>
       </c>
       <c r="K72">
         <f>IF(Q72&lt;&gt;"",Q72*136+$B$2,IF(R72&lt;&gt;"",R72*136+$B$2,IF(T72&lt;&gt;"",T72*80+$B$4,"")))</f>
-        <v>524507</v>
+        <v>523947</v>
       </c>
       <c r="L72">
-        <f t="shared" si="8"/>
-        <v>524507</v>
+        <f>IF(J72&lt;&gt;"",J72,K72)</f>
+        <v>523947</v>
       </c>
       <c r="O72" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="S72" t="s">
         <v>38</v>
       </c>
       <c r="T72">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="U72" t="str">
         <f>IF(S72="*",D72&amp;" : INT := "&amp;(T72+1)&amp;";")</f>
-        <v>CSp1 : INT := 23;</v>
+        <v>SfB1 : INT := 16;</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>64</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>97</v>
+        <v>29</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C73">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P73="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="1"/>
-        <v>1145</v>
+        <f>IF(L73&lt;&gt;"",IF(P73="",FLOOR((L73-MIN(L:L))/2,1),FLOOR((L73-$B$6)/2,1)),"")</f>
+        <v>1345</v>
       </c>
       <c r="G73" s="1">
         <f>IF(MOD(L73-$B$5,2)=1,8+M73,M73)</f>
         <v>8</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="2"/>
-        <v>1080479</v>
+        <f>DEC2HEX(E73*HEX2DEC(1000000) +G73*HEX2DEC(10000) +F73)</f>
+        <v>1080541</v>
       </c>
       <c r="I73">
-        <f t="shared" si="7"/>
-        <v>17302649</v>
+        <f>HEX2DEC(H73)</f>
+        <v>17302849</v>
       </c>
       <c r="K73">
         <f>IF(Q73&lt;&gt;"",Q73*136+$B$2,IF(R73&lt;&gt;"",R73*136+$B$2,IF(T73&lt;&gt;"",T73*80+$B$4,"")))</f>
-        <v>523627</v>
+        <v>524027</v>
       </c>
       <c r="L73">
-        <f t="shared" si="8"/>
-        <v>523627</v>
+        <f>IF(J73&lt;&gt;"",J73,K73)</f>
+        <v>524027</v>
       </c>
       <c r="O73" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="S73" t="s">
         <v>38</v>
       </c>
       <c r="T73">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="U73" t="str">
         <f>IF(S73="*",D73&amp;" : INT := "&amp;(T73+1)&amp;";")</f>
-        <v>ASp01 : INT := 12;</v>
+        <v>SfB2 : INT := 17;</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>65</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>97</v>
+        <v>30</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C74">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" ref="E74:E120" si="9">IF(P74="",$B$1,$B$1+1)</f>
+        <f>IF(P74="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" ref="F74:F120" si="10">IF(L74&lt;&gt;"",IF(P74="",FLOOR((L74-MIN(L:L))/2,1),FLOOR((L74-$B$6)/2,1)),"")</f>
-        <v>1185</v>
+        <f>IF(L74&lt;&gt;"",IF(P74="",FLOOR((L74-MIN(L:L))/2,1),FLOOR((L74-$B$6)/2,1)),"")</f>
+        <v>1385</v>
       </c>
       <c r="G74" s="1">
         <f>IF(MOD(L74-$B$5,2)=1,8+M74,M74)</f>
         <v>8</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" ref="H74:H120" si="11">DEC2HEX(E74*HEX2DEC(1000000) +G74*HEX2DEC(10000) +F74)</f>
-        <v>10804A1</v>
+        <f>DEC2HEX(E74*HEX2DEC(1000000) +G74*HEX2DEC(10000) +F74)</f>
+        <v>1080569</v>
       </c>
       <c r="I74">
-        <f t="shared" si="7"/>
-        <v>17302689</v>
+        <f>HEX2DEC(H74)</f>
+        <v>17302889</v>
       </c>
       <c r="K74">
         <f>IF(Q74&lt;&gt;"",Q74*136+$B$2,IF(R74&lt;&gt;"",R74*136+$B$2,IF(T74&lt;&gt;"",T74*80+$B$4,"")))</f>
-        <v>523707</v>
+        <v>524107</v>
       </c>
       <c r="L74">
-        <f t="shared" si="8"/>
-        <v>523707</v>
+        <f>IF(J74&lt;&gt;"",J74,K74)</f>
+        <v>524107</v>
       </c>
       <c r="O74" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="S74" t="s">
         <v>38</v>
       </c>
       <c r="T74">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="U74" t="str">
         <f>IF(S74="*",D74&amp;" : INT := "&amp;(T74+1)&amp;";")</f>
-        <v>ASp02 : INT := 13;</v>
+        <v>SpB1 : INT := 18;</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>66</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>97</v>
+        <v>31</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C75">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P75="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="10"/>
-        <v>1225</v>
+        <f>IF(L75&lt;&gt;"",IF(P75="",FLOOR((L75-MIN(L:L))/2,1),FLOOR((L75-$B$6)/2,1)),"")</f>
+        <v>1425</v>
       </c>
       <c r="G75" s="1">
         <f>IF(MOD(L75-$B$5,2)=1,8+M75,M75)</f>
         <v>8</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="11"/>
-        <v>10804C9</v>
+        <f>DEC2HEX(E75*HEX2DEC(1000000) +G75*HEX2DEC(10000) +F75)</f>
+        <v>1080591</v>
       </c>
       <c r="I75">
-        <f t="shared" si="7"/>
-        <v>17302729</v>
+        <f>HEX2DEC(H75)</f>
+        <v>17302929</v>
       </c>
       <c r="K75">
         <f>IF(Q75&lt;&gt;"",Q75*136+$B$2,IF(R75&lt;&gt;"",R75*136+$B$2,IF(T75&lt;&gt;"",T75*80+$B$4,"")))</f>
-        <v>523787</v>
+        <v>524187</v>
       </c>
       <c r="L75">
-        <f t="shared" si="8"/>
-        <v>523787</v>
+        <f>IF(J75&lt;&gt;"",J75,K75)</f>
+        <v>524187</v>
       </c>
       <c r="O75" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S75" t="s">
         <v>38</v>
       </c>
       <c r="T75">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="U75" t="str">
         <f>IF(S75="*",D75&amp;" : INT := "&amp;(T75+1)&amp;";")</f>
-        <v>ASp03 : INT := 14;</v>
+        <v>SpB2 : INT := 19;</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>67</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C76">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P76="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="10"/>
-        <v>1265</v>
+        <f>IF(L76&lt;&gt;"",IF(P76="",FLOOR((L76-MIN(L:L))/2,1),FLOOR((L76-$B$6)/2,1)),"")</f>
+        <v>1465</v>
       </c>
       <c r="G76" s="1">
         <f>IF(MOD(L76-$B$5,2)=1,8+M76,M76)</f>
         <v>8</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="11"/>
-        <v>10804F1</v>
+        <f>DEC2HEX(E76*HEX2DEC(1000000) +G76*HEX2DEC(10000) +F76)</f>
+        <v>10805B9</v>
       </c>
       <c r="I76">
-        <f t="shared" si="7"/>
-        <v>17302769</v>
+        <f>HEX2DEC(H76)</f>
+        <v>17302969</v>
       </c>
       <c r="K76">
         <f>IF(Q76&lt;&gt;"",Q76*136+$B$2,IF(R76&lt;&gt;"",R76*136+$B$2,IF(T76&lt;&gt;"",T76*80+$B$4,"")))</f>
-        <v>523867</v>
+        <v>524267</v>
       </c>
       <c r="L76">
-        <f t="shared" si="8"/>
-        <v>523867</v>
+        <f>IF(J76&lt;&gt;"",J76,K76)</f>
+        <v>524267</v>
       </c>
       <c r="O76" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="S76" t="s">
         <v>38</v>
       </c>
       <c r="T76">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="U76" t="str">
         <f>IF(S76="*",D76&amp;" : INT := "&amp;(T76+1)&amp;";")</f>
-        <v>ASp04 : INT := 15;</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+        <v>H1 : INT := 20;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>68</v>
       </c>
@@ -4654,11 +4654,11 @@
         <v>101</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P77="",$B$1,$B$1+1)</f>
         <v>2</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(L77&lt;&gt;"",IF(P77="",FLOOR((L77-MIN(L:L))/2,1),FLOOR((L77-$B$6)/2,1)),"")</f>
         <v>204</v>
       </c>
       <c r="G77" s="1">
@@ -4666,11 +4666,11 @@
         <v>0</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E77*HEX2DEC(1000000) +G77*HEX2DEC(10000) +F77)</f>
         <v>20000CC</v>
       </c>
       <c r="I77">
-        <f t="shared" si="7"/>
+        <f>HEX2DEC(H77)</f>
         <v>33554636</v>
       </c>
       <c r="K77">
@@ -4678,7 +4678,7 @@
         <v>1050784</v>
       </c>
       <c r="L77">
-        <f t="shared" si="8"/>
+        <f>IF(J77&lt;&gt;"",J77,K77)</f>
         <v>1050784</v>
       </c>
       <c r="O77" t="s">
@@ -4691,7 +4691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>69</v>
       </c>
@@ -4705,11 +4705,11 @@
         <v>106</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P78="",$B$1,$B$1+1)</f>
         <v>2</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(L78&lt;&gt;"",IF(P78="",FLOOR((L78-MIN(L:L))/2,1),FLOOR((L78-$B$6)/2,1)),"")</f>
         <v>272</v>
       </c>
       <c r="G78" s="1">
@@ -4717,11 +4717,11 @@
         <v>0</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E78*HEX2DEC(1000000) +G78*HEX2DEC(10000) +F78)</f>
         <v>2000110</v>
       </c>
       <c r="I78">
-        <f t="shared" si="7"/>
+        <f>HEX2DEC(H78)</f>
         <v>33554704</v>
       </c>
       <c r="K78">
@@ -4729,7 +4729,7 @@
         <v>1050920</v>
       </c>
       <c r="L78">
-        <f t="shared" si="8"/>
+        <f>IF(J78&lt;&gt;"",J78,K78)</f>
         <v>1050920</v>
       </c>
       <c r="O78" t="s">
@@ -4742,7 +4742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>70</v>
       </c>
@@ -4756,11 +4756,11 @@
         <v>107</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P79="",$B$1,$B$1+1)</f>
         <v>2</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(L79&lt;&gt;"",IF(P79="",FLOOR((L79-MIN(L:L))/2,1),FLOOR((L79-$B$6)/2,1)),"")</f>
         <v>340</v>
       </c>
       <c r="G79" s="1">
@@ -4768,11 +4768,11 @@
         <v>0</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E79*HEX2DEC(1000000) +G79*HEX2DEC(10000) +F79)</f>
         <v>2000154</v>
       </c>
       <c r="I79">
-        <f t="shared" si="7"/>
+        <f>HEX2DEC(H79)</f>
         <v>33554772</v>
       </c>
       <c r="K79">
@@ -4780,7 +4780,7 @@
         <v>1051056</v>
       </c>
       <c r="L79">
-        <f t="shared" si="8"/>
+        <f>IF(J79&lt;&gt;"",J79,K79)</f>
         <v>1051056</v>
       </c>
       <c r="O79" t="s">
@@ -4793,7 +4793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>71</v>
       </c>
@@ -4807,11 +4807,11 @@
         <v>98</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P80="",$B$1,$B$1+1)</f>
         <v>2</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(L80&lt;&gt;"",IF(P80="",FLOOR((L80-MIN(L:L))/2,1),FLOOR((L80-$B$6)/2,1)),"")</f>
         <v>204</v>
       </c>
       <c r="G80" s="1">
@@ -4819,11 +4819,11 @@
         <v>0</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E80*HEX2DEC(1000000) +G80*HEX2DEC(10000) +F80)</f>
         <v>20000CC</v>
       </c>
       <c r="I80">
-        <f t="shared" si="7"/>
+        <f>HEX2DEC(H80)</f>
         <v>33554636</v>
       </c>
       <c r="K80">
@@ -4831,7 +4831,7 @@
         <v>1050784</v>
       </c>
       <c r="L80">
-        <f t="shared" si="8"/>
+        <f>IF(J80&lt;&gt;"",J80,K80)</f>
         <v>1050784</v>
       </c>
       <c r="O80" t="s">
@@ -4844,7 +4844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>72</v>
       </c>
@@ -4858,11 +4858,11 @@
         <v>99</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P81="",$B$1,$B$1+1)</f>
         <v>2</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(L81&lt;&gt;"",IF(P81="",FLOOR((L81-MIN(L:L))/2,1),FLOOR((L81-$B$6)/2,1)),"")</f>
         <v>272</v>
       </c>
       <c r="G81" s="1">
@@ -4870,11 +4870,11 @@
         <v>0</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E81*HEX2DEC(1000000) +G81*HEX2DEC(10000) +F81)</f>
         <v>2000110</v>
       </c>
       <c r="I81">
-        <f t="shared" si="7"/>
+        <f>HEX2DEC(H81)</f>
         <v>33554704</v>
       </c>
       <c r="K81">
@@ -4882,7 +4882,7 @@
         <v>1050920</v>
       </c>
       <c r="L81">
-        <f t="shared" si="8"/>
+        <f>IF(J81&lt;&gt;"",J81,K81)</f>
         <v>1050920</v>
       </c>
       <c r="O81" t="s">
@@ -4895,7 +4895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>73</v>
       </c>
@@ -4909,11 +4909,11 @@
         <v>100</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P82="",$B$1,$B$1+1)</f>
         <v>2</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(L82&lt;&gt;"",IF(P82="",FLOOR((L82-MIN(L:L))/2,1),FLOOR((L82-$B$6)/2,1)),"")</f>
         <v>340</v>
       </c>
       <c r="G82" s="1">
@@ -4921,11 +4921,11 @@
         <v>0</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E82*HEX2DEC(1000000) +G82*HEX2DEC(10000) +F82)</f>
         <v>2000154</v>
       </c>
       <c r="I82">
-        <f t="shared" si="7"/>
+        <f>HEX2DEC(H82)</f>
         <v>33554772</v>
       </c>
       <c r="K82">
@@ -4933,7 +4933,7 @@
         <v>1051056</v>
       </c>
       <c r="L82">
-        <f t="shared" si="8"/>
+        <f>IF(J82&lt;&gt;"",J82,K82)</f>
         <v>1051056</v>
       </c>
       <c r="O82" t="s">
@@ -4946,7 +4946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>74</v>
       </c>
@@ -4960,11 +4960,11 @@
         <v>102</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P83="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(L83&lt;&gt;"",IF(P83="",FLOOR((L83-MIN(L:L))/2,1),FLOOR((L83-$B$6)/2,1)),"")</f>
         <v>1</v>
       </c>
       <c r="G83" s="1">
@@ -4972,11 +4972,11 @@
         <v>12</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E83*HEX2DEC(1000000) +G83*HEX2DEC(10000) +F83)</f>
         <v>10C0001</v>
       </c>
       <c r="I83">
-        <f t="shared" si="7"/>
+        <f>HEX2DEC(H83)</f>
         <v>17563649</v>
       </c>
       <c r="J83">
@@ -4987,7 +4987,7 @@
         <v/>
       </c>
       <c r="L83">
-        <f t="shared" si="8"/>
+        <f>IF(J83&lt;&gt;"",J83,K83)</f>
         <v>521339</v>
       </c>
       <c r="M83">
@@ -4997,7 +4997,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>75</v>
       </c>
@@ -5011,11 +5011,11 @@
         <v>103</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P84="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(L84&lt;&gt;"",IF(P84="",FLOOR((L84-MIN(L:L))/2,1),FLOOR((L84-$B$6)/2,1)),"")</f>
         <v>1</v>
       </c>
       <c r="G84" s="1">
@@ -5023,11 +5023,11 @@
         <v>13</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E84*HEX2DEC(1000000) +G84*HEX2DEC(10000) +F84)</f>
         <v>10D0001</v>
       </c>
       <c r="I84">
-        <f t="shared" si="7"/>
+        <f>HEX2DEC(H84)</f>
         <v>17629185</v>
       </c>
       <c r="J84">
@@ -5038,7 +5038,7 @@
         <v/>
       </c>
       <c r="L84">
-        <f t="shared" si="8"/>
+        <f>IF(J84&lt;&gt;"",J84,K84)</f>
         <v>521339</v>
       </c>
       <c r="M84">
@@ -5048,7 +5048,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>76</v>
       </c>
@@ -5062,11 +5062,11 @@
         <v>104</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P85="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(L85&lt;&gt;"",IF(P85="",FLOOR((L85-MIN(L:L))/2,1),FLOOR((L85-$B$6)/2,1)),"")</f>
         <v>1</v>
       </c>
       <c r="G85" s="1">
@@ -5074,11 +5074,11 @@
         <v>14</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E85*HEX2DEC(1000000) +G85*HEX2DEC(10000) +F85)</f>
         <v>10E0001</v>
       </c>
       <c r="I85">
-        <f t="shared" si="7"/>
+        <f>HEX2DEC(H85)</f>
         <v>17694721</v>
       </c>
       <c r="J85">
@@ -5089,7 +5089,7 @@
         <v/>
       </c>
       <c r="L85">
-        <f t="shared" si="8"/>
+        <f>IF(J85&lt;&gt;"",J85,K85)</f>
         <v>521339</v>
       </c>
       <c r="M85">
@@ -5099,7 +5099,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>77</v>
       </c>
@@ -5113,11 +5113,11 @@
         <v>105</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P86="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(L86&lt;&gt;"",IF(P86="",FLOOR((L86-MIN(L:L))/2,1),FLOOR((L86-$B$6)/2,1)),"")</f>
         <v>1</v>
       </c>
       <c r="G86" s="1">
@@ -5125,11 +5125,11 @@
         <v>15</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E86*HEX2DEC(1000000) +G86*HEX2DEC(10000) +F86)</f>
         <v>10F0001</v>
       </c>
       <c r="I86">
-        <f t="shared" si="7"/>
+        <f>HEX2DEC(H86)</f>
         <v>17760257</v>
       </c>
       <c r="J86">
@@ -5140,14 +5140,14 @@
         <v/>
       </c>
       <c r="L86">
-        <f t="shared" si="8"/>
+        <f>IF(J86&lt;&gt;"",J86,K86)</f>
         <v>521339</v>
       </c>
       <c r="M86">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>78</v>
       </c>
@@ -5161,11 +5161,11 @@
         <v>155</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P87="",$B$1,$B$1+1)</f>
         <v>2</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(L87&lt;&gt;"",IF(P87="",FLOOR((L87-MIN(L:L))/2,1),FLOOR((L87-$B$6)/2,1)),"")</f>
         <v>680</v>
       </c>
       <c r="G87" s="1">
@@ -5173,11 +5173,11 @@
         <v>0</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E87*HEX2DEC(1000000) +G87*HEX2DEC(10000) +F87)</f>
         <v>20002A8</v>
       </c>
       <c r="I87">
-        <f t="shared" si="7"/>
+        <f>HEX2DEC(H87)</f>
         <v>33555112</v>
       </c>
       <c r="K87">
@@ -5185,7 +5185,7 @@
         <v>1051736</v>
       </c>
       <c r="L87">
-        <f t="shared" si="8"/>
+        <f>IF(J87&lt;&gt;"",J87,K87)</f>
         <v>1051736</v>
       </c>
       <c r="O87" t="s">
@@ -5198,7 +5198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>79</v>
       </c>
@@ -5212,11 +5212,11 @@
         <v>156</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P88="",$B$1,$B$1+1)</f>
         <v>2</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(L88&lt;&gt;"",IF(P88="",FLOOR((L88-MIN(L:L))/2,1),FLOOR((L88-$B$6)/2,1)),"")</f>
         <v>680</v>
       </c>
       <c r="G88" s="1">
@@ -5224,11 +5224,11 @@
         <v>0</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E88*HEX2DEC(1000000) +G88*HEX2DEC(10000) +F88)</f>
         <v>20002A8</v>
       </c>
       <c r="I88">
-        <f t="shared" si="7"/>
+        <f>HEX2DEC(H88)</f>
         <v>33555112</v>
       </c>
       <c r="K88">
@@ -5236,7 +5236,7 @@
         <v>1051736</v>
       </c>
       <c r="L88">
-        <f t="shared" si="8"/>
+        <f>IF(J88&lt;&gt;"",J88,K88)</f>
         <v>1051736</v>
       </c>
       <c r="O88" t="s">
@@ -5251,57 +5251,57 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P89="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="10"/>
-        <v>1465</v>
+        <f>IF(L89&lt;&gt;"",IF(P89="",FLOOR((L89-MIN(L:L))/2,1),FLOOR((L89-$B$6)/2,1)),"")</f>
+        <v>1505</v>
       </c>
       <c r="G89" s="1">
         <f>IF(MOD(L89-$B$5,2)=1,8+M89,M89)</f>
         <v>8</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="11"/>
-        <v>10805B9</v>
+        <f>DEC2HEX(E89*HEX2DEC(1000000) +G89*HEX2DEC(10000) +F89)</f>
+        <v>10805E1</v>
       </c>
       <c r="I89">
-        <f t="shared" si="7"/>
-        <v>17302969</v>
+        <f>HEX2DEC(H89)</f>
+        <v>17303009</v>
       </c>
       <c r="K89">
         <f>IF(Q89&lt;&gt;"",Q89*136+$B$2,IF(R89&lt;&gt;"",R89*136+$B$2,IF(T89&lt;&gt;"",T89*80+$B$4,"")))</f>
-        <v>524267</v>
+        <v>524347</v>
       </c>
       <c r="L89">
-        <f t="shared" si="8"/>
-        <v>524267</v>
+        <f>IF(J89&lt;&gt;"",J89,K89)</f>
+        <v>524347</v>
       </c>
       <c r="O89" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="S89" t="s">
         <v>38</v>
       </c>
       <c r="T89">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U89" t="str">
         <f>IF(S89="*",D89&amp;" : INT := "&amp;(T89+1)&amp;";")</f>
-        <v>H1 : INT := 20;</v>
+        <v>H2 : INT := 21;</v>
       </c>
     </row>
     <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -5315,11 +5315,11 @@
         <v>1</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P90="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(L90&lt;&gt;"",IF(P90="",FLOOR((L90-MIN(L:L))/2,1),FLOOR((L90-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G90" s="1" t="e">
@@ -5327,7 +5327,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H90" t="e">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E90*HEX2DEC(1000000) +G90*HEX2DEC(10000) +F90)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I90" t="e">
@@ -5354,11 +5354,11 @@
         <v>2</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P91="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(L91&lt;&gt;"",IF(P91="",FLOOR((L91-MIN(L:L))/2,1),FLOOR((L91-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G91" s="1" t="e">
@@ -5366,7 +5366,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H91" t="e">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E91*HEX2DEC(1000000) +G91*HEX2DEC(10000) +F91)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I91" t="e">
@@ -5393,11 +5393,11 @@
         <v>3</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P92="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(L92&lt;&gt;"",IF(P92="",FLOOR((L92-MIN(L:L))/2,1),FLOOR((L92-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G92" s="1" t="e">
@@ -5405,7 +5405,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H92" t="e">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E92*HEX2DEC(1000000) +G92*HEX2DEC(10000) +F92)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I92" t="e">
@@ -5432,11 +5432,11 @@
         <v>4</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P93="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(L93&lt;&gt;"",IF(P93="",FLOOR((L93-MIN(L:L))/2,1),FLOOR((L93-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G93" s="1" t="e">
@@ -5444,7 +5444,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H93" t="e">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E93*HEX2DEC(1000000) +G93*HEX2DEC(10000) +F93)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I93" t="e">
@@ -5471,11 +5471,11 @@
         <v>5</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P94="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(L94&lt;&gt;"",IF(P94="",FLOOR((L94-MIN(L:L))/2,1),FLOOR((L94-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G94" s="1" t="e">
@@ -5483,7 +5483,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H94" t="e">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E94*HEX2DEC(1000000) +G94*HEX2DEC(10000) +F94)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I94" t="e">
@@ -5510,11 +5510,11 @@
         <v>6</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P95="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(L95&lt;&gt;"",IF(P95="",FLOOR((L95-MIN(L:L))/2,1),FLOOR((L95-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G95" s="1" t="e">
@@ -5522,7 +5522,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H95" t="e">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E95*HEX2DEC(1000000) +G95*HEX2DEC(10000) +F95)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I95" t="e">
@@ -5549,11 +5549,11 @@
         <v>7</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P96="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(L96&lt;&gt;"",IF(P96="",FLOOR((L96-MIN(L:L))/2,1),FLOOR((L96-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G96" s="1" t="e">
@@ -5561,7 +5561,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H96" t="e">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E96*HEX2DEC(1000000) +G96*HEX2DEC(10000) +F96)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I96" t="e">
@@ -5588,11 +5588,11 @@
         <v>8</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P97="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(L97&lt;&gt;"",IF(P97="",FLOOR((L97-MIN(L:L))/2,1),FLOOR((L97-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G97" s="1" t="e">
@@ -5600,7 +5600,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H97" t="e">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E97*HEX2DEC(1000000) +G97*HEX2DEC(10000) +F97)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I97" t="e">
@@ -5616,7 +5616,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>89</v>
       </c>
@@ -5630,11 +5630,11 @@
         <v>83</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P98="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(L98&lt;&gt;"",IF(P98="",FLOOR((L98-MIN(L:L))/2,1),FLOOR((L98-$B$6)/2,1)),"")</f>
         <v/>
       </c>
       <c r="G98" s="1" t="e">
@@ -5642,11 +5642,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H98" t="e">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(E98*HEX2DEC(1000000) +G98*HEX2DEC(10000) +F98)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I98" t="e">
-        <f t="shared" ref="I98:I99" si="12">HEX2DEC(H98)</f>
+        <f>HEX2DEC(H98)</f>
         <v>#VALUE!</v>
       </c>
       <c r="K98" t="str">
@@ -5654,7 +5654,7 @@
         <v/>
       </c>
       <c r="L98" t="str">
-        <f t="shared" ref="L98:L99" si="13">IF(J98&lt;&gt;"",J98,K98)</f>
+        <f>IF(J98&lt;&gt;"",J98,K98)</f>
         <v/>
       </c>
       <c r="M98">
@@ -5663,57 +5663,57 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>90</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>82</v>
+        <v>63</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C99">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" si="9"/>
+        <f>IF(P99="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" si="10"/>
-        <v>1505</v>
+        <f>IF(L99&lt;&gt;"",IF(P99="",FLOOR((L99-MIN(L:L))/2,1),FLOOR((L99-$B$6)/2,1)),"")</f>
+        <v>1585</v>
       </c>
       <c r="G99" s="1">
         <f>IF(MOD(L99-$B$5,2)=1,8+M99,M99)</f>
         <v>8</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="11"/>
-        <v>10805E1</v>
+        <f>DEC2HEX(E99*HEX2DEC(1000000) +G99*HEX2DEC(10000) +F99)</f>
+        <v>1080631</v>
       </c>
       <c r="I99">
-        <f t="shared" si="12"/>
-        <v>17303009</v>
+        <f>HEX2DEC(H99)</f>
+        <v>17303089</v>
       </c>
       <c r="K99">
         <f>IF(Q99&lt;&gt;"",Q99*136+$B$2,IF(R99&lt;&gt;"",R99*136+$B$2,IF(T99&lt;&gt;"",T99*80+$B$4,"")))</f>
-        <v>524347</v>
+        <v>524507</v>
       </c>
       <c r="L99">
-        <f t="shared" si="13"/>
-        <v>524347</v>
+        <f>IF(J99&lt;&gt;"",J99,K99)</f>
+        <v>524507</v>
       </c>
       <c r="O99" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="S99" t="s">
         <v>38</v>
       </c>
       <c r="T99">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U99" t="str">
         <f>IF(S99="*",D99&amp;" : INT := "&amp;(T99+1)&amp;";")</f>
-        <v>H2 : INT := 21;</v>
+        <v>CSp1 : INT := 23;</v>
       </c>
     </row>
     <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -5727,11 +5727,11 @@
         <v>12</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E74:E120" si="0">IF(P100="",$B$1,$B$1+1)</f>
         <v>1</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F74:F120" si="1">IF(L100&lt;&gt;"",IF(P100="",FLOOR((L100-MIN(L:L))/2,1),FLOOR((L100-$B$6)/2,1)),"")</f>
         <v>428</v>
       </c>
       <c r="G100" s="1">
@@ -5739,7 +5739,7 @@
         <v>7</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H74:H120" si="2">DEC2HEX(E100*HEX2DEC(1000000) +G100*HEX2DEC(10000) +F100)</f>
         <v>10701AC</v>
       </c>
       <c r="I100">
@@ -5772,11 +5772,11 @@
         <v>13</v>
       </c>
       <c r="E101" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>428</v>
       </c>
       <c r="G101" s="1">
@@ -5784,7 +5784,7 @@
         <v>8</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>10801AC</v>
       </c>
       <c r="I101">
@@ -5817,11 +5817,11 @@
         <v>14</v>
       </c>
       <c r="E102" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>428</v>
       </c>
       <c r="G102" s="1">
@@ -5829,7 +5829,7 @@
         <v>9</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>10901AC</v>
       </c>
       <c r="I102">
@@ -5862,11 +5862,11 @@
         <v>15</v>
       </c>
       <c r="E103" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G103" s="1" t="e">
@@ -5874,7 +5874,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H103" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I103" t="e">
@@ -5901,11 +5901,11 @@
         <v>16</v>
       </c>
       <c r="E104" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G104" s="1" t="e">
@@ -5913,7 +5913,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H104" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I104" t="e">
@@ -5929,7 +5929,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>96</v>
       </c>
@@ -5943,11 +5943,11 @@
         <v>53</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G105" s="1">
@@ -5955,11 +5955,11 @@
         <v>7</v>
       </c>
       <c r="H105" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>1070000</v>
       </c>
       <c r="I105">
-        <f t="shared" ref="I105:I110" si="14">HEX2DEC(H105)</f>
+        <f t="shared" ref="I105:I110" si="3">HEX2DEC(H105)</f>
         <v>17235968</v>
       </c>
       <c r="J105">
@@ -5970,7 +5970,7 @@
         <v/>
       </c>
       <c r="L105">
-        <f t="shared" ref="L105:L110" si="15">IF(J105&lt;&gt;"",J105,K105)</f>
+        <f t="shared" ref="L105:L110" si="4">IF(J105&lt;&gt;"",J105,K105)</f>
         <v>521336</v>
       </c>
       <c r="M105">
@@ -5980,7 +5980,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>97</v>
       </c>
@@ -5994,11 +5994,11 @@
         <v>54</v>
       </c>
       <c r="E106" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G106" s="1">
@@ -6006,11 +6006,11 @@
         <v>8</v>
       </c>
       <c r="H106" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>1080000</v>
       </c>
       <c r="I106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>17301504</v>
       </c>
       <c r="J106">
@@ -6021,7 +6021,7 @@
         <v/>
       </c>
       <c r="L106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>521337</v>
       </c>
       <c r="M106">
@@ -6031,7 +6031,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>98</v>
       </c>
@@ -6045,11 +6045,11 @@
         <v>48</v>
       </c>
       <c r="E107" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G107" s="1">
@@ -6057,11 +6057,11 @@
         <v>3</v>
       </c>
       <c r="H107" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>1030000</v>
       </c>
       <c r="I107">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>16973824</v>
       </c>
       <c r="J107">
@@ -6072,14 +6072,14 @@
         <v/>
       </c>
       <c r="L107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>521336</v>
       </c>
       <c r="M107">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>99</v>
       </c>
@@ -6093,11 +6093,11 @@
         <v>49</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G108" s="1">
@@ -6105,11 +6105,11 @@
         <v>4</v>
       </c>
       <c r="H108" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>1040000</v>
       </c>
       <c r="I108">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>17039360</v>
       </c>
       <c r="J108">
@@ -6120,14 +6120,14 @@
         <v/>
       </c>
       <c r="L108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>521336</v>
       </c>
       <c r="M108">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>100</v>
       </c>
@@ -6141,11 +6141,11 @@
         <v>94</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G109" s="1" t="e">
@@ -6153,11 +6153,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H109" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I109" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="K109" t="str">
@@ -6165,11 +6165,11 @@
         <v/>
       </c>
       <c r="L109" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>101</v>
       </c>
@@ -6183,11 +6183,11 @@
         <v>95</v>
       </c>
       <c r="E110" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G110" s="1" t="e">
@@ -6195,11 +6195,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H110" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I110" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="K110" t="str">
@@ -6207,7 +6207,7 @@
         <v/>
       </c>
       <c r="L110" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6222,11 +6222,11 @@
         <v>3</v>
       </c>
       <c r="E111" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F111" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G111" s="1" t="e">
@@ -6234,7 +6234,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H111" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I111" t="e">
@@ -6261,11 +6261,11 @@
         <v>4</v>
       </c>
       <c r="E112" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G112" s="1" t="e">
@@ -6273,7 +6273,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H112" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I112" t="e">
@@ -6289,7 +6289,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>104</v>
       </c>
@@ -6303,11 +6303,11 @@
         <v>57</v>
       </c>
       <c r="E113" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F113" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G113" s="1">
@@ -6315,11 +6315,11 @@
         <v>2</v>
       </c>
       <c r="H113" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>1020000</v>
       </c>
       <c r="I113">
-        <f t="shared" ref="I113:I120" si="16">HEX2DEC(H113)</f>
+        <f t="shared" ref="I113:I120" si="5">HEX2DEC(H113)</f>
         <v>16908288</v>
       </c>
       <c r="J113">
@@ -6330,14 +6330,14 @@
         <v/>
       </c>
       <c r="L113">
-        <f t="shared" ref="L113:L120" si="17">IF(J113&lt;&gt;"",J113,K113)</f>
+        <f t="shared" ref="L113:L120" si="6">IF(J113&lt;&gt;"",J113,K113)</f>
         <v>521336</v>
       </c>
       <c r="M113">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>105</v>
       </c>
@@ -6351,11 +6351,11 @@
         <v>50</v>
       </c>
       <c r="E114" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G114" s="1">
@@ -6363,11 +6363,11 @@
         <v>5</v>
       </c>
       <c r="H114" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>1050000</v>
       </c>
       <c r="I114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>17104896</v>
       </c>
       <c r="J114">
@@ -6378,14 +6378,14 @@
         <v/>
       </c>
       <c r="L114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>521336</v>
       </c>
       <c r="M114">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>106</v>
       </c>
@@ -6399,11 +6399,11 @@
         <v>51</v>
       </c>
       <c r="E115" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G115" s="1">
@@ -6411,11 +6411,11 @@
         <v>6</v>
       </c>
       <c r="H115" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>1060000</v>
       </c>
       <c r="I115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>17170432</v>
       </c>
       <c r="J115">
@@ -6426,14 +6426,14 @@
         <v/>
       </c>
       <c r="L115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>521336</v>
       </c>
       <c r="M115">
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>107</v>
       </c>
@@ -6447,11 +6447,11 @@
         <v>58</v>
       </c>
       <c r="E116" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G116" s="1">
@@ -6459,11 +6459,11 @@
         <v>9</v>
       </c>
       <c r="H116" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>1090000</v>
       </c>
       <c r="I116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>17367040</v>
       </c>
       <c r="J116">
@@ -6474,7 +6474,7 @@
         <v/>
       </c>
       <c r="L116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>521337</v>
       </c>
       <c r="M116">
@@ -6484,7 +6484,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>108</v>
       </c>
@@ -6498,11 +6498,11 @@
         <v>70</v>
       </c>
       <c r="E117" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F117" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G117" s="1">
@@ -6510,11 +6510,11 @@
         <v>10</v>
       </c>
       <c r="H117" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>10A0000</v>
       </c>
       <c r="I117">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>17432576</v>
       </c>
       <c r="J117">
@@ -6525,7 +6525,7 @@
         <v/>
       </c>
       <c r="L117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>521337</v>
       </c>
       <c r="M117">
@@ -6535,7 +6535,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>109</v>
       </c>
@@ -6549,11 +6549,11 @@
         <v>55</v>
       </c>
       <c r="E118" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G118" s="1">
@@ -6561,11 +6561,11 @@
         <v>11</v>
       </c>
       <c r="H118" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>10B0000</v>
       </c>
       <c r="I118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>17498112</v>
       </c>
       <c r="J118">
@@ -6576,7 +6576,7 @@
         <v/>
       </c>
       <c r="L118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>521337</v>
       </c>
       <c r="M118">
@@ -6586,7 +6586,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>110</v>
       </c>
@@ -6600,11 +6600,11 @@
         <v>52</v>
       </c>
       <c r="E119" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F119" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G119" s="1">
@@ -6612,11 +6612,11 @@
         <v>12</v>
       </c>
       <c r="H119" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>10C0000</v>
       </c>
       <c r="I119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>17563648</v>
       </c>
       <c r="J119">
@@ -6627,14 +6627,14 @@
         <v/>
       </c>
       <c r="L119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>521337</v>
       </c>
       <c r="M119">
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>111</v>
       </c>
@@ -6648,11 +6648,11 @@
         <v>56</v>
       </c>
       <c r="E120" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F120" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G120" s="1">
@@ -6660,11 +6660,11 @@
         <v>13</v>
       </c>
       <c r="H120" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>10D0000</v>
       </c>
       <c r="I120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>17629184</v>
       </c>
       <c r="J120">
@@ -6675,7 +6675,7 @@
         <v/>
       </c>
       <c r="L120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>521337</v>
       </c>
       <c r="M120">
@@ -6692,8 +6692,13 @@
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <sortState ref="A9:U120">
-      <sortCondition ref="B8:B120"/>
+    <filterColumn colId="18">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState ref="A9:U99">
+      <sortCondition ref="T8:T120"/>
     </sortState>
   </autoFilter>
   <sortState ref="A9:T120">
@@ -6710,8 +6715,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O70" sqref="O70"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/C2B1A1/iotable.xlsx
+++ b/C2B1A1/iotable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47760FBE-5610-4FE0-9988-A7742BA4A528}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7A01B7-B544-4259-AD1E-DC1F82D31593}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1406,8 +1406,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36:K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1439,13 +1439,17 @@
       <c r="B1">
         <v>1</v>
       </c>
+      <c r="J1">
+        <f>K9-B5</f>
+        <v>1759</v>
+      </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
       <c r="B2">
-        <v>1050376</v>
+        <v>521360</v>
       </c>
       <c r="H2">
         <f>QUOTIENT(F9,65535)</f>
@@ -1457,7 +1461,7 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>1050380</v>
+        <v>521364</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -1465,7 +1469,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>522747</v>
+        <v>523095</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -1489,7 +1493,7 @@
       </c>
       <c r="B6">
         <f>MIN(B2:B3)</f>
-        <v>1050376</v>
+        <v>521360</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1566,7 +1570,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1580,12 +1584,12 @@
         <v>11</v>
       </c>
       <c r="E9" s="1">
-        <f>IF(P9="",$B$1,$B$1+1)</f>
+        <f>IF(P9="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f>IF(L9&lt;&gt;"",IF(P9="",FLOOR((L9-MIN(L:L))/2,1),FLOOR((L9-$B$6)/2,1)),"")</f>
-        <v>705</v>
+        <f>IF(L9&lt;&gt;"",FLOOR((L9-MIN(L:L))/2,1),"")</f>
+        <v>879</v>
       </c>
       <c r="G9" s="1">
         <f>IF(MOD(L9-$B$5,2)=1,8+M9,M9)</f>
@@ -1593,19 +1597,19 @@
       </c>
       <c r="H9" t="str">
         <f>DEC2HEX(E9*HEX2DEC(1000000) +G9*HEX2DEC(10000) +F9)</f>
-        <v>10802C1</v>
+        <v>108036F</v>
       </c>
       <c r="I9">
         <f>HEX2DEC(H9)</f>
-        <v>17302209</v>
+        <v>17302383</v>
       </c>
       <c r="K9">
-        <f>IF(Q9&lt;&gt;"",Q9*136+$B$2,IF(R9&lt;&gt;"",R9*136+$B$2,IF(T9&lt;&gt;"",T9*80+$B$4,"")))</f>
-        <v>522747</v>
+        <f>IF(Q9&lt;&gt;"",Q9*116+$B$2,IF(R9&lt;&gt;"",R9*116+$B$2,IF(T9&lt;&gt;"",T9*68+$B$4,"")))</f>
+        <v>523095</v>
       </c>
       <c r="L9">
         <f>IF(J9&lt;&gt;"",J9,K9)</f>
-        <v>522747</v>
+        <v>523095</v>
       </c>
       <c r="O9" t="s">
         <v>245</v>
@@ -1621,7 +1625,7 @@
         <v>H1Red : INT := 1;</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1635,12 +1639,12 @@
         <v>12</v>
       </c>
       <c r="E10" s="1">
-        <f>IF(P10="",$B$1,$B$1+1)</f>
+        <f>IF(P10="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <f>IF(L10&lt;&gt;"",IF(P10="",FLOOR((L10-MIN(L:L))/2,1),FLOOR((L10-$B$6)/2,1)),"")</f>
-        <v>745</v>
+        <f>IF(L10&lt;&gt;"",FLOOR((L10-MIN(L:L))/2,1),"")</f>
+        <v>913</v>
       </c>
       <c r="G10" s="1">
         <f>IF(MOD(L10-$B$5,2)=1,8+M10,M10)</f>
@@ -1648,19 +1652,19 @@
       </c>
       <c r="H10" t="str">
         <f>DEC2HEX(E10*HEX2DEC(1000000) +G10*HEX2DEC(10000) +F10)</f>
-        <v>10802E9</v>
+        <v>1080391</v>
       </c>
       <c r="I10">
-        <f>HEX2DEC(H10)</f>
-        <v>17302249</v>
+        <f t="shared" ref="I10:I13" si="0">HEX2DEC(H10)</f>
+        <v>17302417</v>
       </c>
       <c r="K10">
-        <f>IF(Q10&lt;&gt;"",Q10*136+$B$2,IF(R10&lt;&gt;"",R10*136+$B$2,IF(T10&lt;&gt;"",T10*80+$B$4,"")))</f>
-        <v>522827</v>
+        <f t="shared" ref="K10:K13" si="1">IF(Q10&lt;&gt;"",Q10*116+$B$2,IF(R10&lt;&gt;"",R10*116+$B$2,IF(T10&lt;&gt;"",T10*68+$B$4,"")))</f>
+        <v>523163</v>
       </c>
       <c r="L10">
-        <f>IF(J10&lt;&gt;"",J10,K10)</f>
-        <v>522827</v>
+        <f t="shared" ref="L10:L13" si="2">IF(J10&lt;&gt;"",J10,K10)</f>
+        <v>523163</v>
       </c>
       <c r="O10" t="s">
         <v>246</v>
@@ -1676,7 +1680,7 @@
         <v>H2Green : INT := 2;</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1690,12 +1694,12 @@
         <v>13</v>
       </c>
       <c r="E11" s="1">
-        <f>IF(P11="",$B$1,$B$1+1)</f>
+        <f>IF(P11="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <f>IF(L11&lt;&gt;"",IF(P11="",FLOOR((L11-MIN(L:L))/2,1),FLOOR((L11-$B$6)/2,1)),"")</f>
-        <v>785</v>
+        <f>IF(L11&lt;&gt;"",FLOOR((L11-MIN(L:L))/2,1),"")</f>
+        <v>947</v>
       </c>
       <c r="G11" s="1">
         <f>IF(MOD(L11-$B$5,2)=1,8+M11,M11)</f>
@@ -1703,19 +1707,19 @@
       </c>
       <c r="H11" t="str">
         <f>DEC2HEX(E11*HEX2DEC(1000000) +G11*HEX2DEC(10000) +F11)</f>
-        <v>1080311</v>
+        <v>10803B3</v>
       </c>
       <c r="I11">
-        <f>HEX2DEC(H11)</f>
-        <v>17302289</v>
+        <f t="shared" si="0"/>
+        <v>17302451</v>
       </c>
       <c r="K11">
-        <f>IF(Q11&lt;&gt;"",Q11*136+$B$2,IF(R11&lt;&gt;"",R11*136+$B$2,IF(T11&lt;&gt;"",T11*80+$B$4,"")))</f>
-        <v>522907</v>
+        <f t="shared" si="1"/>
+        <v>523231</v>
       </c>
       <c r="L11">
-        <f>IF(J11&lt;&gt;"",J11,K11)</f>
-        <v>522907</v>
+        <f t="shared" si="2"/>
+        <v>523231</v>
       </c>
       <c r="O11" t="s">
         <v>247</v>
@@ -1731,7 +1735,7 @@
         <v>H3Orange : INT := 3;</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1745,12 +1749,12 @@
         <v>14</v>
       </c>
       <c r="E12" s="1">
-        <f>IF(P12="",$B$1,$B$1+1)</f>
+        <f>IF(P12="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <f>IF(L12&lt;&gt;"",IF(P12="",FLOOR((L12-MIN(L:L))/2,1),FLOOR((L12-$B$6)/2,1)),"")</f>
-        <v>825</v>
+        <f>IF(L12&lt;&gt;"",FLOOR((L12-MIN(L:L))/2,1),"")</f>
+        <v>981</v>
       </c>
       <c r="G12" s="1">
         <f>IF(MOD(L12-$B$5,2)=1,8+M12,M12)</f>
@@ -1758,19 +1762,19 @@
       </c>
       <c r="H12" t="str">
         <f>DEC2HEX(E12*HEX2DEC(1000000) +G12*HEX2DEC(10000) +F12)</f>
-        <v>1080339</v>
+        <v>10803D5</v>
       </c>
       <c r="I12">
-        <f>HEX2DEC(H12)</f>
-        <v>17302329</v>
+        <f t="shared" si="0"/>
+        <v>17302485</v>
       </c>
       <c r="K12">
-        <f>IF(Q12&lt;&gt;"",Q12*136+$B$2,IF(R12&lt;&gt;"",R12*136+$B$2,IF(T12&lt;&gt;"",T12*80+$B$4,"")))</f>
-        <v>522987</v>
+        <f t="shared" si="1"/>
+        <v>523299</v>
       </c>
       <c r="L12">
-        <f>IF(J12&lt;&gt;"",J12,K12)</f>
-        <v>522987</v>
+        <f t="shared" si="2"/>
+        <v>523299</v>
       </c>
       <c r="O12" t="s">
         <v>248</v>
@@ -1786,7 +1790,7 @@
         <v>H4White : INT := 4;</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1800,12 +1804,12 @@
         <v>15</v>
       </c>
       <c r="E13" s="1">
-        <f>IF(P13="",$B$1,$B$1+1)</f>
+        <f>IF(P13="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f>IF(L13&lt;&gt;"",IF(P13="",FLOOR((L13-MIN(L:L))/2,1),FLOOR((L13-$B$6)/2,1)),"")</f>
-        <v>865</v>
+        <f>IF(L13&lt;&gt;"",FLOOR((L13-MIN(L:L))/2,1),"")</f>
+        <v>1015</v>
       </c>
       <c r="G13" s="1">
         <f>IF(MOD(L13-$B$5,2)=1,8+M13,M13)</f>
@@ -1813,19 +1817,19 @@
       </c>
       <c r="H13" t="str">
         <f>DEC2HEX(E13*HEX2DEC(1000000) +G13*HEX2DEC(10000) +F13)</f>
-        <v>1080361</v>
+        <v>10803F7</v>
       </c>
       <c r="I13">
-        <f>HEX2DEC(H13)</f>
-        <v>17302369</v>
+        <f t="shared" si="0"/>
+        <v>17302519</v>
       </c>
       <c r="K13">
-        <f>IF(Q13&lt;&gt;"",Q13*136+$B$2,IF(R13&lt;&gt;"",R13*136+$B$2,IF(T13&lt;&gt;"",T13*80+$B$4,"")))</f>
-        <v>523067</v>
+        <f t="shared" si="1"/>
+        <v>523367</v>
       </c>
       <c r="L13">
-        <f>IF(J13&lt;&gt;"",J13,K13)</f>
-        <v>523067</v>
+        <f t="shared" si="2"/>
+        <v>523367</v>
       </c>
       <c r="O13" t="s">
         <v>249</v>
@@ -1852,11 +1856,11 @@
         <v>6</v>
       </c>
       <c r="E14" s="1">
-        <f>IF(P14="",$B$1,$B$1+1)</f>
+        <f>IF(P14="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF(L14&lt;&gt;"",IF(P14="",FLOOR((L14-MIN(L:L))/2,1),FLOOR((L14-$B$6)/2,1)),"")</f>
+        <f>IF(L14&lt;&gt;"",FLOOR((L14-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G14" s="1" t="e">
@@ -1872,11 +1876,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K14" t="str">
-        <f>IF(Q14&lt;&gt;"",Q14*136+$B$2,IF(R14&lt;&gt;"",R14*136+$B$2,IF(T14&lt;&gt;"",T14*80+$B$4,"")))</f>
+        <f t="shared" ref="K10:K73" si="3">IF(Q14&lt;&gt;"",Q14*116+$B$2,IF(R14&lt;&gt;"",R14*116+$B$2,IF(T14&lt;&gt;"",T14*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L14" t="str">
-        <f>IF(J14&lt;&gt;"",J14,K14)</f>
+        <f t="shared" ref="L10:L73" si="4">IF(J14&lt;&gt;"",J14,K14)</f>
         <v/>
       </c>
     </row>
@@ -1891,11 +1895,11 @@
         <v>7</v>
       </c>
       <c r="E15" s="1">
-        <f>IF(P15="",$B$1,$B$1+1)</f>
+        <f>IF(P15="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF(L15&lt;&gt;"",IF(P15="",FLOOR((L15-MIN(L:L))/2,1),FLOOR((L15-$B$6)/2,1)),"")</f>
+        <f>IF(L15&lt;&gt;"",FLOOR((L15-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G15" s="1" t="e">
@@ -1911,11 +1915,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K15" t="str">
-        <f>IF(Q15&lt;&gt;"",Q15*136+$B$2,IF(R15&lt;&gt;"",R15*136+$B$2,IF(T15&lt;&gt;"",T15*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f>IF(J15&lt;&gt;"",J15,K15)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1930,11 +1934,11 @@
         <v>8</v>
       </c>
       <c r="E16" s="1">
-        <f>IF(P16="",$B$1,$B$1+1)</f>
+        <f>IF(P16="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF(L16&lt;&gt;"",IF(P16="",FLOOR((L16-MIN(L:L))/2,1),FLOOR((L16-$B$6)/2,1)),"")</f>
+        <f>IF(L16&lt;&gt;"",FLOOR((L16-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G16" s="1" t="e">
@@ -1950,11 +1954,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K16" t="str">
-        <f>IF(Q16&lt;&gt;"",Q16*136+$B$2,IF(R16&lt;&gt;"",R16*136+$B$2,IF(T16&lt;&gt;"",T16*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L16" t="str">
-        <f>IF(J16&lt;&gt;"",J16,K16)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1972,11 +1976,11 @@
         <v>71</v>
       </c>
       <c r="E17" s="1">
-        <f>IF(P17="",$B$1,$B$1+1)</f>
+        <f>IF(P17="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF(L17&lt;&gt;"",IF(P17="",FLOOR((L17-MIN(L:L))/2,1),FLOOR((L17-$B$6)/2,1)),"")</f>
+        <f>IF(L17&lt;&gt;"",FLOOR((L17-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G17" s="1" t="e">
@@ -1992,7 +1996,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K17" t="str">
-        <f>IF(Q17&lt;&gt;"",Q17*136+$B$2,IF(R17&lt;&gt;"",R17*136+$B$2,IF(T17&lt;&gt;"",T17*80+$B$4,"")))</f>
+        <f>IF(Q17&lt;&gt;"",Q17*116+$B$2,IF(R17&lt;&gt;"",R17*116+$B$2,IF(T17&lt;&gt;"",T17*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L17" t="str">
@@ -2011,11 +2015,11 @@
         <v>10</v>
       </c>
       <c r="E18" s="1">
-        <f>IF(P18="",$B$1,$B$1+1)</f>
+        <f>IF(P18="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF(L18&lt;&gt;"",IF(P18="",FLOOR((L18-MIN(L:L))/2,1),FLOOR((L18-$B$6)/2,1)),"")</f>
+        <f>IF(L18&lt;&gt;"",FLOOR((L18-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G18" s="1" t="e">
@@ -2031,11 +2035,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K18" t="str">
-        <f>IF(Q18&lt;&gt;"",Q18*136+$B$2,IF(R18&lt;&gt;"",R18*136+$B$2,IF(T18&lt;&gt;"",T18*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L18" t="str">
-        <f>IF(J18&lt;&gt;"",J18,K18)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2050,11 +2054,11 @@
         <v>11</v>
       </c>
       <c r="E19" s="1">
-        <f>IF(P19="",$B$1,$B$1+1)</f>
+        <f>IF(P19="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF(L19&lt;&gt;"",IF(P19="",FLOOR((L19-MIN(L:L))/2,1),FLOOR((L19-$B$6)/2,1)),"")</f>
+        <f>IF(L19&lt;&gt;"",FLOOR((L19-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G19" s="1" t="e">
@@ -2070,11 +2074,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K19" t="str">
-        <f>IF(Q19&lt;&gt;"",Q19*136+$B$2,IF(R19&lt;&gt;"",R19*136+$B$2,IF(T19&lt;&gt;"",T19*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f>IF(J19&lt;&gt;"",J19,K19)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2089,11 +2093,11 @@
         <v>12</v>
       </c>
       <c r="E20" s="1">
-        <f>IF(P20="",$B$1,$B$1+1)</f>
+        <f>IF(P20="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF(L20&lt;&gt;"",IF(P20="",FLOOR((L20-MIN(L:L))/2,1),FLOOR((L20-$B$6)/2,1)),"")</f>
+        <f>IF(L20&lt;&gt;"",FLOOR((L20-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G20" s="1" t="e">
@@ -2109,11 +2113,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K20" t="str">
-        <f>IF(Q20&lt;&gt;"",Q20*136+$B$2,IF(R20&lt;&gt;"",R20*136+$B$2,IF(T20&lt;&gt;"",T20*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L20" t="str">
-        <f>IF(J20&lt;&gt;"",J20,K20)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2128,11 +2132,11 @@
         <v>13</v>
       </c>
       <c r="E21" s="1">
-        <f>IF(P21="",$B$1,$B$1+1)</f>
+        <f>IF(P21="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF(L21&lt;&gt;"",IF(P21="",FLOOR((L21-MIN(L:L))/2,1),FLOOR((L21-$B$6)/2,1)),"")</f>
+        <f>IF(L21&lt;&gt;"",FLOOR((L21-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G21" s="1" t="e">
@@ -2148,11 +2152,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K21" t="str">
-        <f>IF(Q21&lt;&gt;"",Q21*136+$B$2,IF(R21&lt;&gt;"",R21*136+$B$2,IF(T21&lt;&gt;"",T21*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L21" t="str">
-        <f>IF(J21&lt;&gt;"",J21,K21)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2167,11 +2171,11 @@
         <v>14</v>
       </c>
       <c r="E22" s="1">
-        <f>IF(P22="",$B$1,$B$1+1)</f>
+        <f>IF(P22="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF(L22&lt;&gt;"",IF(P22="",FLOOR((L22-MIN(L:L))/2,1),FLOOR((L22-$B$6)/2,1)),"")</f>
+        <f>IF(L22&lt;&gt;"",FLOOR((L22-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G22" s="1" t="e">
@@ -2187,11 +2191,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K22" t="str">
-        <f>IF(Q22&lt;&gt;"",Q22*136+$B$2,IF(R22&lt;&gt;"",R22*136+$B$2,IF(T22&lt;&gt;"",T22*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L22" t="str">
-        <f>IF(J22&lt;&gt;"",J22,K22)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2206,11 +2210,11 @@
         <v>15</v>
       </c>
       <c r="E23" s="1">
-        <f>IF(P23="",$B$1,$B$1+1)</f>
+        <f>IF(P23="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF(L23&lt;&gt;"",IF(P23="",FLOOR((L23-MIN(L:L))/2,1),FLOOR((L23-$B$6)/2,1)),"")</f>
+        <f>IF(L23&lt;&gt;"",FLOOR((L23-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G23" s="1" t="e">
@@ -2226,11 +2230,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K23" t="str">
-        <f>IF(Q23&lt;&gt;"",Q23*136+$B$2,IF(R23&lt;&gt;"",R23*136+$B$2,IF(T23&lt;&gt;"",T23*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L23" t="str">
-        <f>IF(J23&lt;&gt;"",J23,K23)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M23">
@@ -2248,11 +2252,11 @@
         <v>16</v>
       </c>
       <c r="E24" s="1">
-        <f>IF(P24="",$B$1,$B$1+1)</f>
+        <f>IF(P24="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF(L24&lt;&gt;"",IF(P24="",FLOOR((L24-MIN(L:L))/2,1),FLOOR((L24-$B$6)/2,1)),"")</f>
+        <f>IF(L24&lt;&gt;"",FLOOR((L24-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G24" s="1" t="e">
@@ -2268,11 +2272,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K24" t="str">
-        <f>IF(Q24&lt;&gt;"",Q24*136+$B$2,IF(R24&lt;&gt;"",R24*136+$B$2,IF(T24&lt;&gt;"",T24*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L24" t="str">
-        <f>IF(J24&lt;&gt;"",J24,K24)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2287,11 +2291,11 @@
         <v>3</v>
       </c>
       <c r="E25" s="1">
-        <f>IF(P25="",$B$1,$B$1+1)</f>
+        <f>IF(P25="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF(L25&lt;&gt;"",IF(P25="",FLOOR((L25-MIN(L:L))/2,1),FLOOR((L25-$B$6)/2,1)),"")</f>
+        <f>IF(L25&lt;&gt;"",FLOOR((L25-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G25" s="1" t="e">
@@ -2307,11 +2311,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K25" t="str">
-        <f>IF(Q25&lt;&gt;"",Q25*136+$B$2,IF(R25&lt;&gt;"",R25*136+$B$2,IF(T25&lt;&gt;"",T25*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L25" t="str">
-        <f>IF(J25&lt;&gt;"",J25,K25)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2326,11 +2330,11 @@
         <v>4</v>
       </c>
       <c r="E26" s="1">
-        <f>IF(P26="",$B$1,$B$1+1)</f>
+        <f>IF(P26="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF(L26&lt;&gt;"",IF(P26="",FLOOR((L26-MIN(L:L))/2,1),FLOOR((L26-$B$6)/2,1)),"")</f>
+        <f>IF(L26&lt;&gt;"",FLOOR((L26-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G26" s="1" t="e">
@@ -2346,11 +2350,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K26" t="str">
-        <f>IF(Q26&lt;&gt;"",Q26*136+$B$2,IF(R26&lt;&gt;"",R26*136+$B$2,IF(T26&lt;&gt;"",T26*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L26" t="str">
-        <f>IF(J26&lt;&gt;"",J26,K26)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2365,11 +2369,11 @@
         <v>5</v>
       </c>
       <c r="E27" s="1">
-        <f>IF(P27="",$B$1,$B$1+1)</f>
+        <f>IF(P27="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f>IF(L27&lt;&gt;"",IF(P27="",FLOOR((L27-MIN(L:L))/2,1),FLOOR((L27-$B$6)/2,1)),"")</f>
+        <f>IF(L27&lt;&gt;"",FLOOR((L27-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G27" s="1" t="e">
@@ -2385,11 +2389,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K27" t="str">
-        <f>IF(Q27&lt;&gt;"",Q27*136+$B$2,IF(R27&lt;&gt;"",R27*136+$B$2,IF(T27&lt;&gt;"",T27*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L27" t="str">
-        <f>IF(J27&lt;&gt;"",J27,K27)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2404,11 +2408,11 @@
         <v>6</v>
       </c>
       <c r="E28" s="1">
-        <f>IF(P28="",$B$1,$B$1+1)</f>
+        <f>IF(P28="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF(L28&lt;&gt;"",IF(P28="",FLOOR((L28-MIN(L:L))/2,1),FLOOR((L28-$B$6)/2,1)),"")</f>
+        <f>IF(L28&lt;&gt;"",FLOOR((L28-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G28" s="1" t="e">
@@ -2424,11 +2428,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K28" t="str">
-        <f>IF(Q28&lt;&gt;"",Q28*136+$B$2,IF(R28&lt;&gt;"",R28*136+$B$2,IF(T28&lt;&gt;"",T28*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L28" t="str">
-        <f>IF(J28&lt;&gt;"",J28,K28)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2443,11 +2447,11 @@
         <v>7</v>
       </c>
       <c r="E29" s="1">
-        <f>IF(P29="",$B$1,$B$1+1)</f>
+        <f>IF(P29="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF(L29&lt;&gt;"",IF(P29="",FLOOR((L29-MIN(L:L))/2,1),FLOOR((L29-$B$6)/2,1)),"")</f>
+        <f>IF(L29&lt;&gt;"",FLOOR((L29-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G29" s="1" t="e">
@@ -2463,11 +2467,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K29" t="str">
-        <f>IF(Q29&lt;&gt;"",Q29*136+$B$2,IF(R29&lt;&gt;"",R29*136+$B$2,IF(T29&lt;&gt;"",T29*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f>IF(J29&lt;&gt;"",J29,K29)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2482,11 +2486,11 @@
         <v>10</v>
       </c>
       <c r="E30" s="1">
-        <f>IF(P30="",$B$1,$B$1+1)</f>
+        <f>IF(P30="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF(L30&lt;&gt;"",IF(P30="",FLOOR((L30-MIN(L:L))/2,1),FLOOR((L30-$B$6)/2,1)),"")</f>
+        <f>IF(L30&lt;&gt;"",FLOOR((L30-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G30" s="1" t="e">
@@ -2502,11 +2506,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K30" t="str">
-        <f>IF(Q30&lt;&gt;"",Q30*136+$B$2,IF(R30&lt;&gt;"",R30*136+$B$2,IF(T30&lt;&gt;"",T30*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L30" t="str">
-        <f>IF(J30&lt;&gt;"",J30,K30)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2521,11 +2525,11 @@
         <v>13</v>
       </c>
       <c r="E31" s="1">
-        <f>IF(P31="",$B$1,$B$1+1)</f>
+        <f>IF(P31="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF(L31&lt;&gt;"",IF(P31="",FLOOR((L31-MIN(L:L))/2,1),FLOOR((L31-$B$6)/2,1)),"")</f>
+        <f>IF(L31&lt;&gt;"",FLOOR((L31-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G31" s="1" t="e">
@@ -2541,11 +2545,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K31" t="str">
-        <f>IF(Q31&lt;&gt;"",Q31*136+$B$2,IF(R31&lt;&gt;"",R31*136+$B$2,IF(T31&lt;&gt;"",T31*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L31" t="str">
-        <f>IF(J31&lt;&gt;"",J31,K31)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2560,11 +2564,11 @@
         <v>14</v>
       </c>
       <c r="E32" s="1">
-        <f>IF(P32="",$B$1,$B$1+1)</f>
+        <f>IF(P32="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF(L32&lt;&gt;"",IF(P32="",FLOOR((L32-MIN(L:L))/2,1),FLOOR((L32-$B$6)/2,1)),"")</f>
+        <f>IF(L32&lt;&gt;"",FLOOR((L32-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G32" s="1" t="e">
@@ -2580,11 +2584,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K32" t="str">
-        <f>IF(Q32&lt;&gt;"",Q32*136+$B$2,IF(R32&lt;&gt;"",R32*136+$B$2,IF(T32&lt;&gt;"",T32*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L32" t="str">
-        <f>IF(J32&lt;&gt;"",J32,K32)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2599,11 +2603,11 @@
         <v>15</v>
       </c>
       <c r="E33" s="1">
-        <f>IF(P33="",$B$1,$B$1+1)</f>
+        <f>IF(P33="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f>IF(L33&lt;&gt;"",IF(P33="",FLOOR((L33-MIN(L:L))/2,1),FLOOR((L33-$B$6)/2,1)),"")</f>
+        <f>IF(L33&lt;&gt;"",FLOOR((L33-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G33" s="1" t="e">
@@ -2619,11 +2623,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K33" t="str">
-        <f>IF(Q33&lt;&gt;"",Q33*136+$B$2,IF(R33&lt;&gt;"",R33*136+$B$2,IF(T33&lt;&gt;"",T33*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L33" t="str">
-        <f>IF(J33&lt;&gt;"",J33,K33)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2638,11 +2642,11 @@
         <v>16</v>
       </c>
       <c r="E34" s="1">
-        <f>IF(P34="",$B$1,$B$1+1)</f>
+        <f>IF(P34="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f>IF(L34&lt;&gt;"",IF(P34="",FLOOR((L34-MIN(L:L))/2,1),FLOOR((L34-$B$6)/2,1)),"")</f>
+        <f>IF(L34&lt;&gt;"",FLOOR((L34-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G34" s="1" t="e">
@@ -2658,34 +2662,34 @@
         <v>#VALUE!</v>
       </c>
       <c r="K34" t="str">
-        <f>IF(Q34&lt;&gt;"",Q34*136+$B$2,IF(R34&lt;&gt;"",R34*136+$B$2,IF(T34&lt;&gt;"",T34*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L34" t="str">
-        <f>IF(J34&lt;&gt;"",J34,K34)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E35" s="1">
-        <f>IF(P35="",$B$1,$B$1+1)</f>
+        <f>IF(P35="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <f>IF(L35&lt;&gt;"",IF(P35="",FLOOR((L35-MIN(L:L))/2,1),FLOOR((L35-$B$6)/2,1)),"")</f>
-        <v>905</v>
+        <f>IF(L35&lt;&gt;"",FLOOR((L35-MIN(L:L))/2,1),"")</f>
+        <v>1389</v>
       </c>
       <c r="G35" s="1">
         <f>IF(MOD(L35-$B$5,2)=1,8+M35,M35)</f>
@@ -2693,54 +2697,54 @@
       </c>
       <c r="H35" t="str">
         <f>DEC2HEX(E35*HEX2DEC(1000000) +G35*HEX2DEC(10000) +F35)</f>
-        <v>1080389</v>
+        <v>108056D</v>
       </c>
       <c r="I35">
-        <f>HEX2DEC(H35)</f>
-        <v>17302409</v>
+        <f t="shared" ref="I35:I48" si="5">HEX2DEC(H35)</f>
+        <v>17302893</v>
       </c>
       <c r="K35">
-        <f>IF(Q35&lt;&gt;"",Q35*136+$B$2,IF(R35&lt;&gt;"",R35*136+$B$2,IF(T35&lt;&gt;"",T35*80+$B$4,"")))</f>
-        <v>523147</v>
+        <f t="shared" si="3"/>
+        <v>524115</v>
       </c>
       <c r="L35">
-        <f>IF(J35&lt;&gt;"",J35,K35)</f>
-        <v>523147</v>
+        <f t="shared" si="4"/>
+        <v>524115</v>
       </c>
       <c r="O35" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="S35" t="s">
         <v>38</v>
       </c>
       <c r="T35">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U35" t="str">
         <f>IF(S35="*",D35&amp;" : INT := "&amp;(T35+1)&amp;";")</f>
-        <v>SfA01 : INT := 6;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>SfB1 : INT := 16;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>27</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>86</v>
+        <v>36</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E36" s="1">
-        <f>IF(P36="",$B$1,$B$1+1)</f>
-        <v>2</v>
+        <f>IF(P36="",$B$1,$B$1)</f>
+        <v>1</v>
       </c>
       <c r="F36" s="1">
-        <f>IF(L36&lt;&gt;"",IF(P36="",FLOOR((L36-MIN(L:L))/2,1),FLOOR((L36-$B$6)/2,1)),"")</f>
-        <v>408</v>
+        <f>IF(L36&lt;&gt;"",FLOOR((L36-MIN(L:L))/2,1),"")</f>
+        <v>14</v>
       </c>
       <c r="G36" s="1">
         <f>IF(MOD(L36-$B$5,2)=1,8+M36,M36)</f>
@@ -2748,50 +2752,50 @@
       </c>
       <c r="H36" t="str">
         <f>DEC2HEX(E36*HEX2DEC(1000000) +G36*HEX2DEC(10000) +F36)</f>
-        <v>2000198</v>
+        <v>100000E</v>
       </c>
       <c r="I36">
         <f>HEX2DEC(H36)</f>
-        <v>33554840</v>
+        <v>16777230</v>
       </c>
       <c r="K36">
-        <f>IF(Q36&lt;&gt;"",Q36*136+$B$2,IF(R36&lt;&gt;"",R36*136+$B$2,IF(T36&lt;&gt;"",T36*80+$B$4,"")))</f>
-        <v>1051192</v>
+        <f>IF(Q36&lt;&gt;"",Q36*116+$B$2,IF(R36&lt;&gt;"",R36*116+$B$3,IF(T36&lt;&gt;"",T36*68+$B$4,"")))</f>
+        <v>521364</v>
       </c>
       <c r="L36">
         <f>IF(J36&lt;&gt;"",J36,K36)</f>
-        <v>1051192</v>
+        <v>521364</v>
       </c>
       <c r="O36" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P36" t="s">
         <v>38</v>
       </c>
       <c r="R36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>28</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>86</v>
+        <v>37</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E37" s="1">
-        <f>IF(P37="",$B$1,$B$1+1)</f>
-        <v>2</v>
+        <f>IF(P37="",$B$1,$B$1)</f>
+        <v>1</v>
       </c>
       <c r="F37" s="1">
-        <f>IF(L37&lt;&gt;"",IF(P37="",FLOOR((L37-MIN(L:L))/2,1),FLOOR((L37-$B$6)/2,1)),"")</f>
-        <v>476</v>
+        <f>IF(L37&lt;&gt;"",FLOOR((L37-MIN(L:L))/2,1),"")</f>
+        <v>72</v>
       </c>
       <c r="G37" s="1">
         <f>IF(MOD(L37-$B$5,2)=1,8+M37,M37)</f>
@@ -2799,50 +2803,50 @@
       </c>
       <c r="H37" t="str">
         <f>DEC2HEX(E37*HEX2DEC(1000000) +G37*HEX2DEC(10000) +F37)</f>
-        <v>20001DC</v>
+        <v>1000048</v>
       </c>
       <c r="I37">
         <f>HEX2DEC(H37)</f>
-        <v>33554908</v>
+        <v>16777288</v>
       </c>
       <c r="K37">
-        <f>IF(Q37&lt;&gt;"",Q37*136+$B$2,IF(R37&lt;&gt;"",R37*136+$B$2,IF(T37&lt;&gt;"",T37*80+$B$4,"")))</f>
-        <v>1051328</v>
+        <f>IF(Q37&lt;&gt;"",Q37*116+$B$2,IF(R37&lt;&gt;"",R37*116+$B$3,IF(T37&lt;&gt;"",T37*68+$B$4,"")))</f>
+        <v>521480</v>
       </c>
       <c r="L37">
         <f>IF(J37&lt;&gt;"",J37,K37)</f>
-        <v>1051328</v>
+        <v>521480</v>
       </c>
       <c r="O37" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P37" t="s">
         <v>38</v>
       </c>
       <c r="R37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>33</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E38" s="1">
-        <f>IF(P38="",$B$1,$B$1+1)</f>
+        <f>IF(P38="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <f>IF(L38&lt;&gt;"",IF(P38="",FLOOR((L38-MIN(L:L))/2,1),FLOOR((L38-$B$6)/2,1)),"")</f>
-        <v>945</v>
+        <f>IF(L38&lt;&gt;"",FLOOR((L38-MIN(L:L))/2,1),"")</f>
+        <v>1423</v>
       </c>
       <c r="G38" s="1">
         <f>IF(MOD(L38-$B$5,2)=1,8+M38,M38)</f>
@@ -2850,54 +2854,54 @@
       </c>
       <c r="H38" t="str">
         <f>DEC2HEX(E38*HEX2DEC(1000000) +G38*HEX2DEC(10000) +F38)</f>
-        <v>10803B1</v>
+        <v>108058F</v>
       </c>
       <c r="I38">
         <f>HEX2DEC(H38)</f>
-        <v>17302449</v>
+        <v>17302927</v>
       </c>
       <c r="K38">
-        <f>IF(Q38&lt;&gt;"",Q38*136+$B$2,IF(R38&lt;&gt;"",R38*136+$B$2,IF(T38&lt;&gt;"",T38*80+$B$4,"")))</f>
-        <v>523227</v>
+        <f>IF(Q38&lt;&gt;"",Q38*116+$B$2,IF(R38&lt;&gt;"",R38*116+$B$2,IF(T38&lt;&gt;"",T38*68+$B$4,"")))</f>
+        <v>524183</v>
       </c>
       <c r="L38">
         <f>IF(J38&lt;&gt;"",J38,K38)</f>
-        <v>523227</v>
+        <v>524183</v>
       </c>
       <c r="O38" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="S38" t="s">
         <v>38</v>
       </c>
       <c r="T38">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="U38" t="str">
         <f>IF(S38="*",D38&amp;" : INT := "&amp;(T38+1)&amp;";")</f>
-        <v>SfA02 : INT := 7;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+        <v>SfB2 : INT := 17;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>34</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E39" s="1">
-        <f>IF(P39="",$B$1,$B$1+1)</f>
+        <f>IF(P39="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <f>IF(L39&lt;&gt;"",IF(P39="",FLOOR((L39-MIN(L:L))/2,1),FLOOR((L39-$B$6)/2,1)),"")</f>
-        <v>985</v>
+        <f>IF(L39&lt;&gt;"",FLOOR((L39-MIN(L:L))/2,1),"")</f>
+        <v>1457</v>
       </c>
       <c r="G39" s="1">
         <f>IF(MOD(L39-$B$5,2)=1,8+M39,M39)</f>
@@ -2905,54 +2909,54 @@
       </c>
       <c r="H39" t="str">
         <f>DEC2HEX(E39*HEX2DEC(1000000) +G39*HEX2DEC(10000) +F39)</f>
-        <v>10803D9</v>
+        <v>10805B1</v>
       </c>
       <c r="I39">
         <f>HEX2DEC(H39)</f>
-        <v>17302489</v>
+        <v>17302961</v>
       </c>
       <c r="K39">
-        <f>IF(Q39&lt;&gt;"",Q39*136+$B$2,IF(R39&lt;&gt;"",R39*136+$B$2,IF(T39&lt;&gt;"",T39*80+$B$4,"")))</f>
-        <v>523307</v>
+        <f>IF(Q39&lt;&gt;"",Q39*116+$B$2,IF(R39&lt;&gt;"",R39*116+$B$2,IF(T39&lt;&gt;"",T39*68+$B$4,"")))</f>
+        <v>524251</v>
       </c>
       <c r="L39">
         <f>IF(J39&lt;&gt;"",J39,K39)</f>
-        <v>523307</v>
+        <v>524251</v>
       </c>
       <c r="O39" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="S39" t="s">
         <v>38</v>
       </c>
       <c r="T39">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="U39" t="str">
         <f>IF(S39="*",D39&amp;" : INT := "&amp;(T39+1)&amp;";")</f>
-        <v>SfA03 : INT := 8;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+        <v>SpB1 : INT := 18;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>35</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C40">
         <v>9</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E40" s="1">
-        <f>IF(P40="",$B$1,$B$1+1)</f>
+        <f>IF(P40="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <f>IF(L40&lt;&gt;"",IF(P40="",FLOOR((L40-MIN(L:L))/2,1),FLOOR((L40-$B$6)/2,1)),"")</f>
-        <v>1025</v>
+        <f>IF(L40&lt;&gt;"",FLOOR((L40-MIN(L:L))/2,1),"")</f>
+        <v>1491</v>
       </c>
       <c r="G40" s="1">
         <f>IF(MOD(L40-$B$5,2)=1,8+M40,M40)</f>
@@ -2960,54 +2964,54 @@
       </c>
       <c r="H40" t="str">
         <f>DEC2HEX(E40*HEX2DEC(1000000) +G40*HEX2DEC(10000) +F40)</f>
-        <v>1080401</v>
+        <v>10805D3</v>
       </c>
       <c r="I40">
         <f>HEX2DEC(H40)</f>
-        <v>17302529</v>
+        <v>17302995</v>
       </c>
       <c r="K40">
-        <f>IF(Q40&lt;&gt;"",Q40*136+$B$2,IF(R40&lt;&gt;"",R40*136+$B$2,IF(T40&lt;&gt;"",T40*80+$B$4,"")))</f>
-        <v>523387</v>
+        <f>IF(Q40&lt;&gt;"",Q40*116+$B$2,IF(R40&lt;&gt;"",R40*116+$B$2,IF(T40&lt;&gt;"",T40*68+$B$4,"")))</f>
+        <v>524319</v>
       </c>
       <c r="L40">
         <f>IF(J40&lt;&gt;"",J40,K40)</f>
-        <v>523387</v>
+        <v>524319</v>
       </c>
       <c r="O40" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="S40" t="s">
         <v>38</v>
       </c>
       <c r="T40">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="U40" t="str">
         <f>IF(S40="*",D40&amp;" : INT := "&amp;(T40+1)&amp;";")</f>
-        <v>SpA01 : INT := 9;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+        <v>SpB2 : INT := 19;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E41" s="1">
-        <f>IF(P41="",$B$1,$B$1+1)</f>
+        <f>IF(P41="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F41" s="1">
-        <f>IF(L41&lt;&gt;"",IF(P41="",FLOOR((L41-MIN(L:L))/2,1),FLOOR((L41-$B$6)/2,1)),"")</f>
-        <v>1065</v>
+        <f>IF(L41&lt;&gt;"",FLOOR((L41-MIN(L:L))/2,1),"")</f>
+        <v>1049</v>
       </c>
       <c r="G41" s="1">
         <f>IF(MOD(L41-$B$5,2)=1,8+M41,M41)</f>
@@ -3015,54 +3019,54 @@
       </c>
       <c r="H41" t="str">
         <f>DEC2HEX(E41*HEX2DEC(1000000) +G41*HEX2DEC(10000) +F41)</f>
-        <v>1080429</v>
+        <v>1080419</v>
       </c>
       <c r="I41">
         <f>HEX2DEC(H41)</f>
-        <v>17302569</v>
+        <v>17302553</v>
       </c>
       <c r="K41">
-        <f>IF(Q41&lt;&gt;"",Q41*136+$B$2,IF(R41&lt;&gt;"",R41*136+$B$2,IF(T41&lt;&gt;"",T41*80+$B$4,"")))</f>
-        <v>523467</v>
+        <f>IF(Q41&lt;&gt;"",Q41*116+$B$2,IF(R41&lt;&gt;"",R41*116+$B$2,IF(T41&lt;&gt;"",T41*68+$B$4,"")))</f>
+        <v>523435</v>
       </c>
       <c r="L41">
         <f>IF(J41&lt;&gt;"",J41,K41)</f>
-        <v>523467</v>
+        <v>523435</v>
       </c>
       <c r="O41" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="S41" t="s">
         <v>38</v>
       </c>
       <c r="T41">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U41" t="str">
         <f>IF(S41="*",D41&amp;" : INT := "&amp;(T41+1)&amp;";")</f>
-        <v>SpA02 : INT := 10;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+        <v>SfA01 : INT := 6;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E42" s="1">
-        <f>IF(P42="",$B$1,$B$1+1)</f>
+        <f>IF(P42="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <f>IF(L42&lt;&gt;"",IF(P42="",FLOOR((L42-MIN(L:L))/2,1),FLOOR((L42-$B$6)/2,1)),"")</f>
-        <v>1105</v>
+        <f>IF(L42&lt;&gt;"",FLOOR((L42-MIN(L:L))/2,1),"")</f>
+        <v>1083</v>
       </c>
       <c r="G42" s="1">
         <f>IF(MOD(L42-$B$5,2)=1,8+M42,M42)</f>
@@ -3070,54 +3074,54 @@
       </c>
       <c r="H42" t="str">
         <f>DEC2HEX(E42*HEX2DEC(1000000) +G42*HEX2DEC(10000) +F42)</f>
-        <v>1080451</v>
+        <v>108043B</v>
       </c>
       <c r="I42">
         <f>HEX2DEC(H42)</f>
-        <v>17302609</v>
+        <v>17302587</v>
       </c>
       <c r="K42">
-        <f>IF(Q42&lt;&gt;"",Q42*136+$B$2,IF(R42&lt;&gt;"",R42*136+$B$2,IF(T42&lt;&gt;"",T42*80+$B$4,"")))</f>
-        <v>523547</v>
+        <f>IF(Q42&lt;&gt;"",Q42*116+$B$2,IF(R42&lt;&gt;"",R42*116+$B$2,IF(T42&lt;&gt;"",T42*68+$B$4,"")))</f>
+        <v>523503</v>
       </c>
       <c r="L42">
         <f>IF(J42&lt;&gt;"",J42,K42)</f>
-        <v>523547</v>
+        <v>523503</v>
       </c>
       <c r="O42" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="S42" t="s">
         <v>38</v>
       </c>
       <c r="T42">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U42" t="str">
         <f>IF(S42="*",D42&amp;" : INT := "&amp;(T42+1)&amp;";")</f>
-        <v>SpA03 : INT := 11;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+        <v>SfA02 : INT := 7;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>64</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>97</v>
+        <v>34</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C43">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="E43" s="1">
-        <f>IF(P43="",$B$1,$B$1+1)</f>
+        <f>IF(P43="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <f>IF(L43&lt;&gt;"",IF(P43="",FLOOR((L43-MIN(L:L))/2,1),FLOOR((L43-$B$6)/2,1)),"")</f>
-        <v>1145</v>
+        <f>IF(L43&lt;&gt;"",FLOOR((L43-MIN(L:L))/2,1),"")</f>
+        <v>1117</v>
       </c>
       <c r="G43" s="1">
         <f>IF(MOD(L43-$B$5,2)=1,8+M43,M43)</f>
@@ -3125,54 +3129,54 @@
       </c>
       <c r="H43" t="str">
         <f>DEC2HEX(E43*HEX2DEC(1000000) +G43*HEX2DEC(10000) +F43)</f>
-        <v>1080479</v>
+        <v>108045D</v>
       </c>
       <c r="I43">
         <f>HEX2DEC(H43)</f>
-        <v>17302649</v>
+        <v>17302621</v>
       </c>
       <c r="K43">
-        <f>IF(Q43&lt;&gt;"",Q43*136+$B$2,IF(R43&lt;&gt;"",R43*136+$B$2,IF(T43&lt;&gt;"",T43*80+$B$4,"")))</f>
-        <v>523627</v>
+        <f>IF(Q43&lt;&gt;"",Q43*116+$B$2,IF(R43&lt;&gt;"",R43*116+$B$2,IF(T43&lt;&gt;"",T43*68+$B$4,"")))</f>
+        <v>523571</v>
       </c>
       <c r="L43">
         <f>IF(J43&lt;&gt;"",J43,K43)</f>
-        <v>523627</v>
+        <v>523571</v>
       </c>
       <c r="O43" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="S43" t="s">
         <v>38</v>
       </c>
       <c r="T43">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U43" t="str">
         <f>IF(S43="*",D43&amp;" : INT := "&amp;(T43+1)&amp;";")</f>
-        <v>ASp01 : INT := 12;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+        <v>SfA03 : INT := 8;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>65</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>97</v>
+        <v>35</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="E44" s="1">
-        <f>IF(P44="",$B$1,$B$1+1)</f>
+        <f>IF(P44="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <f>IF(L44&lt;&gt;"",IF(P44="",FLOOR((L44-MIN(L:L))/2,1),FLOOR((L44-$B$6)/2,1)),"")</f>
-        <v>1185</v>
+        <f>IF(L44&lt;&gt;"",FLOOR((L44-MIN(L:L))/2,1),"")</f>
+        <v>1151</v>
       </c>
       <c r="G44" s="1">
         <f>IF(MOD(L44-$B$5,2)=1,8+M44,M44)</f>
@@ -3180,54 +3184,54 @@
       </c>
       <c r="H44" t="str">
         <f>DEC2HEX(E44*HEX2DEC(1000000) +G44*HEX2DEC(10000) +F44)</f>
-        <v>10804A1</v>
+        <v>108047F</v>
       </c>
       <c r="I44">
         <f>HEX2DEC(H44)</f>
-        <v>17302689</v>
+        <v>17302655</v>
       </c>
       <c r="K44">
-        <f>IF(Q44&lt;&gt;"",Q44*136+$B$2,IF(R44&lt;&gt;"",R44*136+$B$2,IF(T44&lt;&gt;"",T44*80+$B$4,"")))</f>
-        <v>523707</v>
+        <f>IF(Q44&lt;&gt;"",Q44*116+$B$2,IF(R44&lt;&gt;"",R44*116+$B$2,IF(T44&lt;&gt;"",T44*68+$B$4,"")))</f>
+        <v>523639</v>
       </c>
       <c r="L44">
         <f>IF(J44&lt;&gt;"",J44,K44)</f>
-        <v>523707</v>
+        <v>523639</v>
       </c>
       <c r="O44" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="S44" t="s">
         <v>38</v>
       </c>
       <c r="T44">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="U44" t="str">
         <f>IF(S44="*",D44&amp;" : INT := "&amp;(T44+1)&amp;";")</f>
-        <v>ASp02 : INT := 13;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>SpA01 : INT := 9;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C45">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E45" s="1">
-        <f>IF(P45="",$B$1,$B$1+1)</f>
-        <v>2</v>
+        <f>IF(P45="",$B$1,$B$1)</f>
+        <v>1</v>
       </c>
       <c r="F45" s="1">
-        <f>IF(L45&lt;&gt;"",IF(P45="",FLOOR((L45-MIN(L:L))/2,1),FLOOR((L45-$B$6)/2,1)),"")</f>
-        <v>0</v>
+        <f>IF(L45&lt;&gt;"",FLOOR((L45-MIN(L:L))/2,1),"")</f>
+        <v>130</v>
       </c>
       <c r="G45" s="1">
         <f>IF(MOD(L45-$B$5,2)=1,8+M45,M45)</f>
@@ -3235,50 +3239,50 @@
       </c>
       <c r="H45" t="str">
         <f>DEC2HEX(E45*HEX2DEC(1000000) +G45*HEX2DEC(10000) +F45)</f>
-        <v>2000000</v>
+        <v>1000082</v>
       </c>
       <c r="I45">
         <f>HEX2DEC(H45)</f>
-        <v>33554432</v>
+        <v>16777346</v>
       </c>
       <c r="K45">
-        <f>IF(Q45&lt;&gt;"",Q45*136+$B$2,IF(R45&lt;&gt;"",R45*136+$B$2,IF(T45&lt;&gt;"",T45*80+$B$4,"")))</f>
-        <v>1050376</v>
+        <f t="shared" ref="K45:K46" si="6">IF(Q45&lt;&gt;"",Q45*116+$B$2,IF(R45&lt;&gt;"",R45*116+$B$3,IF(T45&lt;&gt;"",T45*68+$B$4,"")))</f>
+        <v>521596</v>
       </c>
       <c r="L45">
         <f>IF(J45&lt;&gt;"",J45,K45)</f>
-        <v>1050376</v>
+        <v>521596</v>
       </c>
       <c r="O45" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P45" t="s">
         <v>38</v>
       </c>
       <c r="R45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>37</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>9</v>
+        <v>68</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C46">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E46" s="1">
-        <f>IF(P46="",$B$1,$B$1+1)</f>
-        <v>2</v>
+        <f>IF(P46="",$B$1,$B$1)</f>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
-        <f>IF(L46&lt;&gt;"",IF(P46="",FLOOR((L46-MIN(L:L))/2,1),FLOOR((L46-$B$6)/2,1)),"")</f>
-        <v>68</v>
+        <f>IF(L46&lt;&gt;"",FLOOR((L46-MIN(L:L))/2,1),"")</f>
+        <v>188</v>
       </c>
       <c r="G46" s="1">
         <f>IF(MOD(L46-$B$5,2)=1,8+M46,M46)</f>
@@ -3286,50 +3290,50 @@
       </c>
       <c r="H46" t="str">
         <f>DEC2HEX(E46*HEX2DEC(1000000) +G46*HEX2DEC(10000) +F46)</f>
-        <v>2000044</v>
+        <v>10000BC</v>
       </c>
       <c r="I46">
         <f>HEX2DEC(H46)</f>
-        <v>33554500</v>
+        <v>16777404</v>
       </c>
       <c r="K46">
-        <f>IF(Q46&lt;&gt;"",Q46*136+$B$2,IF(R46&lt;&gt;"",R46*136+$B$2,IF(T46&lt;&gt;"",T46*80+$B$4,"")))</f>
-        <v>1050512</v>
+        <f t="shared" si="6"/>
+        <v>521712</v>
       </c>
       <c r="L46">
         <f>IF(J46&lt;&gt;"",J46,K46)</f>
-        <v>1050512</v>
+        <v>521712</v>
       </c>
       <c r="O46" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P46" t="s">
         <v>38</v>
       </c>
       <c r="R46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>66</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>97</v>
+        <v>38</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="E47" s="1">
-        <f>IF(P47="",$B$1,$B$1+1)</f>
+        <f>IF(P47="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F47" s="1">
-        <f>IF(L47&lt;&gt;"",IF(P47="",FLOOR((L47-MIN(L:L))/2,1),FLOOR((L47-$B$6)/2,1)),"")</f>
-        <v>1225</v>
+        <f>IF(L47&lt;&gt;"",FLOOR((L47-MIN(L:L))/2,1),"")</f>
+        <v>1185</v>
       </c>
       <c r="G47" s="1">
         <f>IF(MOD(L47-$B$5,2)=1,8+M47,M47)</f>
@@ -3337,54 +3341,54 @@
       </c>
       <c r="H47" t="str">
         <f>DEC2HEX(E47*HEX2DEC(1000000) +G47*HEX2DEC(10000) +F47)</f>
-        <v>10804C9</v>
+        <v>10804A1</v>
       </c>
       <c r="I47">
         <f>HEX2DEC(H47)</f>
-        <v>17302729</v>
+        <v>17302689</v>
       </c>
       <c r="K47">
-        <f>IF(Q47&lt;&gt;"",Q47*136+$B$2,IF(R47&lt;&gt;"",R47*136+$B$2,IF(T47&lt;&gt;"",T47*80+$B$4,"")))</f>
-        <v>523787</v>
+        <f>IF(Q47&lt;&gt;"",Q47*116+$B$2,IF(R47&lt;&gt;"",R47*116+$B$2,IF(T47&lt;&gt;"",T47*68+$B$4,"")))</f>
+        <v>523707</v>
       </c>
       <c r="L47">
         <f>IF(J47&lt;&gt;"",J47,K47)</f>
-        <v>523787</v>
+        <v>523707</v>
       </c>
       <c r="O47" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="S47" t="s">
         <v>38</v>
       </c>
       <c r="T47">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="U47" t="str">
         <f>IF(S47="*",D47&amp;" : INT := "&amp;(T47+1)&amp;";")</f>
-        <v>ASp03 : INT := 14;</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+        <v>SpA02 : INT := 10;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>67</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>97</v>
+        <v>39</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E48" s="1">
-        <f>IF(P48="",$B$1,$B$1+1)</f>
+        <f>IF(P48="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F48" s="1">
-        <f>IF(L48&lt;&gt;"",IF(P48="",FLOOR((L48-MIN(L:L))/2,1),FLOOR((L48-$B$6)/2,1)),"")</f>
-        <v>1265</v>
+        <f>IF(L48&lt;&gt;"",FLOOR((L48-MIN(L:L))/2,1),"")</f>
+        <v>1219</v>
       </c>
       <c r="G48" s="1">
         <f>IF(MOD(L48-$B$5,2)=1,8+M48,M48)</f>
@@ -3392,32 +3396,32 @@
       </c>
       <c r="H48" t="str">
         <f>DEC2HEX(E48*HEX2DEC(1000000) +G48*HEX2DEC(10000) +F48)</f>
-        <v>10804F1</v>
+        <v>10804C3</v>
       </c>
       <c r="I48">
         <f>HEX2DEC(H48)</f>
-        <v>17302769</v>
+        <v>17302723</v>
       </c>
       <c r="K48">
-        <f>IF(Q48&lt;&gt;"",Q48*136+$B$2,IF(R48&lt;&gt;"",R48*136+$B$2,IF(T48&lt;&gt;"",T48*80+$B$4,"")))</f>
-        <v>523867</v>
+        <f>IF(Q48&lt;&gt;"",Q48*116+$B$2,IF(R48&lt;&gt;"",R48*116+$B$2,IF(T48&lt;&gt;"",T48*68+$B$4,"")))</f>
+        <v>523775</v>
       </c>
       <c r="L48">
         <f>IF(J48&lt;&gt;"",J48,K48)</f>
-        <v>523867</v>
+        <v>523775</v>
       </c>
       <c r="O48" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="S48" t="s">
         <v>38</v>
       </c>
       <c r="T48">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U48" t="str">
         <f>IF(S48="*",D48&amp;" : INT := "&amp;(T48+1)&amp;";")</f>
-        <v>ASp04 : INT := 15;</v>
+        <v>SpA03 : INT := 11;</v>
       </c>
     </row>
     <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -3431,11 +3435,11 @@
         <v>4</v>
       </c>
       <c r="E49" s="1">
-        <f>IF(P49="",$B$1,$B$1+1)</f>
+        <f>IF(P49="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f>IF(L49&lt;&gt;"",IF(P49="",FLOOR((L49-MIN(L:L))/2,1),FLOOR((L49-$B$6)/2,1)),"")</f>
+        <f>IF(L49&lt;&gt;"",FLOOR((L49-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G49" s="1" t="e">
@@ -3451,7 +3455,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K49" t="str">
-        <f>IF(Q49&lt;&gt;"",Q49*136+$B$2,IF(R49&lt;&gt;"",R49*136+$B$2,IF(T49&lt;&gt;"",T49*80+$B$4,"")))</f>
+        <f>IF(Q49&lt;&gt;"",Q49*116+$B$2,IF(R49&lt;&gt;"",R49*116+$B$2,IF(T49&lt;&gt;"",T49*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L49" t="str">
@@ -3470,11 +3474,11 @@
         <v>5</v>
       </c>
       <c r="E50" s="1">
-        <f>IF(P50="",$B$1,$B$1+1)</f>
+        <f>IF(P50="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f>IF(L50&lt;&gt;"",IF(P50="",FLOOR((L50-MIN(L:L))/2,1),FLOOR((L50-$B$6)/2,1)),"")</f>
+        <f>IF(L50&lt;&gt;"",FLOOR((L50-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G50" s="1" t="e">
@@ -3490,7 +3494,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K50" t="str">
-        <f>IF(Q50&lt;&gt;"",Q50*136+$B$2,IF(R50&lt;&gt;"",R50*136+$B$2,IF(T50&lt;&gt;"",T50*80+$B$4,"")))</f>
+        <f>IF(Q50&lt;&gt;"",Q50*116+$B$2,IF(R50&lt;&gt;"",R50*116+$B$2,IF(T50&lt;&gt;"",T50*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L50" t="str">
@@ -3509,11 +3513,11 @@
         <v>6</v>
       </c>
       <c r="E51" s="1">
-        <f>IF(P51="",$B$1,$B$1+1)</f>
+        <f>IF(P51="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f>IF(L51&lt;&gt;"",IF(P51="",FLOOR((L51-MIN(L:L))/2,1),FLOOR((L51-$B$6)/2,1)),"")</f>
+        <f>IF(L51&lt;&gt;"",FLOOR((L51-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G51" s="1" t="e">
@@ -3529,7 +3533,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K51" t="str">
-        <f>IF(Q51&lt;&gt;"",Q51*136+$B$2,IF(R51&lt;&gt;"",R51*136+$B$2,IF(T51&lt;&gt;"",T51*80+$B$4,"")))</f>
+        <f>IF(Q51&lt;&gt;"",Q51*116+$B$2,IF(R51&lt;&gt;"",R51*116+$B$2,IF(T51&lt;&gt;"",T51*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L51" t="str">
@@ -3548,11 +3552,11 @@
         <v>7</v>
       </c>
       <c r="E52" s="1">
-        <f>IF(P52="",$B$1,$B$1+1)</f>
+        <f>IF(P52="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f>IF(L52&lt;&gt;"",IF(P52="",FLOOR((L52-MIN(L:L))/2,1),FLOOR((L52-$B$6)/2,1)),"")</f>
+        <f>IF(L52&lt;&gt;"",FLOOR((L52-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G52" s="1" t="e">
@@ -3568,7 +3572,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K52" t="str">
-        <f>IF(Q52&lt;&gt;"",Q52*136+$B$2,IF(R52&lt;&gt;"",R52*136+$B$2,IF(T52&lt;&gt;"",T52*80+$B$4,"")))</f>
+        <f>IF(Q52&lt;&gt;"",Q52*116+$B$2,IF(R52&lt;&gt;"",R52*116+$B$2,IF(T52&lt;&gt;"",T52*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L52" t="str">
@@ -3587,11 +3591,11 @@
         <v>8</v>
       </c>
       <c r="E53" s="1">
-        <f>IF(P53="",$B$1,$B$1+1)</f>
+        <f>IF(P53="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f>IF(L53&lt;&gt;"",IF(P53="",FLOOR((L53-MIN(L:L))/2,1),FLOOR((L53-$B$6)/2,1)),"")</f>
+        <f>IF(L53&lt;&gt;"",FLOOR((L53-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G53" s="1" t="e">
@@ -3607,7 +3611,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K53" t="str">
-        <f>IF(Q53&lt;&gt;"",Q53*136+$B$2,IF(R53&lt;&gt;"",R53*136+$B$2,IF(T53&lt;&gt;"",T53*80+$B$4,"")))</f>
+        <f>IF(Q53&lt;&gt;"",Q53*116+$B$2,IF(R53&lt;&gt;"",R53*116+$B$2,IF(T53&lt;&gt;"",T53*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L53" t="str">
@@ -3615,26 +3619,26 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>45</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>9</v>
+        <v>69</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C54">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="E54" s="1">
-        <f>IF(P54="",$B$1,$B$1+1)</f>
-        <v>2</v>
+        <f>IF(P54="",$B$1,$B$1)</f>
+        <v>1</v>
       </c>
       <c r="F54" s="1">
-        <f>IF(L54&lt;&gt;"",IF(P54="",FLOOR((L54-MIN(L:L))/2,1),FLOOR((L54-$B$6)/2,1)),"")</f>
-        <v>136</v>
+        <f>IF(L54&lt;&gt;"",FLOOR((L54-MIN(L:L))/2,1),"")</f>
+        <v>246</v>
       </c>
       <c r="G54" s="1">
         <f>IF(MOD(L54-$B$5,2)=1,8+M54,M54)</f>
@@ -3642,28 +3646,28 @@
       </c>
       <c r="H54" t="str">
         <f>DEC2HEX(E54*HEX2DEC(1000000) +G54*HEX2DEC(10000) +F54)</f>
-        <v>2000088</v>
+        <v>10000F6</v>
       </c>
       <c r="I54">
         <f>HEX2DEC(H54)</f>
-        <v>33554568</v>
+        <v>16777462</v>
       </c>
       <c r="K54">
-        <f>IF(Q54&lt;&gt;"",Q54*136+$B$2,IF(R54&lt;&gt;"",R54*136+$B$2,IF(T54&lt;&gt;"",T54*80+$B$4,"")))</f>
-        <v>1050648</v>
+        <f>IF(Q54&lt;&gt;"",Q54*116+$B$2,IF(R54&lt;&gt;"",R54*116+$B$3,IF(T54&lt;&gt;"",T54*68+$B$4,"")))</f>
+        <v>521828</v>
       </c>
       <c r="L54">
         <f>IF(J54&lt;&gt;"",J54,K54)</f>
-        <v>1050648</v>
+        <v>521828</v>
       </c>
       <c r="O54" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P54" t="s">
         <v>38</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -3677,11 +3681,11 @@
         <v>15</v>
       </c>
       <c r="E55" s="1">
-        <f>IF(P55="",$B$1,$B$1+1)</f>
+        <f>IF(P55="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f>IF(L55&lt;&gt;"",IF(P55="",FLOOR((L55-MIN(L:L))/2,1),FLOOR((L55-$B$6)/2,1)),"")</f>
+        <f>IF(L55&lt;&gt;"",FLOOR((L55-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G55" s="1" t="e">
@@ -3697,7 +3701,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K55" t="str">
-        <f>IF(Q55&lt;&gt;"",Q55*136+$B$2,IF(R55&lt;&gt;"",R55*136+$B$2,IF(T55&lt;&gt;"",T55*80+$B$4,"")))</f>
+        <f>IF(Q55&lt;&gt;"",Q55*116+$B$2,IF(R55&lt;&gt;"",R55*116+$B$2,IF(T55&lt;&gt;"",T55*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L55" t="str">
@@ -3716,11 +3720,11 @@
         <v>16</v>
       </c>
       <c r="E56" s="1">
-        <f>IF(P56="",$B$1,$B$1+1)</f>
+        <f>IF(P56="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f>IF(L56&lt;&gt;"",IF(P56="",FLOOR((L56-MIN(L:L))/2,1),FLOOR((L56-$B$6)/2,1)),"")</f>
+        <f>IF(L56&lt;&gt;"",FLOOR((L56-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G56" s="1" t="e">
@@ -3736,7 +3740,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K56" t="str">
-        <f>IF(Q56&lt;&gt;"",Q56*136+$B$2,IF(R56&lt;&gt;"",R56*136+$B$2,IF(T56&lt;&gt;"",T56*80+$B$4,"")))</f>
+        <f>IF(Q56&lt;&gt;"",Q56*116+$B$2,IF(R56&lt;&gt;"",R56*116+$B$2,IF(T56&lt;&gt;"",T56*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L56" t="str">
@@ -3755,11 +3759,11 @@
         <v>5</v>
       </c>
       <c r="E57" s="1">
-        <f>IF(P57="",$B$1,$B$1+1)</f>
+        <f>IF(P57="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f>IF(L57&lt;&gt;"",IF(P57="",FLOOR((L57-MIN(L:L))/2,1),FLOOR((L57-$B$6)/2,1)),"")</f>
+        <f>IF(L57&lt;&gt;"",FLOOR((L57-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G57" s="1" t="e">
@@ -3775,7 +3779,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K57" t="str">
-        <f>IF(Q57&lt;&gt;"",Q57*136+$B$2,IF(R57&lt;&gt;"",R57*136+$B$2,IF(T57&lt;&gt;"",T57*80+$B$4,"")))</f>
+        <f>IF(Q57&lt;&gt;"",Q57*116+$B$2,IF(R57&lt;&gt;"",R57*116+$B$2,IF(T57&lt;&gt;"",T57*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L57" t="str">
@@ -3794,11 +3798,11 @@
         <v>6</v>
       </c>
       <c r="E58" s="1">
-        <f>IF(P58="",$B$1,$B$1+1)</f>
+        <f>IF(P58="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f>IF(L58&lt;&gt;"",IF(P58="",FLOOR((L58-MIN(L:L))/2,1),FLOOR((L58-$B$6)/2,1)),"")</f>
+        <f>IF(L58&lt;&gt;"",FLOOR((L58-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G58" s="1" t="e">
@@ -3814,7 +3818,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K58" t="str">
-        <f>IF(Q58&lt;&gt;"",Q58*136+$B$2,IF(R58&lt;&gt;"",R58*136+$B$2,IF(T58&lt;&gt;"",T58*80+$B$4,"")))</f>
+        <f>IF(Q58&lt;&gt;"",Q58*116+$B$2,IF(R58&lt;&gt;"",R58*116+$B$2,IF(T58&lt;&gt;"",T58*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L58" t="str">
@@ -3833,11 +3837,11 @@
         <v>7</v>
       </c>
       <c r="E59" s="1">
-        <f>IF(P59="",$B$1,$B$1+1)</f>
+        <f>IF(P59="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f>IF(L59&lt;&gt;"",IF(P59="",FLOOR((L59-MIN(L:L))/2,1),FLOOR((L59-$B$6)/2,1)),"")</f>
+        <f>IF(L59&lt;&gt;"",FLOOR((L59-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G59" s="1" t="e">
@@ -3853,7 +3857,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K59" t="str">
-        <f>IF(Q59&lt;&gt;"",Q59*136+$B$2,IF(R59&lt;&gt;"",R59*136+$B$2,IF(T59&lt;&gt;"",T59*80+$B$4,"")))</f>
+        <f>IF(Q59&lt;&gt;"",Q59*116+$B$2,IF(R59&lt;&gt;"",R59*116+$B$2,IF(T59&lt;&gt;"",T59*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L59" t="str">
@@ -3872,11 +3876,11 @@
         <v>8</v>
       </c>
       <c r="E60" s="1">
-        <f>IF(P60="",$B$1,$B$1+1)</f>
+        <f>IF(P60="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f>IF(L60&lt;&gt;"",IF(P60="",FLOOR((L60-MIN(L:L))/2,1),FLOOR((L60-$B$6)/2,1)),"")</f>
+        <f>IF(L60&lt;&gt;"",FLOOR((L60-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G60" s="1" t="e">
@@ -3892,7 +3896,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K60" t="str">
-        <f>IF(Q60&lt;&gt;"",Q60*136+$B$2,IF(R60&lt;&gt;"",R60*136+$B$2,IF(T60&lt;&gt;"",T60*80+$B$4,"")))</f>
+        <f>IF(Q60&lt;&gt;"",Q60*116+$B$2,IF(R60&lt;&gt;"",R60*116+$B$2,IF(T60&lt;&gt;"",T60*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L60" t="str">
@@ -3911,11 +3915,11 @@
         <v>9</v>
       </c>
       <c r="E61" s="1">
-        <f>IF(P61="",$B$1,$B$1+1)</f>
+        <f>IF(P61="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f>IF(L61&lt;&gt;"",IF(P61="",FLOOR((L61-MIN(L:L))/2,1),FLOOR((L61-$B$6)/2,1)),"")</f>
+        <f>IF(L61&lt;&gt;"",FLOOR((L61-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G61" s="1" t="e">
@@ -3931,7 +3935,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K61" t="str">
-        <f>IF(Q61&lt;&gt;"",Q61*136+$B$2,IF(R61&lt;&gt;"",R61*136+$B$2,IF(T61&lt;&gt;"",T61*80+$B$4,"")))</f>
+        <f>IF(Q61&lt;&gt;"",Q61*116+$B$2,IF(R61&lt;&gt;"",R61*116+$B$2,IF(T61&lt;&gt;"",T61*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L61" t="str">
@@ -3950,11 +3954,11 @@
         <v>10</v>
       </c>
       <c r="E62" s="1">
-        <f>IF(P62="",$B$1,$B$1+1)</f>
+        <f>IF(P62="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f>IF(L62&lt;&gt;"",IF(P62="",FLOOR((L62-MIN(L:L))/2,1),FLOOR((L62-$B$6)/2,1)),"")</f>
+        <f>IF(L62&lt;&gt;"",FLOOR((L62-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G62" s="1" t="e">
@@ -3970,7 +3974,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K62" t="str">
-        <f>IF(Q62&lt;&gt;"",Q62*136+$B$2,IF(R62&lt;&gt;"",R62*136+$B$2,IF(T62&lt;&gt;"",T62*80+$B$4,"")))</f>
+        <f>IF(Q62&lt;&gt;"",Q62*116+$B$2,IF(R62&lt;&gt;"",R62*116+$B$2,IF(T62&lt;&gt;"",T62*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L62" t="str">
@@ -3989,11 +3993,11 @@
         <v>11</v>
       </c>
       <c r="E63" s="1">
-        <f>IF(P63="",$B$1,$B$1+1)</f>
+        <f>IF(P63="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f>IF(L63&lt;&gt;"",IF(P63="",FLOOR((L63-MIN(L:L))/2,1),FLOOR((L63-$B$6)/2,1)),"")</f>
+        <f>IF(L63&lt;&gt;"",FLOOR((L63-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G63" s="1" t="e">
@@ -4009,7 +4013,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K63" t="str">
-        <f>IF(Q63&lt;&gt;"",Q63*136+$B$2,IF(R63&lt;&gt;"",R63*136+$B$2,IF(T63&lt;&gt;"",T63*80+$B$4,"")))</f>
+        <f>IF(Q63&lt;&gt;"",Q63*116+$B$2,IF(R63&lt;&gt;"",R63*116+$B$2,IF(T63&lt;&gt;"",T63*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L63" t="str">
@@ -4028,11 +4032,11 @@
         <v>12</v>
       </c>
       <c r="E64" s="1">
-        <f>IF(P64="",$B$1,$B$1+1)</f>
+        <f>IF(P64="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f>IF(L64&lt;&gt;"",IF(P64="",FLOOR((L64-MIN(L:L))/2,1),FLOOR((L64-$B$6)/2,1)),"")</f>
+        <f>IF(L64&lt;&gt;"",FLOOR((L64-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G64" s="1" t="e">
@@ -4048,7 +4052,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K64" t="str">
-        <f>IF(Q64&lt;&gt;"",Q64*136+$B$2,IF(R64&lt;&gt;"",R64*136+$B$2,IF(T64&lt;&gt;"",T64*80+$B$4,"")))</f>
+        <f>IF(Q64&lt;&gt;"",Q64*116+$B$2,IF(R64&lt;&gt;"",R64*116+$B$2,IF(T64&lt;&gt;"",T64*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L64" t="str">
@@ -4067,11 +4071,11 @@
         <v>13</v>
       </c>
       <c r="E65" s="1">
-        <f>IF(P65="",$B$1,$B$1+1)</f>
+        <f>IF(P65="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f>IF(L65&lt;&gt;"",IF(P65="",FLOOR((L65-MIN(L:L))/2,1),FLOOR((L65-$B$6)/2,1)),"")</f>
+        <f>IF(L65&lt;&gt;"",FLOOR((L65-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G65" s="1" t="e">
@@ -4087,7 +4091,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K65" t="str">
-        <f>IF(Q65&lt;&gt;"",Q65*136+$B$2,IF(R65&lt;&gt;"",R65*136+$B$2,IF(T65&lt;&gt;"",T65*80+$B$4,"")))</f>
+        <f>IF(Q65&lt;&gt;"",Q65*116+$B$2,IF(R65&lt;&gt;"",R65*116+$B$2,IF(T65&lt;&gt;"",T65*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L65" t="str">
@@ -4106,11 +4110,11 @@
         <v>14</v>
       </c>
       <c r="E66" s="1">
-        <f>IF(P66="",$B$1,$B$1+1)</f>
+        <f>IF(P66="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f>IF(L66&lt;&gt;"",IF(P66="",FLOOR((L66-MIN(L:L))/2,1),FLOOR((L66-$B$6)/2,1)),"")</f>
+        <f>IF(L66&lt;&gt;"",FLOOR((L66-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G66" s="1" t="e">
@@ -4126,7 +4130,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K66" t="str">
-        <f>IF(Q66&lt;&gt;"",Q66*136+$B$2,IF(R66&lt;&gt;"",R66*136+$B$2,IF(T66&lt;&gt;"",T66*80+$B$4,"")))</f>
+        <f>IF(Q66&lt;&gt;"",Q66*116+$B$2,IF(R66&lt;&gt;"",R66*116+$B$2,IF(T66&lt;&gt;"",T66*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L66" t="str">
@@ -4145,11 +4149,11 @@
         <v>15</v>
       </c>
       <c r="E67" s="1">
-        <f>IF(P67="",$B$1,$B$1+1)</f>
+        <f>IF(P67="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f>IF(L67&lt;&gt;"",IF(P67="",FLOOR((L67-MIN(L:L))/2,1),FLOOR((L67-$B$6)/2,1)),"")</f>
+        <f>IF(L67&lt;&gt;"",FLOOR((L67-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G67" s="1" t="e">
@@ -4165,7 +4169,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K67" t="str">
-        <f>IF(Q67&lt;&gt;"",Q67*136+$B$2,IF(R67&lt;&gt;"",R67*136+$B$2,IF(T67&lt;&gt;"",T67*80+$B$4,"")))</f>
+        <f>IF(Q67&lt;&gt;"",Q67*116+$B$2,IF(R67&lt;&gt;"",R67*116+$B$2,IF(T67&lt;&gt;"",T67*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L67" t="str">
@@ -4184,11 +4188,11 @@
         <v>16</v>
       </c>
       <c r="E68" s="1">
-        <f>IF(P68="",$B$1,$B$1+1)</f>
+        <f>IF(P68="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f>IF(L68&lt;&gt;"",IF(P68="",FLOOR((L68-MIN(L:L))/2,1),FLOOR((L68-$B$6)/2,1)),"")</f>
+        <f>IF(L68&lt;&gt;"",FLOOR((L68-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G68" s="1" t="e">
@@ -4204,7 +4208,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K68" t="str">
-        <f>IF(Q68&lt;&gt;"",Q68*136+$B$2,IF(R68&lt;&gt;"",R68*136+$B$2,IF(T68&lt;&gt;"",T68*80+$B$4,"")))</f>
+        <f>IF(Q68&lt;&gt;"",Q68*116+$B$2,IF(R68&lt;&gt;"",R68*116+$B$2,IF(T68&lt;&gt;"",T68*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L68" t="str">
@@ -4212,26 +4216,26 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>60</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>122</v>
+        <v>70</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E69" s="1">
-        <f>IF(P69="",$B$1,$B$1+1)</f>
-        <v>2</v>
+        <f>IF(P69="",$B$1,$B$1)</f>
+        <v>1</v>
       </c>
       <c r="F69" s="1">
-        <f>IF(L69&lt;&gt;"",IF(P69="",FLOOR((L69-MIN(L:L))/2,1),FLOOR((L69-$B$6)/2,1)),"")</f>
-        <v>544</v>
+        <f>IF(L69&lt;&gt;"",FLOOR((L69-MIN(L:L))/2,1),"")</f>
+        <v>304</v>
       </c>
       <c r="G69" s="1">
         <f>IF(MOD(L69-$B$5,2)=1,8+M69,M69)</f>
@@ -4239,50 +4243,50 @@
       </c>
       <c r="H69" t="str">
         <f>DEC2HEX(E69*HEX2DEC(1000000) +G69*HEX2DEC(10000) +F69)</f>
-        <v>2000220</v>
+        <v>1000130</v>
       </c>
       <c r="I69">
         <f>HEX2DEC(H69)</f>
-        <v>33554976</v>
+        <v>16777520</v>
       </c>
       <c r="K69">
-        <f>IF(Q69&lt;&gt;"",Q69*136+$B$2,IF(R69&lt;&gt;"",R69*136+$B$2,IF(T69&lt;&gt;"",T69*80+$B$4,"")))</f>
-        <v>1051464</v>
+        <f>IF(Q69&lt;&gt;"",Q69*116+$B$2,IF(R69&lt;&gt;"",R69*116+$B$3,IF(T69&lt;&gt;"",T69*68+$B$4,"")))</f>
+        <v>521944</v>
       </c>
       <c r="L69">
         <f>IF(J69&lt;&gt;"",J69,K69)</f>
-        <v>1051464</v>
+        <v>521944</v>
       </c>
       <c r="O69" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P69" t="s">
         <v>38</v>
       </c>
       <c r="R69">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>61</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>122</v>
+        <v>71</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="E70" s="1">
-        <f>IF(P70="",$B$1,$B$1+1)</f>
-        <v>2</v>
+        <f>IF(P70="",$B$1,$B$1)</f>
+        <v>1</v>
       </c>
       <c r="F70" s="1">
-        <f>IF(L70&lt;&gt;"",IF(P70="",FLOOR((L70-MIN(L:L))/2,1),FLOOR((L70-$B$6)/2,1)),"")</f>
-        <v>612</v>
+        <f>IF(L70&lt;&gt;"",FLOOR((L70-MIN(L:L))/2,1),"")</f>
+        <v>186</v>
       </c>
       <c r="G70" s="1">
         <f>IF(MOD(L70-$B$5,2)=1,8+M70,M70)</f>
@@ -4290,50 +4294,50 @@
       </c>
       <c r="H70" t="str">
         <f>DEC2HEX(E70*HEX2DEC(1000000) +G70*HEX2DEC(10000) +F70)</f>
-        <v>2000264</v>
+        <v>10000BA</v>
       </c>
       <c r="I70">
         <f>HEX2DEC(H70)</f>
-        <v>33555044</v>
+        <v>16777402</v>
       </c>
       <c r="K70">
-        <f>IF(Q70&lt;&gt;"",Q70*136+$B$2,IF(R70&lt;&gt;"",R70*136+$B$2,IF(T70&lt;&gt;"",T70*80+$B$4,"")))</f>
-        <v>1051600</v>
+        <f>IF(Q70&lt;&gt;"",Q70*116+$B$2,IF(R70&lt;&gt;"",R70*116+$B$2,IF(T70&lt;&gt;"",T70*68+$B$4,"")))</f>
+        <v>521708</v>
       </c>
       <c r="L70">
         <f>IF(J70&lt;&gt;"",J70,K70)</f>
-        <v>1051600</v>
+        <v>521708</v>
       </c>
       <c r="O70" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P70" t="s">
         <v>38</v>
       </c>
       <c r="Q70">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>62</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>122</v>
+        <v>27</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1">
-        <f>IF(P71="",$B$1,$B$1+1)</f>
-        <v>2</v>
+        <f>IF(P71="",$B$1,$B$1)</f>
+        <v>1</v>
       </c>
       <c r="F71" s="1">
-        <f>IF(L71&lt;&gt;"",IF(P71="",FLOOR((L71-MIN(L:L))/2,1),FLOOR((L71-$B$6)/2,1)),"")</f>
-        <v>612</v>
+        <f>IF(L71&lt;&gt;"",FLOOR((L71-MIN(L:L))/2,1),"")</f>
+        <v>362</v>
       </c>
       <c r="G71" s="1">
         <f>IF(MOD(L71-$B$5,2)=1,8+M71,M71)</f>
@@ -4341,50 +4345,50 @@
       </c>
       <c r="H71" t="str">
         <f>DEC2HEX(E71*HEX2DEC(1000000) +G71*HEX2DEC(10000) +F71)</f>
-        <v>2000264</v>
+        <v>100016A</v>
       </c>
       <c r="I71">
         <f>HEX2DEC(H71)</f>
-        <v>33555044</v>
+        <v>16777578</v>
       </c>
       <c r="K71">
-        <f>IF(Q71&lt;&gt;"",Q71*136+$B$2,IF(R71&lt;&gt;"",R71*136+$B$2,IF(T71&lt;&gt;"",T71*80+$B$4,"")))</f>
-        <v>1051600</v>
+        <f>IF(Q71&lt;&gt;"",Q71*116+$B$2,IF(R71&lt;&gt;"",R71*116+$B$3,IF(T71&lt;&gt;"",T71*68+$B$4,"")))</f>
+        <v>522060</v>
       </c>
       <c r="L71">
         <f>IF(J71&lt;&gt;"",J71,K71)</f>
-        <v>1051600</v>
+        <v>522060</v>
       </c>
       <c r="O71" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P71" t="s">
         <v>38</v>
       </c>
       <c r="R71">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>26</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>86</v>
+        <v>63</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E72" s="1">
-        <f>IF(P72="",$B$1,$B$1+1)</f>
+        <f>IF(P72="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F72" s="1">
-        <f>IF(L72&lt;&gt;"",IF(P72="",FLOOR((L72-MIN(L:L))/2,1),FLOOR((L72-$B$6)/2,1)),"")</f>
-        <v>1305</v>
+        <f>IF(L72&lt;&gt;"",FLOOR((L72-MIN(L:L))/2,1),"")</f>
+        <v>1627</v>
       </c>
       <c r="G72" s="1">
         <f>IF(MOD(L72-$B$5,2)=1,8+M72,M72)</f>
@@ -4392,54 +4396,54 @@
       </c>
       <c r="H72" t="str">
         <f>DEC2HEX(E72*HEX2DEC(1000000) +G72*HEX2DEC(10000) +F72)</f>
-        <v>1080519</v>
+        <v>108065B</v>
       </c>
       <c r="I72">
         <f>HEX2DEC(H72)</f>
-        <v>17302809</v>
+        <v>17303131</v>
       </c>
       <c r="K72">
-        <f>IF(Q72&lt;&gt;"",Q72*136+$B$2,IF(R72&lt;&gt;"",R72*136+$B$2,IF(T72&lt;&gt;"",T72*80+$B$4,"")))</f>
-        <v>523947</v>
+        <f>IF(Q72&lt;&gt;"",Q72*116+$B$2,IF(R72&lt;&gt;"",R72*116+$B$2,IF(T72&lt;&gt;"",T72*68+$B$4,"")))</f>
+        <v>524591</v>
       </c>
       <c r="L72">
         <f>IF(J72&lt;&gt;"",J72,K72)</f>
-        <v>523947</v>
+        <v>524591</v>
       </c>
       <c r="O72" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="S72" t="s">
         <v>38</v>
       </c>
       <c r="T72">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="U72" t="str">
         <f>IF(S72="*",D72&amp;" : INT := "&amp;(T72+1)&amp;";")</f>
-        <v>SfB1 : INT := 16;</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+        <v>CSp1 : INT := 23;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>29</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>86</v>
+        <v>64</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E73" s="1">
-        <f>IF(P73="",$B$1,$B$1+1)</f>
+        <f>IF(P73="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F73" s="1">
-        <f>IF(L73&lt;&gt;"",IF(P73="",FLOOR((L73-MIN(L:L))/2,1),FLOOR((L73-$B$6)/2,1)),"")</f>
-        <v>1345</v>
+        <f>IF(L73&lt;&gt;"",FLOOR((L73-MIN(L:L))/2,1),"")</f>
+        <v>1253</v>
       </c>
       <c r="G73" s="1">
         <f>IF(MOD(L73-$B$5,2)=1,8+M73,M73)</f>
@@ -4447,54 +4451,54 @@
       </c>
       <c r="H73" t="str">
         <f>DEC2HEX(E73*HEX2DEC(1000000) +G73*HEX2DEC(10000) +F73)</f>
-        <v>1080541</v>
+        <v>10804E5</v>
       </c>
       <c r="I73">
         <f>HEX2DEC(H73)</f>
-        <v>17302849</v>
+        <v>17302757</v>
       </c>
       <c r="K73">
-        <f>IF(Q73&lt;&gt;"",Q73*136+$B$2,IF(R73&lt;&gt;"",R73*136+$B$2,IF(T73&lt;&gt;"",T73*80+$B$4,"")))</f>
-        <v>524027</v>
+        <f>IF(Q73&lt;&gt;"",Q73*116+$B$2,IF(R73&lt;&gt;"",R73*116+$B$2,IF(T73&lt;&gt;"",T73*68+$B$4,"")))</f>
+        <v>523843</v>
       </c>
       <c r="L73">
         <f>IF(J73&lt;&gt;"",J73,K73)</f>
-        <v>524027</v>
+        <v>523843</v>
       </c>
       <c r="O73" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="S73" t="s">
         <v>38</v>
       </c>
       <c r="T73">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="U73" t="str">
         <f>IF(S73="*",D73&amp;" : INT := "&amp;(T73+1)&amp;";")</f>
-        <v>SfB2 : INT := 17;</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+        <v>ASp01 : INT := 12;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>30</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>86</v>
+        <v>65</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E74" s="1">
-        <f>IF(P74="",$B$1,$B$1+1)</f>
+        <f>IF(P74="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F74" s="1">
-        <f>IF(L74&lt;&gt;"",IF(P74="",FLOOR((L74-MIN(L:L))/2,1),FLOOR((L74-$B$6)/2,1)),"")</f>
-        <v>1385</v>
+        <f>IF(L74&lt;&gt;"",FLOOR((L74-MIN(L:L))/2,1),"")</f>
+        <v>1287</v>
       </c>
       <c r="G74" s="1">
         <f>IF(MOD(L74-$B$5,2)=1,8+M74,M74)</f>
@@ -4502,54 +4506,54 @@
       </c>
       <c r="H74" t="str">
         <f>DEC2HEX(E74*HEX2DEC(1000000) +G74*HEX2DEC(10000) +F74)</f>
-        <v>1080569</v>
+        <v>1080507</v>
       </c>
       <c r="I74">
         <f>HEX2DEC(H74)</f>
-        <v>17302889</v>
+        <v>17302791</v>
       </c>
       <c r="K74">
-        <f>IF(Q74&lt;&gt;"",Q74*136+$B$2,IF(R74&lt;&gt;"",R74*136+$B$2,IF(T74&lt;&gt;"",T74*80+$B$4,"")))</f>
-        <v>524107</v>
+        <f>IF(Q74&lt;&gt;"",Q74*116+$B$2,IF(R74&lt;&gt;"",R74*116+$B$2,IF(T74&lt;&gt;"",T74*68+$B$4,"")))</f>
+        <v>523911</v>
       </c>
       <c r="L74">
         <f>IF(J74&lt;&gt;"",J74,K74)</f>
-        <v>524107</v>
+        <v>523911</v>
       </c>
       <c r="O74" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="S74" t="s">
         <v>38</v>
       </c>
       <c r="T74">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="U74" t="str">
         <f>IF(S74="*",D74&amp;" : INT := "&amp;(T74+1)&amp;";")</f>
-        <v>SpB1 : INT := 18;</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+        <v>ASp02 : INT := 13;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>31</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>86</v>
+        <v>66</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C75">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E75" s="1">
-        <f>IF(P75="",$B$1,$B$1+1)</f>
+        <f>IF(P75="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F75" s="1">
-        <f>IF(L75&lt;&gt;"",IF(P75="",FLOOR((L75-MIN(L:L))/2,1),FLOOR((L75-$B$6)/2,1)),"")</f>
-        <v>1425</v>
+        <f>IF(L75&lt;&gt;"",FLOOR((L75-MIN(L:L))/2,1),"")</f>
+        <v>1321</v>
       </c>
       <c r="G75" s="1">
         <f>IF(MOD(L75-$B$5,2)=1,8+M75,M75)</f>
@@ -4557,54 +4561,54 @@
       </c>
       <c r="H75" t="str">
         <f>DEC2HEX(E75*HEX2DEC(1000000) +G75*HEX2DEC(10000) +F75)</f>
-        <v>1080591</v>
+        <v>1080529</v>
       </c>
       <c r="I75">
         <f>HEX2DEC(H75)</f>
-        <v>17302929</v>
+        <v>17302825</v>
       </c>
       <c r="K75">
-        <f>IF(Q75&lt;&gt;"",Q75*136+$B$2,IF(R75&lt;&gt;"",R75*136+$B$2,IF(T75&lt;&gt;"",T75*80+$B$4,"")))</f>
-        <v>524187</v>
+        <f>IF(Q75&lt;&gt;"",Q75*116+$B$2,IF(R75&lt;&gt;"",R75*116+$B$2,IF(T75&lt;&gt;"",T75*68+$B$4,"")))</f>
+        <v>523979</v>
       </c>
       <c r="L75">
         <f>IF(J75&lt;&gt;"",J75,K75)</f>
-        <v>524187</v>
+        <v>523979</v>
       </c>
       <c r="O75" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="S75" t="s">
         <v>38</v>
       </c>
       <c r="T75">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="U75" t="str">
         <f>IF(S75="*",D75&amp;" : INT := "&amp;(T75+1)&amp;";")</f>
-        <v>SpB2 : INT := 19;</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+        <v>ASp03 : INT := 14;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>80</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="E76" s="1">
-        <f>IF(P76="",$B$1,$B$1+1)</f>
+        <f>IF(P76="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F76" s="1">
-        <f>IF(L76&lt;&gt;"",IF(P76="",FLOOR((L76-MIN(L:L))/2,1),FLOOR((L76-$B$6)/2,1)),"")</f>
-        <v>1465</v>
+        <f>IF(L76&lt;&gt;"",FLOOR((L76-MIN(L:L))/2,1),"")</f>
+        <v>1355</v>
       </c>
       <c r="G76" s="1">
         <f>IF(MOD(L76-$B$5,2)=1,8+M76,M76)</f>
@@ -4612,54 +4616,54 @@
       </c>
       <c r="H76" t="str">
         <f>DEC2HEX(E76*HEX2DEC(1000000) +G76*HEX2DEC(10000) +F76)</f>
-        <v>10805B9</v>
+        <v>108054B</v>
       </c>
       <c r="I76">
         <f>HEX2DEC(H76)</f>
-        <v>17302969</v>
+        <v>17302859</v>
       </c>
       <c r="K76">
-        <f>IF(Q76&lt;&gt;"",Q76*136+$B$2,IF(R76&lt;&gt;"",R76*136+$B$2,IF(T76&lt;&gt;"",T76*80+$B$4,"")))</f>
-        <v>524267</v>
+        <f>IF(Q76&lt;&gt;"",Q76*116+$B$2,IF(R76&lt;&gt;"",R76*116+$B$2,IF(T76&lt;&gt;"",T76*68+$B$4,"")))</f>
+        <v>524047</v>
       </c>
       <c r="L76">
         <f>IF(J76&lt;&gt;"",J76,K76)</f>
-        <v>524267</v>
+        <v>524047</v>
       </c>
       <c r="O76" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="S76" t="s">
         <v>38</v>
       </c>
       <c r="T76">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="U76" t="str">
         <f>IF(S76="*",D76&amp;" : INT := "&amp;(T76+1)&amp;";")</f>
-        <v>H1 : INT := 20;</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>ASp04 : INT := 15;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>68</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>97</v>
+        <v>28</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E77" s="1">
-        <f>IF(P77="",$B$1,$B$1+1)</f>
-        <v>2</v>
+        <f>IF(P77="",$B$1,$B$1)</f>
+        <v>1</v>
       </c>
       <c r="F77" s="1">
-        <f>IF(L77&lt;&gt;"",IF(P77="",FLOOR((L77-MIN(L:L))/2,1),FLOOR((L77-$B$6)/2,1)),"")</f>
-        <v>204</v>
+        <f>IF(L77&lt;&gt;"",FLOOR((L77-MIN(L:L))/2,1),"")</f>
+        <v>420</v>
       </c>
       <c r="G77" s="1">
         <f>IF(MOD(L77-$B$5,2)=1,8+M77,M77)</f>
@@ -4667,50 +4671,50 @@
       </c>
       <c r="H77" t="str">
         <f>DEC2HEX(E77*HEX2DEC(1000000) +G77*HEX2DEC(10000) +F77)</f>
-        <v>20000CC</v>
+        <v>10001A4</v>
       </c>
       <c r="I77">
         <f>HEX2DEC(H77)</f>
-        <v>33554636</v>
+        <v>16777636</v>
       </c>
       <c r="K77">
-        <f>IF(Q77&lt;&gt;"",Q77*136+$B$2,IF(R77&lt;&gt;"",R77*136+$B$2,IF(T77&lt;&gt;"",T77*80+$B$4,"")))</f>
-        <v>1050784</v>
+        <f t="shared" ref="K77:K79" si="7">IF(Q77&lt;&gt;"",Q77*116+$B$2,IF(R77&lt;&gt;"",R77*116+$B$3,IF(T77&lt;&gt;"",T77*68+$B$4,"")))</f>
+        <v>522176</v>
       </c>
       <c r="L77">
         <f>IF(J77&lt;&gt;"",J77,K77)</f>
-        <v>1050784</v>
+        <v>522176</v>
       </c>
       <c r="O77" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P77" t="s">
         <v>38</v>
       </c>
       <c r="R77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>69</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C78">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E78" s="1">
-        <f>IF(P78="",$B$1,$B$1+1)</f>
-        <v>2</v>
+        <f>IF(P78="",$B$1,$B$1)</f>
+        <v>1</v>
       </c>
       <c r="F78" s="1">
-        <f>IF(L78&lt;&gt;"",IF(P78="",FLOOR((L78-MIN(L:L))/2,1),FLOOR((L78-$B$6)/2,1)),"")</f>
-        <v>272</v>
+        <f>IF(L78&lt;&gt;"",FLOOR((L78-MIN(L:L))/2,1),"")</f>
+        <v>478</v>
       </c>
       <c r="G78" s="1">
         <f>IF(MOD(L78-$B$5,2)=1,8+M78,M78)</f>
@@ -4718,50 +4722,50 @@
       </c>
       <c r="H78" t="str">
         <f>DEC2HEX(E78*HEX2DEC(1000000) +G78*HEX2DEC(10000) +F78)</f>
-        <v>2000110</v>
+        <v>10001DE</v>
       </c>
       <c r="I78">
         <f>HEX2DEC(H78)</f>
-        <v>33554704</v>
+        <v>16777694</v>
       </c>
       <c r="K78">
-        <f>IF(Q78&lt;&gt;"",Q78*136+$B$2,IF(R78&lt;&gt;"",R78*136+$B$2,IF(T78&lt;&gt;"",T78*80+$B$4,"")))</f>
-        <v>1050920</v>
+        <f t="shared" si="7"/>
+        <v>522292</v>
       </c>
       <c r="L78">
         <f>IF(J78&lt;&gt;"",J78,K78)</f>
-        <v>1050920</v>
+        <v>522292</v>
       </c>
       <c r="O78" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P78" t="s">
         <v>38</v>
       </c>
       <c r="R78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>62</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>70</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C79">
-        <v>12</v>
-      </c>
       <c r="D79" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E79" s="1">
-        <f>IF(P79="",$B$1,$B$1+1)</f>
-        <v>2</v>
+        <f>IF(P79="",$B$1,$B$1)</f>
+        <v>1</v>
       </c>
       <c r="F79" s="1">
-        <f>IF(L79&lt;&gt;"",IF(P79="",FLOOR((L79-MIN(L:L))/2,1),FLOOR((L79-$B$6)/2,1)),"")</f>
-        <v>340</v>
+        <f>IF(L79&lt;&gt;"",FLOOR((L79-MIN(L:L))/2,1),"")</f>
+        <v>536</v>
       </c>
       <c r="G79" s="1">
         <f>IF(MOD(L79-$B$5,2)=1,8+M79,M79)</f>
@@ -4769,50 +4773,50 @@
       </c>
       <c r="H79" t="str">
         <f>DEC2HEX(E79*HEX2DEC(1000000) +G79*HEX2DEC(10000) +F79)</f>
-        <v>2000154</v>
+        <v>1000218</v>
       </c>
       <c r="I79">
         <f>HEX2DEC(H79)</f>
-        <v>33554772</v>
+        <v>16777752</v>
       </c>
       <c r="K79">
-        <f>IF(Q79&lt;&gt;"",Q79*136+$B$2,IF(R79&lt;&gt;"",R79*136+$B$2,IF(T79&lt;&gt;"",T79*80+$B$4,"")))</f>
-        <v>1051056</v>
+        <f t="shared" si="7"/>
+        <v>522408</v>
       </c>
       <c r="L79">
         <f>IF(J79&lt;&gt;"",J79,K79)</f>
-        <v>1051056</v>
+        <v>522408</v>
       </c>
       <c r="O79" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P79" t="s">
         <v>38</v>
       </c>
       <c r="R79">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E80" s="1">
-        <f>IF(P80="",$B$1,$B$1+1)</f>
-        <v>2</v>
+        <f>IF(P80="",$B$1,$B$1)</f>
+        <v>1</v>
       </c>
       <c r="F80" s="1">
-        <f>IF(L80&lt;&gt;"",IF(P80="",FLOOR((L80-MIN(L:L))/2,1),FLOOR((L80-$B$6)/2,1)),"")</f>
-        <v>204</v>
+        <f>IF(L80&lt;&gt;"",FLOOR((L80-MIN(L:L))/2,1),"")</f>
+        <v>244</v>
       </c>
       <c r="G80" s="1">
         <f>IF(MOD(L80-$B$5,2)=1,8+M80,M80)</f>
@@ -4820,50 +4824,50 @@
       </c>
       <c r="H80" t="str">
         <f>DEC2HEX(E80*HEX2DEC(1000000) +G80*HEX2DEC(10000) +F80)</f>
-        <v>20000CC</v>
+        <v>10000F4</v>
       </c>
       <c r="I80">
         <f>HEX2DEC(H80)</f>
-        <v>33554636</v>
+        <v>16777460</v>
       </c>
       <c r="K80">
-        <f>IF(Q80&lt;&gt;"",Q80*136+$B$2,IF(R80&lt;&gt;"",R80*136+$B$2,IF(T80&lt;&gt;"",T80*80+$B$4,"")))</f>
-        <v>1050784</v>
+        <f>IF(Q80&lt;&gt;"",Q80*116+$B$2,IF(R80&lt;&gt;"",R80*116+$B$2,IF(T80&lt;&gt;"",T80*68+$B$4,"")))</f>
+        <v>521824</v>
       </c>
       <c r="L80">
         <f>IF(J80&lt;&gt;"",J80,K80)</f>
-        <v>1050784</v>
+        <v>521824</v>
       </c>
       <c r="O80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P80" t="s">
         <v>38</v>
       </c>
       <c r="Q80">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C81">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E81" s="1">
-        <f>IF(P81="",$B$1,$B$1+1)</f>
-        <v>2</v>
+        <f>IF(P81="",$B$1,$B$1)</f>
+        <v>1</v>
       </c>
       <c r="F81" s="1">
-        <f>IF(L81&lt;&gt;"",IF(P81="",FLOOR((L81-MIN(L:L))/2,1),FLOOR((L81-$B$6)/2,1)),"")</f>
-        <v>272</v>
+        <f>IF(L81&lt;&gt;"",FLOOR((L81-MIN(L:L))/2,1),"")</f>
+        <v>302</v>
       </c>
       <c r="G81" s="1">
         <f>IF(MOD(L81-$B$5,2)=1,8+M81,M81)</f>
@@ -4871,50 +4875,50 @@
       </c>
       <c r="H81" t="str">
         <f>DEC2HEX(E81*HEX2DEC(1000000) +G81*HEX2DEC(10000) +F81)</f>
-        <v>2000110</v>
+        <v>100012E</v>
       </c>
       <c r="I81">
         <f>HEX2DEC(H81)</f>
-        <v>33554704</v>
+        <v>16777518</v>
       </c>
       <c r="K81">
-        <f>IF(Q81&lt;&gt;"",Q81*136+$B$2,IF(R81&lt;&gt;"",R81*136+$B$2,IF(T81&lt;&gt;"",T81*80+$B$4,"")))</f>
-        <v>1050920</v>
+        <f>IF(Q81&lt;&gt;"",Q81*116+$B$2,IF(R81&lt;&gt;"",R81*116+$B$2,IF(T81&lt;&gt;"",T81*68+$B$4,"")))</f>
+        <v>521940</v>
       </c>
       <c r="L81">
         <f>IF(J81&lt;&gt;"",J81,K81)</f>
-        <v>1050920</v>
+        <v>521940</v>
       </c>
       <c r="O81" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P81" t="s">
         <v>38</v>
       </c>
       <c r="Q81">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>73</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>97</v>
+        <v>61</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C82">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E82" s="1">
-        <f>IF(P82="",$B$1,$B$1+1)</f>
-        <v>2</v>
+        <f>IF(P82="",$B$1,$B$1)</f>
+        <v>1</v>
       </c>
       <c r="F82" s="1">
-        <f>IF(L82&lt;&gt;"",IF(P82="",FLOOR((L82-MIN(L:L))/2,1),FLOOR((L82-$B$6)/2,1)),"")</f>
-        <v>340</v>
+        <f>IF(L82&lt;&gt;"",FLOOR((L82-MIN(L:L))/2,1),"")</f>
+        <v>534</v>
       </c>
       <c r="G82" s="1">
         <f>IF(MOD(L82-$B$5,2)=1,8+M82,M82)</f>
@@ -4922,28 +4926,28 @@
       </c>
       <c r="H82" t="str">
         <f>DEC2HEX(E82*HEX2DEC(1000000) +G82*HEX2DEC(10000) +F82)</f>
-        <v>2000154</v>
+        <v>1000216</v>
       </c>
       <c r="I82">
         <f>HEX2DEC(H82)</f>
-        <v>33554772</v>
+        <v>16777750</v>
       </c>
       <c r="K82">
-        <f>IF(Q82&lt;&gt;"",Q82*136+$B$2,IF(R82&lt;&gt;"",R82*136+$B$2,IF(T82&lt;&gt;"",T82*80+$B$4,"")))</f>
-        <v>1051056</v>
+        <f>IF(Q82&lt;&gt;"",Q82*116+$B$2,IF(R82&lt;&gt;"",R82*116+$B$2,IF(T82&lt;&gt;"",T82*68+$B$4,"")))</f>
+        <v>522404</v>
       </c>
       <c r="L82">
         <f>IF(J82&lt;&gt;"",J82,K82)</f>
-        <v>1051056</v>
+        <v>522404</v>
       </c>
       <c r="O82" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P82" t="s">
         <v>38</v>
       </c>
       <c r="Q82">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -4960,11 +4964,11 @@
         <v>102</v>
       </c>
       <c r="E83" s="1">
-        <f>IF(P83="",$B$1,$B$1+1)</f>
+        <f>IF(P83="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F83" s="1">
-        <f>IF(L83&lt;&gt;"",IF(P83="",FLOOR((L83-MIN(L:L))/2,1),FLOOR((L83-$B$6)/2,1)),"")</f>
+        <f>IF(L83&lt;&gt;"",FLOOR((L83-MIN(L:L))/2,1),"")</f>
         <v>1</v>
       </c>
       <c r="G83" s="1">
@@ -4983,7 +4987,7 @@
         <v>521339</v>
       </c>
       <c r="K83" t="str">
-        <f>IF(Q83&lt;&gt;"",Q83*136+$B$2,IF(R83&lt;&gt;"",R83*136+$B$2,IF(T83&lt;&gt;"",T83*80+$B$4,"")))</f>
+        <f>IF(Q83&lt;&gt;"",Q83*116+$B$2,IF(R83&lt;&gt;"",R83*116+$B$2,IF(T83&lt;&gt;"",T83*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L83">
@@ -5011,11 +5015,11 @@
         <v>103</v>
       </c>
       <c r="E84" s="1">
-        <f>IF(P84="",$B$1,$B$1+1)</f>
+        <f>IF(P84="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F84" s="1">
-        <f>IF(L84&lt;&gt;"",IF(P84="",FLOOR((L84-MIN(L:L))/2,1),FLOOR((L84-$B$6)/2,1)),"")</f>
+        <f>IF(L84&lt;&gt;"",FLOOR((L84-MIN(L:L))/2,1),"")</f>
         <v>1</v>
       </c>
       <c r="G84" s="1">
@@ -5034,7 +5038,7 @@
         <v>521339</v>
       </c>
       <c r="K84" t="str">
-        <f>IF(Q84&lt;&gt;"",Q84*136+$B$2,IF(R84&lt;&gt;"",R84*136+$B$2,IF(T84&lt;&gt;"",T84*80+$B$4,"")))</f>
+        <f>IF(Q84&lt;&gt;"",Q84*116+$B$2,IF(R84&lt;&gt;"",R84*116+$B$2,IF(T84&lt;&gt;"",T84*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L84">
@@ -5062,11 +5066,11 @@
         <v>104</v>
       </c>
       <c r="E85" s="1">
-        <f>IF(P85="",$B$1,$B$1+1)</f>
+        <f>IF(P85="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F85" s="1">
-        <f>IF(L85&lt;&gt;"",IF(P85="",FLOOR((L85-MIN(L:L))/2,1),FLOOR((L85-$B$6)/2,1)),"")</f>
+        <f>IF(L85&lt;&gt;"",FLOOR((L85-MIN(L:L))/2,1),"")</f>
         <v>1</v>
       </c>
       <c r="G85" s="1">
@@ -5085,7 +5089,7 @@
         <v>521339</v>
       </c>
       <c r="K85" t="str">
-        <f>IF(Q85&lt;&gt;"",Q85*136+$B$2,IF(R85&lt;&gt;"",R85*136+$B$2,IF(T85&lt;&gt;"",T85*80+$B$4,"")))</f>
+        <f>IF(Q85&lt;&gt;"",Q85*116+$B$2,IF(R85&lt;&gt;"",R85*116+$B$2,IF(T85&lt;&gt;"",T85*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L85">
@@ -5113,11 +5117,11 @@
         <v>105</v>
       </c>
       <c r="E86" s="1">
-        <f>IF(P86="",$B$1,$B$1+1)</f>
+        <f>IF(P86="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F86" s="1">
-        <f>IF(L86&lt;&gt;"",IF(P86="",FLOOR((L86-MIN(L:L))/2,1),FLOOR((L86-$B$6)/2,1)),"")</f>
+        <f>IF(L86&lt;&gt;"",FLOOR((L86-MIN(L:L))/2,1),"")</f>
         <v>1</v>
       </c>
       <c r="G86" s="1">
@@ -5136,7 +5140,7 @@
         <v>521339</v>
       </c>
       <c r="K86" t="str">
-        <f>IF(Q86&lt;&gt;"",Q86*136+$B$2,IF(R86&lt;&gt;"",R86*136+$B$2,IF(T86&lt;&gt;"",T86*80+$B$4,"")))</f>
+        <f>IF(Q86&lt;&gt;"",Q86*116+$B$2,IF(R86&lt;&gt;"",R86*116+$B$2,IF(T86&lt;&gt;"",T86*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L86">
@@ -5161,12 +5165,12 @@
         <v>155</v>
       </c>
       <c r="E87" s="1">
-        <f>IF(P87="",$B$1,$B$1+1)</f>
-        <v>2</v>
+        <f>IF(P87="",$B$1,$B$1)</f>
+        <v>1</v>
       </c>
       <c r="F87" s="1">
-        <f>IF(L87&lt;&gt;"",IF(P87="",FLOOR((L87-MIN(L:L))/2,1),FLOOR((L87-$B$6)/2,1)),"")</f>
-        <v>680</v>
+        <f>IF(L87&lt;&gt;"",FLOOR((L87-MIN(L:L))/2,1),"")</f>
+        <v>592</v>
       </c>
       <c r="G87" s="1">
         <f>IF(MOD(L87-$B$5,2)=1,8+M87,M87)</f>
@@ -5174,19 +5178,19 @@
       </c>
       <c r="H87" t="str">
         <f>DEC2HEX(E87*HEX2DEC(1000000) +G87*HEX2DEC(10000) +F87)</f>
-        <v>20002A8</v>
+        <v>1000250</v>
       </c>
       <c r="I87">
         <f>HEX2DEC(H87)</f>
-        <v>33555112</v>
+        <v>16777808</v>
       </c>
       <c r="K87">
-        <f>IF(Q87&lt;&gt;"",Q87*136+$B$2,IF(R87&lt;&gt;"",R87*136+$B$2,IF(T87&lt;&gt;"",T87*80+$B$4,"")))</f>
-        <v>1051736</v>
+        <f>IF(Q87&lt;&gt;"",Q87*116+$B$2,IF(R87&lt;&gt;"",R87*116+$B$2,IF(T87&lt;&gt;"",T87*68+$B$4,"")))</f>
+        <v>522520</v>
       </c>
       <c r="L87">
         <f>IF(J87&lt;&gt;"",J87,K87)</f>
-        <v>1051736</v>
+        <v>522520</v>
       </c>
       <c r="O87" t="s">
         <v>266</v>
@@ -5198,7 +5202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>79</v>
       </c>
@@ -5212,12 +5216,12 @@
         <v>156</v>
       </c>
       <c r="E88" s="1">
-        <f>IF(P88="",$B$1,$B$1+1)</f>
-        <v>2</v>
+        <f>IF(P88="",$B$1,$B$1)</f>
+        <v>1</v>
       </c>
       <c r="F88" s="1">
-        <f>IF(L88&lt;&gt;"",IF(P88="",FLOOR((L88-MIN(L:L))/2,1),FLOOR((L88-$B$6)/2,1)),"")</f>
-        <v>680</v>
+        <f>IF(L88&lt;&gt;"",FLOOR((L88-MIN(L:L))/2,1),"")</f>
+        <v>594</v>
       </c>
       <c r="G88" s="1">
         <f>IF(MOD(L88-$B$5,2)=1,8+M88,M88)</f>
@@ -5225,19 +5229,19 @@
       </c>
       <c r="H88" t="str">
         <f>DEC2HEX(E88*HEX2DEC(1000000) +G88*HEX2DEC(10000) +F88)</f>
-        <v>20002A8</v>
+        <v>1000252</v>
       </c>
       <c r="I88">
         <f>HEX2DEC(H88)</f>
-        <v>33555112</v>
+        <v>16777810</v>
       </c>
       <c r="K88">
-        <f>IF(Q88&lt;&gt;"",Q88*136+$B$2,IF(R88&lt;&gt;"",R88*136+$B$2,IF(T88&lt;&gt;"",T88*80+$B$4,"")))</f>
-        <v>1051736</v>
+        <f>IF(Q88&lt;&gt;"",Q88*116+$B$2,IF(R88&lt;&gt;"",R88*116+$B$3,IF(T88&lt;&gt;"",T88*68+$B$4,"")))</f>
+        <v>522524</v>
       </c>
       <c r="L88">
         <f>IF(J88&lt;&gt;"",J88,K88)</f>
-        <v>1051736</v>
+        <v>522524</v>
       </c>
       <c r="O88" t="s">
         <v>267</v>
@@ -5249,26 +5253,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C89">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E89" s="1">
-        <f>IF(P89="",$B$1,$B$1+1)</f>
+        <f>IF(P89="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F89" s="1">
-        <f>IF(L89&lt;&gt;"",IF(P89="",FLOOR((L89-MIN(L:L))/2,1),FLOOR((L89-$B$6)/2,1)),"")</f>
-        <v>1505</v>
+        <f>IF(L89&lt;&gt;"",FLOOR((L89-MIN(L:L))/2,1),"")</f>
+        <v>1525</v>
       </c>
       <c r="G89" s="1">
         <f>IF(MOD(L89-$B$5,2)=1,8+M89,M89)</f>
@@ -5276,32 +5280,32 @@
       </c>
       <c r="H89" t="str">
         <f>DEC2HEX(E89*HEX2DEC(1000000) +G89*HEX2DEC(10000) +F89)</f>
-        <v>10805E1</v>
+        <v>10805F5</v>
       </c>
       <c r="I89">
-        <f>HEX2DEC(H89)</f>
-        <v>17303009</v>
+        <f t="shared" ref="I69:I89" si="8">HEX2DEC(H89)</f>
+        <v>17303029</v>
       </c>
       <c r="K89">
-        <f>IF(Q89&lt;&gt;"",Q89*136+$B$2,IF(R89&lt;&gt;"",R89*136+$B$2,IF(T89&lt;&gt;"",T89*80+$B$4,"")))</f>
-        <v>524347</v>
+        <f t="shared" ref="K74:K89" si="9">IF(Q89&lt;&gt;"",Q89*116+$B$2,IF(R89&lt;&gt;"",R89*116+$B$2,IF(T89&lt;&gt;"",T89*68+$B$4,"")))</f>
+        <v>524387</v>
       </c>
       <c r="L89">
-        <f>IF(J89&lt;&gt;"",J89,K89)</f>
-        <v>524347</v>
+        <f t="shared" ref="L74:L89" si="10">IF(J89&lt;&gt;"",J89,K89)</f>
+        <v>524387</v>
       </c>
       <c r="O89" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S89" t="s">
         <v>38</v>
       </c>
       <c r="T89">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U89" t="str">
         <f>IF(S89="*",D89&amp;" : INT := "&amp;(T89+1)&amp;";")</f>
-        <v>H2 : INT := 21;</v>
+        <v>H1 : INT := 20;</v>
       </c>
     </row>
     <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -5315,11 +5319,11 @@
         <v>1</v>
       </c>
       <c r="E90" s="1">
-        <f>IF(P90="",$B$1,$B$1+1)</f>
+        <f>IF(P90="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f>IF(L90&lt;&gt;"",IF(P90="",FLOOR((L90-MIN(L:L))/2,1),FLOOR((L90-$B$6)/2,1)),"")</f>
+        <f>IF(L90&lt;&gt;"",FLOOR((L90-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G90" s="1" t="e">
@@ -5335,11 +5339,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K90" t="str">
-        <f>IF(Q90&lt;&gt;"",Q90*136+$B$2,IF(R90&lt;&gt;"",R90*136+$B$2,IF(T90&lt;&gt;"",T90*80+$B$4,"")))</f>
+        <f t="shared" ref="K74:K120" si="11">IF(Q90&lt;&gt;"",Q90*116+$B$2,IF(R90&lt;&gt;"",R90*116+$B$2,IF(T90&lt;&gt;"",T90*68+$B$4,"")))</f>
         <v/>
       </c>
       <c r="L90" t="str">
-        <f>IF(J90&lt;&gt;"",J90,K90)</f>
+        <f t="shared" ref="L74:L120" si="12">IF(J90&lt;&gt;"",J90,K90)</f>
         <v/>
       </c>
     </row>
@@ -5354,11 +5358,11 @@
         <v>2</v>
       </c>
       <c r="E91" s="1">
-        <f>IF(P91="",$B$1,$B$1+1)</f>
+        <f>IF(P91="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f>IF(L91&lt;&gt;"",IF(P91="",FLOOR((L91-MIN(L:L))/2,1),FLOOR((L91-$B$6)/2,1)),"")</f>
+        <f>IF(L91&lt;&gt;"",FLOOR((L91-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G91" s="1" t="e">
@@ -5374,11 +5378,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K91" t="str">
-        <f>IF(Q91&lt;&gt;"",Q91*136+$B$2,IF(R91&lt;&gt;"",R91*136+$B$2,IF(T91&lt;&gt;"",T91*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L91" t="str">
-        <f>IF(J91&lt;&gt;"",J91,K91)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -5393,11 +5397,11 @@
         <v>3</v>
       </c>
       <c r="E92" s="1">
-        <f>IF(P92="",$B$1,$B$1+1)</f>
+        <f>IF(P92="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f>IF(L92&lt;&gt;"",IF(P92="",FLOOR((L92-MIN(L:L))/2,1),FLOOR((L92-$B$6)/2,1)),"")</f>
+        <f>IF(L92&lt;&gt;"",FLOOR((L92-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G92" s="1" t="e">
@@ -5413,11 +5417,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K92" t="str">
-        <f>IF(Q92&lt;&gt;"",Q92*136+$B$2,IF(R92&lt;&gt;"",R92*136+$B$2,IF(T92&lt;&gt;"",T92*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L92" t="str">
-        <f>IF(J92&lt;&gt;"",J92,K92)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -5432,11 +5436,11 @@
         <v>4</v>
       </c>
       <c r="E93" s="1">
-        <f>IF(P93="",$B$1,$B$1+1)</f>
+        <f>IF(P93="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f>IF(L93&lt;&gt;"",IF(P93="",FLOOR((L93-MIN(L:L))/2,1),FLOOR((L93-$B$6)/2,1)),"")</f>
+        <f>IF(L93&lt;&gt;"",FLOOR((L93-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G93" s="1" t="e">
@@ -5452,11 +5456,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K93" t="str">
-        <f>IF(Q93&lt;&gt;"",Q93*136+$B$2,IF(R93&lt;&gt;"",R93*136+$B$2,IF(T93&lt;&gt;"",T93*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L93" t="str">
-        <f>IF(J93&lt;&gt;"",J93,K93)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -5471,11 +5475,11 @@
         <v>5</v>
       </c>
       <c r="E94" s="1">
-        <f>IF(P94="",$B$1,$B$1+1)</f>
+        <f>IF(P94="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f>IF(L94&lt;&gt;"",IF(P94="",FLOOR((L94-MIN(L:L))/2,1),FLOOR((L94-$B$6)/2,1)),"")</f>
+        <f>IF(L94&lt;&gt;"",FLOOR((L94-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G94" s="1" t="e">
@@ -5491,11 +5495,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K94" t="str">
-        <f>IF(Q94&lt;&gt;"",Q94*136+$B$2,IF(R94&lt;&gt;"",R94*136+$B$2,IF(T94&lt;&gt;"",T94*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L94" t="str">
-        <f>IF(J94&lt;&gt;"",J94,K94)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -5510,11 +5514,11 @@
         <v>6</v>
       </c>
       <c r="E95" s="1">
-        <f>IF(P95="",$B$1,$B$1+1)</f>
+        <f>IF(P95="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f>IF(L95&lt;&gt;"",IF(P95="",FLOOR((L95-MIN(L:L))/2,1),FLOOR((L95-$B$6)/2,1)),"")</f>
+        <f>IF(L95&lt;&gt;"",FLOOR((L95-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G95" s="1" t="e">
@@ -5530,11 +5534,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K95" t="str">
-        <f>IF(Q95&lt;&gt;"",Q95*136+$B$2,IF(R95&lt;&gt;"",R95*136+$B$2,IF(T95&lt;&gt;"",T95*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L95" t="str">
-        <f>IF(J95&lt;&gt;"",J95,K95)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -5549,11 +5553,11 @@
         <v>7</v>
       </c>
       <c r="E96" s="1">
-        <f>IF(P96="",$B$1,$B$1+1)</f>
+        <f>IF(P96="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f>IF(L96&lt;&gt;"",IF(P96="",FLOOR((L96-MIN(L:L))/2,1),FLOOR((L96-$B$6)/2,1)),"")</f>
+        <f>IF(L96&lt;&gt;"",FLOOR((L96-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G96" s="1" t="e">
@@ -5569,11 +5573,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K96" t="str">
-        <f>IF(Q96&lt;&gt;"",Q96*136+$B$2,IF(R96&lt;&gt;"",R96*136+$B$2,IF(T96&lt;&gt;"",T96*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L96" t="str">
-        <f>IF(J96&lt;&gt;"",J96,K96)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -5588,11 +5592,11 @@
         <v>8</v>
       </c>
       <c r="E97" s="1">
-        <f>IF(P97="",$B$1,$B$1+1)</f>
+        <f>IF(P97="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f>IF(L97&lt;&gt;"",IF(P97="",FLOOR((L97-MIN(L:L))/2,1),FLOOR((L97-$B$6)/2,1)),"")</f>
+        <f>IF(L97&lt;&gt;"",FLOOR((L97-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G97" s="1" t="e">
@@ -5608,11 +5612,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K97" t="str">
-        <f>IF(Q97&lt;&gt;"",Q97*136+$B$2,IF(R97&lt;&gt;"",R97*136+$B$2,IF(T97&lt;&gt;"",T97*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L97" t="str">
-        <f>IF(J97&lt;&gt;"",J97,K97)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -5630,11 +5634,11 @@
         <v>83</v>
       </c>
       <c r="E98" s="1">
-        <f>IF(P98="",$B$1,$B$1+1)</f>
+        <f>IF(P98="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f>IF(L98&lt;&gt;"",IF(P98="",FLOOR((L98-MIN(L:L))/2,1),FLOOR((L98-$B$6)/2,1)),"")</f>
+        <f>IF(L98&lt;&gt;"",FLOOR((L98-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G98" s="1" t="e">
@@ -5646,41 +5650,41 @@
         <v>#VALUE!</v>
       </c>
       <c r="I98" t="e">
-        <f>HEX2DEC(H98)</f>
+        <f t="shared" ref="I98:I99" si="13">HEX2DEC(H98)</f>
         <v>#VALUE!</v>
       </c>
       <c r="K98" t="str">
-        <f>IF(Q98&lt;&gt;"",Q98*136+$B$2,IF(R98&lt;&gt;"",R98*136+$B$2,IF(T98&lt;&gt;"",T98*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L98" t="str">
-        <f>IF(J98&lt;&gt;"",J98,K98)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M98">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>63</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>122</v>
+        <v>90</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="E99" s="1">
-        <f>IF(P99="",$B$1,$B$1+1)</f>
+        <f>IF(P99="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F99" s="1">
-        <f>IF(L99&lt;&gt;"",IF(P99="",FLOOR((L99-MIN(L:L))/2,1),FLOOR((L99-$B$6)/2,1)),"")</f>
-        <v>1585</v>
+        <f>IF(L99&lt;&gt;"",FLOOR((L99-MIN(L:L))/2,1),"")</f>
+        <v>1559</v>
       </c>
       <c r="G99" s="1">
         <f>IF(MOD(L99-$B$5,2)=1,8+M99,M99)</f>
@@ -5688,32 +5692,32 @@
       </c>
       <c r="H99" t="str">
         <f>DEC2HEX(E99*HEX2DEC(1000000) +G99*HEX2DEC(10000) +F99)</f>
-        <v>1080631</v>
+        <v>1080617</v>
       </c>
       <c r="I99">
-        <f>HEX2DEC(H99)</f>
-        <v>17303089</v>
+        <f t="shared" si="13"/>
+        <v>17303063</v>
       </c>
       <c r="K99">
-        <f>IF(Q99&lt;&gt;"",Q99*136+$B$2,IF(R99&lt;&gt;"",R99*136+$B$2,IF(T99&lt;&gt;"",T99*80+$B$4,"")))</f>
-        <v>524507</v>
+        <f t="shared" si="11"/>
+        <v>524455</v>
       </c>
       <c r="L99">
-        <f>IF(J99&lt;&gt;"",J99,K99)</f>
-        <v>524507</v>
+        <f t="shared" si="12"/>
+        <v>524455</v>
       </c>
       <c r="O99" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="S99" t="s">
         <v>38</v>
       </c>
       <c r="T99">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U99" t="str">
         <f>IF(S99="*",D99&amp;" : INT := "&amp;(T99+1)&amp;";")</f>
-        <v>CSp1 : INT := 23;</v>
+        <v>H2 : INT := 21;</v>
       </c>
     </row>
     <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -5727,11 +5731,11 @@
         <v>12</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" ref="E74:E120" si="0">IF(P100="",$B$1,$B$1+1)</f>
+        <f>IF(P100="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" ref="F74:F120" si="1">IF(L100&lt;&gt;"",IF(P100="",FLOOR((L100-MIN(L:L))/2,1),FLOOR((L100-$B$6)/2,1)),"")</f>
+        <f>IF(L100&lt;&gt;"",FLOOR((L100-MIN(L:L))/2,1),"")</f>
         <v>428</v>
       </c>
       <c r="G100" s="1">
@@ -5739,7 +5743,7 @@
         <v>7</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" ref="H74:H120" si="2">DEC2HEX(E100*HEX2DEC(1000000) +G100*HEX2DEC(10000) +F100)</f>
+        <f>DEC2HEX(E100*HEX2DEC(1000000) +G100*HEX2DEC(10000) +F100)</f>
         <v>10701AC</v>
       </c>
       <c r="I100">
@@ -5750,11 +5754,11 @@
         <v>522192</v>
       </c>
       <c r="K100" t="str">
-        <f>IF(Q100&lt;&gt;"",Q100*136+$B$2,IF(R100&lt;&gt;"",R100*136+$B$2,IF(T100&lt;&gt;"",T100*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L100">
-        <f>IF(J100&lt;&gt;"",J100,K100)</f>
+        <f t="shared" si="12"/>
         <v>522192</v>
       </c>
       <c r="M100">
@@ -5772,11 +5776,11 @@
         <v>13</v>
       </c>
       <c r="E101" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P101="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L101&lt;&gt;"",FLOOR((L101-MIN(L:L))/2,1),"")</f>
         <v>428</v>
       </c>
       <c r="G101" s="1">
@@ -5784,7 +5788,7 @@
         <v>8</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E101*HEX2DEC(1000000) +G101*HEX2DEC(10000) +F101)</f>
         <v>10801AC</v>
       </c>
       <c r="I101">
@@ -5795,11 +5799,11 @@
         <v>522193</v>
       </c>
       <c r="K101" t="str">
-        <f>IF(Q101&lt;&gt;"",Q101*136+$B$2,IF(R101&lt;&gt;"",R101*136+$B$2,IF(T101&lt;&gt;"",T101*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L101">
-        <f>IF(J101&lt;&gt;"",J101,K101)</f>
+        <f t="shared" si="12"/>
         <v>522193</v>
       </c>
       <c r="M101">
@@ -5817,11 +5821,11 @@
         <v>14</v>
       </c>
       <c r="E102" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P102="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L102&lt;&gt;"",FLOOR((L102-MIN(L:L))/2,1),"")</f>
         <v>428</v>
       </c>
       <c r="G102" s="1">
@@ -5829,7 +5833,7 @@
         <v>9</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E102*HEX2DEC(1000000) +G102*HEX2DEC(10000) +F102)</f>
         <v>10901AC</v>
       </c>
       <c r="I102">
@@ -5840,11 +5844,11 @@
         <v>522193</v>
       </c>
       <c r="K102" t="str">
-        <f>IF(Q102&lt;&gt;"",Q102*136+$B$2,IF(R102&lt;&gt;"",R102*136+$B$2,IF(T102&lt;&gt;"",T102*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L102">
-        <f>IF(J102&lt;&gt;"",J102,K102)</f>
+        <f t="shared" si="12"/>
         <v>522193</v>
       </c>
       <c r="M102">
@@ -5862,11 +5866,11 @@
         <v>15</v>
       </c>
       <c r="E103" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P103="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L103&lt;&gt;"",FLOOR((L103-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G103" s="1" t="e">
@@ -5874,7 +5878,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H103" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E103*HEX2DEC(1000000) +G103*HEX2DEC(10000) +F103)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I103" t="e">
@@ -5882,11 +5886,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K103" t="str">
-        <f>IF(Q103&lt;&gt;"",Q103*136+$B$2,IF(R103&lt;&gt;"",R103*136+$B$2,IF(T103&lt;&gt;"",T103*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L103" t="str">
-        <f>IF(J103&lt;&gt;"",J103,K103)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -5901,11 +5905,11 @@
         <v>16</v>
       </c>
       <c r="E104" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P104="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L104&lt;&gt;"",FLOOR((L104-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G104" s="1" t="e">
@@ -5913,7 +5917,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H104" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E104*HEX2DEC(1000000) +G104*HEX2DEC(10000) +F104)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I104" t="e">
@@ -5921,11 +5925,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K104" t="str">
-        <f>IF(Q104&lt;&gt;"",Q104*136+$B$2,IF(R104&lt;&gt;"",R104*136+$B$2,IF(T104&lt;&gt;"",T104*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L104" t="str">
-        <f>IF(J104&lt;&gt;"",J104,K104)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -5943,11 +5947,11 @@
         <v>53</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P105="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L105&lt;&gt;"",FLOOR((L105-MIN(L:L))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G105" s="1">
@@ -5955,22 +5959,22 @@
         <v>7</v>
       </c>
       <c r="H105" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E105*HEX2DEC(1000000) +G105*HEX2DEC(10000) +F105)</f>
         <v>1070000</v>
       </c>
       <c r="I105">
-        <f t="shared" ref="I105:I110" si="3">HEX2DEC(H105)</f>
+        <f t="shared" ref="I105:I110" si="14">HEX2DEC(H105)</f>
         <v>17235968</v>
       </c>
       <c r="J105">
         <v>521336</v>
       </c>
       <c r="K105" t="str">
-        <f>IF(Q105&lt;&gt;"",Q105*136+$B$2,IF(R105&lt;&gt;"",R105*136+$B$2,IF(T105&lt;&gt;"",T105*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L105">
-        <f t="shared" ref="L105:L110" si="4">IF(J105&lt;&gt;"",J105,K105)</f>
+        <f t="shared" si="12"/>
         <v>521336</v>
       </c>
       <c r="M105">
@@ -5994,11 +5998,11 @@
         <v>54</v>
       </c>
       <c r="E106" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P106="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L106&lt;&gt;"",FLOOR((L106-MIN(L:L))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G106" s="1">
@@ -6006,22 +6010,22 @@
         <v>8</v>
       </c>
       <c r="H106" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E106*HEX2DEC(1000000) +G106*HEX2DEC(10000) +F106)</f>
         <v>1080000</v>
       </c>
       <c r="I106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>17301504</v>
       </c>
       <c r="J106">
         <v>521337</v>
       </c>
       <c r="K106" t="str">
-        <f>IF(Q106&lt;&gt;"",Q106*136+$B$2,IF(R106&lt;&gt;"",R106*136+$B$2,IF(T106&lt;&gt;"",T106*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>521337</v>
       </c>
       <c r="M106">
@@ -6045,11 +6049,11 @@
         <v>48</v>
       </c>
       <c r="E107" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P107="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L107&lt;&gt;"",FLOOR((L107-MIN(L:L))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G107" s="1">
@@ -6057,22 +6061,22 @@
         <v>3</v>
       </c>
       <c r="H107" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E107*HEX2DEC(1000000) +G107*HEX2DEC(10000) +F107)</f>
         <v>1030000</v>
       </c>
       <c r="I107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>16973824</v>
       </c>
       <c r="J107">
         <v>521336</v>
       </c>
       <c r="K107" t="str">
-        <f>IF(Q107&lt;&gt;"",Q107*136+$B$2,IF(R107&lt;&gt;"",R107*136+$B$2,IF(T107&lt;&gt;"",T107*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>521336</v>
       </c>
       <c r="M107">
@@ -6093,11 +6097,11 @@
         <v>49</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P108="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L108&lt;&gt;"",FLOOR((L108-MIN(L:L))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G108" s="1">
@@ -6105,22 +6109,22 @@
         <v>4</v>
       </c>
       <c r="H108" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E108*HEX2DEC(1000000) +G108*HEX2DEC(10000) +F108)</f>
         <v>1040000</v>
       </c>
       <c r="I108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>17039360</v>
       </c>
       <c r="J108">
         <v>521336</v>
       </c>
       <c r="K108" t="str">
-        <f>IF(Q108&lt;&gt;"",Q108*136+$B$2,IF(R108&lt;&gt;"",R108*136+$B$2,IF(T108&lt;&gt;"",T108*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>521336</v>
       </c>
       <c r="M108">
@@ -6141,11 +6145,11 @@
         <v>94</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P109="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L109&lt;&gt;"",FLOOR((L109-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G109" s="1" t="e">
@@ -6153,19 +6157,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="H109" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E109*HEX2DEC(1000000) +G109*HEX2DEC(10000) +F109)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I109" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K109" t="str">
-        <f>IF(Q109&lt;&gt;"",Q109*136+$B$2,IF(R109&lt;&gt;"",R109*136+$B$2,IF(T109&lt;&gt;"",T109*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L109" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -6183,11 +6187,11 @@
         <v>95</v>
       </c>
       <c r="E110" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P110="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L110&lt;&gt;"",FLOOR((L110-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G110" s="1" t="e">
@@ -6195,19 +6199,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="H110" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E110*HEX2DEC(1000000) +G110*HEX2DEC(10000) +F110)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I110" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K110" t="str">
-        <f>IF(Q110&lt;&gt;"",Q110*136+$B$2,IF(R110&lt;&gt;"",R110*136+$B$2,IF(T110&lt;&gt;"",T110*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L110" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -6222,11 +6226,11 @@
         <v>3</v>
       </c>
       <c r="E111" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P111="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F111" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L111&lt;&gt;"",FLOOR((L111-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G111" s="1" t="e">
@@ -6234,7 +6238,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H111" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E111*HEX2DEC(1000000) +G111*HEX2DEC(10000) +F111)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I111" t="e">
@@ -6242,11 +6246,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K111" t="str">
-        <f>IF(Q111&lt;&gt;"",Q111*136+$B$2,IF(R111&lt;&gt;"",R111*136+$B$2,IF(T111&lt;&gt;"",T111*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L111" t="str">
-        <f>IF(J111&lt;&gt;"",J111,K111)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -6261,11 +6265,11 @@
         <v>4</v>
       </c>
       <c r="E112" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P112="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L112&lt;&gt;"",FLOOR((L112-MIN(L:L))/2,1),"")</f>
         <v/>
       </c>
       <c r="G112" s="1" t="e">
@@ -6273,7 +6277,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H112" t="e">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E112*HEX2DEC(1000000) +G112*HEX2DEC(10000) +F112)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I112" t="e">
@@ -6281,11 +6285,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K112" t="str">
-        <f>IF(Q112&lt;&gt;"",Q112*136+$B$2,IF(R112&lt;&gt;"",R112*136+$B$2,IF(T112&lt;&gt;"",T112*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L112" t="str">
-        <f>IF(J112&lt;&gt;"",J112,K112)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -6303,11 +6307,11 @@
         <v>57</v>
       </c>
       <c r="E113" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P113="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F113" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L113&lt;&gt;"",FLOOR((L113-MIN(L:L))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G113" s="1">
@@ -6315,22 +6319,22 @@
         <v>2</v>
       </c>
       <c r="H113" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E113*HEX2DEC(1000000) +G113*HEX2DEC(10000) +F113)</f>
         <v>1020000</v>
       </c>
       <c r="I113">
-        <f t="shared" ref="I113:I120" si="5">HEX2DEC(H113)</f>
+        <f t="shared" ref="I113:I120" si="15">HEX2DEC(H113)</f>
         <v>16908288</v>
       </c>
       <c r="J113">
         <v>521336</v>
       </c>
       <c r="K113" t="str">
-        <f>IF(Q113&lt;&gt;"",Q113*136+$B$2,IF(R113&lt;&gt;"",R113*136+$B$2,IF(T113&lt;&gt;"",T113*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L113">
-        <f t="shared" ref="L113:L120" si="6">IF(J113&lt;&gt;"",J113,K113)</f>
+        <f t="shared" si="12"/>
         <v>521336</v>
       </c>
       <c r="M113">
@@ -6351,11 +6355,11 @@
         <v>50</v>
       </c>
       <c r="E114" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P114="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L114&lt;&gt;"",FLOOR((L114-MIN(L:L))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G114" s="1">
@@ -6363,22 +6367,22 @@
         <v>5</v>
       </c>
       <c r="H114" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E114*HEX2DEC(1000000) +G114*HEX2DEC(10000) +F114)</f>
         <v>1050000</v>
       </c>
       <c r="I114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>17104896</v>
       </c>
       <c r="J114">
         <v>521336</v>
       </c>
       <c r="K114" t="str">
-        <f>IF(Q114&lt;&gt;"",Q114*136+$B$2,IF(R114&lt;&gt;"",R114*136+$B$2,IF(T114&lt;&gt;"",T114*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>521336</v>
       </c>
       <c r="M114">
@@ -6399,11 +6403,11 @@
         <v>51</v>
       </c>
       <c r="E115" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P115="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L115&lt;&gt;"",FLOOR((L115-MIN(L:L))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G115" s="1">
@@ -6411,22 +6415,22 @@
         <v>6</v>
       </c>
       <c r="H115" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E115*HEX2DEC(1000000) +G115*HEX2DEC(10000) +F115)</f>
         <v>1060000</v>
       </c>
       <c r="I115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>17170432</v>
       </c>
       <c r="J115">
         <v>521336</v>
       </c>
       <c r="K115" t="str">
-        <f>IF(Q115&lt;&gt;"",Q115*136+$B$2,IF(R115&lt;&gt;"",R115*136+$B$2,IF(T115&lt;&gt;"",T115*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>521336</v>
       </c>
       <c r="M115">
@@ -6447,11 +6451,11 @@
         <v>58</v>
       </c>
       <c r="E116" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P116="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L116&lt;&gt;"",FLOOR((L116-MIN(L:L))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G116" s="1">
@@ -6459,22 +6463,22 @@
         <v>9</v>
       </c>
       <c r="H116" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E116*HEX2DEC(1000000) +G116*HEX2DEC(10000) +F116)</f>
         <v>1090000</v>
       </c>
       <c r="I116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>17367040</v>
       </c>
       <c r="J116">
         <v>521337</v>
       </c>
       <c r="K116" t="str">
-        <f>IF(Q116&lt;&gt;"",Q116*136+$B$2,IF(R116&lt;&gt;"",R116*136+$B$2,IF(T116&lt;&gt;"",T116*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>521337</v>
       </c>
       <c r="M116">
@@ -6498,11 +6502,11 @@
         <v>70</v>
       </c>
       <c r="E117" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P117="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F117" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L117&lt;&gt;"",FLOOR((L117-MIN(L:L))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G117" s="1">
@@ -6510,22 +6514,22 @@
         <v>10</v>
       </c>
       <c r="H117" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E117*HEX2DEC(1000000) +G117*HEX2DEC(10000) +F117)</f>
         <v>10A0000</v>
       </c>
       <c r="I117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>17432576</v>
       </c>
       <c r="J117">
         <v>521337</v>
       </c>
       <c r="K117" t="str">
-        <f>IF(Q117&lt;&gt;"",Q117*136+$B$2,IF(R117&lt;&gt;"",R117*136+$B$2,IF(T117&lt;&gt;"",T117*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>521337</v>
       </c>
       <c r="M117">
@@ -6549,11 +6553,11 @@
         <v>55</v>
       </c>
       <c r="E118" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P118="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L118&lt;&gt;"",FLOOR((L118-MIN(L:L))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G118" s="1">
@@ -6561,22 +6565,22 @@
         <v>11</v>
       </c>
       <c r="H118" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E118*HEX2DEC(1000000) +G118*HEX2DEC(10000) +F118)</f>
         <v>10B0000</v>
       </c>
       <c r="I118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>17498112</v>
       </c>
       <c r="J118">
         <v>521337</v>
       </c>
       <c r="K118" t="str">
-        <f>IF(Q118&lt;&gt;"",Q118*136+$B$2,IF(R118&lt;&gt;"",R118*136+$B$2,IF(T118&lt;&gt;"",T118*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>521337</v>
       </c>
       <c r="M118">
@@ -6600,11 +6604,11 @@
         <v>52</v>
       </c>
       <c r="E119" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P119="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F119" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L119&lt;&gt;"",FLOOR((L119-MIN(L:L))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G119" s="1">
@@ -6612,22 +6616,22 @@
         <v>12</v>
       </c>
       <c r="H119" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E119*HEX2DEC(1000000) +G119*HEX2DEC(10000) +F119)</f>
         <v>10C0000</v>
       </c>
       <c r="I119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>17563648</v>
       </c>
       <c r="J119">
         <v>521337</v>
       </c>
       <c r="K119" t="str">
-        <f>IF(Q119&lt;&gt;"",Q119*136+$B$2,IF(R119&lt;&gt;"",R119*136+$B$2,IF(T119&lt;&gt;"",T119*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>521337</v>
       </c>
       <c r="M119">
@@ -6648,11 +6652,11 @@
         <v>56</v>
       </c>
       <c r="E120" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P120="",$B$1,$B$1)</f>
         <v>1</v>
       </c>
       <c r="F120" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L120&lt;&gt;"",FLOOR((L120-MIN(L:L))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G120" s="1">
@@ -6660,22 +6664,22 @@
         <v>13</v>
       </c>
       <c r="H120" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(E120*HEX2DEC(1000000) +G120*HEX2DEC(10000) +F120)</f>
         <v>10D0000</v>
       </c>
       <c r="I120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>17629184</v>
       </c>
       <c r="J120">
         <v>521337</v>
       </c>
       <c r="K120" t="str">
-        <f>IF(Q120&lt;&gt;"",Q120*136+$B$2,IF(R120&lt;&gt;"",R120*136+$B$2,IF(T120&lt;&gt;"",T120*80+$B$4,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>521337</v>
       </c>
       <c r="M120">
@@ -6692,13 +6696,13 @@
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="18">
+    <filterColumn colId="17">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <sortState ref="A9:U99">
-      <sortCondition ref="T8:T120"/>
+    <sortState ref="A36:U88">
+      <sortCondition ref="R8:R120"/>
     </sortState>
   </autoFilter>
   <sortState ref="A9:T120">
@@ -6716,7 +6720,7 @@
   <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:O69"/>
+      <selection activeCell="I7" sqref="I7:I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6743,7 +6747,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <f>K7-B3</f>
+        <v>7953</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -6751,7 +6759,7 @@
         <v>69</v>
       </c>
       <c r="B2">
-        <v>1050374</v>
+        <v>521358</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -6775,7 +6783,7 @@
       </c>
       <c r="B4">
         <f>MIN(K:K)</f>
-        <v>1050374</v>
+        <v>7953</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -6857,32 +6865,32 @@
         <v>18</v>
       </c>
       <c r="E7" s="1">
-        <f>IF(P7="",$B$1,$B$1+1)</f>
-        <v>4</v>
+        <f>IF(P7="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
-        <f>IF(L7&lt;&gt;"",IF(P7="",FLOOR((L7-MIN(L:L))/2,1),FLOOR((L7-$B$4)/2,1)),"")</f>
-        <v>0</v>
+        <f>IF(L7&lt;&gt;"",FLOOR((L7-$B$3)/2,1),"")</f>
+        <v>3976</v>
       </c>
       <c r="G7" s="1">
-        <f>IF(MOD(F7,2)=1,8+M7,M7)</f>
-        <v>0</v>
+        <f>IF(MOD(L7-$B$3,2)=1,8+M7,M7)</f>
+        <v>8</v>
       </c>
       <c r="H7" t="str">
         <f>DEC2HEX(E7*HEX2DEC(1000000) +G7*HEX2DEC(10000) +F7)</f>
-        <v>4000000</v>
+        <v>2080F88</v>
       </c>
       <c r="I7">
         <f>HEX2DEC(H7)</f>
-        <v>67108864</v>
+        <v>34082696</v>
       </c>
       <c r="K7">
-        <f>IF(Q7&lt;&gt;"",$B$2+Q7*136,"")</f>
-        <v>1050374</v>
+        <f>IF(Q7&lt;&gt;"",$B$2+Q7*116,"")</f>
+        <v>521358</v>
       </c>
       <c r="L7">
         <f>IF(J7&lt;&gt;"",J7,K7)</f>
-        <v>1050374</v>
+        <v>521358</v>
       </c>
       <c r="N7" t="s">
         <v>231</v>
@@ -6915,32 +6923,32 @@
         <v>19</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ref="E8:E69" si="0">IF(P8="",$B$1,$B$1+1)</f>
-        <v>4</v>
+        <f>IF(P8="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" ref="F8:F69" si="1">IF(L8&lt;&gt;"",IF(P8="",FLOOR((L8-MIN(L:L))/2,1),FLOOR((L8-$B$4)/2,1)),"")</f>
-        <v>68</v>
+        <f>IF(L8&lt;&gt;"",FLOOR((L8-$B$3)/2,1),"")</f>
+        <v>4034</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ref="G8:G69" si="2">IF(MOD(F8,2)=1,8+M8,M8)</f>
-        <v>0</v>
+        <f t="shared" ref="G8:G9" si="0">IF(MOD(L8-$B$3,2)=1,8+M8,M8)</f>
+        <v>8</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" ref="H8:H69" si="3">DEC2HEX(E8*HEX2DEC(1000000) +G8*HEX2DEC(10000) +F8)</f>
-        <v>4000044</v>
+        <f>DEC2HEX(E8*HEX2DEC(1000000) +G8*HEX2DEC(10000) +F8)</f>
+        <v>2080FC2</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I9" si="4">HEX2DEC(H8)</f>
-        <v>67108932</v>
+        <f t="shared" ref="I8:I9" si="1">HEX2DEC(H8)</f>
+        <v>34082754</v>
       </c>
       <c r="K8">
-        <f>IF(Q8&lt;&gt;"",$B$2+Q8*136,"")</f>
-        <v>1050510</v>
+        <f t="shared" ref="K8:K9" si="2">IF(Q8&lt;&gt;"",$B$2+Q8*116,"")</f>
+        <v>521474</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L9" si="5">IF(J8&lt;&gt;"",J8,K8)</f>
-        <v>1050510</v>
+        <f t="shared" ref="L8:L9" si="3">IF(J8&lt;&gt;"",J8,K8)</f>
+        <v>521474</v>
       </c>
       <c r="N8" t="s">
         <v>232</v>
@@ -6973,32 +6981,32 @@
         <v>20</v>
       </c>
       <c r="E9" s="1">
+        <f>IF(P9="",$B$1,$B$1)</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <f>IF(L9&lt;&gt;"",FLOOR((L9-$B$3)/2,1),"")</f>
+        <v>4092</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" t="str">
+        <f>DEC2HEX(E9*HEX2DEC(1000000) +G9*HEX2DEC(10000) +F9)</f>
+        <v>2080FFC</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="1"/>
-        <v>136</v>
-      </c>
-      <c r="G9" s="1">
+        <v>34082812</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H9" t="str">
+        <v>521590</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="3"/>
-        <v>4000088</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
-        <v>67109000</v>
-      </c>
-      <c r="K9">
-        <f>IF(Q9&lt;&gt;"",$B$2+Q9*136,"")</f>
-        <v>1050646</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="5"/>
-        <v>1050646</v>
+        <v>521590</v>
       </c>
       <c r="N9" t="s">
         <v>233</v>
@@ -7028,19 +7036,19 @@
         <v>6</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P10="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L10&lt;&gt;"",FLOOR((L10-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G10" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F10,2)=1,8+M10,M10)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H10" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E10*HEX2DEC(1000000) +G10*HEX2DEC(10000) +F10)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I10" t="e">
@@ -7071,19 +7079,19 @@
         <v>7</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P11="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L11&lt;&gt;"",FLOOR((L11-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G11" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F11,2)=1,8+M11,M11)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H11" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E11*HEX2DEC(1000000) +G11*HEX2DEC(10000) +F11)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I11" t="e">
@@ -7117,19 +7125,19 @@
         <v>8</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P12="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L12&lt;&gt;"",FLOOR((L12-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G12" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F12,2)=1,8+M12,M12)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H12" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E12*HEX2DEC(1000000) +G12*HEX2DEC(10000) +F12)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I12" t="e">
@@ -7163,30 +7171,30 @@
         <v>11</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P13="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L13&lt;&gt;"",FLOOR((L13-$B$3)/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G13:G24" si="4">IF(MOD(L13-$B$3,2)=1,8+M13,M13)</f>
         <v>0</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="3"/>
-        <v>3000000</v>
+        <f>DEC2HEX(E13*HEX2DEC(1000000) +G13*HEX2DEC(10000) +F13)</f>
+        <v>2000000</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I24" si="6">HEX2DEC(H13)</f>
-        <v>50331648</v>
+        <f t="shared" ref="I13:I24" si="5">HEX2DEC(H13)</f>
+        <v>33554432</v>
       </c>
       <c r="J13">
         <v>513405</v>
       </c>
       <c r="K13" t="str">
-        <f>IF(Q13&lt;&gt;"",$B$2+Q13*136,"")</f>
+        <f t="shared" ref="K13:K24" si="6">IF(Q13&lt;&gt;"",$B$2+Q13*116,"")</f>
         <v/>
       </c>
       <c r="L13">
@@ -7218,30 +7226,30 @@
         <v>12</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P14="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L14&lt;&gt;"",FLOOR((L14-$B$3)/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="3"/>
-        <v>3010000</v>
+        <f>DEC2HEX(E14*HEX2DEC(1000000) +G14*HEX2DEC(10000) +F14)</f>
+        <v>2010000</v>
       </c>
       <c r="I14">
-        <f t="shared" si="6"/>
-        <v>50397184</v>
+        <f t="shared" si="5"/>
+        <v>33619968</v>
       </c>
       <c r="J14">
         <v>513405</v>
       </c>
       <c r="K14" t="str">
-        <f>IF(Q14&lt;&gt;"",$B$2+Q14*136,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L14">
@@ -7273,30 +7281,30 @@
         <v>13</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P15="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L15&lt;&gt;"",FLOOR((L15-$B$3)/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="3"/>
-        <v>3020000</v>
+        <f>DEC2HEX(E15*HEX2DEC(1000000) +G15*HEX2DEC(10000) +F15)</f>
+        <v>2020000</v>
       </c>
       <c r="I15">
-        <f t="shared" si="6"/>
-        <v>50462720</v>
+        <f t="shared" si="5"/>
+        <v>33685504</v>
       </c>
       <c r="J15">
         <v>513405</v>
       </c>
       <c r="K15" t="str">
-        <f>IF(Q15&lt;&gt;"",$B$2+Q15*136,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L15">
@@ -7328,30 +7336,30 @@
         <v>14</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P16="",$B$1,$B$1)</f>
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <f>IF(L16&lt;&gt;"",FLOOR((L16-$B$3)/2,1),"")</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="F16" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
       <c r="H16" t="str">
-        <f t="shared" si="3"/>
-        <v>3030000</v>
+        <f>DEC2HEX(E16*HEX2DEC(1000000) +G16*HEX2DEC(10000) +F16)</f>
+        <v>2030000</v>
       </c>
       <c r="I16">
-        <f t="shared" si="6"/>
-        <v>50528256</v>
+        <f t="shared" si="5"/>
+        <v>33751040</v>
       </c>
       <c r="J16">
         <v>513405</v>
       </c>
       <c r="K16" t="str">
-        <f>IF(Q16&lt;&gt;"",$B$2+Q16*136,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L16">
@@ -7383,30 +7391,30 @@
         <v>21</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P17="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L17&lt;&gt;"",FLOOR((L17-$B$3)/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="3"/>
-        <v>3040000</v>
+        <f>DEC2HEX(E17*HEX2DEC(1000000) +G17*HEX2DEC(10000) +F17)</f>
+        <v>2040000</v>
       </c>
       <c r="I17">
-        <f t="shared" si="6"/>
-        <v>50593792</v>
+        <f t="shared" si="5"/>
+        <v>33816576</v>
       </c>
       <c r="J17">
         <v>513405</v>
       </c>
       <c r="K17" t="str">
-        <f>IF(Q17&lt;&gt;"",$B$2+Q17*136,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L17">
@@ -7438,30 +7446,30 @@
         <v>22</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P18="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L18&lt;&gt;"",FLOOR((L18-$B$3)/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="3"/>
-        <v>3050000</v>
+        <f>DEC2HEX(E18*HEX2DEC(1000000) +G18*HEX2DEC(10000) +F18)</f>
+        <v>2050000</v>
       </c>
       <c r="I18">
-        <f t="shared" si="6"/>
-        <v>50659328</v>
+        <f t="shared" si="5"/>
+        <v>33882112</v>
       </c>
       <c r="J18">
         <v>513405</v>
       </c>
       <c r="K18" t="str">
-        <f>IF(Q18&lt;&gt;"",$B$2+Q18*136,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L18">
@@ -7493,30 +7501,30 @@
         <v>23</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P19="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L19&lt;&gt;"",FLOOR((L19-$B$3)/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="3"/>
-        <v>3060000</v>
+        <f>DEC2HEX(E19*HEX2DEC(1000000) +G19*HEX2DEC(10000) +F19)</f>
+        <v>2060000</v>
       </c>
       <c r="I19">
-        <f t="shared" si="6"/>
-        <v>50724864</v>
+        <f t="shared" si="5"/>
+        <v>33947648</v>
       </c>
       <c r="J19">
         <v>513405</v>
       </c>
       <c r="K19" t="str">
-        <f>IF(Q19&lt;&gt;"",$B$2+Q19*136,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L19">
@@ -7548,30 +7556,30 @@
         <v>24</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P20="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L20&lt;&gt;"",FLOOR((L20-$B$3)/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="3"/>
-        <v>3070000</v>
+        <f>DEC2HEX(E20*HEX2DEC(1000000) +G20*HEX2DEC(10000) +F20)</f>
+        <v>2070000</v>
       </c>
       <c r="I20">
-        <f t="shared" si="6"/>
-        <v>50790400</v>
+        <f t="shared" si="5"/>
+        <v>34013184</v>
       </c>
       <c r="J20">
         <v>513405</v>
       </c>
       <c r="K20" t="str">
-        <f>IF(Q20&lt;&gt;"",$B$2+Q20*136,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L20">
@@ -7603,32 +7611,32 @@
         <v>157</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>IF(P21="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="1"/>
-        <v>680</v>
+        <f>IF(L21&lt;&gt;"",FLOOR((L21-$B$3)/2,1),"")</f>
+        <v>4556</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="3"/>
-        <v>40002A8</v>
+        <f>DEC2HEX(E21*HEX2DEC(1000000) +G21*HEX2DEC(10000) +F21)</f>
+        <v>20811CC</v>
       </c>
       <c r="I21">
+        <f t="shared" si="5"/>
+        <v>34083276</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="6"/>
-        <v>67109544</v>
-      </c>
-      <c r="K21">
-        <f>IF(Q21&lt;&gt;"",$B$2+Q21*136,"")</f>
-        <v>1051734</v>
+        <v>522518</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1051734</v>
+        <v>522518</v>
       </c>
       <c r="N21" t="s">
         <v>241</v>
@@ -7661,32 +7669,32 @@
         <v>217</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>IF(P22="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="1"/>
-        <v>748</v>
+        <f>IF(L22&lt;&gt;"",FLOOR((L22-$B$3)/2,1),"")</f>
+        <v>4614</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="3"/>
-        <v>40002EC</v>
+        <f>DEC2HEX(E22*HEX2DEC(1000000) +G22*HEX2DEC(10000) +F22)</f>
+        <v>2081206</v>
       </c>
       <c r="I22">
+        <f t="shared" si="5"/>
+        <v>34083334</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="6"/>
-        <v>67109612</v>
-      </c>
-      <c r="K22">
-        <f>IF(Q22&lt;&gt;"",$B$2+Q22*136,"")</f>
-        <v>1051870</v>
+        <v>522634</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>1051870</v>
+        <v>522634</v>
       </c>
       <c r="N22" t="s">
         <v>242</v>
@@ -7719,32 +7727,32 @@
         <v>128</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>IF(P23="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="1"/>
-        <v>544</v>
+        <f>IF(L23&lt;&gt;"",FLOOR((L23-$B$3)/2,1),"")</f>
+        <v>4440</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="3"/>
-        <v>4000220</v>
+        <f>DEC2HEX(E23*HEX2DEC(1000000) +G23*HEX2DEC(10000) +F23)</f>
+        <v>2081158</v>
       </c>
       <c r="I23">
+        <f t="shared" si="5"/>
+        <v>34083160</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="6"/>
-        <v>67109408</v>
-      </c>
-      <c r="K23">
-        <f>IF(Q23&lt;&gt;"",$B$2+Q23*136,"")</f>
-        <v>1051462</v>
+        <v>522286</v>
       </c>
       <c r="L23">
         <f t="shared" si="7"/>
-        <v>1051462</v>
+        <v>522286</v>
       </c>
       <c r="N23" t="s">
         <v>239</v>
@@ -7777,32 +7785,32 @@
         <v>129</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>IF(P24="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="1"/>
-        <v>612</v>
+        <f>IF(L24&lt;&gt;"",FLOOR((L24-$B$3)/2,1),"")</f>
+        <v>4498</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="3"/>
-        <v>4000264</v>
+        <f>DEC2HEX(E24*HEX2DEC(1000000) +G24*HEX2DEC(10000) +F24)</f>
+        <v>2081192</v>
       </c>
       <c r="I24">
+        <f t="shared" si="5"/>
+        <v>34083218</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="6"/>
-        <v>67109476</v>
-      </c>
-      <c r="K24">
-        <f>IF(Q24&lt;&gt;"",$B$2+Q24*136,"")</f>
-        <v>1051598</v>
+        <v>522402</v>
       </c>
       <c r="L24">
         <f t="shared" si="7"/>
-        <v>1051598</v>
+        <v>522402</v>
       </c>
       <c r="N24" t="s">
         <v>240</v>
@@ -7832,19 +7840,19 @@
         <v>3</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P25="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L25&lt;&gt;"",FLOOR((L25-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G25" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F25,2)=1,8+M25,M25)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H25" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E25*HEX2DEC(1000000) +G25*HEX2DEC(10000) +F25)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I25" t="e">
@@ -7875,19 +7883,19 @@
         <v>4</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P26="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L26&lt;&gt;"",FLOOR((L26-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G26" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F26,2)=1,8+M26,M26)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H26" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E26*HEX2DEC(1000000) +G26*HEX2DEC(10000) +F26)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I26" t="e">
@@ -7918,19 +7926,19 @@
         <v>5</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P27="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L27&lt;&gt;"",FLOOR((L27-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G27" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F27,2)=1,8+M27,M27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H27" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E27*HEX2DEC(1000000) +G27*HEX2DEC(10000) +F27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I27" t="e">
@@ -7961,19 +7969,19 @@
         <v>6</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P28="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L28&lt;&gt;"",FLOOR((L28-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G28" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F28,2)=1,8+M28,M28)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H28" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E28*HEX2DEC(1000000) +G28*HEX2DEC(10000) +F28)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I28" t="e">
@@ -8004,19 +8012,19 @@
         <v>7</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P29="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L29&lt;&gt;"",FLOOR((L29-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G29" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F29,2)=1,8+M29,M29)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H29" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E29*HEX2DEC(1000000) +G29*HEX2DEC(10000) +F29)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I29" t="e">
@@ -8047,19 +8055,19 @@
         <v>8</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P30="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L30&lt;&gt;"",FLOOR((L30-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G30" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F30,2)=1,8+M30,M30)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H30" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E30*HEX2DEC(1000000) +G30*HEX2DEC(10000) +F30)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I30" t="e">
@@ -8090,19 +8098,19 @@
         <v>9</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P31="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L31&lt;&gt;"",FLOOR((L31-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G31" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F31,2)=1,8+M31,M31)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H31" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E31*HEX2DEC(1000000) +G31*HEX2DEC(10000) +F31)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I31" t="e">
@@ -8133,19 +8141,19 @@
         <v>10</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P32="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L32&lt;&gt;"",FLOOR((L32-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G32" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F32,2)=1,8+M32,M32)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H32" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E32*HEX2DEC(1000000) +G32*HEX2DEC(10000) +F32)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I32" t="e">
@@ -8176,19 +8184,19 @@
         <v>11</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P33="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L33&lt;&gt;"",FLOOR((L33-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G33" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F33,2)=1,8+M33,M33)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H33" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E33*HEX2DEC(1000000) +G33*HEX2DEC(10000) +F33)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I33" t="e">
@@ -8219,19 +8227,19 @@
         <v>12</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P34="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L34&lt;&gt;"",FLOOR((L34-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G34" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F34,2)=1,8+M34,M34)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H34" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E34*HEX2DEC(1000000) +G34*HEX2DEC(10000) +F34)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I34" t="e">
@@ -8262,19 +8270,19 @@
         <v>13</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P35="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L35&lt;&gt;"",FLOOR((L35-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G35" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F35,2)=1,8+M35,M35)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H35" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E35*HEX2DEC(1000000) +G35*HEX2DEC(10000) +F35)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I35" t="e">
@@ -8305,19 +8313,19 @@
         <v>14</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P36="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L36&lt;&gt;"",FLOOR((L36-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G36" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F36,2)=1,8+M36,M36)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H36" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E36*HEX2DEC(1000000) +G36*HEX2DEC(10000) +F36)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I36" t="e">
@@ -8348,19 +8356,19 @@
         <v>15</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P37="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L37&lt;&gt;"",FLOOR((L37-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G37" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F37,2)=1,8+M37,M37)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H37" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E37*HEX2DEC(1000000) +G37*HEX2DEC(10000) +F37)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I37" t="e">
@@ -8391,19 +8399,19 @@
         <v>16</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P38="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L38&lt;&gt;"",FLOOR((L38-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G38" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F38,2)=1,8+M38,M38)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H38" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E38*HEX2DEC(1000000) +G38*HEX2DEC(10000) +F38)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I38" t="e">
@@ -8437,32 +8445,32 @@
         <v>116</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>IF(P39="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="1"/>
-        <v>204</v>
+        <f>IF(L39&lt;&gt;"",FLOOR((L39-$B$3)/2,1),"")</f>
+        <v>4150</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="G39:G41" si="8">IF(MOD(L39-$B$3,2)=1,8+M39,M39)</f>
+        <v>8</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="3"/>
-        <v>40000CC</v>
+        <f>DEC2HEX(E39*HEX2DEC(1000000) +G39*HEX2DEC(10000) +F39)</f>
+        <v>2081036</v>
       </c>
       <c r="I39">
-        <f t="shared" ref="I39:I41" si="8">HEX2DEC(H39)</f>
-        <v>67109068</v>
+        <f t="shared" ref="I39:I41" si="9">HEX2DEC(H39)</f>
+        <v>34082870</v>
       </c>
       <c r="K39">
-        <f>IF(Q39&lt;&gt;"",$B$2+Q39*136,"")</f>
-        <v>1050782</v>
+        <f t="shared" ref="K39:K41" si="10">IF(Q39&lt;&gt;"",$B$2+Q39*116,"")</f>
+        <v>521706</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39:L41" si="9">IF(J39&lt;&gt;"",J39,K39)</f>
-        <v>1050782</v>
+        <f t="shared" ref="L39:L41" si="11">IF(J39&lt;&gt;"",J39,K39)</f>
+        <v>521706</v>
       </c>
       <c r="N39" t="s">
         <v>234</v>
@@ -8495,32 +8503,32 @@
         <v>117</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>IF(P40="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="1"/>
-        <v>272</v>
+        <f>IF(L40&lt;&gt;"",FLOOR((L40-$B$3)/2,1),"")</f>
+        <v>4208</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="3"/>
-        <v>4000110</v>
+        <f>DEC2HEX(E40*HEX2DEC(1000000) +G40*HEX2DEC(10000) +F40)</f>
+        <v>2081070</v>
       </c>
       <c r="I40">
-        <f t="shared" si="8"/>
-        <v>67109136</v>
+        <f t="shared" si="9"/>
+        <v>34082928</v>
       </c>
       <c r="K40">
-        <f>IF(Q40&lt;&gt;"",$B$2+Q40*136,"")</f>
-        <v>1050918</v>
+        <f t="shared" si="10"/>
+        <v>521822</v>
       </c>
       <c r="L40">
-        <f t="shared" si="9"/>
-        <v>1050918</v>
+        <f t="shared" si="11"/>
+        <v>521822</v>
       </c>
       <c r="N40" t="s">
         <v>235</v>
@@ -8553,32 +8561,32 @@
         <v>118</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>IF(P41="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="1"/>
-        <v>340</v>
+        <f>IF(L41&lt;&gt;"",FLOOR((L41-$B$3)/2,1),"")</f>
+        <v>4266</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="3"/>
-        <v>4000154</v>
+        <f>DEC2HEX(E41*HEX2DEC(1000000) +G41*HEX2DEC(10000) +F41)</f>
+        <v>20810AA</v>
       </c>
       <c r="I41">
-        <f t="shared" si="8"/>
-        <v>67109204</v>
+        <f t="shared" si="9"/>
+        <v>34082986</v>
       </c>
       <c r="K41">
-        <f>IF(Q41&lt;&gt;"",$B$2+Q41*136,"")</f>
-        <v>1051054</v>
+        <f t="shared" si="10"/>
+        <v>521938</v>
       </c>
       <c r="L41">
-        <f t="shared" si="9"/>
-        <v>1051054</v>
+        <f t="shared" si="11"/>
+        <v>521938</v>
       </c>
       <c r="N41" t="s">
         <v>236</v>
@@ -8608,19 +8616,19 @@
         <v>4</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P42="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L42&lt;&gt;"",FLOOR((L42-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G42" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F42,2)=1,8+M42,M42)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H42" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E42*HEX2DEC(1000000) +G42*HEX2DEC(10000) +F42)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I42" t="e">
@@ -8651,19 +8659,19 @@
         <v>5</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P43="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L43&lt;&gt;"",FLOOR((L43-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G43" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F43,2)=1,8+M43,M43)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H43" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E43*HEX2DEC(1000000) +G43*HEX2DEC(10000) +F43)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I43" t="e">
@@ -8694,24 +8702,24 @@
         <v>9</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P44="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L44&lt;&gt;"",FLOOR((L44-$B$3)/2,1),"")</f>
         <v>4393</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F44,2)=1,8+M44,M44)</f>
         <v>8</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="3"/>
-        <v>3081129</v>
+        <f>DEC2HEX(E44*HEX2DEC(1000000) +G44*HEX2DEC(10000) +F44)</f>
+        <v>2081129</v>
       </c>
       <c r="I44">
         <f>HEX2DEC(H44)</f>
-        <v>50860329</v>
+        <v>34083113</v>
       </c>
       <c r="J44">
         <v>522192</v>
@@ -8743,24 +8751,24 @@
         <v>10</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P45="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L45&lt;&gt;"",FLOOR((L45-$B$3)/2,1),"")</f>
         <v>4393</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F45,2)=1,8+M45,M45)</f>
         <v>9</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="3"/>
-        <v>3091129</v>
+        <f>DEC2HEX(E45*HEX2DEC(1000000) +G45*HEX2DEC(10000) +F45)</f>
+        <v>2091129</v>
       </c>
       <c r="I45">
         <f>HEX2DEC(H45)</f>
-        <v>50925865</v>
+        <v>34148649</v>
       </c>
       <c r="J45">
         <v>522192</v>
@@ -8792,24 +8800,24 @@
         <v>11</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P46="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L46&lt;&gt;"",FLOOR((L46-$B$3)/2,1),"")</f>
         <v>4393</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F46,2)=1,8+M46,M46)</f>
         <v>10</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="3"/>
-        <v>30A1129</v>
+        <f>DEC2HEX(E46*HEX2DEC(1000000) +G46*HEX2DEC(10000) +F46)</f>
+        <v>20A1129</v>
       </c>
       <c r="I46">
         <f>HEX2DEC(H46)</f>
-        <v>50991401</v>
+        <v>34214185</v>
       </c>
       <c r="J46">
         <v>522192</v>
@@ -8841,24 +8849,24 @@
         <v>12</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P47="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L47&lt;&gt;"",FLOOR((L47-$B$3)/2,1),"")</f>
         <v>4393</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F47,2)=1,8+M47,M47)</f>
         <v>11</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="3"/>
-        <v>30B1129</v>
+        <f>DEC2HEX(E47*HEX2DEC(1000000) +G47*HEX2DEC(10000) +F47)</f>
+        <v>20B1129</v>
       </c>
       <c r="I47">
         <f>HEX2DEC(H47)</f>
-        <v>51056937</v>
+        <v>34279721</v>
       </c>
       <c r="J47">
         <v>522192</v>
@@ -8890,24 +8898,24 @@
         <v>13</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P48="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L48&lt;&gt;"",FLOOR((L48-$B$3)/2,1),"")</f>
         <v>4329</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F48,2)=1,8+M48,M48)</f>
         <v>10</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="3"/>
-        <v>30A10E9</v>
+        <f>DEC2HEX(E48*HEX2DEC(1000000) +G48*HEX2DEC(10000) +F48)</f>
+        <v>20A10E9</v>
       </c>
       <c r="I48">
         <f>HEX2DEC(H48)</f>
-        <v>50991337</v>
+        <v>34214121</v>
       </c>
       <c r="J48">
         <v>522063</v>
@@ -8939,24 +8947,24 @@
         <v>14</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P49="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L49&lt;&gt;"",FLOOR((L49-$B$3)/2,1),"")</f>
         <v>4329</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F49,2)=1,8+M49,M49)</f>
         <v>11</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="3"/>
-        <v>30B10E9</v>
+        <f>DEC2HEX(E49*HEX2DEC(1000000) +G49*HEX2DEC(10000) +F49)</f>
+        <v>20B10E9</v>
       </c>
       <c r="I49">
         <f>HEX2DEC(H49)</f>
-        <v>51056873</v>
+        <v>34279657</v>
       </c>
       <c r="J49">
         <v>522063</v>
@@ -8988,24 +8996,24 @@
         <v>15</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P50="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L50&lt;&gt;"",FLOOR((L50-$B$3)/2,1),"")</f>
         <v>4329</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F50,2)=1,8+M50,M50)</f>
         <v>8</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="3"/>
-        <v>30810E9</v>
+        <f>DEC2HEX(E50*HEX2DEC(1000000) +G50*HEX2DEC(10000) +F50)</f>
+        <v>20810E9</v>
       </c>
       <c r="I50">
         <f>HEX2DEC(H50)</f>
-        <v>50860265</v>
+        <v>34083049</v>
       </c>
       <c r="J50">
         <v>522063</v>
@@ -9037,24 +9045,24 @@
         <v>16</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P51="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L51&lt;&gt;"",FLOOR((L51-$B$3)/2,1),"")</f>
         <v>4329</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F51,2)=1,8+M51,M51)</f>
         <v>9</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="3"/>
-        <v>30910E9</v>
+        <f>DEC2HEX(E51*HEX2DEC(1000000) +G51*HEX2DEC(10000) +F51)</f>
+        <v>20910E9</v>
       </c>
       <c r="I51">
         <f>HEX2DEC(H51)</f>
-        <v>50925801</v>
+        <v>34148585</v>
       </c>
       <c r="J51">
         <v>522063</v>
@@ -9089,32 +9097,32 @@
         <v>120</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>IF(P52="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="1"/>
-        <v>408</v>
+        <f>IF(L52&lt;&gt;"",FLOOR((L52-$B$3)/2,1),"")</f>
+        <v>4324</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="G52:G53" si="12">IF(MOD(L52-$B$3,2)=1,8+M52,M52)</f>
+        <v>8</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="3"/>
-        <v>4000198</v>
+        <f>DEC2HEX(E52*HEX2DEC(1000000) +G52*HEX2DEC(10000) +F52)</f>
+        <v>20810E4</v>
       </c>
       <c r="I52">
-        <f t="shared" ref="I52:I53" si="10">HEX2DEC(H52)</f>
-        <v>67109272</v>
+        <f t="shared" ref="I52:I53" si="13">HEX2DEC(H52)</f>
+        <v>34083044</v>
       </c>
       <c r="K52">
-        <f>IF(Q52&lt;&gt;"",$B$2+Q52*136,"")</f>
-        <v>1051190</v>
+        <f t="shared" ref="K52:K53" si="14">IF(Q52&lt;&gt;"",$B$2+Q52*116,"")</f>
+        <v>522054</v>
       </c>
       <c r="L52">
-        <f t="shared" ref="L52:L53" si="11">IF(J52&lt;&gt;"",J52,K52)</f>
-        <v>1051190</v>
+        <f t="shared" ref="L52:L53" si="15">IF(J52&lt;&gt;"",J52,K52)</f>
+        <v>522054</v>
       </c>
       <c r="N52" t="s">
         <v>237</v>
@@ -9147,32 +9155,32 @@
         <v>121</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>IF(P53="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="1"/>
-        <v>476</v>
+        <f>IF(L53&lt;&gt;"",FLOOR((L53-$B$3)/2,1),"")</f>
+        <v>4382</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="3"/>
-        <v>40001DC</v>
+        <f>DEC2HEX(E53*HEX2DEC(1000000) +G53*HEX2DEC(10000) +F53)</f>
+        <v>208111E</v>
       </c>
       <c r="I53">
-        <f t="shared" si="10"/>
-        <v>67109340</v>
+        <f t="shared" si="13"/>
+        <v>34083102</v>
       </c>
       <c r="K53">
-        <f>IF(Q53&lt;&gt;"",$B$2+Q53*136,"")</f>
-        <v>1051326</v>
+        <f t="shared" si="14"/>
+        <v>522170</v>
       </c>
       <c r="L53">
-        <f t="shared" si="11"/>
-        <v>1051326</v>
+        <f t="shared" si="15"/>
+        <v>522170</v>
       </c>
       <c r="N53" t="s">
         <v>238</v>
@@ -9202,19 +9210,19 @@
         <v>3</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P54="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L54&lt;&gt;"",FLOOR((L54-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G54" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F54,2)=1,8+M54,M54)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H54" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E54*HEX2DEC(1000000) +G54*HEX2DEC(10000) +F54)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I54" t="e">
@@ -9245,19 +9253,19 @@
         <v>4</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P55="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L55&lt;&gt;"",FLOOR((L55-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G55" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F55,2)=1,8+M55,M55)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H55" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E55*HEX2DEC(1000000) +G55*HEX2DEC(10000) +F55)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I55" t="e">
@@ -9288,19 +9296,19 @@
         <v>5</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P56="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L56&lt;&gt;"",FLOOR((L56-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G56" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F56,2)=1,8+M56,M56)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H56" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E56*HEX2DEC(1000000) +G56*HEX2DEC(10000) +F56)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I56" t="e">
@@ -9331,19 +9339,19 @@
         <v>6</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P57="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L57&lt;&gt;"",FLOOR((L57-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G57" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F57,2)=1,8+M57,M57)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H57" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E57*HEX2DEC(1000000) +G57*HEX2DEC(10000) +F57)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I57" t="e">
@@ -9374,19 +9382,19 @@
         <v>7</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P58="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L58&lt;&gt;"",FLOOR((L58-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G58" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F58,2)=1,8+M58,M58)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H58" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E58*HEX2DEC(1000000) +G58*HEX2DEC(10000) +F58)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I58" t="e">
@@ -9417,19 +9425,19 @@
         <v>8</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P59="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L59&lt;&gt;"",FLOOR((L59-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G59" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F59,2)=1,8+M59,M59)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H59" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E59*HEX2DEC(1000000) +G59*HEX2DEC(10000) +F59)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I59" t="e">
@@ -9460,19 +9468,19 @@
         <v>9</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P60="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L60&lt;&gt;"",FLOOR((L60-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G60" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F60,2)=1,8+M60,M60)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H60" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E60*HEX2DEC(1000000) +G60*HEX2DEC(10000) +F60)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I60" t="e">
@@ -9503,19 +9511,19 @@
         <v>10</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P61="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L61&lt;&gt;"",FLOOR((L61-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G61" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F61,2)=1,8+M61,M61)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H61" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E61*HEX2DEC(1000000) +G61*HEX2DEC(10000) +F61)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I61" t="e">
@@ -9546,19 +9554,19 @@
         <v>11</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P62="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L62&lt;&gt;"",FLOOR((L62-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G62" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F62,2)=1,8+M62,M62)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H62" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E62*HEX2DEC(1000000) +G62*HEX2DEC(10000) +F62)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I62" t="e">
@@ -9589,19 +9597,19 @@
         <v>12</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P63="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L63&lt;&gt;"",FLOOR((L63-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G63" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F63,2)=1,8+M63,M63)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H63" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E63*HEX2DEC(1000000) +G63*HEX2DEC(10000) +F63)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I63" t="e">
@@ -9632,19 +9640,19 @@
         <v>13</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P64="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L64&lt;&gt;"",FLOOR((L64-$B$3)/2,1),"")</f>
         <v/>
       </c>
       <c r="G64" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(F64,2)=1,8+M64,M64)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H64" t="e">
-        <f t="shared" si="3"/>
+        <f>DEC2HEX(E64*HEX2DEC(1000000) +G64*HEX2DEC(10000) +F64)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I64" t="e">
@@ -9678,34 +9686,34 @@
         <v>66</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P65="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L65&lt;&gt;"",FLOOR((L65-$B$3)/2,1),"")</f>
         <v>3966</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G65:G69" si="16">IF(MOD(L65-$B$3,2)=1,8+M65,M65)</f>
         <v>6</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="3"/>
-        <v>3060F7E</v>
+        <f>DEC2HEX(E65*HEX2DEC(1000000) +G65*HEX2DEC(10000) +F65)</f>
+        <v>2060F7E</v>
       </c>
       <c r="I65">
-        <f t="shared" ref="I65:I69" si="12">HEX2DEC(H65)</f>
-        <v>50728830</v>
+        <f t="shared" ref="I65:I69" si="17">HEX2DEC(H65)</f>
+        <v>33951614</v>
       </c>
       <c r="J65">
         <v>521337</v>
       </c>
       <c r="K65" t="str">
-        <f>IF(Q65&lt;&gt;"",$B$2+Q65*136,"")</f>
+        <f t="shared" ref="K65:K69" si="18">IF(Q65&lt;&gt;"",$B$2+Q65*116,"")</f>
         <v/>
       </c>
       <c r="L65">
-        <f t="shared" ref="L65:L69" si="13">IF(J65&lt;&gt;"",J65,K65)</f>
+        <f t="shared" ref="L65:L69" si="19">IF(J65&lt;&gt;"",J65,K65)</f>
         <v>521337</v>
       </c>
       <c r="M65">
@@ -9733,34 +9741,34 @@
         <v>68</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P66="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L66&lt;&gt;"",FLOOR((L66-$B$3)/2,1),"")</f>
         <v>3966</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>8</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="3"/>
-        <v>3000F7E</v>
+        <f>DEC2HEX(E66*HEX2DEC(1000000) +G66*HEX2DEC(10000) +F66)</f>
+        <v>2080F7E</v>
       </c>
       <c r="I66">
-        <f t="shared" si="12"/>
-        <v>50335614</v>
+        <f t="shared" si="17"/>
+        <v>34082686</v>
       </c>
       <c r="J66">
         <v>521338</v>
       </c>
       <c r="K66" t="str">
-        <f>IF(Q66&lt;&gt;"",$B$2+Q66*136,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>521338</v>
       </c>
       <c r="M66">
@@ -9785,34 +9793,34 @@
         <v>64</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P67="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L67&lt;&gt;"",FLOOR((L67-$B$3)/2,1),"")</f>
         <v>3965</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="3"/>
-        <v>3080F7D</v>
+        <f>DEC2HEX(E67*HEX2DEC(1000000) +G67*HEX2DEC(10000) +F67)</f>
+        <v>2080F7D</v>
       </c>
       <c r="I67">
-        <f t="shared" si="12"/>
-        <v>50859901</v>
+        <f t="shared" si="17"/>
+        <v>34082685</v>
       </c>
       <c r="J67">
         <v>521336</v>
       </c>
       <c r="K67" t="str">
-        <f>IF(Q67&lt;&gt;"",$B$2+Q67*136,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>521336</v>
       </c>
       <c r="M67">
@@ -9834,34 +9842,34 @@
         <v>65</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P68="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L68&lt;&gt;"",FLOOR((L68-$B$3)/2,1),"")</f>
         <v>3965</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="3"/>
-        <v>3090F7D</v>
+        <f>DEC2HEX(E68*HEX2DEC(1000000) +G68*HEX2DEC(10000) +F68)</f>
+        <v>2090F7D</v>
       </c>
       <c r="I68">
-        <f t="shared" si="12"/>
-        <v>50925437</v>
+        <f t="shared" si="17"/>
+        <v>34148221</v>
       </c>
       <c r="J68">
         <v>521336</v>
       </c>
       <c r="K68" t="str">
-        <f>IF(Q68&lt;&gt;"",$B$2+Q68*136,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>521336</v>
       </c>
       <c r="M68">
@@ -9883,34 +9891,34 @@
         <v>67</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(P69="",$B$1,$B$1)</f>
+        <v>2</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L69&lt;&gt;"",FLOOR((L69-$B$3)/2,1),"")</f>
         <v>3966</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="3"/>
-        <v>3070F7E</v>
+        <f>DEC2HEX(E69*HEX2DEC(1000000) +G69*HEX2DEC(10000) +F69)</f>
+        <v>2070F7E</v>
       </c>
       <c r="I69">
-        <f t="shared" si="12"/>
-        <v>50794366</v>
+        <f t="shared" si="17"/>
+        <v>34017150</v>
       </c>
       <c r="J69">
         <v>521337</v>
       </c>
       <c r="K69" t="str">
-        <f>IF(Q69&lt;&gt;"",$B$2+Q69*136,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>521337</v>
       </c>
       <c r="M69">
@@ -9932,7 +9940,7 @@
       </customFilters>
     </filterColumn>
     <sortState ref="A7:R69">
-      <sortCondition ref="B6:B69"/>
+      <sortCondition ref="A6:A69"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/C2B1A1/iotable.xlsx
+++ b/C2B1A1/iotable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE25971-138A-4174-ABFC-7BEE34542DB6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8880CC-2807-45B7-9897-000144BB2EF4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="313">
   <si>
     <t>Channel</t>
   </si>
@@ -946,6 +946,33 @@
   </si>
   <si>
     <t>C2B1A1</t>
+  </si>
+  <si>
+    <t>CyB3</t>
+  </si>
+  <si>
+    <t>CyB3a</t>
+  </si>
+  <si>
+    <t>CyB3b</t>
+  </si>
+  <si>
+    <t>SpB3</t>
+  </si>
+  <si>
+    <t>SpB4</t>
+  </si>
+  <si>
+    <t>氣缸B3(動</t>
+  </si>
+  <si>
+    <t>氣缸B3(原</t>
+  </si>
+  <si>
+    <t>近接有無A</t>
+  </si>
+  <si>
+    <t>近接有無B</t>
   </si>
 </sst>
 </file>
@@ -1409,8 +1436,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="G8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T122" sqref="T122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1510,7 +1537,7 @@
       </c>
       <c r="B8">
         <f>COUNTIF(S:S,"*")</f>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -1663,7 +1690,7 @@
         <v>1080391</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I14" si="0">HEX2DEC(H11)</f>
+        <f>HEX2DEC(H11)</f>
         <v>17302417</v>
       </c>
       <c r="K11">
@@ -1684,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="U11" t="str">
-        <f>IF(S11="*",D11&amp;" : INT := "&amp;(T11+1)&amp;";")</f>
+        <f t="shared" ref="U11:U14" si="0">IF(S11="*",D11&amp;" : INT := "&amp;(T11+1)&amp;";")</f>
         <v>H2Green : INT := 2;</v>
       </c>
     </row>
@@ -1718,7 +1745,7 @@
         <v>10803B3</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(H12)</f>
         <v>17302451</v>
       </c>
       <c r="K12">
@@ -1739,7 +1766,7 @@
         <v>2</v>
       </c>
       <c r="U12" t="str">
-        <f>IF(S12="*",D12&amp;" : INT := "&amp;(T12+1)&amp;";")</f>
+        <f t="shared" si="0"/>
         <v>H3Orange : INT := 3;</v>
       </c>
     </row>
@@ -1773,7 +1800,7 @@
         <v>10803D5</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(H13)</f>
         <v>17302485</v>
       </c>
       <c r="K13">
@@ -1794,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="U13" t="str">
-        <f>IF(S13="*",D13&amp;" : INT := "&amp;(T13+1)&amp;";")</f>
+        <f t="shared" si="0"/>
         <v>H4White : INT := 4;</v>
       </c>
     </row>
@@ -1828,7 +1855,7 @@
         <v>10803F7</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(H14)</f>
         <v>17302519</v>
       </c>
       <c r="K14">
@@ -1849,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="U14" t="str">
-        <f>IF(S14="*",D14&amp;" : INT := "&amp;(T14+1)&amp;";")</f>
+        <f t="shared" si="0"/>
         <v>Air : INT := 5;</v>
       </c>
     </row>
@@ -1931,7 +1958,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1970,7 +1997,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2012,7 +2039,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>9</v>
       </c>
@@ -2051,7 +2078,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10</v>
       </c>
@@ -2090,7 +2117,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>11</v>
       </c>
@@ -2129,7 +2156,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12</v>
       </c>
@@ -2168,7 +2195,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>13</v>
       </c>
@@ -2207,7 +2234,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>14</v>
       </c>
@@ -2249,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>15</v>
       </c>
@@ -2288,93 +2315,125 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>16</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>86</v>
+        <v>32</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E26" s="1">
         <f>IF(P26="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
-      <c r="F26" s="1" t="str">
+      <c r="F26" s="1">
         <f>IF(L26&lt;&gt;"",FLOOR((L26-MIN(L:L))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="G26" s="1" t="e">
+        <v>1049</v>
+      </c>
+      <c r="G26" s="1">
         <f>IF(MOD(L26-$B$6,2)=1,8+M26,M26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H26" t="e">
+        <v>8</v>
+      </c>
+      <c r="H26" t="str">
         <f>DEC2HEX(E26*HEX2DEC(1000000) +G26*HEX2DEC(10000) +F26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I26" t="e">
+        <v>1080419</v>
+      </c>
+      <c r="I26">
         <f>HEX2DEC(H26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K26" t="str">
+        <v>17302553</v>
+      </c>
+      <c r="K26">
         <f>IF(Q26&lt;&gt;"",Q26*116+$B$3,IF(R26&lt;&gt;"",R26*116+$B$3,IF(T26&lt;&gt;"",T26*68+$B$5,"")))</f>
-        <v/>
-      </c>
-      <c r="L26" t="str">
+        <v>523435</v>
+      </c>
+      <c r="L26">
         <f>IF(J26&lt;&gt;"",J26,K26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>523435</v>
+      </c>
+      <c r="O26" t="s">
+        <v>270</v>
+      </c>
+      <c r="S26" t="s">
+        <v>38</v>
+      </c>
+      <c r="T26">
+        <v>5</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" ref="U26:U27" si="1">IF(S26="*",D26&amp;" : INT := "&amp;(T26+1)&amp;";")</f>
+        <v>SfA01 : INT := 6;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>17</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>86</v>
+        <v>33</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E27" s="1">
         <f>IF(P27="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
-      <c r="F27" s="1" t="str">
+      <c r="F27" s="1">
         <f>IF(L27&lt;&gt;"",FLOOR((L27-MIN(L:L))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="G27" s="1" t="e">
+        <v>1083</v>
+      </c>
+      <c r="G27" s="1">
         <f>IF(MOD(L27-$B$6,2)=1,8+M27,M27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H27" t="e">
+        <v>8</v>
+      </c>
+      <c r="H27" t="str">
         <f>DEC2HEX(E27*HEX2DEC(1000000) +G27*HEX2DEC(10000) +F27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I27" t="e">
+        <v>108043B</v>
+      </c>
+      <c r="I27">
         <f>HEX2DEC(H27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K27" t="str">
+        <v>17302587</v>
+      </c>
+      <c r="K27">
         <f>IF(Q27&lt;&gt;"",Q27*116+$B$3,IF(R27&lt;&gt;"",R27*116+$B$3,IF(T27&lt;&gt;"",T27*68+$B$5,"")))</f>
-        <v/>
-      </c>
-      <c r="L27" t="str">
+        <v>523503</v>
+      </c>
+      <c r="L27">
         <f>IF(J27&lt;&gt;"",J27,K27)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>523503</v>
+      </c>
+      <c r="O27" t="s">
+        <v>271</v>
+      </c>
+      <c r="S27" t="s">
+        <v>38</v>
+      </c>
+      <c r="T27">
+        <v>6</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="1"/>
+        <v>SfA02 : INT := 7;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1">
         <f>IF(P28="",$B$2,$B$2)</f>
@@ -2405,15 +2464,15 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E29" s="1">
         <f>IF(P29="",$B$2,$B$2)</f>
@@ -2444,15 +2503,15 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1">
         <f>IF(P30="",$B$2,$B$2)</f>
@@ -2483,15 +2542,15 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1">
         <f>IF(P31="",$B$2,$B$2)</f>
@@ -2522,15 +2581,15 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E32" s="1">
         <f>IF(P32="",$B$2,$B$2)</f>
@@ -2561,93 +2620,125 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>23</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>86</v>
+        <v>34</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E33" s="1">
         <f>IF(P33="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
-      <c r="F33" s="1" t="str">
+      <c r="F33" s="1">
         <f>IF(L33&lt;&gt;"",FLOOR((L33-MIN(L:L))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="G33" s="1" t="e">
+        <v>1117</v>
+      </c>
+      <c r="G33" s="1">
         <f>IF(MOD(L33-$B$6,2)=1,8+M33,M33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H33" t="e">
+        <v>8</v>
+      </c>
+      <c r="H33" t="str">
         <f>DEC2HEX(E33*HEX2DEC(1000000) +G33*HEX2DEC(10000) +F33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I33" t="e">
+        <v>108045D</v>
+      </c>
+      <c r="I33">
         <f>HEX2DEC(H33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K33" t="str">
+        <v>17302621</v>
+      </c>
+      <c r="K33">
         <f>IF(Q33&lt;&gt;"",Q33*116+$B$3,IF(R33&lt;&gt;"",R33*116+$B$3,IF(T33&lt;&gt;"",T33*68+$B$5,"")))</f>
-        <v/>
-      </c>
-      <c r="L33" t="str">
+        <v>523571</v>
+      </c>
+      <c r="L33">
         <f>IF(J33&lt;&gt;"",J33,K33)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>523571</v>
+      </c>
+      <c r="O33" t="s">
+        <v>272</v>
+      </c>
+      <c r="S33" t="s">
+        <v>38</v>
+      </c>
+      <c r="T33">
+        <v>7</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" ref="U33:U34" si="2">IF(S33="*",D33&amp;" : INT := "&amp;(T33+1)&amp;";")</f>
+        <v>SfA03 : INT := 8;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>24</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>86</v>
+        <v>35</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E34" s="1">
         <f>IF(P34="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
-      <c r="F34" s="1" t="str">
+      <c r="F34" s="1">
         <f>IF(L34&lt;&gt;"",FLOOR((L34-MIN(L:L))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="G34" s="1" t="e">
+        <v>1151</v>
+      </c>
+      <c r="G34" s="1">
         <f>IF(MOD(L34-$B$6,2)=1,8+M34,M34)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H34" t="e">
+        <v>8</v>
+      </c>
+      <c r="H34" t="str">
         <f>DEC2HEX(E34*HEX2DEC(1000000) +G34*HEX2DEC(10000) +F34)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I34" t="e">
+        <v>108047F</v>
+      </c>
+      <c r="I34">
         <f>HEX2DEC(H34)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K34" t="str">
+        <v>17302655</v>
+      </c>
+      <c r="K34">
         <f>IF(Q34&lt;&gt;"",Q34*116+$B$3,IF(R34&lt;&gt;"",R34*116+$B$3,IF(T34&lt;&gt;"",T34*68+$B$5,"")))</f>
-        <v/>
-      </c>
-      <c r="L34" t="str">
+        <v>523639</v>
+      </c>
+      <c r="L34">
         <f>IF(J34&lt;&gt;"",J34,K34)</f>
-        <v/>
+        <v>523639</v>
+      </c>
+      <c r="O34" t="s">
+        <v>273</v>
+      </c>
+      <c r="S34" t="s">
+        <v>38</v>
+      </c>
+      <c r="T34">
+        <v>8</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="2"/>
+        <v>SpA01 : INT := 9;</v>
       </c>
     </row>
     <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1">
         <f>IF(P35="",$B$2,$B$2)</f>
@@ -2678,18 +2769,18 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E36" s="1">
         <f>IF(P36="",$B$2,$B$2)</f>
@@ -2697,54 +2788,50 @@
       </c>
       <c r="F36" s="1">
         <f>IF(L36&lt;&gt;"",FLOOR((L36-MIN(L:L))/2,1),"")</f>
-        <v>1389</v>
+        <v>362</v>
       </c>
       <c r="G36" s="1">
         <f>IF(MOD(L36-$B$6,2)=1,8+M36,M36)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H36" t="str">
         <f>DEC2HEX(E36*HEX2DEC(1000000) +G36*HEX2DEC(10000) +F36)</f>
-        <v>108056D</v>
+        <v>100016A</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36:I49" si="1">HEX2DEC(H36)</f>
-        <v>17302893</v>
+        <f>HEX2DEC(H36)</f>
+        <v>16777578</v>
       </c>
       <c r="K36">
-        <f>IF(Q36&lt;&gt;"",Q36*116+$B$3,IF(R36&lt;&gt;"",R36*116+$B$3,IF(T36&lt;&gt;"",T36*68+$B$5,"")))</f>
-        <v>524115</v>
+        <f>IF(Q36&lt;&gt;"",Q36*116+$B$3,IF(R36&lt;&gt;"",R36*116+$B$4,IF(T36&lt;&gt;"",T36*68+$B$5,"")))</f>
+        <v>522060</v>
       </c>
       <c r="L36">
         <f>IF(J36&lt;&gt;"",J36,K36)</f>
-        <v>524115</v>
+        <v>522060</v>
       </c>
       <c r="O36" t="s">
-        <v>250</v>
-      </c>
-      <c r="S36" t="s">
+        <v>252</v>
+      </c>
+      <c r="P36" t="s">
         <v>38</v>
       </c>
-      <c r="T36">
-        <v>15</v>
-      </c>
-      <c r="U36" t="str">
-        <f>IF(S36="*",D36&amp;" : INT := "&amp;(T36+1)&amp;";")</f>
-        <v>SfB1 : INT := 16;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E37" s="1">
         <f>IF(P37="",$B$2,$B$2)</f>
@@ -2752,7 +2839,7 @@
       </c>
       <c r="F37" s="1">
         <f>IF(L37&lt;&gt;"",FLOOR((L37-MIN(L:L))/2,1),"")</f>
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="G37" s="1">
         <f>IF(MOD(L37-$B$6,2)=1,8+M37,M37)</f>
@@ -2760,42 +2847,42 @@
       </c>
       <c r="H37" t="str">
         <f>DEC2HEX(E37*HEX2DEC(1000000) +G37*HEX2DEC(10000) +F37)</f>
-        <v>100016A</v>
+        <v>10001A4</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
-        <v>16777578</v>
+        <f>HEX2DEC(H37)</f>
+        <v>16777636</v>
       </c>
       <c r="K37">
         <f>IF(Q37&lt;&gt;"",Q37*116+$B$3,IF(R37&lt;&gt;"",R37*116+$B$4,IF(T37&lt;&gt;"",T37*68+$B$5,"")))</f>
-        <v>522060</v>
+        <v>522176</v>
       </c>
       <c r="L37">
         <f>IF(J37&lt;&gt;"",J37,K37)</f>
-        <v>522060</v>
+        <v>522176</v>
       </c>
       <c r="O37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P37" t="s">
         <v>38</v>
       </c>
       <c r="R37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>305</v>
       </c>
       <c r="E38" s="1">
         <f>IF(P38="",$B$2,$B$2)</f>
@@ -2803,7 +2890,7 @@
       </c>
       <c r="F38" s="1">
         <f>IF(L38&lt;&gt;"",FLOOR((L38-MIN(L:L))/2,1),"")</f>
-        <v>420</v>
+        <v>708</v>
       </c>
       <c r="G38" s="1">
         <f>IF(MOD(L38-$B$6,2)=1,8+M38,M38)</f>
@@ -2811,42 +2898,42 @@
       </c>
       <c r="H38" t="str">
         <f>DEC2HEX(E38*HEX2DEC(1000000) +G38*HEX2DEC(10000) +F38)</f>
-        <v>10001A4</v>
+        <v>10002C4</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
-        <v>16777636</v>
+        <f>HEX2DEC(H38)</f>
+        <v>16777924</v>
       </c>
       <c r="K38">
-        <f>IF(Q38&lt;&gt;"",Q38*116+$B$3,IF(R38&lt;&gt;"",R38*116+$B$4,IF(T38&lt;&gt;"",T38*68+$B$5,"")))</f>
-        <v>522176</v>
+        <f>IF(Q38&lt;&gt;"",Q38*116+$B$3,IF(R38&lt;&gt;"",R38*116+$B$3,IF(T38&lt;&gt;"",T38*68+$B$5,"")))</f>
+        <v>522752</v>
       </c>
       <c r="L38">
         <f>IF(J38&lt;&gt;"",J38,K38)</f>
-        <v>522176</v>
+        <v>522752</v>
       </c>
       <c r="O38" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="P38" t="s">
         <v>38</v>
       </c>
-      <c r="R38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>88</v>
+        <v>306</v>
       </c>
       <c r="E39" s="1">
         <f>IF(P39="",$B$2,$B$2)</f>
@@ -2854,54 +2941,50 @@
       </c>
       <c r="F39" s="1">
         <f>IF(L39&lt;&gt;"",FLOOR((L39-MIN(L:L))/2,1),"")</f>
-        <v>1423</v>
+        <v>708</v>
       </c>
       <c r="G39" s="1">
         <f>IF(MOD(L39-$B$6,2)=1,8+M39,M39)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H39" t="str">
         <f>DEC2HEX(E39*HEX2DEC(1000000) +G39*HEX2DEC(10000) +F39)</f>
-        <v>108058F</v>
+        <v>10002C4</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
-        <v>17302927</v>
+        <f>HEX2DEC(H39)</f>
+        <v>16777924</v>
       </c>
       <c r="K39">
         <f>IF(Q39&lt;&gt;"",Q39*116+$B$3,IF(R39&lt;&gt;"",R39*116+$B$3,IF(T39&lt;&gt;"",T39*68+$B$5,"")))</f>
-        <v>524183</v>
+        <v>522752</v>
       </c>
       <c r="L39">
         <f>IF(J39&lt;&gt;"",J39,K39)</f>
-        <v>524183</v>
+        <v>522752</v>
       </c>
       <c r="O39" t="s">
-        <v>251</v>
-      </c>
-      <c r="S39" t="s">
+        <v>309</v>
+      </c>
+      <c r="P39" t="s">
         <v>38</v>
       </c>
-      <c r="T39">
-        <v>16</v>
-      </c>
-      <c r="U39" t="str">
-        <f>IF(S39="*",D39&amp;" : INT := "&amp;(T39+1)&amp;";")</f>
-        <v>SfB2 : INT := 17;</v>
+      <c r="R39">
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>30</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>86</v>
+        <v>38</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E40" s="1">
         <f>IF(P40="",$B$2,$B$2)</f>
@@ -2909,7 +2992,7 @@
       </c>
       <c r="F40" s="1">
         <f>IF(L40&lt;&gt;"",FLOOR((L40-MIN(L:L))/2,1),"")</f>
-        <v>1457</v>
+        <v>1185</v>
       </c>
       <c r="G40" s="1">
         <f>IF(MOD(L40-$B$6,2)=1,8+M40,M40)</f>
@@ -2917,46 +3000,46 @@
       </c>
       <c r="H40" t="str">
         <f>DEC2HEX(E40*HEX2DEC(1000000) +G40*HEX2DEC(10000) +F40)</f>
-        <v>10805B1</v>
+        <v>10804A1</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
-        <v>17302961</v>
+        <f>HEX2DEC(H40)</f>
+        <v>17302689</v>
       </c>
       <c r="K40">
         <f>IF(Q40&lt;&gt;"",Q40*116+$B$3,IF(R40&lt;&gt;"",R40*116+$B$3,IF(T40&lt;&gt;"",T40*68+$B$5,"")))</f>
-        <v>524251</v>
+        <v>523707</v>
       </c>
       <c r="L40">
         <f>IF(J40&lt;&gt;"",J40,K40)</f>
-        <v>524251</v>
+        <v>523707</v>
       </c>
       <c r="O40" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="S40" t="s">
         <v>38</v>
       </c>
       <c r="T40">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="U40" t="str">
-        <f>IF(S40="*",D40&amp;" : INT := "&amp;(T40+1)&amp;";")</f>
-        <v>SpB1 : INT := 18;</v>
+        <f t="shared" ref="U40:U45" si="3">IF(S40="*",D40&amp;" : INT := "&amp;(T40+1)&amp;";")</f>
+        <v>SpA02 : INT := 10;</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>31</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>86</v>
+        <v>39</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E41" s="1">
         <f>IF(P41="",$B$2,$B$2)</f>
@@ -2964,7 +3047,7 @@
       </c>
       <c r="F41" s="1">
         <f>IF(L41&lt;&gt;"",FLOOR((L41-MIN(L:L))/2,1),"")</f>
-        <v>1491</v>
+        <v>1219</v>
       </c>
       <c r="G41" s="1">
         <f>IF(MOD(L41-$B$6,2)=1,8+M41,M41)</f>
@@ -2972,46 +3055,46 @@
       </c>
       <c r="H41" t="str">
         <f>DEC2HEX(E41*HEX2DEC(1000000) +G41*HEX2DEC(10000) +F41)</f>
-        <v>10805D3</v>
+        <v>10804C3</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
-        <v>17302995</v>
+        <f>HEX2DEC(H41)</f>
+        <v>17302723</v>
       </c>
       <c r="K41">
         <f>IF(Q41&lt;&gt;"",Q41*116+$B$3,IF(R41&lt;&gt;"",R41*116+$B$3,IF(T41&lt;&gt;"",T41*68+$B$5,"")))</f>
-        <v>524319</v>
+        <v>523775</v>
       </c>
       <c r="L41">
         <f>IF(J41&lt;&gt;"",J41,K41)</f>
-        <v>524319</v>
+        <v>523775</v>
       </c>
       <c r="O41" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="S41" t="s">
         <v>38</v>
       </c>
       <c r="T41">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="U41" t="str">
-        <f>IF(S41="*",D41&amp;" : INT := "&amp;(T41+1)&amp;";")</f>
-        <v>SpB2 : INT := 19;</v>
+        <f t="shared" si="3"/>
+        <v>SpA03 : INT := 11;</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>32</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>9</v>
+        <v>64</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="E42" s="1">
         <f>IF(P42="",$B$2,$B$2)</f>
@@ -3019,7 +3102,7 @@
       </c>
       <c r="F42" s="1">
         <f>IF(L42&lt;&gt;"",FLOOR((L42-MIN(L:L))/2,1),"")</f>
-        <v>1049</v>
+        <v>1253</v>
       </c>
       <c r="G42" s="1">
         <f>IF(MOD(L42-$B$6,2)=1,8+M42,M42)</f>
@@ -3027,46 +3110,46 @@
       </c>
       <c r="H42" t="str">
         <f>DEC2HEX(E42*HEX2DEC(1000000) +G42*HEX2DEC(10000) +F42)</f>
-        <v>1080419</v>
+        <v>10804E5</v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
-        <v>17302553</v>
+        <f>HEX2DEC(H42)</f>
+        <v>17302757</v>
       </c>
       <c r="K42">
         <f>IF(Q42&lt;&gt;"",Q42*116+$B$3,IF(R42&lt;&gt;"",R42*116+$B$3,IF(T42&lt;&gt;"",T42*68+$B$5,"")))</f>
-        <v>523435</v>
+        <v>523843</v>
       </c>
       <c r="L42">
         <f>IF(J42&lt;&gt;"",J42,K42)</f>
-        <v>523435</v>
+        <v>523843</v>
       </c>
       <c r="O42" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="S42" t="s">
         <v>38</v>
       </c>
       <c r="T42">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="U42" t="str">
-        <f>IF(S42="*",D42&amp;" : INT := "&amp;(T42+1)&amp;";")</f>
-        <v>SfA01 : INT := 6;</v>
+        <f t="shared" si="3"/>
+        <v>ASp01 : INT := 12;</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>33</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>9</v>
+        <v>65</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="E43" s="1">
         <f>IF(P43="",$B$2,$B$2)</f>
@@ -3074,7 +3157,7 @@
       </c>
       <c r="F43" s="1">
         <f>IF(L43&lt;&gt;"",FLOOR((L43-MIN(L:L))/2,1),"")</f>
-        <v>1083</v>
+        <v>1287</v>
       </c>
       <c r="G43" s="1">
         <f>IF(MOD(L43-$B$6,2)=1,8+M43,M43)</f>
@@ -3082,46 +3165,46 @@
       </c>
       <c r="H43" t="str">
         <f>DEC2HEX(E43*HEX2DEC(1000000) +G43*HEX2DEC(10000) +F43)</f>
-        <v>108043B</v>
+        <v>1080507</v>
       </c>
       <c r="I43">
-        <f t="shared" si="1"/>
-        <v>17302587</v>
+        <f>HEX2DEC(H43)</f>
+        <v>17302791</v>
       </c>
       <c r="K43">
         <f>IF(Q43&lt;&gt;"",Q43*116+$B$3,IF(R43&lt;&gt;"",R43*116+$B$3,IF(T43&lt;&gt;"",T43*68+$B$5,"")))</f>
-        <v>523503</v>
+        <v>523911</v>
       </c>
       <c r="L43">
         <f>IF(J43&lt;&gt;"",J43,K43)</f>
-        <v>523503</v>
+        <v>523911</v>
       </c>
       <c r="O43" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="S43" t="s">
         <v>38</v>
       </c>
       <c r="T43">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U43" t="str">
-        <f>IF(S43="*",D43&amp;" : INT := "&amp;(T43+1)&amp;";")</f>
-        <v>SfA02 : INT := 7;</v>
+        <f t="shared" si="3"/>
+        <v>ASp02 : INT := 13;</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>34</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>9</v>
+        <v>66</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="E44" s="1">
         <f>IF(P44="",$B$2,$B$2)</f>
@@ -3129,7 +3212,7 @@
       </c>
       <c r="F44" s="1">
         <f>IF(L44&lt;&gt;"",FLOOR((L44-MIN(L:L))/2,1),"")</f>
-        <v>1117</v>
+        <v>1321</v>
       </c>
       <c r="G44" s="1">
         <f>IF(MOD(L44-$B$6,2)=1,8+M44,M44)</f>
@@ -3137,46 +3220,46 @@
       </c>
       <c r="H44" t="str">
         <f>DEC2HEX(E44*HEX2DEC(1000000) +G44*HEX2DEC(10000) +F44)</f>
-        <v>108045D</v>
+        <v>1080529</v>
       </c>
       <c r="I44">
-        <f t="shared" si="1"/>
-        <v>17302621</v>
+        <f>HEX2DEC(H44)</f>
+        <v>17302825</v>
       </c>
       <c r="K44">
         <f>IF(Q44&lt;&gt;"",Q44*116+$B$3,IF(R44&lt;&gt;"",R44*116+$B$3,IF(T44&lt;&gt;"",T44*68+$B$5,"")))</f>
-        <v>523571</v>
+        <v>523979</v>
       </c>
       <c r="L44">
         <f>IF(J44&lt;&gt;"",J44,K44)</f>
-        <v>523571</v>
+        <v>523979</v>
       </c>
       <c r="O44" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="S44" t="s">
         <v>38</v>
       </c>
       <c r="T44">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="U44" t="str">
-        <f>IF(S44="*",D44&amp;" : INT := "&amp;(T44+1)&amp;";")</f>
-        <v>SfA03 : INT := 8;</v>
+        <f t="shared" si="3"/>
+        <v>ASp03 : INT := 14;</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>35</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>9</v>
+        <v>67</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="E45" s="1">
         <f>IF(P45="",$B$2,$B$2)</f>
@@ -3184,7 +3267,7 @@
       </c>
       <c r="F45" s="1">
         <f>IF(L45&lt;&gt;"",FLOOR((L45-MIN(L:L))/2,1),"")</f>
-        <v>1151</v>
+        <v>1355</v>
       </c>
       <c r="G45" s="1">
         <f>IF(MOD(L45-$B$6,2)=1,8+M45,M45)</f>
@@ -3192,35 +3275,35 @@
       </c>
       <c r="H45" t="str">
         <f>DEC2HEX(E45*HEX2DEC(1000000) +G45*HEX2DEC(10000) +F45)</f>
-        <v>108047F</v>
+        <v>108054B</v>
       </c>
       <c r="I45">
-        <f t="shared" si="1"/>
-        <v>17302655</v>
+        <f>HEX2DEC(H45)</f>
+        <v>17302859</v>
       </c>
       <c r="K45">
         <f>IF(Q45&lt;&gt;"",Q45*116+$B$3,IF(R45&lt;&gt;"",R45*116+$B$3,IF(T45&lt;&gt;"",T45*68+$B$5,"")))</f>
-        <v>523639</v>
+        <v>524047</v>
       </c>
       <c r="L45">
         <f>IF(J45&lt;&gt;"",J45,K45)</f>
-        <v>523639</v>
+        <v>524047</v>
       </c>
       <c r="O45" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="S45" t="s">
         <v>38</v>
       </c>
       <c r="T45">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="U45" t="str">
-        <f>IF(S45="*",D45&amp;" : INT := "&amp;(T45+1)&amp;";")</f>
-        <v>SpA01 : INT := 9;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>ASp04 : INT := 15;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>36</v>
       </c>
@@ -3250,7 +3333,7 @@
         <v>100000E</v>
       </c>
       <c r="I46">
-        <f t="shared" si="1"/>
+        <f>HEX2DEC(H46)</f>
         <v>16777230</v>
       </c>
       <c r="K46">
@@ -3271,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>37</v>
       </c>
@@ -3301,7 +3384,7 @@
         <v>1000048</v>
       </c>
       <c r="I47">
-        <f t="shared" si="1"/>
+        <f>HEX2DEC(H47)</f>
         <v>16777288</v>
       </c>
       <c r="K47">
@@ -3324,16 +3407,16 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>38</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E48" s="1">
         <f>IF(P48="",$B$2,$B$2)</f>
@@ -3341,7 +3424,7 @@
       </c>
       <c r="F48" s="1">
         <f>IF(L48&lt;&gt;"",FLOOR((L48-MIN(L:L))/2,1),"")</f>
-        <v>1185</v>
+        <v>1389</v>
       </c>
       <c r="G48" s="1">
         <f>IF(MOD(L48-$B$6,2)=1,8+M48,M48)</f>
@@ -3349,46 +3432,46 @@
       </c>
       <c r="H48" t="str">
         <f>DEC2HEX(E48*HEX2DEC(1000000) +G48*HEX2DEC(10000) +F48)</f>
-        <v>10804A1</v>
+        <v>108056D</v>
       </c>
       <c r="I48">
-        <f t="shared" si="1"/>
-        <v>17302689</v>
+        <f>HEX2DEC(H48)</f>
+        <v>17302893</v>
       </c>
       <c r="K48">
         <f>IF(Q48&lt;&gt;"",Q48*116+$B$3,IF(R48&lt;&gt;"",R48*116+$B$3,IF(T48&lt;&gt;"",T48*68+$B$5,"")))</f>
-        <v>523707</v>
+        <v>524115</v>
       </c>
       <c r="L48">
         <f>IF(J48&lt;&gt;"",J48,K48)</f>
-        <v>523707</v>
+        <v>524115</v>
       </c>
       <c r="O48" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="S48" t="s">
         <v>38</v>
       </c>
       <c r="T48">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="U48" t="str">
-        <f>IF(S48="*",D48&amp;" : INT := "&amp;(T48+1)&amp;";")</f>
-        <v>SpA02 : INT := 10;</v>
+        <f t="shared" ref="U48:U49" si="4">IF(S48="*",D48&amp;" : INT := "&amp;(T48+1)&amp;";")</f>
+        <v>SfB1 : INT := 16;</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>39</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E49" s="1">
         <f>IF(P49="",$B$2,$B$2)</f>
@@ -3396,7 +3479,7 @@
       </c>
       <c r="F49" s="1">
         <f>IF(L49&lt;&gt;"",FLOOR((L49-MIN(L:L))/2,1),"")</f>
-        <v>1219</v>
+        <v>1423</v>
       </c>
       <c r="G49" s="1">
         <f>IF(MOD(L49-$B$6,2)=1,8+M49,M49)</f>
@@ -3404,32 +3487,32 @@
       </c>
       <c r="H49" t="str">
         <f>DEC2HEX(E49*HEX2DEC(1000000) +G49*HEX2DEC(10000) +F49)</f>
-        <v>10804C3</v>
+        <v>108058F</v>
       </c>
       <c r="I49">
-        <f t="shared" si="1"/>
-        <v>17302723</v>
+        <f>HEX2DEC(H49)</f>
+        <v>17302927</v>
       </c>
       <c r="K49">
         <f>IF(Q49&lt;&gt;"",Q49*116+$B$3,IF(R49&lt;&gt;"",R49*116+$B$3,IF(T49&lt;&gt;"",T49*68+$B$5,"")))</f>
-        <v>523775</v>
+        <v>524183</v>
       </c>
       <c r="L49">
         <f>IF(J49&lt;&gt;"",J49,K49)</f>
-        <v>523775</v>
+        <v>524183</v>
       </c>
       <c r="O49" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="S49" t="s">
         <v>38</v>
       </c>
       <c r="T49">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="U49" t="str">
-        <f>IF(S49="*",D49&amp;" : INT := "&amp;(T49+1)&amp;";")</f>
-        <v>SpA03 : INT := 11;</v>
+        <f t="shared" si="4"/>
+        <v>SfB2 : INT := 17;</v>
       </c>
     </row>
     <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -3627,7 +3710,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>45</v>
       </c>
@@ -4224,7 +4307,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>60</v>
       </c>
@@ -4254,7 +4337,7 @@
         <v>10001DE</v>
       </c>
       <c r="I70">
-        <f t="shared" ref="I70:I90" si="2">HEX2DEC(H70)</f>
+        <f>HEX2DEC(H70)</f>
         <v>16777694</v>
       </c>
       <c r="K70">
@@ -4275,7 +4358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>61</v>
       </c>
@@ -4305,7 +4388,7 @@
         <v>1000216</v>
       </c>
       <c r="I71">
-        <f t="shared" si="2"/>
+        <f>HEX2DEC(H71)</f>
         <v>16777750</v>
       </c>
       <c r="K71">
@@ -4326,7 +4409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>62</v>
       </c>
@@ -4356,7 +4439,7 @@
         <v>1000218</v>
       </c>
       <c r="I72">
-        <f t="shared" si="2"/>
+        <f>HEX2DEC(H72)</f>
         <v>16777752</v>
       </c>
       <c r="K72">
@@ -4379,16 +4462,16 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>63</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>122</v>
+        <v>30</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="E73" s="1">
         <f>IF(P73="",$B$2,$B$2)</f>
@@ -4396,7 +4479,7 @@
       </c>
       <c r="F73" s="1">
         <f>IF(L73&lt;&gt;"",FLOOR((L73-MIN(L:L))/2,1),"")</f>
-        <v>1627</v>
+        <v>1457</v>
       </c>
       <c r="G73" s="1">
         <f>IF(MOD(L73-$B$6,2)=1,8+M73,M73)</f>
@@ -4404,46 +4487,46 @@
       </c>
       <c r="H73" t="str">
         <f>DEC2HEX(E73*HEX2DEC(1000000) +G73*HEX2DEC(10000) +F73)</f>
-        <v>108065B</v>
+        <v>10805B1</v>
       </c>
       <c r="I73">
-        <f t="shared" si="2"/>
-        <v>17303131</v>
+        <f>HEX2DEC(H73)</f>
+        <v>17302961</v>
       </c>
       <c r="K73">
         <f>IF(Q73&lt;&gt;"",Q73*116+$B$3,IF(R73&lt;&gt;"",R73*116+$B$3,IF(T73&lt;&gt;"",T73*68+$B$5,"")))</f>
-        <v>524591</v>
+        <v>524251</v>
       </c>
       <c r="L73">
         <f>IF(J73&lt;&gt;"",J73,K73)</f>
-        <v>524591</v>
+        <v>524251</v>
       </c>
       <c r="O73" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="S73" t="s">
         <v>38</v>
       </c>
       <c r="T73">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="U73" t="str">
-        <f>IF(S73="*",D73&amp;" : INT := "&amp;(T73+1)&amp;";")</f>
-        <v>CSp1 : INT := 23;</v>
+        <f t="shared" ref="U73:U77" si="5">IF(S73="*",D73&amp;" : INT := "&amp;(T73+1)&amp;";")</f>
+        <v>SpB1 : INT := 18;</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>64</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>97</v>
+        <v>31</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C74">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E74" s="1">
         <f>IF(P74="",$B$2,$B$2)</f>
@@ -4451,7 +4534,7 @@
       </c>
       <c r="F74" s="1">
         <f>IF(L74&lt;&gt;"",FLOOR((L74-MIN(L:L))/2,1),"")</f>
-        <v>1253</v>
+        <v>1491</v>
       </c>
       <c r="G74" s="1">
         <f>IF(MOD(L74-$B$6,2)=1,8+M74,M74)</f>
@@ -4459,46 +4542,46 @@
       </c>
       <c r="H74" t="str">
         <f>DEC2HEX(E74*HEX2DEC(1000000) +G74*HEX2DEC(10000) +F74)</f>
-        <v>10804E5</v>
+        <v>10805D3</v>
       </c>
       <c r="I74">
-        <f t="shared" si="2"/>
-        <v>17302757</v>
+        <f>HEX2DEC(H74)</f>
+        <v>17302995</v>
       </c>
       <c r="K74">
         <f>IF(Q74&lt;&gt;"",Q74*116+$B$3,IF(R74&lt;&gt;"",R74*116+$B$3,IF(T74&lt;&gt;"",T74*68+$B$5,"")))</f>
-        <v>523843</v>
+        <v>524319</v>
       </c>
       <c r="L74">
         <f>IF(J74&lt;&gt;"",J74,K74)</f>
-        <v>523843</v>
+        <v>524319</v>
       </c>
       <c r="O74" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="S74" t="s">
         <v>38</v>
       </c>
       <c r="T74">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="U74" t="str">
-        <f>IF(S74="*",D74&amp;" : INT := "&amp;(T74+1)&amp;";")</f>
-        <v>ASp01 : INT := 12;</v>
+        <f t="shared" si="5"/>
+        <v>SpB2 : INT := 19;</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>65</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C75">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E75" s="1">
         <f>IF(P75="",$B$2,$B$2)</f>
@@ -4506,7 +4589,7 @@
       </c>
       <c r="F75" s="1">
         <f>IF(L75&lt;&gt;"",FLOOR((L75-MIN(L:L))/2,1),"")</f>
-        <v>1287</v>
+        <v>1525</v>
       </c>
       <c r="G75" s="1">
         <f>IF(MOD(L75-$B$6,2)=1,8+M75,M75)</f>
@@ -4514,46 +4597,46 @@
       </c>
       <c r="H75" t="str">
         <f>DEC2HEX(E75*HEX2DEC(1000000) +G75*HEX2DEC(10000) +F75)</f>
-        <v>1080507</v>
+        <v>10805F5</v>
       </c>
       <c r="I75">
-        <f t="shared" si="2"/>
-        <v>17302791</v>
+        <f>HEX2DEC(H75)</f>
+        <v>17303029</v>
       </c>
       <c r="K75">
         <f>IF(Q75&lt;&gt;"",Q75*116+$B$3,IF(R75&lt;&gt;"",R75*116+$B$3,IF(T75&lt;&gt;"",T75*68+$B$5,"")))</f>
-        <v>523911</v>
+        <v>524387</v>
       </c>
       <c r="L75">
         <f>IF(J75&lt;&gt;"",J75,K75)</f>
-        <v>523911</v>
+        <v>524387</v>
       </c>
       <c r="O75" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="S75" t="s">
         <v>38</v>
       </c>
       <c r="T75">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="U75" t="str">
-        <f>IF(S75="*",D75&amp;" : INT := "&amp;(T75+1)&amp;";")</f>
-        <v>ASp02 : INT := 13;</v>
+        <f t="shared" si="5"/>
+        <v>H1 : INT := 20;</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>66</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E76" s="1">
         <f>IF(P76="",$B$2,$B$2)</f>
@@ -4561,7 +4644,7 @@
       </c>
       <c r="F76" s="1">
         <f>IF(L76&lt;&gt;"",FLOOR((L76-MIN(L:L))/2,1),"")</f>
-        <v>1321</v>
+        <v>1559</v>
       </c>
       <c r="G76" s="1">
         <f>IF(MOD(L76-$B$6,2)=1,8+M76,M76)</f>
@@ -4569,46 +4652,46 @@
       </c>
       <c r="H76" t="str">
         <f>DEC2HEX(E76*HEX2DEC(1000000) +G76*HEX2DEC(10000) +F76)</f>
-        <v>1080529</v>
+        <v>1080617</v>
       </c>
       <c r="I76">
-        <f t="shared" si="2"/>
-        <v>17302825</v>
+        <f>HEX2DEC(H76)</f>
+        <v>17303063</v>
       </c>
       <c r="K76">
         <f>IF(Q76&lt;&gt;"",Q76*116+$B$3,IF(R76&lt;&gt;"",R76*116+$B$3,IF(T76&lt;&gt;"",T76*68+$B$5,"")))</f>
-        <v>523979</v>
+        <v>524455</v>
       </c>
       <c r="L76">
         <f>IF(J76&lt;&gt;"",J76,K76)</f>
-        <v>523979</v>
+        <v>524455</v>
       </c>
       <c r="O76" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="S76" t="s">
         <v>38</v>
       </c>
       <c r="T76">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U76" t="str">
-        <f>IF(S76="*",D76&amp;" : INT := "&amp;(T76+1)&amp;";")</f>
-        <v>ASp03 : INT := 14;</v>
+        <f t="shared" si="5"/>
+        <v>H2 : INT := 21;</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>67</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>97</v>
+        <v>63</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C77">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E77" s="1">
         <f>IF(P77="",$B$2,$B$2)</f>
@@ -4616,7 +4699,7 @@
       </c>
       <c r="F77" s="1">
         <f>IF(L77&lt;&gt;"",FLOOR((L77-MIN(L:L))/2,1),"")</f>
-        <v>1355</v>
+        <v>1627</v>
       </c>
       <c r="G77" s="1">
         <f>IF(MOD(L77-$B$6,2)=1,8+M77,M77)</f>
@@ -4624,35 +4707,35 @@
       </c>
       <c r="H77" t="str">
         <f>DEC2HEX(E77*HEX2DEC(1000000) +G77*HEX2DEC(10000) +F77)</f>
-        <v>108054B</v>
+        <v>108065B</v>
       </c>
       <c r="I77">
-        <f t="shared" si="2"/>
-        <v>17302859</v>
+        <f>HEX2DEC(H77)</f>
+        <v>17303131</v>
       </c>
       <c r="K77">
         <f>IF(Q77&lt;&gt;"",Q77*116+$B$3,IF(R77&lt;&gt;"",R77*116+$B$3,IF(T77&lt;&gt;"",T77*68+$B$5,"")))</f>
-        <v>524047</v>
+        <v>524591</v>
       </c>
       <c r="L77">
         <f>IF(J77&lt;&gt;"",J77,K77)</f>
-        <v>524047</v>
+        <v>524591</v>
       </c>
       <c r="O77" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="S77" t="s">
         <v>38</v>
       </c>
       <c r="T77">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="U77" t="str">
-        <f>IF(S77="*",D77&amp;" : INT := "&amp;(T77+1)&amp;";")</f>
-        <v>ASp04 : INT := 15;</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>CSp1 : INT := 23;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>68</v>
       </c>
@@ -4682,7 +4765,7 @@
         <v>10000BC</v>
       </c>
       <c r="I78">
-        <f t="shared" si="2"/>
+        <f>HEX2DEC(H78)</f>
         <v>16777404</v>
       </c>
       <c r="K78">
@@ -4703,7 +4786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>69</v>
       </c>
@@ -4733,7 +4816,7 @@
         <v>10000F6</v>
       </c>
       <c r="I79">
-        <f t="shared" si="2"/>
+        <f>HEX2DEC(H79)</f>
         <v>16777462</v>
       </c>
       <c r="K79">
@@ -4754,7 +4837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>70</v>
       </c>
@@ -4784,7 +4867,7 @@
         <v>1000130</v>
       </c>
       <c r="I80">
-        <f t="shared" si="2"/>
+        <f>HEX2DEC(H80)</f>
         <v>16777520</v>
       </c>
       <c r="K80">
@@ -4805,7 +4888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>71</v>
       </c>
@@ -4835,7 +4918,7 @@
         <v>10000BA</v>
       </c>
       <c r="I81">
-        <f t="shared" si="2"/>
+        <f>HEX2DEC(H81)</f>
         <v>16777402</v>
       </c>
       <c r="K81">
@@ -4856,7 +4939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>72</v>
       </c>
@@ -4886,7 +4969,7 @@
         <v>10000F4</v>
       </c>
       <c r="I82">
-        <f t="shared" si="2"/>
+        <f>HEX2DEC(H82)</f>
         <v>16777460</v>
       </c>
       <c r="K82">
@@ -4907,7 +4990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>73</v>
       </c>
@@ -4937,7 +5020,7 @@
         <v>100012E</v>
       </c>
       <c r="I83">
-        <f t="shared" si="2"/>
+        <f>HEX2DEC(H83)</f>
         <v>16777518</v>
       </c>
       <c r="K83">
@@ -4958,7 +5041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>74</v>
       </c>
@@ -4988,7 +5071,7 @@
         <v>10C0001</v>
       </c>
       <c r="I84">
-        <f t="shared" si="2"/>
+        <f>HEX2DEC(H84)</f>
         <v>17563649</v>
       </c>
       <c r="J84">
@@ -5009,7 +5092,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>75</v>
       </c>
@@ -5039,7 +5122,7 @@
         <v>10D0001</v>
       </c>
       <c r="I85">
-        <f t="shared" si="2"/>
+        <f>HEX2DEC(H85)</f>
         <v>17629185</v>
       </c>
       <c r="J85">
@@ -5060,7 +5143,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>76</v>
       </c>
@@ -5090,7 +5173,7 @@
         <v>10E0001</v>
       </c>
       <c r="I86">
-        <f t="shared" si="2"/>
+        <f>HEX2DEC(H86)</f>
         <v>17694721</v>
       </c>
       <c r="J86">
@@ -5111,7 +5194,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>77</v>
       </c>
@@ -5141,7 +5224,7 @@
         <v>10F0001</v>
       </c>
       <c r="I87">
-        <f t="shared" si="2"/>
+        <f>HEX2DEC(H87)</f>
         <v>17760257</v>
       </c>
       <c r="J87">
@@ -5159,7 +5242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>78</v>
       </c>
@@ -5189,7 +5272,7 @@
         <v>1000250</v>
       </c>
       <c r="I88">
-        <f t="shared" si="2"/>
+        <f>HEX2DEC(H88)</f>
         <v>16777808</v>
       </c>
       <c r="K88">
@@ -5210,7 +5293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>79</v>
       </c>
@@ -5240,7 +5323,7 @@
         <v>1000252</v>
       </c>
       <c r="I89">
-        <f t="shared" si="2"/>
+        <f>HEX2DEC(H89)</f>
         <v>16777810</v>
       </c>
       <c r="K89">
@@ -5263,16 +5346,16 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>80</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>82</v>
+        <v>24</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>85</v>
+        <v>307</v>
       </c>
       <c r="E90" s="1">
         <f>IF(P90="",$B$2,$B$2)</f>
@@ -5280,7 +5363,7 @@
       </c>
       <c r="F90" s="1">
         <f>IF(L90&lt;&gt;"",FLOOR((L90-MIN(L:L))/2,1),"")</f>
-        <v>1525</v>
+        <v>1661</v>
       </c>
       <c r="G90" s="1">
         <f>IF(MOD(L90-$B$6,2)=1,8+M90,M90)</f>
@@ -5288,32 +5371,32 @@
       </c>
       <c r="H90" t="str">
         <f>DEC2HEX(E90*HEX2DEC(1000000) +G90*HEX2DEC(10000) +F90)</f>
-        <v>10805F5</v>
+        <v>108067D</v>
       </c>
       <c r="I90">
-        <f t="shared" si="2"/>
-        <v>17303029</v>
+        <f>HEX2DEC(H90)</f>
+        <v>17303165</v>
       </c>
       <c r="K90">
         <f>IF(Q90&lt;&gt;"",Q90*116+$B$3,IF(R90&lt;&gt;"",R90*116+$B$3,IF(T90&lt;&gt;"",T90*68+$B$5,"")))</f>
-        <v>524387</v>
+        <v>524659</v>
       </c>
       <c r="L90">
         <f>IF(J90&lt;&gt;"",J90,K90)</f>
-        <v>524387</v>
+        <v>524659</v>
       </c>
       <c r="O90" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="S90" t="s">
         <v>38</v>
       </c>
       <c r="T90">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U90" t="str">
         <f>IF(S90="*",D90&amp;" : INT := "&amp;(T90+1)&amp;";")</f>
-        <v>H1 : INT := 20;</v>
+        <v>SpB3 : INT := 24;</v>
       </c>
     </row>
     <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -5675,16 +5758,16 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>90</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C100">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>84</v>
+        <v>308</v>
       </c>
       <c r="E100" s="1">
         <f>IF(P100="",$B$2,$B$2)</f>
@@ -5692,7 +5775,7 @@
       </c>
       <c r="F100" s="1">
         <f>IF(L100&lt;&gt;"",FLOOR((L100-MIN(L:L))/2,1),"")</f>
-        <v>1559</v>
+        <v>1593</v>
       </c>
       <c r="G100" s="1">
         <f>IF(MOD(L100-$B$6,2)=1,8+M100,M100)</f>
@@ -5700,32 +5783,32 @@
       </c>
       <c r="H100" t="str">
         <f>DEC2HEX(E100*HEX2DEC(1000000) +G100*HEX2DEC(10000) +F100)</f>
-        <v>1080617</v>
+        <v>1080639</v>
       </c>
       <c r="I100">
         <f>HEX2DEC(H100)</f>
-        <v>17303063</v>
+        <v>17303097</v>
       </c>
       <c r="K100">
         <f>IF(Q100&lt;&gt;"",Q100*116+$B$3,IF(R100&lt;&gt;"",R100*116+$B$3,IF(T100&lt;&gt;"",T100*68+$B$5,"")))</f>
-        <v>524455</v>
+        <v>524523</v>
       </c>
       <c r="L100">
         <f>IF(J100&lt;&gt;"",J100,K100)</f>
-        <v>524455</v>
+        <v>524523</v>
       </c>
       <c r="O100" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="S100" t="s">
         <v>38</v>
       </c>
       <c r="T100">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U100" t="str">
         <f>IF(S100="*",D100&amp;" : INT := "&amp;(T100+1)&amp;";")</f>
-        <v>H2 : INT := 21;</v>
+        <v>SpB4 : INT := 22;</v>
       </c>
     </row>
     <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -5739,34 +5822,34 @@
         <v>12</v>
       </c>
       <c r="E101" s="1">
-        <f>IF(P101="",$B$2,$B$2)</f>
+        <f t="shared" ref="E74:E105" si="6">IF(P101="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F101" s="1">
-        <f>IF(L101&lt;&gt;"",FLOOR((L101-MIN(L:L))/2,1),"")</f>
+        <f t="shared" ref="F74:F105" si="7">IF(L101&lt;&gt;"",FLOOR((L101-MIN(L:L))/2,1),"")</f>
         <v>428</v>
       </c>
       <c r="G101" s="1">
-        <f>IF(MOD(L101-$B$6,2)=1,8+M101,M101)</f>
+        <f t="shared" ref="G74:G105" si="8">IF(MOD(L101-$B$6,2)=1,8+M101,M101)</f>
         <v>7</v>
       </c>
       <c r="H101" t="str">
-        <f>DEC2HEX(E101*HEX2DEC(1000000) +G101*HEX2DEC(10000) +F101)</f>
+        <f t="shared" ref="H74:H105" si="9">DEC2HEX(E101*HEX2DEC(1000000) +G101*HEX2DEC(10000) +F101)</f>
         <v>10701AC</v>
       </c>
       <c r="I101">
-        <f>HEX2DEC(H101)</f>
+        <f t="shared" ref="I91:I105" si="10">HEX2DEC(H101)</f>
         <v>17236396</v>
       </c>
       <c r="J101">
         <v>522192</v>
       </c>
       <c r="K101" t="str">
-        <f>IF(Q101&lt;&gt;"",Q101*116+$B$3,IF(R101&lt;&gt;"",R101*116+$B$3,IF(T101&lt;&gt;"",T101*68+$B$5,"")))</f>
+        <f t="shared" ref="K90:K121" si="11">IF(Q101&lt;&gt;"",Q101*116+$B$3,IF(R101&lt;&gt;"",R101*116+$B$3,IF(T101&lt;&gt;"",T101*68+$B$5,"")))</f>
         <v/>
       </c>
       <c r="L101">
-        <f>IF(J101&lt;&gt;"",J101,K101)</f>
+        <f t="shared" ref="L74:L105" si="12">IF(J101&lt;&gt;"",J101,K101)</f>
         <v>522192</v>
       </c>
       <c r="M101">
@@ -5784,34 +5867,34 @@
         <v>13</v>
       </c>
       <c r="E102" s="1">
-        <f>IF(P102="",$B$2,$B$2)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F102" s="1">
-        <f>IF(L102&lt;&gt;"",FLOOR((L102-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="7"/>
         <v>428</v>
       </c>
       <c r="G102" s="1">
-        <f>IF(MOD(L102-$B$6,2)=1,8+M102,M102)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="H102" t="str">
-        <f>DEC2HEX(E102*HEX2DEC(1000000) +G102*HEX2DEC(10000) +F102)</f>
+        <f t="shared" si="9"/>
         <v>10801AC</v>
       </c>
       <c r="I102">
-        <f>HEX2DEC(H102)</f>
+        <f t="shared" si="10"/>
         <v>17301932</v>
       </c>
       <c r="J102">
         <v>522193</v>
       </c>
       <c r="K102" t="str">
-        <f>IF(Q102&lt;&gt;"",Q102*116+$B$3,IF(R102&lt;&gt;"",R102*116+$B$3,IF(T102&lt;&gt;"",T102*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L102">
-        <f>IF(J102&lt;&gt;"",J102,K102)</f>
+        <f t="shared" si="12"/>
         <v>522193</v>
       </c>
       <c r="M102">
@@ -5829,34 +5912,34 @@
         <v>14</v>
       </c>
       <c r="E103" s="1">
-        <f>IF(P103="",$B$2,$B$2)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F103" s="1">
-        <f>IF(L103&lt;&gt;"",FLOOR((L103-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="7"/>
         <v>428</v>
       </c>
       <c r="G103" s="1">
-        <f>IF(MOD(L103-$B$6,2)=1,8+M103,M103)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="H103" t="str">
-        <f>DEC2HEX(E103*HEX2DEC(1000000) +G103*HEX2DEC(10000) +F103)</f>
+        <f t="shared" si="9"/>
         <v>10901AC</v>
       </c>
       <c r="I103">
-        <f>HEX2DEC(H103)</f>
+        <f t="shared" si="10"/>
         <v>17367468</v>
       </c>
       <c r="J103">
         <v>522193</v>
       </c>
       <c r="K103" t="str">
-        <f>IF(Q103&lt;&gt;"",Q103*116+$B$3,IF(R103&lt;&gt;"",R103*116+$B$3,IF(T103&lt;&gt;"",T103*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L103">
-        <f>IF(J103&lt;&gt;"",J103,K103)</f>
+        <f t="shared" si="12"/>
         <v>522193</v>
       </c>
       <c r="M103">
@@ -5874,31 +5957,31 @@
         <v>15</v>
       </c>
       <c r="E104" s="1">
-        <f>IF(P104="",$B$2,$B$2)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f>IF(L104&lt;&gt;"",FLOOR((L104-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G104" s="1" t="e">
-        <f>IF(MOD(L104-$B$6,2)=1,8+M104,M104)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H104" t="e">
-        <f>DEC2HEX(E104*HEX2DEC(1000000) +G104*HEX2DEC(10000) +F104)</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="I104" t="e">
-        <f>HEX2DEC(H104)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K104" t="str">
-        <f>IF(Q104&lt;&gt;"",Q104*116+$B$3,IF(R104&lt;&gt;"",R104*116+$B$3,IF(T104&lt;&gt;"",T104*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L104" t="str">
-        <f>IF(J104&lt;&gt;"",J104,K104)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -5913,35 +5996,35 @@
         <v>16</v>
       </c>
       <c r="E105" s="1">
-        <f>IF(P105="",$B$2,$B$2)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f>IF(L105&lt;&gt;"",FLOOR((L105-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G105" s="1" t="e">
-        <f>IF(MOD(L105-$B$6,2)=1,8+M105,M105)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H105" t="e">
-        <f>DEC2HEX(E105*HEX2DEC(1000000) +G105*HEX2DEC(10000) +F105)</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="I105" t="e">
-        <f>HEX2DEC(H105)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K105" t="str">
-        <f>IF(Q105&lt;&gt;"",Q105*116+$B$3,IF(R105&lt;&gt;"",R105*116+$B$3,IF(T105&lt;&gt;"",T105*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L105" t="str">
-        <f>IF(J105&lt;&gt;"",J105,K105)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>96</v>
       </c>
@@ -5955,34 +6038,34 @@
         <v>53</v>
       </c>
       <c r="E106" s="1">
-        <f>IF(P106="",$B$2,$B$2)</f>
+        <f t="shared" ref="E106:E121" si="13">IF(P106="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F106" s="1">
-        <f>IF(L106&lt;&gt;"",FLOOR((L106-MIN(L:L))/2,1),"")</f>
+        <f t="shared" ref="F106:F121" si="14">IF(L106&lt;&gt;"",FLOOR((L106-MIN(L:L))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G106" s="1">
-        <f>IF(MOD(L106-$B$6,2)=1,8+M106,M106)</f>
+        <f t="shared" ref="G106:G121" si="15">IF(MOD(L106-$B$6,2)=1,8+M106,M106)</f>
         <v>7</v>
       </c>
       <c r="H106" t="str">
-        <f>DEC2HEX(E106*HEX2DEC(1000000) +G106*HEX2DEC(10000) +F106)</f>
+        <f t="shared" ref="H106:H137" si="16">DEC2HEX(E106*HEX2DEC(1000000) +G106*HEX2DEC(10000) +F106)</f>
         <v>1070000</v>
       </c>
       <c r="I106">
-        <f t="shared" ref="I106:I109" si="3">HEX2DEC(H106)</f>
+        <f t="shared" ref="I106:I109" si="17">HEX2DEC(H106)</f>
         <v>17235968</v>
       </c>
       <c r="J106">
         <v>521336</v>
       </c>
       <c r="K106" t="str">
-        <f>IF(Q106&lt;&gt;"",Q106*116+$B$3,IF(R106&lt;&gt;"",R106*116+$B$3,IF(T106&lt;&gt;"",T106*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L106">
-        <f>IF(J106&lt;&gt;"",J106,K106)</f>
+        <f t="shared" ref="L106:L137" si="18">IF(J106&lt;&gt;"",J106,K106)</f>
         <v>521336</v>
       </c>
       <c r="M106">
@@ -5992,7 +6075,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>97</v>
       </c>
@@ -6006,34 +6089,34 @@
         <v>54</v>
       </c>
       <c r="E107" s="1">
-        <f>IF(P107="",$B$2,$B$2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F107" s="1">
-        <f>IF(L107&lt;&gt;"",FLOOR((L107-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G107" s="1">
-        <f>IF(MOD(L107-$B$6,2)=1,8+M107,M107)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="H107" t="str">
-        <f>DEC2HEX(E107*HEX2DEC(1000000) +G107*HEX2DEC(10000) +F107)</f>
+        <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
       <c r="I107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>17301504</v>
       </c>
       <c r="J107">
         <v>521337</v>
       </c>
       <c r="K107" t="str">
-        <f>IF(Q107&lt;&gt;"",Q107*116+$B$3,IF(R107&lt;&gt;"",R107*116+$B$3,IF(T107&lt;&gt;"",T107*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L107">
-        <f>IF(J107&lt;&gt;"",J107,K107)</f>
+        <f t="shared" si="18"/>
         <v>521337</v>
       </c>
       <c r="M107">
@@ -6043,7 +6126,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>98</v>
       </c>
@@ -6057,41 +6140,41 @@
         <v>48</v>
       </c>
       <c r="E108" s="1">
-        <f>IF(P108="",$B$2,$B$2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F108" s="1">
-        <f>IF(L108&lt;&gt;"",FLOOR((L108-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G108" s="1">
-        <f>IF(MOD(L108-$B$6,2)=1,8+M108,M108)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="H108" t="str">
-        <f>DEC2HEX(E108*HEX2DEC(1000000) +G108*HEX2DEC(10000) +F108)</f>
+        <f t="shared" si="16"/>
         <v>1030000</v>
       </c>
       <c r="I108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>16973824</v>
       </c>
       <c r="J108">
         <v>521336</v>
       </c>
       <c r="K108" t="str">
-        <f>IF(Q108&lt;&gt;"",Q108*116+$B$3,IF(R108&lt;&gt;"",R108*116+$B$3,IF(T108&lt;&gt;"",T108*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L108">
-        <f>IF(J108&lt;&gt;"",J108,K108)</f>
+        <f t="shared" si="18"/>
         <v>521336</v>
       </c>
       <c r="M108">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>99</v>
       </c>
@@ -6105,34 +6188,34 @@
         <v>49</v>
       </c>
       <c r="E109" s="1">
-        <f>IF(P109="",$B$2,$B$2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F109" s="1">
-        <f>IF(L109&lt;&gt;"",FLOOR((L109-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G109" s="1">
-        <f>IF(MOD(L109-$B$6,2)=1,8+M109,M109)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="H109" t="str">
-        <f>DEC2HEX(E109*HEX2DEC(1000000) +G109*HEX2DEC(10000) +F109)</f>
+        <f t="shared" si="16"/>
         <v>1040000</v>
       </c>
       <c r="I109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>17039360</v>
       </c>
       <c r="J109">
         <v>521336</v>
       </c>
       <c r="K109" t="str">
-        <f>IF(Q109&lt;&gt;"",Q109*116+$B$3,IF(R109&lt;&gt;"",R109*116+$B$3,IF(T109&lt;&gt;"",T109*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L109">
-        <f>IF(J109&lt;&gt;"",J109,K109)</f>
+        <f t="shared" si="18"/>
         <v>521336</v>
       </c>
       <c r="M109">
@@ -6153,19 +6236,19 @@
         <v>94</v>
       </c>
       <c r="E110" s="1">
-        <f>IF(P110="",$B$2,$B$2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f>IF(L110&lt;&gt;"",FLOOR((L110-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G110" s="1" t="e">
-        <f>IF(MOD(L110-$B$6,2)=1,8+M110,M110)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="H110" t="e">
-        <f>DEC2HEX(E110*HEX2DEC(1000000) +G110*HEX2DEC(10000) +F110)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="I110" t="e">
@@ -6173,11 +6256,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K110" t="str">
-        <f>IF(Q110&lt;&gt;"",Q110*116+$B$3,IF(R110&lt;&gt;"",R110*116+$B$3,IF(T110&lt;&gt;"",T110*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L110" t="str">
-        <f>IF(J110&lt;&gt;"",J110,K110)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -6195,19 +6278,19 @@
         <v>95</v>
       </c>
       <c r="E111" s="1">
-        <f>IF(P111="",$B$2,$B$2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F111" s="1" t="str">
-        <f>IF(L111&lt;&gt;"",FLOOR((L111-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G111" s="1" t="e">
-        <f>IF(MOD(L111-$B$6,2)=1,8+M111,M111)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="H111" t="e">
-        <f>DEC2HEX(E111*HEX2DEC(1000000) +G111*HEX2DEC(10000) +F111)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="I111" t="e">
@@ -6215,11 +6298,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K111" t="str">
-        <f>IF(Q111&lt;&gt;"",Q111*116+$B$3,IF(R111&lt;&gt;"",R111*116+$B$3,IF(T111&lt;&gt;"",T111*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L111" t="str">
-        <f>IF(J111&lt;&gt;"",J111,K111)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -6234,19 +6317,19 @@
         <v>3</v>
       </c>
       <c r="E112" s="1">
-        <f>IF(P112="",$B$2,$B$2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f>IF(L112&lt;&gt;"",FLOOR((L112-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G112" s="1" t="e">
-        <f>IF(MOD(L112-$B$6,2)=1,8+M112,M112)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="H112" t="e">
-        <f>DEC2HEX(E112*HEX2DEC(1000000) +G112*HEX2DEC(10000) +F112)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="I112" t="e">
@@ -6254,11 +6337,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K112" t="str">
-        <f>IF(Q112&lt;&gt;"",Q112*116+$B$3,IF(R112&lt;&gt;"",R112*116+$B$3,IF(T112&lt;&gt;"",T112*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L112" t="str">
-        <f>IF(J112&lt;&gt;"",J112,K112)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -6273,19 +6356,19 @@
         <v>4</v>
       </c>
       <c r="E113" s="1">
-        <f>IF(P113="",$B$2,$B$2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F113" s="1" t="str">
-        <f>IF(L113&lt;&gt;"",FLOOR((L113-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G113" s="1" t="e">
-        <f>IF(MOD(L113-$B$6,2)=1,8+M113,M113)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="H113" t="e">
-        <f>DEC2HEX(E113*HEX2DEC(1000000) +G113*HEX2DEC(10000) +F113)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="I113" t="e">
@@ -6293,15 +6376,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="K113" t="str">
-        <f>IF(Q113&lt;&gt;"",Q113*116+$B$3,IF(R113&lt;&gt;"",R113*116+$B$3,IF(T113&lt;&gt;"",T113*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L113" t="str">
-        <f>IF(J113&lt;&gt;"",J113,K113)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>104</v>
       </c>
@@ -6315,41 +6398,41 @@
         <v>57</v>
       </c>
       <c r="E114" s="1">
-        <f>IF(P114="",$B$2,$B$2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F114" s="1">
-        <f>IF(L114&lt;&gt;"",FLOOR((L114-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G114" s="1">
-        <f>IF(MOD(L114-$B$6,2)=1,8+M114,M114)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="H114" t="str">
-        <f>DEC2HEX(E114*HEX2DEC(1000000) +G114*HEX2DEC(10000) +F114)</f>
+        <f t="shared" si="16"/>
         <v>1020000</v>
       </c>
       <c r="I114">
-        <f t="shared" ref="I114:I121" si="4">HEX2DEC(H114)</f>
+        <f t="shared" ref="I114:I121" si="19">HEX2DEC(H114)</f>
         <v>16908288</v>
       </c>
       <c r="J114">
         <v>521336</v>
       </c>
       <c r="K114" t="str">
-        <f>IF(Q114&lt;&gt;"",Q114*116+$B$3,IF(R114&lt;&gt;"",R114*116+$B$3,IF(T114&lt;&gt;"",T114*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L114">
-        <f>IF(J114&lt;&gt;"",J114,K114)</f>
+        <f t="shared" si="18"/>
         <v>521336</v>
       </c>
       <c r="M114">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>105</v>
       </c>
@@ -6363,41 +6446,41 @@
         <v>50</v>
       </c>
       <c r="E115" s="1">
-        <f>IF(P115="",$B$2,$B$2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F115" s="1">
-        <f>IF(L115&lt;&gt;"",FLOOR((L115-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G115" s="1">
-        <f>IF(MOD(L115-$B$6,2)=1,8+M115,M115)</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="H115" t="str">
-        <f>DEC2HEX(E115*HEX2DEC(1000000) +G115*HEX2DEC(10000) +F115)</f>
+        <f t="shared" si="16"/>
         <v>1050000</v>
       </c>
       <c r="I115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>17104896</v>
       </c>
       <c r="J115">
         <v>521336</v>
       </c>
       <c r="K115" t="str">
-        <f>IF(Q115&lt;&gt;"",Q115*116+$B$3,IF(R115&lt;&gt;"",R115*116+$B$3,IF(T115&lt;&gt;"",T115*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L115">
-        <f>IF(J115&lt;&gt;"",J115,K115)</f>
+        <f t="shared" si="18"/>
         <v>521336</v>
       </c>
       <c r="M115">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>106</v>
       </c>
@@ -6411,41 +6494,41 @@
         <v>51</v>
       </c>
       <c r="E116" s="1">
-        <f>IF(P116="",$B$2,$B$2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F116" s="1">
-        <f>IF(L116&lt;&gt;"",FLOOR((L116-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G116" s="1">
-        <f>IF(MOD(L116-$B$6,2)=1,8+M116,M116)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="H116" t="str">
-        <f>DEC2HEX(E116*HEX2DEC(1000000) +G116*HEX2DEC(10000) +F116)</f>
+        <f t="shared" si="16"/>
         <v>1060000</v>
       </c>
       <c r="I116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>17170432</v>
       </c>
       <c r="J116">
         <v>521336</v>
       </c>
       <c r="K116" t="str">
-        <f>IF(Q116&lt;&gt;"",Q116*116+$B$3,IF(R116&lt;&gt;"",R116*116+$B$3,IF(T116&lt;&gt;"",T116*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L116">
-        <f>IF(J116&lt;&gt;"",J116,K116)</f>
+        <f t="shared" si="18"/>
         <v>521336</v>
       </c>
       <c r="M116">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>107</v>
       </c>
@@ -6459,34 +6542,34 @@
         <v>58</v>
       </c>
       <c r="E117" s="1">
-        <f>IF(P117="",$B$2,$B$2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F117" s="1">
-        <f>IF(L117&lt;&gt;"",FLOOR((L117-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G117" s="1">
-        <f>IF(MOD(L117-$B$6,2)=1,8+M117,M117)</f>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="H117" t="str">
-        <f>DEC2HEX(E117*HEX2DEC(1000000) +G117*HEX2DEC(10000) +F117)</f>
+        <f t="shared" si="16"/>
         <v>1090000</v>
       </c>
       <c r="I117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>17367040</v>
       </c>
       <c r="J117">
         <v>521337</v>
       </c>
       <c r="K117" t="str">
-        <f>IF(Q117&lt;&gt;"",Q117*116+$B$3,IF(R117&lt;&gt;"",R117*116+$B$3,IF(T117&lt;&gt;"",T117*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L117">
-        <f>IF(J117&lt;&gt;"",J117,K117)</f>
+        <f t="shared" si="18"/>
         <v>521337</v>
       </c>
       <c r="M117">
@@ -6496,7 +6579,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>108</v>
       </c>
@@ -6510,34 +6593,34 @@
         <v>70</v>
       </c>
       <c r="E118" s="1">
-        <f>IF(P118="",$B$2,$B$2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F118" s="1">
-        <f>IF(L118&lt;&gt;"",FLOOR((L118-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G118" s="1">
-        <f>IF(MOD(L118-$B$6,2)=1,8+M118,M118)</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="H118" t="str">
-        <f>DEC2HEX(E118*HEX2DEC(1000000) +G118*HEX2DEC(10000) +F118)</f>
+        <f t="shared" si="16"/>
         <v>10A0000</v>
       </c>
       <c r="I118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>17432576</v>
       </c>
       <c r="J118">
         <v>521337</v>
       </c>
       <c r="K118" t="str">
-        <f>IF(Q118&lt;&gt;"",Q118*116+$B$3,IF(R118&lt;&gt;"",R118*116+$B$3,IF(T118&lt;&gt;"",T118*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L118">
-        <f>IF(J118&lt;&gt;"",J118,K118)</f>
+        <f t="shared" si="18"/>
         <v>521337</v>
       </c>
       <c r="M118">
@@ -6547,7 +6630,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>109</v>
       </c>
@@ -6561,34 +6644,34 @@
         <v>55</v>
       </c>
       <c r="E119" s="1">
-        <f>IF(P119="",$B$2,$B$2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F119" s="1">
-        <f>IF(L119&lt;&gt;"",FLOOR((L119-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G119" s="1">
-        <f>IF(MOD(L119-$B$6,2)=1,8+M119,M119)</f>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="H119" t="str">
-        <f>DEC2HEX(E119*HEX2DEC(1000000) +G119*HEX2DEC(10000) +F119)</f>
+        <f t="shared" si="16"/>
         <v>10B0000</v>
       </c>
       <c r="I119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>17498112</v>
       </c>
       <c r="J119">
         <v>521337</v>
       </c>
       <c r="K119" t="str">
-        <f>IF(Q119&lt;&gt;"",Q119*116+$B$3,IF(R119&lt;&gt;"",R119*116+$B$3,IF(T119&lt;&gt;"",T119*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L119">
-        <f>IF(J119&lt;&gt;"",J119,K119)</f>
+        <f t="shared" si="18"/>
         <v>521337</v>
       </c>
       <c r="M119">
@@ -6598,7 +6681,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>110</v>
       </c>
@@ -6612,41 +6695,41 @@
         <v>52</v>
       </c>
       <c r="E120" s="1">
-        <f>IF(P120="",$B$2,$B$2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F120" s="1">
-        <f>IF(L120&lt;&gt;"",FLOOR((L120-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G120" s="1">
-        <f>IF(MOD(L120-$B$6,2)=1,8+M120,M120)</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="H120" t="str">
-        <f>DEC2HEX(E120*HEX2DEC(1000000) +G120*HEX2DEC(10000) +F120)</f>
+        <f t="shared" si="16"/>
         <v>10C0000</v>
       </c>
       <c r="I120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>17563648</v>
       </c>
       <c r="J120">
         <v>521337</v>
       </c>
       <c r="K120" t="str">
-        <f>IF(Q120&lt;&gt;"",Q120*116+$B$3,IF(R120&lt;&gt;"",R120*116+$B$3,IF(T120&lt;&gt;"",T120*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L120">
-        <f>IF(J120&lt;&gt;"",J120,K120)</f>
+        <f t="shared" si="18"/>
         <v>521337</v>
       </c>
       <c r="M120">
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>111</v>
       </c>
@@ -6660,34 +6743,34 @@
         <v>56</v>
       </c>
       <c r="E121" s="1">
-        <f>IF(P121="",$B$2,$B$2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F121" s="1">
-        <f>IF(L121&lt;&gt;"",FLOOR((L121-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G121" s="1">
-        <f>IF(MOD(L121-$B$6,2)=1,8+M121,M121)</f>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="H121" t="str">
-        <f>DEC2HEX(E121*HEX2DEC(1000000) +G121*HEX2DEC(10000) +F121)</f>
+        <f t="shared" si="16"/>
         <v>10D0000</v>
       </c>
       <c r="I121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>17629184</v>
       </c>
       <c r="J121">
         <v>521337</v>
       </c>
       <c r="K121" t="str">
-        <f>IF(Q121&lt;&gt;"",Q121*116+$B$3,IF(R121&lt;&gt;"",R121*116+$B$3,IF(T121&lt;&gt;"",T121*68+$B$5,"")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L121">
-        <f>IF(J121&lt;&gt;"",J121,K121)</f>
+        <f t="shared" si="18"/>
         <v>521337</v>
       </c>
       <c r="M121">
@@ -6699,18 +6782,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A9:U121" xr:uid="{A89B904C-2B30-413B-8D81-C58D97718B2C}">
-    <filterColumn colId="3">
+    <filterColumn colId="18">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="11">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="A10:U121">
-      <sortCondition ref="A9:A121"/>
+    <sortState ref="A10:U100">
+      <sortCondition ref="T9:T121"/>
     </sortState>
   </autoFilter>
   <sortState ref="A10:T121">
@@ -6727,8 +6805,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8:R70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6805,7 +6883,7 @@
       </c>
       <c r="B6">
         <f>COUNTIF(P:P,"*")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -6878,11 +6956,11 @@
         <v>18</v>
       </c>
       <c r="E8" s="1">
-        <f>IF(P8="",$B$2,$B$2)</f>
+        <f t="shared" ref="E8:E39" si="0">IF(P8="",$B$2,$B$2)</f>
         <v>2</v>
       </c>
       <c r="F8" s="1">
-        <f>IF(L8&lt;&gt;"",FLOOR((L8-$B$4)/2,1),"")</f>
+        <f t="shared" ref="F8:F39" si="1">IF(L8&lt;&gt;"",FLOOR((L8-$B$4)/2,1),"")</f>
         <v>3976</v>
       </c>
       <c r="G8" s="1">
@@ -6890,7 +6968,7 @@
         <v>8</v>
       </c>
       <c r="H8" t="str">
-        <f>DEC2HEX(E8*HEX2DEC(1000000) +G8*HEX2DEC(10000) +F8)</f>
+        <f t="shared" ref="H8:H39" si="2">DEC2HEX(E8*HEX2DEC(1000000) +G8*HEX2DEC(10000) +F8)</f>
         <v>2080F88</v>
       </c>
       <c r="I8">
@@ -6918,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="str">
-        <f>IF(P8="*",D8&amp;" : INT :="&amp;(Q8+1)&amp;";","")</f>
+        <f t="shared" ref="R8:R42" si="3">IF(P8="*",D8&amp;" : INT :="&amp;(Q8+1)&amp;";","")</f>
         <v>Cy01 : INT :=1;</v>
       </c>
     </row>
@@ -6936,31 +7014,31 @@
         <v>19</v>
       </c>
       <c r="E9" s="1">
-        <f>IF(P9="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F9" s="1">
-        <f>IF(L9&lt;&gt;"",FLOOR((L9-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>4034</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:G10" si="0">IF(MOD(L9-$B$4,2)=1,8+M9,M9)</f>
+        <f t="shared" ref="G9:G10" si="4">IF(MOD(L9-$B$4,2)=1,8+M9,M9)</f>
         <v>8</v>
       </c>
       <c r="H9" t="str">
-        <f>DEC2HEX(E9*HEX2DEC(1000000) +G9*HEX2DEC(10000) +F9)</f>
+        <f t="shared" si="2"/>
         <v>2080FC2</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:I10" si="1">HEX2DEC(H9)</f>
+        <f t="shared" ref="I9:I10" si="5">HEX2DEC(H9)</f>
         <v>34082754</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="K9:K10" si="2">IF(Q9&lt;&gt;"",$B$3+Q9*116,"")</f>
+        <f t="shared" ref="K9:K10" si="6">IF(Q9&lt;&gt;"",$B$3+Q9*116,"")</f>
         <v>521474</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9:L10" si="3">IF(J9&lt;&gt;"",J9,K9)</f>
+        <f t="shared" ref="L9:L10" si="7">IF(J9&lt;&gt;"",J9,K9)</f>
         <v>521474</v>
       </c>
       <c r="N9" t="s">
@@ -6976,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="str">
-        <f>IF(P9="*",D9&amp;" : INT :="&amp;(Q9+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v>Cy02 : INT :=2;</v>
       </c>
     </row>
@@ -6994,31 +7072,31 @@
         <v>20</v>
       </c>
       <c r="E10" s="1">
-        <f>IF(P10="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F10" s="1">
-        <f>IF(L10&lt;&gt;"",FLOOR((L10-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>4092</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H10" t="str">
-        <f>DEC2HEX(E10*HEX2DEC(1000000) +G10*HEX2DEC(10000) +F10)</f>
+        <f t="shared" si="2"/>
         <v>2080FFC</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>34082812</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>521590</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>521590</v>
       </c>
       <c r="N10" t="s">
@@ -7034,7 +7112,7 @@
         <v>2</v>
       </c>
       <c r="R10" t="str">
-        <f>IF(P10="*",D10&amp;" : INT :="&amp;(Q10+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v>Cy03 : INT :=3;</v>
       </c>
     </row>
@@ -7049,11 +7127,11 @@
         <v>6</v>
       </c>
       <c r="E11" s="1">
-        <f>IF(P11="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IF(L11&lt;&gt;"",FLOOR((L11-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G11" s="1" t="e">
@@ -7061,7 +7139,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H11" t="e">
-        <f>DEC2HEX(E11*HEX2DEC(1000000) +G11*HEX2DEC(10000) +F11)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I11" t="e">
@@ -7077,7 +7155,7 @@
         <v/>
       </c>
       <c r="R11" t="str">
-        <f>IF(P11="*",D11&amp;" : INT :="&amp;(Q11+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7092,11 +7170,11 @@
         <v>7</v>
       </c>
       <c r="E12" s="1">
-        <f>IF(P12="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>IF(L12&lt;&gt;"",FLOOR((L12-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G12" s="1" t="e">
@@ -7104,7 +7182,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H12" t="e">
-        <f>DEC2HEX(E12*HEX2DEC(1000000) +G12*HEX2DEC(10000) +F12)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I12" t="e">
@@ -7123,7 +7201,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="str">
-        <f>IF(P12="*",D12&amp;" : INT :="&amp;(Q12+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7138,11 +7216,11 @@
         <v>8</v>
       </c>
       <c r="E13" s="1">
-        <f>IF(P13="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF(L13&lt;&gt;"",FLOOR((L13-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G13" s="1" t="e">
@@ -7150,7 +7228,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H13" t="e">
-        <f>DEC2HEX(E13*HEX2DEC(1000000) +G13*HEX2DEC(10000) +F13)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I13" t="e">
@@ -7166,11 +7244,11 @@
         <v/>
       </c>
       <c r="R13" t="str">
-        <f>IF(P13="*",D13&amp;" : INT :="&amp;(Q13+1)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
@@ -7184,34 +7262,34 @@
         <v>11</v>
       </c>
       <c r="E14" s="1">
-        <f>IF(P14="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F14" s="1">
-        <f>IF(L14&lt;&gt;"",FLOOR((L14-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14:G25" si="4">IF(MOD(L14-$B$4,2)=1,8+M14,M14)</f>
+        <f t="shared" ref="G14:G25" si="8">IF(MOD(L14-$B$4,2)=1,8+M14,M14)</f>
         <v>0</v>
       </c>
       <c r="H14" t="str">
-        <f>DEC2HEX(E14*HEX2DEC(1000000) +G14*HEX2DEC(10000) +F14)</f>
+        <f t="shared" si="2"/>
         <v>2000000</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:I25" si="5">HEX2DEC(H14)</f>
+        <f t="shared" ref="I14:I25" si="9">HEX2DEC(H14)</f>
         <v>33554432</v>
       </c>
       <c r="J14">
         <v>513405</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" ref="K14:K25" si="6">IF(Q14&lt;&gt;"",$B$3+Q14*116,"")</f>
+        <f t="shared" ref="K14:K25" si="10">IF(Q14&lt;&gt;"",$B$3+Q14*116,"")</f>
         <v/>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:L25" si="7">IF(J14&lt;&gt;"",J14,K14)</f>
+        <f t="shared" ref="L14:L25" si="11">IF(J14&lt;&gt;"",J14,K14)</f>
         <v>513405</v>
       </c>
       <c r="M14">
@@ -7221,11 +7299,11 @@
         <v>292</v>
       </c>
       <c r="R14" t="str">
-        <f>IF(P14="*",D14&amp;" : INT :="&amp;(Q14+1)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
@@ -7239,34 +7317,34 @@
         <v>12</v>
       </c>
       <c r="E15" s="1">
-        <f>IF(P15="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F15" s="1">
-        <f>IF(L15&lt;&gt;"",FLOOR((L15-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H15" t="str">
-        <f>DEC2HEX(E15*HEX2DEC(1000000) +G15*HEX2DEC(10000) +F15)</f>
+        <f t="shared" si="2"/>
         <v>2010000</v>
       </c>
       <c r="I15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>33619968</v>
       </c>
       <c r="J15">
         <v>513405</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>513405</v>
       </c>
       <c r="M15">
@@ -7276,11 +7354,11 @@
         <v>297</v>
       </c>
       <c r="R15" t="str">
-        <f>IF(P15="*",D15&amp;" : INT :="&amp;(Q15+1)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -7294,34 +7372,34 @@
         <v>13</v>
       </c>
       <c r="E16" s="1">
-        <f>IF(P16="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F16" s="1">
-        <f>IF(L16&lt;&gt;"",FLOOR((L16-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H16" t="str">
-        <f>DEC2HEX(E16*HEX2DEC(1000000) +G16*HEX2DEC(10000) +F16)</f>
+        <f t="shared" si="2"/>
         <v>2020000</v>
       </c>
       <c r="I16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>33685504</v>
       </c>
       <c r="J16">
         <v>513405</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>513405</v>
       </c>
       <c r="M16">
@@ -7331,11 +7409,11 @@
         <v>298</v>
       </c>
       <c r="R16" t="str">
-        <f>IF(P16="*",D16&amp;" : INT :="&amp;(Q16+1)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9</v>
       </c>
@@ -7349,34 +7427,34 @@
         <v>14</v>
       </c>
       <c r="E17" s="1">
-        <f>IF(P17="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F17" s="1">
-        <f>IF(L17&lt;&gt;"",FLOOR((L17-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H17" t="str">
-        <f>DEC2HEX(E17*HEX2DEC(1000000) +G17*HEX2DEC(10000) +F17)</f>
+        <f t="shared" si="2"/>
         <v>2030000</v>
       </c>
       <c r="I17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>33751040</v>
       </c>
       <c r="J17">
         <v>513405</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>513405</v>
       </c>
       <c r="M17">
@@ -7386,11 +7464,11 @@
         <v>299</v>
       </c>
       <c r="R17" t="str">
-        <f>IF(P17="*",D17&amp;" : INT :="&amp;(Q17+1)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10</v>
       </c>
@@ -7404,34 +7482,34 @@
         <v>21</v>
       </c>
       <c r="E18" s="1">
-        <f>IF(P18="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F18" s="1">
-        <f>IF(L18&lt;&gt;"",FLOOR((L18-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H18" t="str">
-        <f>DEC2HEX(E18*HEX2DEC(1000000) +G18*HEX2DEC(10000) +F18)</f>
+        <f t="shared" si="2"/>
         <v>2040000</v>
       </c>
       <c r="I18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>33816576</v>
       </c>
       <c r="J18">
         <v>513405</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>513405</v>
       </c>
       <c r="M18">
@@ -7441,11 +7519,11 @@
         <v>293</v>
       </c>
       <c r="R18" t="str">
-        <f>IF(P18="*",D18&amp;" : INT :="&amp;(Q18+1)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>11</v>
       </c>
@@ -7459,34 +7537,34 @@
         <v>22</v>
       </c>
       <c r="E19" s="1">
-        <f>IF(P19="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F19" s="1">
-        <f>IF(L19&lt;&gt;"",FLOOR((L19-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H19" t="str">
-        <f>DEC2HEX(E19*HEX2DEC(1000000) +G19*HEX2DEC(10000) +F19)</f>
+        <f t="shared" si="2"/>
         <v>2050000</v>
       </c>
       <c r="I19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>33882112</v>
       </c>
       <c r="J19">
         <v>513405</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>513405</v>
       </c>
       <c r="M19">
@@ -7496,11 +7574,11 @@
         <v>295</v>
       </c>
       <c r="R19" t="str">
-        <f>IF(P19="*",D19&amp;" : INT :="&amp;(Q19+1)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12</v>
       </c>
@@ -7514,34 +7592,34 @@
         <v>23</v>
       </c>
       <c r="E20" s="1">
-        <f>IF(P20="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F20" s="1">
-        <f>IF(L20&lt;&gt;"",FLOOR((L20-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="H20" t="str">
-        <f>DEC2HEX(E20*HEX2DEC(1000000) +G20*HEX2DEC(10000) +F20)</f>
+        <f t="shared" si="2"/>
         <v>2060000</v>
       </c>
       <c r="I20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>33947648</v>
       </c>
       <c r="J20">
         <v>513405</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>513405</v>
       </c>
       <c r="M20">
@@ -7551,11 +7629,11 @@
         <v>296</v>
       </c>
       <c r="R20" t="str">
-        <f>IF(P20="*",D20&amp;" : INT :="&amp;(Q20+1)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>13</v>
       </c>
@@ -7569,34 +7647,34 @@
         <v>24</v>
       </c>
       <c r="E21" s="1">
-        <f>IF(P21="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F21" s="1">
-        <f>IF(L21&lt;&gt;"",FLOOR((L21-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="H21" t="str">
-        <f>DEC2HEX(E21*HEX2DEC(1000000) +G21*HEX2DEC(10000) +F21)</f>
+        <f t="shared" si="2"/>
         <v>2070000</v>
       </c>
       <c r="I21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>34013184</v>
       </c>
       <c r="J21">
         <v>513405</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>513405</v>
       </c>
       <c r="M21">
@@ -7606,7 +7684,7 @@
         <v>294</v>
       </c>
       <c r="R21" t="str">
-        <f>IF(P21="*",D21&amp;" : INT :="&amp;(Q21+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7624,31 +7702,31 @@
         <v>157</v>
       </c>
       <c r="E22" s="1">
-        <f>IF(P22="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F22" s="1">
-        <f>IF(L22&lt;&gt;"",FLOOR((L22-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>4556</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="H22" t="str">
-        <f>DEC2HEX(E22*HEX2DEC(1000000) +G22*HEX2DEC(10000) +F22)</f>
+        <f t="shared" si="2"/>
         <v>20811CC</v>
       </c>
       <c r="I22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>34083276</v>
       </c>
       <c r="K22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>522518</v>
       </c>
       <c r="L22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>522518</v>
       </c>
       <c r="N22" t="s">
@@ -7664,7 +7742,7 @@
         <v>10</v>
       </c>
       <c r="R22" t="str">
-        <f>IF(P22="*",D22&amp;" : INT :="&amp;(Q22+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v>ACy04 : INT :=11;</v>
       </c>
     </row>
@@ -7682,31 +7760,31 @@
         <v>217</v>
       </c>
       <c r="E23" s="1">
-        <f>IF(P23="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F23" s="1">
-        <f>IF(L23&lt;&gt;"",FLOOR((L23-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>4614</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="H23" t="str">
-        <f>DEC2HEX(E23*HEX2DEC(1000000) +G23*HEX2DEC(10000) +F23)</f>
+        <f t="shared" si="2"/>
         <v>2081206</v>
       </c>
       <c r="I23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>34083334</v>
       </c>
       <c r="K23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>522634</v>
       </c>
       <c r="L23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>522634</v>
       </c>
       <c r="N23" t="s">
@@ -7722,7 +7800,7 @@
         <v>11</v>
       </c>
       <c r="R23" t="str">
-        <f>IF(P23="*",D23&amp;" : INT :="&amp;(Q23+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v>ACy05 : INT :=12;</v>
       </c>
     </row>
@@ -7740,31 +7818,31 @@
         <v>128</v>
       </c>
       <c r="E24" s="1">
-        <f>IF(P24="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F24" s="1">
-        <f>IF(L24&lt;&gt;"",FLOOR((L24-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>4440</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="H24" t="str">
-        <f>DEC2HEX(E24*HEX2DEC(1000000) +G24*HEX2DEC(10000) +F24)</f>
+        <f t="shared" si="2"/>
         <v>2081158</v>
       </c>
       <c r="I24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>34083160</v>
       </c>
       <c r="K24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>522286</v>
       </c>
       <c r="L24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>522286</v>
       </c>
       <c r="N24" t="s">
@@ -7780,7 +7858,7 @@
         <v>8</v>
       </c>
       <c r="R24" t="str">
-        <f>IF(P24="*",D24&amp;" : INT :="&amp;(Q24+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v>CCy1 : INT :=9;</v>
       </c>
     </row>
@@ -7798,31 +7876,31 @@
         <v>129</v>
       </c>
       <c r="E25" s="1">
-        <f>IF(P25="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F25" s="1">
-        <f>IF(L25&lt;&gt;"",FLOOR((L25-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>4498</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="H25" t="str">
-        <f>DEC2HEX(E25*HEX2DEC(1000000) +G25*HEX2DEC(10000) +F25)</f>
+        <f t="shared" si="2"/>
         <v>2081192</v>
       </c>
       <c r="I25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>34083218</v>
       </c>
       <c r="K25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>522402</v>
       </c>
       <c r="L25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>522402</v>
       </c>
       <c r="N25" t="s">
@@ -7838,7 +7916,7 @@
         <v>9</v>
       </c>
       <c r="R25" t="str">
-        <f>IF(P25="*",D25&amp;" : INT :="&amp;(Q25+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v>CCy2 : INT :=10;</v>
       </c>
     </row>
@@ -7853,35 +7931,35 @@
         <v>3</v>
       </c>
       <c r="E26" s="1">
-        <f>IF(P26="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF(L26&lt;&gt;"",FLOOR((L26-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G26" s="1" t="e">
-        <f>IF(MOD(F26,2)=1,8+M26,M26)</f>
+        <f t="shared" ref="G26:G39" si="12">IF(MOD(F26,2)=1,8+M26,M26)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H26" t="e">
-        <f>DEC2HEX(E26*HEX2DEC(1000000) +G26*HEX2DEC(10000) +F26)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I26" t="e">
-        <f>HEX2DEC(H26)</f>
+        <f t="shared" ref="I26:I39" si="13">HEX2DEC(H26)</f>
         <v>#VALUE!</v>
       </c>
       <c r="K26" t="str">
-        <f>IF(Q26&lt;&gt;"",$B$3+Q26*136,"")</f>
+        <f t="shared" ref="K26:K39" si="14">IF(Q26&lt;&gt;"",$B$3+Q26*136,"")</f>
         <v/>
       </c>
       <c r="L26" t="str">
-        <f>IF(J26&lt;&gt;"",J26,K26)</f>
+        <f t="shared" ref="L26:L39" si="15">IF(J26&lt;&gt;"",J26,K26)</f>
         <v/>
       </c>
       <c r="R26" t="str">
-        <f>IF(P26="*",D26&amp;" : INT :="&amp;(Q26+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7896,35 +7974,35 @@
         <v>4</v>
       </c>
       <c r="E27" s="1">
-        <f>IF(P27="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f>IF(L27&lt;&gt;"",FLOOR((L27-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G27" s="1" t="e">
-        <f>IF(MOD(F27,2)=1,8+M27,M27)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H27" t="e">
-        <f>DEC2HEX(E27*HEX2DEC(1000000) +G27*HEX2DEC(10000) +F27)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I27" t="e">
-        <f>HEX2DEC(H27)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="K27" t="str">
-        <f>IF(Q27&lt;&gt;"",$B$3+Q27*136,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L27" t="str">
-        <f>IF(J27&lt;&gt;"",J27,K27)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="R27" t="str">
-        <f>IF(P27="*",D27&amp;" : INT :="&amp;(Q27+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7939,35 +8017,35 @@
         <v>5</v>
       </c>
       <c r="E28" s="1">
-        <f>IF(P28="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF(L28&lt;&gt;"",FLOOR((L28-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G28" s="1" t="e">
-        <f>IF(MOD(F28,2)=1,8+M28,M28)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H28" t="e">
-        <f>DEC2HEX(E28*HEX2DEC(1000000) +G28*HEX2DEC(10000) +F28)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I28" t="e">
-        <f>HEX2DEC(H28)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="K28" t="str">
-        <f>IF(Q28&lt;&gt;"",$B$3+Q28*136,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L28" t="str">
-        <f>IF(J28&lt;&gt;"",J28,K28)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="R28" t="str">
-        <f>IF(P28="*",D28&amp;" : INT :="&amp;(Q28+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7982,35 +8060,35 @@
         <v>6</v>
       </c>
       <c r="E29" s="1">
-        <f>IF(P29="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF(L29&lt;&gt;"",FLOOR((L29-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G29" s="1" t="e">
-        <f>IF(MOD(F29,2)=1,8+M29,M29)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H29" t="e">
-        <f>DEC2HEX(E29*HEX2DEC(1000000) +G29*HEX2DEC(10000) +F29)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I29" t="e">
-        <f>HEX2DEC(H29)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="K29" t="str">
-        <f>IF(Q29&lt;&gt;"",$B$3+Q29*136,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f>IF(J29&lt;&gt;"",J29,K29)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="R29" t="str">
-        <f>IF(P29="*",D29&amp;" : INT :="&amp;(Q29+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8025,35 +8103,35 @@
         <v>7</v>
       </c>
       <c r="E30" s="1">
-        <f>IF(P30="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF(L30&lt;&gt;"",FLOOR((L30-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G30" s="1" t="e">
-        <f>IF(MOD(F30,2)=1,8+M30,M30)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H30" t="e">
-        <f>DEC2HEX(E30*HEX2DEC(1000000) +G30*HEX2DEC(10000) +F30)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I30" t="e">
-        <f>HEX2DEC(H30)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="K30" t="str">
-        <f>IF(Q30&lt;&gt;"",$B$3+Q30*136,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L30" t="str">
-        <f>IF(J30&lt;&gt;"",J30,K30)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="R30" t="str">
-        <f>IF(P30="*",D30&amp;" : INT :="&amp;(Q30+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8068,35 +8146,35 @@
         <v>8</v>
       </c>
       <c r="E31" s="1">
-        <f>IF(P31="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF(L31&lt;&gt;"",FLOOR((L31-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G31" s="1" t="e">
-        <f>IF(MOD(F31,2)=1,8+M31,M31)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H31" t="e">
-        <f>DEC2HEX(E31*HEX2DEC(1000000) +G31*HEX2DEC(10000) +F31)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I31" t="e">
-        <f>HEX2DEC(H31)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="K31" t="str">
-        <f>IF(Q31&lt;&gt;"",$B$3+Q31*136,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L31" t="str">
-        <f>IF(J31&lt;&gt;"",J31,K31)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="R31" t="str">
-        <f>IF(P31="*",D31&amp;" : INT :="&amp;(Q31+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8111,35 +8189,35 @@
         <v>9</v>
       </c>
       <c r="E32" s="1">
-        <f>IF(P32="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF(L32&lt;&gt;"",FLOOR((L32-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G32" s="1" t="e">
-        <f>IF(MOD(F32,2)=1,8+M32,M32)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H32" t="e">
-        <f>DEC2HEX(E32*HEX2DEC(1000000) +G32*HEX2DEC(10000) +F32)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I32" t="e">
-        <f>HEX2DEC(H32)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="K32" t="str">
-        <f>IF(Q32&lt;&gt;"",$B$3+Q32*136,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L32" t="str">
-        <f>IF(J32&lt;&gt;"",J32,K32)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="R32" t="str">
-        <f>IF(P32="*",D32&amp;" : INT :="&amp;(Q32+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8154,35 +8232,35 @@
         <v>10</v>
       </c>
       <c r="E33" s="1">
-        <f>IF(P33="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f>IF(L33&lt;&gt;"",FLOOR((L33-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G33" s="1" t="e">
-        <f>IF(MOD(F33,2)=1,8+M33,M33)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H33" t="e">
-        <f>DEC2HEX(E33*HEX2DEC(1000000) +G33*HEX2DEC(10000) +F33)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I33" t="e">
-        <f>HEX2DEC(H33)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="K33" t="str">
-        <f>IF(Q33&lt;&gt;"",$B$3+Q33*136,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L33" t="str">
-        <f>IF(J33&lt;&gt;"",J33,K33)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="R33" t="str">
-        <f>IF(P33="*",D33&amp;" : INT :="&amp;(Q33+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8197,35 +8275,35 @@
         <v>11</v>
       </c>
       <c r="E34" s="1">
-        <f>IF(P34="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f>IF(L34&lt;&gt;"",FLOOR((L34-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G34" s="1" t="e">
-        <f>IF(MOD(F34,2)=1,8+M34,M34)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H34" t="e">
-        <f>DEC2HEX(E34*HEX2DEC(1000000) +G34*HEX2DEC(10000) +F34)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I34" t="e">
-        <f>HEX2DEC(H34)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="K34" t="str">
-        <f>IF(Q34&lt;&gt;"",$B$3+Q34*136,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L34" t="str">
-        <f>IF(J34&lt;&gt;"",J34,K34)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="R34" t="str">
-        <f>IF(P34="*",D34&amp;" : INT :="&amp;(Q34+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8240,35 +8318,35 @@
         <v>12</v>
       </c>
       <c r="E35" s="1">
-        <f>IF(P35="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f>IF(L35&lt;&gt;"",FLOOR((L35-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G35" s="1" t="e">
-        <f>IF(MOD(F35,2)=1,8+M35,M35)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H35" t="e">
-        <f>DEC2HEX(E35*HEX2DEC(1000000) +G35*HEX2DEC(10000) +F35)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I35" t="e">
-        <f>HEX2DEC(H35)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="K35" t="str">
-        <f>IF(Q35&lt;&gt;"",$B$3+Q35*136,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L35" t="str">
-        <f>IF(J35&lt;&gt;"",J35,K35)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="R35" t="str">
-        <f>IF(P35="*",D35&amp;" : INT :="&amp;(Q35+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8283,35 +8361,35 @@
         <v>13</v>
       </c>
       <c r="E36" s="1">
-        <f>IF(P36="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f>IF(L36&lt;&gt;"",FLOOR((L36-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G36" s="1" t="e">
-        <f>IF(MOD(F36,2)=1,8+M36,M36)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H36" t="e">
-        <f>DEC2HEX(E36*HEX2DEC(1000000) +G36*HEX2DEC(10000) +F36)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I36" t="e">
-        <f>HEX2DEC(H36)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="K36" t="str">
-        <f>IF(Q36&lt;&gt;"",$B$3+Q36*136,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L36" t="str">
-        <f>IF(J36&lt;&gt;"",J36,K36)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="R36" t="str">
-        <f>IF(P36="*",D36&amp;" : INT :="&amp;(Q36+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8326,35 +8404,35 @@
         <v>14</v>
       </c>
       <c r="E37" s="1">
-        <f>IF(P37="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f>IF(L37&lt;&gt;"",FLOOR((L37-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G37" s="1" t="e">
-        <f>IF(MOD(F37,2)=1,8+M37,M37)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H37" t="e">
-        <f>DEC2HEX(E37*HEX2DEC(1000000) +G37*HEX2DEC(10000) +F37)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I37" t="e">
-        <f>HEX2DEC(H37)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="K37" t="str">
-        <f>IF(Q37&lt;&gt;"",$B$3+Q37*136,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L37" t="str">
-        <f>IF(J37&lt;&gt;"",J37,K37)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="R37" t="str">
-        <f>IF(P37="*",D37&amp;" : INT :="&amp;(Q37+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8369,35 +8447,35 @@
         <v>15</v>
       </c>
       <c r="E38" s="1">
-        <f>IF(P38="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f>IF(L38&lt;&gt;"",FLOOR((L38-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G38" s="1" t="e">
-        <f>IF(MOD(F38,2)=1,8+M38,M38)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H38" t="e">
-        <f>DEC2HEX(E38*HEX2DEC(1000000) +G38*HEX2DEC(10000) +F38)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I38" t="e">
-        <f>HEX2DEC(H38)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="K38" t="str">
-        <f>IF(Q38&lt;&gt;"",$B$3+Q38*136,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L38" t="str">
-        <f>IF(J38&lt;&gt;"",J38,K38)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="R38" t="str">
-        <f>IF(P38="*",D38&amp;" : INT :="&amp;(Q38+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8412,35 +8490,35 @@
         <v>16</v>
       </c>
       <c r="E39" s="1">
-        <f>IF(P39="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f>IF(L39&lt;&gt;"",FLOOR((L39-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G39" s="1" t="e">
-        <f>IF(MOD(F39,2)=1,8+M39,M39)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H39" t="e">
-        <f>DEC2HEX(E39*HEX2DEC(1000000) +G39*HEX2DEC(10000) +F39)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I39" t="e">
-        <f>HEX2DEC(H39)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="K39" t="str">
-        <f>IF(Q39&lt;&gt;"",$B$3+Q39*136,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L39" t="str">
-        <f>IF(J39&lt;&gt;"",J39,K39)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="R39" t="str">
-        <f>IF(P39="*",D39&amp;" : INT :="&amp;(Q39+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8458,31 +8536,31 @@
         <v>116</v>
       </c>
       <c r="E40" s="1">
-        <f>IF(P40="",$B$2,$B$2)</f>
+        <f t="shared" ref="E40:E70" si="16">IF(P40="",$B$2,$B$2)</f>
         <v>2</v>
       </c>
       <c r="F40" s="1">
-        <f>IF(L40&lt;&gt;"",FLOOR((L40-$B$4)/2,1),"")</f>
+        <f t="shared" ref="F40:F70" si="17">IF(L40&lt;&gt;"",FLOOR((L40-$B$4)/2,1),"")</f>
         <v>4150</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" ref="G40:G42" si="8">IF(MOD(L40-$B$4,2)=1,8+M40,M40)</f>
+        <f t="shared" ref="G40:G42" si="18">IF(MOD(L40-$B$4,2)=1,8+M40,M40)</f>
         <v>8</v>
       </c>
       <c r="H40" t="str">
-        <f>DEC2HEX(E40*HEX2DEC(1000000) +G40*HEX2DEC(10000) +F40)</f>
+        <f t="shared" ref="H40:H71" si="19">DEC2HEX(E40*HEX2DEC(1000000) +G40*HEX2DEC(10000) +F40)</f>
         <v>2081036</v>
       </c>
       <c r="I40">
-        <f t="shared" ref="I40:I42" si="9">HEX2DEC(H40)</f>
+        <f t="shared" ref="I40:I42" si="20">HEX2DEC(H40)</f>
         <v>34082870</v>
       </c>
       <c r="K40">
-        <f t="shared" ref="K40:K42" si="10">IF(Q40&lt;&gt;"",$B$3+Q40*116,"")</f>
+        <f t="shared" ref="K40:K42" si="21">IF(Q40&lt;&gt;"",$B$3+Q40*116,"")</f>
         <v>521706</v>
       </c>
       <c r="L40">
-        <f t="shared" ref="L40:L42" si="11">IF(J40&lt;&gt;"",J40,K40)</f>
+        <f t="shared" ref="L40:L42" si="22">IF(J40&lt;&gt;"",J40,K40)</f>
         <v>521706</v>
       </c>
       <c r="N40" t="s">
@@ -8498,7 +8576,7 @@
         <v>3</v>
       </c>
       <c r="R40" t="str">
-        <f>IF(P40="*",D40&amp;" : INT :="&amp;(Q40+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v>ACy01 : INT :=4;</v>
       </c>
     </row>
@@ -8516,31 +8594,31 @@
         <v>117</v>
       </c>
       <c r="E41" s="1">
-        <f>IF(P41="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F41" s="1">
-        <f>IF(L41&lt;&gt;"",FLOOR((L41-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v>4208</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="H41" t="str">
-        <f>DEC2HEX(E41*HEX2DEC(1000000) +G41*HEX2DEC(10000) +F41)</f>
+        <f t="shared" si="19"/>
         <v>2081070</v>
       </c>
       <c r="I41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>34082928</v>
       </c>
       <c r="K41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>521822</v>
       </c>
       <c r="L41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>521822</v>
       </c>
       <c r="N41" t="s">
@@ -8556,7 +8634,7 @@
         <v>4</v>
       </c>
       <c r="R41" t="str">
-        <f>IF(P41="*",D41&amp;" : INT :="&amp;(Q41+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v>ACy02 : INT :=5;</v>
       </c>
     </row>
@@ -8574,31 +8652,31 @@
         <v>118</v>
       </c>
       <c r="E42" s="1">
-        <f>IF(P42="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F42" s="1">
-        <f>IF(L42&lt;&gt;"",FLOOR((L42-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v>4266</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="H42" t="str">
-        <f>DEC2HEX(E42*HEX2DEC(1000000) +G42*HEX2DEC(10000) +F42)</f>
+        <f t="shared" si="19"/>
         <v>20810AA</v>
       </c>
       <c r="I42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>34082986</v>
       </c>
       <c r="K42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>521938</v>
       </c>
       <c r="L42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>521938</v>
       </c>
       <c r="N42" t="s">
@@ -8614,7 +8692,7 @@
         <v>5</v>
       </c>
       <c r="R42" t="str">
-        <f>IF(P42="*",D42&amp;" : INT :="&amp;(Q42+1)&amp;";","")</f>
+        <f t="shared" si="3"/>
         <v>ACy03 : INT :=6;</v>
       </c>
     </row>
@@ -8629,35 +8707,35 @@
         <v>4</v>
       </c>
       <c r="E43" s="1">
-        <f>IF(P43="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f>IF(L43&lt;&gt;"",FLOOR((L43-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G43" s="1" t="e">
-        <f>IF(MOD(F43,2)=1,8+M43,M43)</f>
+        <f t="shared" ref="G43:G52" si="23">IF(MOD(F43,2)=1,8+M43,M43)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H43" t="e">
-        <f>DEC2HEX(E43*HEX2DEC(1000000) +G43*HEX2DEC(10000) +F43)</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="I43" t="e">
-        <f>HEX2DEC(H43)</f>
+        <f t="shared" ref="I43:I52" si="24">HEX2DEC(H43)</f>
         <v>#VALUE!</v>
       </c>
       <c r="K43" t="str">
-        <f>IF(Q43&lt;&gt;"",$B$3+Q43*136,"")</f>
+        <f t="shared" ref="K43:K52" si="25">IF(Q43&lt;&gt;"",$B$3+Q43*136,"")</f>
         <v/>
       </c>
       <c r="L43" t="str">
-        <f>IF(J43&lt;&gt;"",J43,K43)</f>
+        <f t="shared" ref="L43:L52" si="26">IF(J43&lt;&gt;"",J43,K43)</f>
         <v/>
       </c>
       <c r="R43" t="str">
-        <f>IF(P43="*",D43&amp;" : INT :="&amp;(Q43+1)&amp;";","")</f>
+        <f t="shared" ref="R40:R71" si="27">IF(P43="*",D43&amp;" : INT :="&amp;(Q43+1)&amp;";","")</f>
         <v/>
       </c>
     </row>
@@ -8672,35 +8750,35 @@
         <v>5</v>
       </c>
       <c r="E44" s="1">
-        <f>IF(P44="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f>IF(L44&lt;&gt;"",FLOOR((L44-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G44" s="1" t="e">
-        <f>IF(MOD(F44,2)=1,8+M44,M44)</f>
+        <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
       <c r="H44" t="e">
-        <f>DEC2HEX(E44*HEX2DEC(1000000) +G44*HEX2DEC(10000) +F44)</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="I44" t="e">
-        <f>HEX2DEC(H44)</f>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="K44" t="str">
-        <f>IF(Q44&lt;&gt;"",$B$3+Q44*136,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L44" t="str">
-        <f>IF(J44&lt;&gt;"",J44,K44)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="R44" t="str">
-        <f>IF(P44="*",D44&amp;" : INT :="&amp;(Q44+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -8715,41 +8793,41 @@
         <v>9</v>
       </c>
       <c r="E45" s="1">
-        <f>IF(P45="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F45" s="1">
-        <f>IF(L45&lt;&gt;"",FLOOR((L45-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v>4393</v>
       </c>
       <c r="G45" s="1">
-        <f>IF(MOD(F45,2)=1,8+M45,M45)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="H45" t="str">
-        <f>DEC2HEX(E45*HEX2DEC(1000000) +G45*HEX2DEC(10000) +F45)</f>
+        <f t="shared" si="19"/>
         <v>2081129</v>
       </c>
       <c r="I45">
-        <f>HEX2DEC(H45)</f>
+        <f t="shared" si="24"/>
         <v>34083113</v>
       </c>
       <c r="J45">
         <v>522192</v>
       </c>
       <c r="K45" t="str">
-        <f>IF(Q45&lt;&gt;"",$B$3+Q45*136,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L45">
-        <f>IF(J45&lt;&gt;"",J45,K45)</f>
+        <f t="shared" si="26"/>
         <v>522192</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="R45" t="str">
-        <f>IF(P45="*",D45&amp;" : INT :="&amp;(Q45+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -8764,41 +8842,41 @@
         <v>10</v>
       </c>
       <c r="E46" s="1">
-        <f>IF(P46="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F46" s="1">
-        <f>IF(L46&lt;&gt;"",FLOOR((L46-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v>4393</v>
       </c>
       <c r="G46" s="1">
-        <f>IF(MOD(F46,2)=1,8+M46,M46)</f>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="H46" t="str">
-        <f>DEC2HEX(E46*HEX2DEC(1000000) +G46*HEX2DEC(10000) +F46)</f>
+        <f t="shared" si="19"/>
         <v>2091129</v>
       </c>
       <c r="I46">
-        <f>HEX2DEC(H46)</f>
+        <f t="shared" si="24"/>
         <v>34148649</v>
       </c>
       <c r="J46">
         <v>522192</v>
       </c>
       <c r="K46" t="str">
-        <f>IF(Q46&lt;&gt;"",$B$3+Q46*136,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L46">
-        <f>IF(J46&lt;&gt;"",J46,K46)</f>
+        <f t="shared" si="26"/>
         <v>522192</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="R46" t="str">
-        <f>IF(P46="*",D46&amp;" : INT :="&amp;(Q46+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -8813,41 +8891,41 @@
         <v>11</v>
       </c>
       <c r="E47" s="1">
-        <f>IF(P47="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F47" s="1">
-        <f>IF(L47&lt;&gt;"",FLOOR((L47-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v>4393</v>
       </c>
       <c r="G47" s="1">
-        <f>IF(MOD(F47,2)=1,8+M47,M47)</f>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="H47" t="str">
-        <f>DEC2HEX(E47*HEX2DEC(1000000) +G47*HEX2DEC(10000) +F47)</f>
+        <f t="shared" si="19"/>
         <v>20A1129</v>
       </c>
       <c r="I47">
-        <f>HEX2DEC(H47)</f>
+        <f t="shared" si="24"/>
         <v>34214185</v>
       </c>
       <c r="J47">
         <v>522192</v>
       </c>
       <c r="K47" t="str">
-        <f>IF(Q47&lt;&gt;"",$B$3+Q47*136,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L47">
-        <f>IF(J47&lt;&gt;"",J47,K47)</f>
+        <f t="shared" si="26"/>
         <v>522192</v>
       </c>
       <c r="M47">
         <v>2</v>
       </c>
       <c r="R47" t="str">
-        <f>IF(P47="*",D47&amp;" : INT :="&amp;(Q47+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -8862,41 +8940,41 @@
         <v>12</v>
       </c>
       <c r="E48" s="1">
-        <f>IF(P48="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F48" s="1">
-        <f>IF(L48&lt;&gt;"",FLOOR((L48-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v>4393</v>
       </c>
       <c r="G48" s="1">
-        <f>IF(MOD(F48,2)=1,8+M48,M48)</f>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="H48" t="str">
-        <f>DEC2HEX(E48*HEX2DEC(1000000) +G48*HEX2DEC(10000) +F48)</f>
+        <f t="shared" si="19"/>
         <v>20B1129</v>
       </c>
       <c r="I48">
-        <f>HEX2DEC(H48)</f>
+        <f t="shared" si="24"/>
         <v>34279721</v>
       </c>
       <c r="J48">
         <v>522192</v>
       </c>
       <c r="K48" t="str">
-        <f>IF(Q48&lt;&gt;"",$B$3+Q48*136,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L48">
-        <f>IF(J48&lt;&gt;"",J48,K48)</f>
+        <f t="shared" si="26"/>
         <v>522192</v>
       </c>
       <c r="M48">
         <v>3</v>
       </c>
       <c r="R48" t="str">
-        <f>IF(P48="*",D48&amp;" : INT :="&amp;(Q48+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -8911,41 +8989,41 @@
         <v>13</v>
       </c>
       <c r="E49" s="1">
-        <f>IF(P49="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F49" s="1">
-        <f>IF(L49&lt;&gt;"",FLOOR((L49-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v>4329</v>
       </c>
       <c r="G49" s="1">
-        <f>IF(MOD(F49,2)=1,8+M49,M49)</f>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="H49" t="str">
-        <f>DEC2HEX(E49*HEX2DEC(1000000) +G49*HEX2DEC(10000) +F49)</f>
+        <f t="shared" si="19"/>
         <v>20A10E9</v>
       </c>
       <c r="I49">
-        <f>HEX2DEC(H49)</f>
+        <f t="shared" si="24"/>
         <v>34214121</v>
       </c>
       <c r="J49">
         <v>522063</v>
       </c>
       <c r="K49" t="str">
-        <f>IF(Q49&lt;&gt;"",$B$3+Q49*136,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L49">
-        <f>IF(J49&lt;&gt;"",J49,K49)</f>
+        <f t="shared" si="26"/>
         <v>522063</v>
       </c>
       <c r="M49">
         <v>2</v>
       </c>
       <c r="R49" t="str">
-        <f>IF(P49="*",D49&amp;" : INT :="&amp;(Q49+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -8960,41 +9038,41 @@
         <v>14</v>
       </c>
       <c r="E50" s="1">
-        <f>IF(P50="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F50" s="1">
-        <f>IF(L50&lt;&gt;"",FLOOR((L50-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v>4329</v>
       </c>
       <c r="G50" s="1">
-        <f>IF(MOD(F50,2)=1,8+M50,M50)</f>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="H50" t="str">
-        <f>DEC2HEX(E50*HEX2DEC(1000000) +G50*HEX2DEC(10000) +F50)</f>
+        <f t="shared" si="19"/>
         <v>20B10E9</v>
       </c>
       <c r="I50">
-        <f>HEX2DEC(H50)</f>
+        <f t="shared" si="24"/>
         <v>34279657</v>
       </c>
       <c r="J50">
         <v>522063</v>
       </c>
       <c r="K50" t="str">
-        <f>IF(Q50&lt;&gt;"",$B$3+Q50*136,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L50">
-        <f>IF(J50&lt;&gt;"",J50,K50)</f>
+        <f t="shared" si="26"/>
         <v>522063</v>
       </c>
       <c r="M50">
         <v>3</v>
       </c>
       <c r="R50" t="str">
-        <f>IF(P50="*",D50&amp;" : INT :="&amp;(Q50+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9009,41 +9087,41 @@
         <v>15</v>
       </c>
       <c r="E51" s="1">
-        <f>IF(P51="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F51" s="1">
-        <f>IF(L51&lt;&gt;"",FLOOR((L51-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v>4329</v>
       </c>
       <c r="G51" s="1">
-        <f>IF(MOD(F51,2)=1,8+M51,M51)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="H51" t="str">
-        <f>DEC2HEX(E51*HEX2DEC(1000000) +G51*HEX2DEC(10000) +F51)</f>
+        <f t="shared" si="19"/>
         <v>20810E9</v>
       </c>
       <c r="I51">
-        <f>HEX2DEC(H51)</f>
+        <f t="shared" si="24"/>
         <v>34083049</v>
       </c>
       <c r="J51">
         <v>522063</v>
       </c>
       <c r="K51" t="str">
-        <f>IF(Q51&lt;&gt;"",$B$3+Q51*136,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L51">
-        <f>IF(J51&lt;&gt;"",J51,K51)</f>
+        <f t="shared" si="26"/>
         <v>522063</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="R51" t="str">
-        <f>IF(P51="*",D51&amp;" : INT :="&amp;(Q51+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9058,41 +9136,41 @@
         <v>16</v>
       </c>
       <c r="E52" s="1">
-        <f>IF(P52="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F52" s="1">
-        <f>IF(L52&lt;&gt;"",FLOOR((L52-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v>4329</v>
       </c>
       <c r="G52" s="1">
-        <f>IF(MOD(F52,2)=1,8+M52,M52)</f>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="H52" t="str">
-        <f>DEC2HEX(E52*HEX2DEC(1000000) +G52*HEX2DEC(10000) +F52)</f>
+        <f t="shared" si="19"/>
         <v>20910E9</v>
       </c>
       <c r="I52">
-        <f>HEX2DEC(H52)</f>
+        <f t="shared" si="24"/>
         <v>34148585</v>
       </c>
       <c r="J52">
         <v>522063</v>
       </c>
       <c r="K52" t="str">
-        <f>IF(Q52&lt;&gt;"",$B$3+Q52*136,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L52">
-        <f>IF(J52&lt;&gt;"",J52,K52)</f>
+        <f t="shared" si="26"/>
         <v>522063</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="R52" t="str">
-        <f>IF(P52="*",D52&amp;" : INT :="&amp;(Q52+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9110,31 +9188,31 @@
         <v>120</v>
       </c>
       <c r="E53" s="1">
-        <f>IF(P53="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F53" s="1">
-        <f>IF(L53&lt;&gt;"",FLOOR((L53-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v>4324</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" ref="G53:G54" si="12">IF(MOD(L53-$B$4,2)=1,8+M53,M53)</f>
+        <f t="shared" ref="G53:G54" si="28">IF(MOD(L53-$B$4,2)=1,8+M53,M53)</f>
         <v>8</v>
       </c>
       <c r="H53" t="str">
-        <f>DEC2HEX(E53*HEX2DEC(1000000) +G53*HEX2DEC(10000) +F53)</f>
+        <f t="shared" si="19"/>
         <v>20810E4</v>
       </c>
       <c r="I53">
-        <f t="shared" ref="I53:I54" si="13">HEX2DEC(H53)</f>
+        <f t="shared" ref="I53:I54" si="29">HEX2DEC(H53)</f>
         <v>34083044</v>
       </c>
       <c r="K53">
-        <f t="shared" ref="K53:K54" si="14">IF(Q53&lt;&gt;"",$B$3+Q53*116,"")</f>
+        <f t="shared" ref="K53:K54" si="30">IF(Q53&lt;&gt;"",$B$3+Q53*116,"")</f>
         <v>522054</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L54" si="15">IF(J53&lt;&gt;"",J53,K53)</f>
+        <f t="shared" ref="L53:L54" si="31">IF(J53&lt;&gt;"",J53,K53)</f>
         <v>522054</v>
       </c>
       <c r="N53" t="s">
@@ -9150,7 +9228,7 @@
         <v>6</v>
       </c>
       <c r="R53" t="str">
-        <f>IF(P53="*",D53&amp;" : INT :="&amp;(Q53+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v>CyB1 : INT :=7;</v>
       </c>
     </row>
@@ -9168,31 +9246,31 @@
         <v>121</v>
       </c>
       <c r="E54" s="1">
-        <f>IF(P54="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F54" s="1">
-        <f>IF(L54&lt;&gt;"",FLOOR((L54-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v>4382</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="H54" t="str">
-        <f>DEC2HEX(E54*HEX2DEC(1000000) +G54*HEX2DEC(10000) +F54)</f>
+        <f t="shared" si="19"/>
         <v>208111E</v>
       </c>
       <c r="I54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>34083102</v>
       </c>
       <c r="K54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>522170</v>
       </c>
       <c r="L54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>522170</v>
       </c>
       <c r="N54" t="s">
@@ -9208,11 +9286,11 @@
         <v>7</v>
       </c>
       <c r="R54" t="str">
-        <f>IF(P54="*",D54&amp;" : INT :="&amp;(Q54+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v>CyB2 : INT :=8;</v>
       </c>
     </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>47</v>
       </c>
@@ -9222,37 +9300,52 @@
       <c r="C55">
         <v>3</v>
       </c>
+      <c r="D55" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="E55" s="1">
-        <f>IF(P55="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="F55" s="1" t="str">
-        <f>IF(L55&lt;&gt;"",FLOOR((L55-$B$4)/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="G55" s="1" t="e">
-        <f>IF(MOD(F55,2)=1,8+M55,M55)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H55" t="e">
-        <f>DEC2HEX(E55*HEX2DEC(1000000) +G55*HEX2DEC(10000) +F55)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I55" t="e">
-        <f>HEX2DEC(H55)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K55" t="str">
-        <f>IF(Q55&lt;&gt;"",$B$3+Q55*136,"")</f>
-        <v/>
-      </c>
-      <c r="L55" t="str">
-        <f>IF(J55&lt;&gt;"",J55,K55)</f>
-        <v/>
+      <c r="F55" s="1">
+        <f t="shared" si="17"/>
+        <v>4792</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" ref="G55:G65" si="32">IF(MOD(F55,2)=1,8+M55,M55)</f>
+        <v>0</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="19"/>
+        <v>20012B8</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ref="I55:I65" si="33">HEX2DEC(H55)</f>
+        <v>33559224</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ref="K55:K65" si="34">IF(Q55&lt;&gt;"",$B$3+Q55*136,"")</f>
+        <v>522990</v>
+      </c>
+      <c r="L55">
+        <f t="shared" ref="L55:L65" si="35">IF(J55&lt;&gt;"",J55,K55)</f>
+        <v>522990</v>
+      </c>
+      <c r="N55" t="s">
+        <v>241</v>
+      </c>
+      <c r="O55" t="s">
+        <v>229</v>
+      </c>
+      <c r="P55" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q55">
+        <v>12</v>
       </c>
       <c r="R55" t="str">
-        <f>IF(P55="*",D55&amp;" : INT :="&amp;(Q55+1)&amp;";","")</f>
-        <v/>
+        <f t="shared" si="27"/>
+        <v>CyB3 : INT :=13;</v>
       </c>
     </row>
     <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -9266,35 +9359,35 @@
         <v>4</v>
       </c>
       <c r="E56" s="1">
-        <f>IF(P56="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f>IF(L56&lt;&gt;"",FLOOR((L56-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G56" s="1" t="e">
-        <f>IF(MOD(F56,2)=1,8+M56,M56)</f>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="H56" t="e">
-        <f>DEC2HEX(E56*HEX2DEC(1000000) +G56*HEX2DEC(10000) +F56)</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="I56" t="e">
-        <f>HEX2DEC(H56)</f>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="K56" t="str">
-        <f>IF(Q56&lt;&gt;"",$B$3+Q56*136,"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="L56" t="str">
-        <f>IF(J56&lt;&gt;"",J56,K56)</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R56" t="str">
-        <f>IF(P56="*",D56&amp;" : INT :="&amp;(Q56+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9309,35 +9402,35 @@
         <v>5</v>
       </c>
       <c r="E57" s="1">
-        <f>IF(P57="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f>IF(L57&lt;&gt;"",FLOOR((L57-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G57" s="1" t="e">
-        <f>IF(MOD(F57,2)=1,8+M57,M57)</f>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="H57" t="e">
-        <f>DEC2HEX(E57*HEX2DEC(1000000) +G57*HEX2DEC(10000) +F57)</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="I57" t="e">
-        <f>HEX2DEC(H57)</f>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="K57" t="str">
-        <f>IF(Q57&lt;&gt;"",$B$3+Q57*136,"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="L57" t="str">
-        <f>IF(J57&lt;&gt;"",J57,K57)</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R57" t="str">
-        <f>IF(P57="*",D57&amp;" : INT :="&amp;(Q57+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9352,35 +9445,35 @@
         <v>6</v>
       </c>
       <c r="E58" s="1">
-        <f>IF(P58="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f>IF(L58&lt;&gt;"",FLOOR((L58-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G58" s="1" t="e">
-        <f>IF(MOD(F58,2)=1,8+M58,M58)</f>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="H58" t="e">
-        <f>DEC2HEX(E58*HEX2DEC(1000000) +G58*HEX2DEC(10000) +F58)</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="I58" t="e">
-        <f>HEX2DEC(H58)</f>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="K58" t="str">
-        <f>IF(Q58&lt;&gt;"",$B$3+Q58*136,"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="L58" t="str">
-        <f>IF(J58&lt;&gt;"",J58,K58)</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R58" t="str">
-        <f>IF(P58="*",D58&amp;" : INT :="&amp;(Q58+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9395,35 +9488,35 @@
         <v>7</v>
       </c>
       <c r="E59" s="1">
-        <f>IF(P59="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f>IF(L59&lt;&gt;"",FLOOR((L59-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G59" s="1" t="e">
-        <f>IF(MOD(F59,2)=1,8+M59,M59)</f>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="H59" t="e">
-        <f>DEC2HEX(E59*HEX2DEC(1000000) +G59*HEX2DEC(10000) +F59)</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="I59" t="e">
-        <f>HEX2DEC(H59)</f>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="K59" t="str">
-        <f>IF(Q59&lt;&gt;"",$B$3+Q59*136,"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="L59" t="str">
-        <f>IF(J59&lt;&gt;"",J59,K59)</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R59" t="str">
-        <f>IF(P59="*",D59&amp;" : INT :="&amp;(Q59+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9438,35 +9531,35 @@
         <v>8</v>
       </c>
       <c r="E60" s="1">
-        <f>IF(P60="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f>IF(L60&lt;&gt;"",FLOOR((L60-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G60" s="1" t="e">
-        <f>IF(MOD(F60,2)=1,8+M60,M60)</f>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="H60" t="e">
-        <f>DEC2HEX(E60*HEX2DEC(1000000) +G60*HEX2DEC(10000) +F60)</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="I60" t="e">
-        <f>HEX2DEC(H60)</f>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="K60" t="str">
-        <f>IF(Q60&lt;&gt;"",$B$3+Q60*136,"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="L60" t="str">
-        <f>IF(J60&lt;&gt;"",J60,K60)</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R60" t="str">
-        <f>IF(P60="*",D60&amp;" : INT :="&amp;(Q60+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9481,35 +9574,35 @@
         <v>9</v>
       </c>
       <c r="E61" s="1">
-        <f>IF(P61="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f>IF(L61&lt;&gt;"",FLOOR((L61-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G61" s="1" t="e">
-        <f>IF(MOD(F61,2)=1,8+M61,M61)</f>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="H61" t="e">
-        <f>DEC2HEX(E61*HEX2DEC(1000000) +G61*HEX2DEC(10000) +F61)</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="I61" t="e">
-        <f>HEX2DEC(H61)</f>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="K61" t="str">
-        <f>IF(Q61&lt;&gt;"",$B$3+Q61*136,"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="L61" t="str">
-        <f>IF(J61&lt;&gt;"",J61,K61)</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R61" t="str">
-        <f>IF(P61="*",D61&amp;" : INT :="&amp;(Q61+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9524,35 +9617,35 @@
         <v>10</v>
       </c>
       <c r="E62" s="1">
-        <f>IF(P62="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f>IF(L62&lt;&gt;"",FLOOR((L62-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G62" s="1" t="e">
-        <f>IF(MOD(F62,2)=1,8+M62,M62)</f>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="H62" t="e">
-        <f>DEC2HEX(E62*HEX2DEC(1000000) +G62*HEX2DEC(10000) +F62)</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="I62" t="e">
-        <f>HEX2DEC(H62)</f>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="K62" t="str">
-        <f>IF(Q62&lt;&gt;"",$B$3+Q62*136,"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="L62" t="str">
-        <f>IF(J62&lt;&gt;"",J62,K62)</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R62" t="str">
-        <f>IF(P62="*",D62&amp;" : INT :="&amp;(Q62+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9567,35 +9660,35 @@
         <v>11</v>
       </c>
       <c r="E63" s="1">
-        <f>IF(P63="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f>IF(L63&lt;&gt;"",FLOOR((L63-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G63" s="1" t="e">
-        <f>IF(MOD(F63,2)=1,8+M63,M63)</f>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="H63" t="e">
-        <f>DEC2HEX(E63*HEX2DEC(1000000) +G63*HEX2DEC(10000) +F63)</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="I63" t="e">
-        <f>HEX2DEC(H63)</f>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="K63" t="str">
-        <f>IF(Q63&lt;&gt;"",$B$3+Q63*136,"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="L63" t="str">
-        <f>IF(J63&lt;&gt;"",J63,K63)</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R63" t="str">
-        <f>IF(P63="*",D63&amp;" : INT :="&amp;(Q63+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9610,35 +9703,35 @@
         <v>12</v>
       </c>
       <c r="E64" s="1">
-        <f>IF(P64="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f>IF(L64&lt;&gt;"",FLOOR((L64-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G64" s="1" t="e">
-        <f>IF(MOD(F64,2)=1,8+M64,M64)</f>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="H64" t="e">
-        <f>DEC2HEX(E64*HEX2DEC(1000000) +G64*HEX2DEC(10000) +F64)</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="I64" t="e">
-        <f>HEX2DEC(H64)</f>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="K64" t="str">
-        <f>IF(Q64&lt;&gt;"",$B$3+Q64*136,"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="L64" t="str">
-        <f>IF(J64&lt;&gt;"",J64,K64)</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R64" t="str">
-        <f>IF(P64="*",D64&amp;" : INT :="&amp;(Q64+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9653,39 +9746,39 @@
         <v>13</v>
       </c>
       <c r="E65" s="1">
-        <f>IF(P65="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f>IF(L65&lt;&gt;"",FLOOR((L65-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G65" s="1" t="e">
-        <f>IF(MOD(F65,2)=1,8+M65,M65)</f>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="H65" t="e">
-        <f>DEC2HEX(E65*HEX2DEC(1000000) +G65*HEX2DEC(10000) +F65)</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="I65" t="e">
-        <f>HEX2DEC(H65)</f>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="K65" t="str">
-        <f>IF(Q65&lt;&gt;"",$B$3+Q65*136,"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="L65" t="str">
-        <f>IF(J65&lt;&gt;"",J65,K65)</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R65" t="str">
-        <f>IF(P65="*",D65&amp;" : INT :="&amp;(Q65+1)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>58</v>
       </c>
@@ -9699,34 +9792,34 @@
         <v>66</v>
       </c>
       <c r="E66" s="1">
-        <f>IF(P66="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F66" s="1">
-        <f>IF(L66&lt;&gt;"",FLOOR((L66-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v>3966</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" ref="G66:G70" si="16">IF(MOD(L66-$B$4,2)=1,8+M66,M66)</f>
+        <f t="shared" ref="G66:G70" si="36">IF(MOD(L66-$B$4,2)=1,8+M66,M66)</f>
         <v>6</v>
       </c>
       <c r="H66" t="str">
-        <f>DEC2HEX(E66*HEX2DEC(1000000) +G66*HEX2DEC(10000) +F66)</f>
+        <f t="shared" si="19"/>
         <v>2060F7E</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:I70" si="17">HEX2DEC(H66)</f>
+        <f t="shared" ref="I66:I70" si="37">HEX2DEC(H66)</f>
         <v>33951614</v>
       </c>
       <c r="J66">
         <v>521337</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" ref="K66:K70" si="18">IF(Q66&lt;&gt;"",$B$3+Q66*116,"")</f>
+        <f t="shared" ref="K66:K70" si="38">IF(Q66&lt;&gt;"",$B$3+Q66*116,"")</f>
         <v/>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L70" si="19">IF(J66&lt;&gt;"",J66,K66)</f>
+        <f t="shared" ref="L66:L70" si="39">IF(J66&lt;&gt;"",J66,K66)</f>
         <v>521337</v>
       </c>
       <c r="M66">
@@ -9736,11 +9829,11 @@
         <v>300</v>
       </c>
       <c r="R66" t="str">
-        <f>IF(P66="*",D66&amp;" : INT :="&amp;(Q66+1)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>59</v>
       </c>
@@ -9754,34 +9847,34 @@
         <v>68</v>
       </c>
       <c r="E67" s="1">
-        <f>IF(P67="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F67" s="1">
-        <f>IF(L67&lt;&gt;"",FLOOR((L67-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v>3966</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="H67" t="str">
-        <f>DEC2HEX(E67*HEX2DEC(1000000) +G67*HEX2DEC(10000) +F67)</f>
+        <f t="shared" si="19"/>
         <v>2080F7E</v>
       </c>
       <c r="I67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>34082686</v>
       </c>
       <c r="J67">
         <v>521338</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L67">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>521338</v>
       </c>
       <c r="M67">
@@ -9791,11 +9884,11 @@
         <v>301</v>
       </c>
       <c r="R67" t="str">
-        <f>IF(P67="*",D67&amp;" : INT :="&amp;(Q67+1)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>60</v>
       </c>
@@ -9806,45 +9899,45 @@
         <v>64</v>
       </c>
       <c r="E68" s="1">
-        <f>IF(P68="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F68" s="1">
-        <f>IF(L68&lt;&gt;"",FLOOR((L68-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v>3965</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="H68" t="str">
-        <f>DEC2HEX(E68*HEX2DEC(1000000) +G68*HEX2DEC(10000) +F68)</f>
+        <f t="shared" si="19"/>
         <v>2080F7D</v>
       </c>
       <c r="I68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>34082685</v>
       </c>
       <c r="J68">
         <v>521336</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>521336</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="R68" t="str">
-        <f>IF(P68="*",D68&amp;" : INT :="&amp;(Q68+1)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>61</v>
       </c>
@@ -9855,45 +9948,45 @@
         <v>65</v>
       </c>
       <c r="E69" s="1">
-        <f>IF(P69="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F69" s="1">
-        <f>IF(L69&lt;&gt;"",FLOOR((L69-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v>3965</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="H69" t="str">
-        <f>DEC2HEX(E69*HEX2DEC(1000000) +G69*HEX2DEC(10000) +F69)</f>
+        <f t="shared" si="19"/>
         <v>2090F7D</v>
       </c>
       <c r="I69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>34148221</v>
       </c>
       <c r="J69">
         <v>521336</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>521336</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="R69" t="str">
-        <f>IF(P69="*",D69&amp;" : INT :="&amp;(Q69+1)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>62</v>
       </c>
@@ -9904,34 +9997,34 @@
         <v>67</v>
       </c>
       <c r="E70" s="1">
-        <f>IF(P70="",$B$2,$B$2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="F70" s="1">
-        <f>IF(L70&lt;&gt;"",FLOOR((L70-$B$4)/2,1),"")</f>
+        <f t="shared" si="17"/>
         <v>3966</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="H70" t="str">
-        <f>DEC2HEX(E70*HEX2DEC(1000000) +G70*HEX2DEC(10000) +F70)</f>
+        <f t="shared" si="19"/>
         <v>2070F7E</v>
       </c>
       <c r="I70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>34017150</v>
       </c>
       <c r="J70">
         <v>521337</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L70">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>521337</v>
       </c>
       <c r="M70">
@@ -9941,13 +10034,13 @@
         <v>302</v>
       </c>
       <c r="R70" t="str">
-        <f>IF(P70="*",D70&amp;" : INT :="&amp;(Q70+1)&amp;";","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A7:R70" xr:uid="{8998380E-F444-46A0-9507-09ED559E5F46}">
-    <filterColumn colId="3">
+    <filterColumn colId="15">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>

--- a/C2B1A1/iotable.xlsx
+++ b/C2B1A1/iotable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8880CC-2807-45B7-9897-000144BB2EF4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBA19A2-CAE1-4504-B751-554B1B11C198}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="314">
   <si>
     <t>Channel</t>
   </si>
@@ -973,6 +973,9 @@
   </si>
   <si>
     <t>近接有無B</t>
+  </si>
+  <si>
+    <t>結束</t>
   </si>
 </sst>
 </file>
@@ -1436,8 +1439,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T122" sqref="T122"/>
+    <sheetView topLeftCell="F8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10:U100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,7 +1608,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>H1Red : INT := 1;</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1715,7 +1718,7 @@
         <v>H2Green : INT := 2;</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>H3Orange : INT := 3;</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1825,7 +1828,7 @@
         <v>H4White : INT := 4;</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2315,7 +2318,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>32</v>
       </c>
@@ -2370,7 +2373,7 @@
         <v>SfA01 : INT := 6;</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>33</v>
       </c>
@@ -2620,7 +2623,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>34</v>
       </c>
@@ -2675,7 +2678,7 @@
         <v>SfA03 : INT := 8;</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>35</v>
       </c>
@@ -2769,7 +2772,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>27</v>
       </c>
@@ -2820,7 +2823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>28</v>
       </c>
@@ -2871,7 +2874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>22</v>
       </c>
@@ -2922,7 +2925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>23</v>
       </c>
@@ -2973,7 +2976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>SpA02 : INT := 10;</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3083,7 +3086,7 @@
         <v>SpA03 : INT := 11;</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>64</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>ASp01 : INT := 12;</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>65</v>
       </c>
@@ -3193,7 +3196,7 @@
         <v>ASp02 : INT := 13;</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>66</v>
       </c>
@@ -3248,7 +3251,7 @@
         <v>ASp03 : INT := 14;</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>67</v>
       </c>
@@ -3303,7 +3306,7 @@
         <v>ASp04 : INT := 15;</v>
       </c>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>36</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>37</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>26</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>SfB1 : INT := 16;</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>29</v>
       </c>
@@ -3710,7 +3713,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>45</v>
       </c>
@@ -4307,7 +4310,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>60</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>61</v>
       </c>
@@ -4409,7 +4412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>62</v>
       </c>
@@ -4460,7 +4463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>30</v>
       </c>
@@ -4515,7 +4518,7 @@
         <v>SpB1 : INT := 18;</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>31</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>SpB2 : INT := 19;</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>80</v>
       </c>
@@ -4625,7 +4628,7 @@
         <v>H1 : INT := 20;</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>90</v>
       </c>
@@ -4680,7 +4683,7 @@
         <v>H2 : INT := 21;</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>63</v>
       </c>
@@ -4735,7 +4738,7 @@
         <v>CSp1 : INT := 23;</v>
       </c>
     </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>68</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>69</v>
       </c>
@@ -4837,7 +4840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>70</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>71</v>
       </c>
@@ -4939,7 +4942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>72</v>
       </c>
@@ -4990,7 +4993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>73</v>
       </c>
@@ -5242,7 +5245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>78</v>
       </c>
@@ -5293,7 +5296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>79</v>
       </c>
@@ -5344,7 +5347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>24</v>
       </c>
@@ -5756,7 +5759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>25</v>
       </c>
@@ -6782,7 +6785,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A9:U121" xr:uid="{A89B904C-2B30-413B-8D81-C58D97718B2C}">
-    <filterColumn colId="18">
+    <filterColumn colId="15">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
@@ -6805,8 +6808,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8:R70"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6831,6 +6834,9 @@
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>303</v>
+      </c>
+      <c r="R1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">

--- a/C2B1A1/iotable.xlsx
+++ b/C2B1A1/iotable.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBA19A2-CAE1-4504-B751-554B1B11C198}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED26E2C-9559-43FF-865D-17899AB85E4D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
     <sheet name="Output" sheetId="12" r:id="rId2"/>
-    <sheet name="Motion" sheetId="5" r:id="rId3"/>
-    <sheet name="Points" sheetId="13" r:id="rId4"/>
-    <sheet name="SIGNALS" sheetId="6" r:id="rId5"/>
-    <sheet name="CYLINDER SEN A" sheetId="7" r:id="rId6"/>
-    <sheet name="CYLINDER SEN B" sheetId="8" r:id="rId7"/>
-    <sheet name="CYLINDER_ACT_B" sheetId="9" r:id="rId8"/>
+    <sheet name="Units" sheetId="14" r:id="rId3"/>
+    <sheet name="Motion" sheetId="5" r:id="rId4"/>
+    <sheet name="Points" sheetId="13" r:id="rId5"/>
+    <sheet name="SIGNALS" sheetId="6" r:id="rId6"/>
+    <sheet name="CYLINDER SEN A" sheetId="7" r:id="rId7"/>
+    <sheet name="CYLINDER SEN B" sheetId="8" r:id="rId8"/>
+    <sheet name="CYLINDER_ACT_B" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Input!$A$9:$U$121</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Motion!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Motion!$A$2:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Output!$A$7:$R$70</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="337">
   <si>
     <t>Channel</t>
   </si>
@@ -976,6 +977,75 @@
   </si>
   <si>
     <t>結束</t>
+  </si>
+  <si>
+    <t>LinearTransporter</t>
+  </si>
+  <si>
+    <t>進料移載</t>
+  </si>
+  <si>
+    <t>ConveyorMasterB</t>
+  </si>
+  <si>
+    <t>InputStation</t>
+  </si>
+  <si>
+    <t>LifterCellularB</t>
+  </si>
+  <si>
+    <t>ConveyorMasterA</t>
+  </si>
+  <si>
+    <t>LifterCellularA1</t>
+  </si>
+  <si>
+    <t>LifterCellularA2</t>
+  </si>
+  <si>
+    <t>LifterCellularA3</t>
+  </si>
+  <si>
+    <t>ETTest</t>
+  </si>
+  <si>
+    <t>FrontInspection</t>
+  </si>
+  <si>
+    <t>AOIHandshaking</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>B輸送帶</t>
+  </si>
+  <si>
+    <t>入料站</t>
+  </si>
+  <si>
+    <t>A輸送帶</t>
+  </si>
+  <si>
+    <t>輸送帶升降B</t>
+  </si>
+  <si>
+    <t>輸送帶升降A1</t>
+  </si>
+  <si>
+    <t>輸送帶升降A2</t>
+  </si>
+  <si>
+    <t>輸送帶升降A3</t>
+  </si>
+  <si>
+    <t>電測站</t>
+  </si>
+  <si>
+    <t>前視</t>
+  </si>
+  <si>
+    <t>交握</t>
   </si>
 </sst>
 </file>
@@ -1622,31 +1692,31 @@
         <v>11</v>
       </c>
       <c r="E10" s="1">
-        <f>IF(P10="",$B$2,$B$2)</f>
+        <f t="shared" ref="E10:E41" si="0">IF(P10="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <f>IF(L10&lt;&gt;"",FLOOR((L10-MIN(L:L))/2,1),"")</f>
+        <f t="shared" ref="F10:F41" si="1">IF(L10&lt;&gt;"",FLOOR((L10-MIN(L:L))/2,1),"")</f>
         <v>879</v>
       </c>
       <c r="G10" s="1">
-        <f>IF(MOD(L10-$B$6,2)=1,8+M10,M10)</f>
+        <f t="shared" ref="G10:G41" si="2">IF(MOD(L10-$B$6,2)=1,8+M10,M10)</f>
         <v>8</v>
       </c>
       <c r="H10" t="str">
-        <f>DEC2HEX(E10*HEX2DEC(1000000) +G10*HEX2DEC(10000) +F10)</f>
+        <f t="shared" ref="H10:H41" si="3">DEC2HEX(E10*HEX2DEC(1000000) +G10*HEX2DEC(10000) +F10)</f>
         <v>108036F</v>
       </c>
       <c r="I10">
-        <f>HEX2DEC(H10)</f>
+        <f t="shared" ref="I10:I41" si="4">HEX2DEC(H10)</f>
         <v>17302383</v>
       </c>
       <c r="K10">
-        <f>IF(Q10&lt;&gt;"",Q10*116+$B$3,IF(R10&lt;&gt;"",R10*116+$B$3,IF(T10&lt;&gt;"",T10*68+$B$5,"")))</f>
+        <f t="shared" ref="K10:K35" si="5">IF(Q10&lt;&gt;"",Q10*116+$B$3,IF(R10&lt;&gt;"",R10*116+$B$3,IF(T10&lt;&gt;"",T10*68+$B$5,"")))</f>
         <v>523095</v>
       </c>
       <c r="L10">
-        <f>IF(J10&lt;&gt;"",J10,K10)</f>
+        <f t="shared" ref="L10:L41" si="6">IF(J10&lt;&gt;"",J10,K10)</f>
         <v>523095</v>
       </c>
       <c r="O10" t="s">
@@ -1677,31 +1747,31 @@
         <v>12</v>
       </c>
       <c r="E11" s="1">
-        <f>IF(P11="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <f>IF(L11&lt;&gt;"",FLOOR((L11-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>913</v>
       </c>
       <c r="G11" s="1">
-        <f>IF(MOD(L11-$B$6,2)=1,8+M11,M11)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H11" t="str">
-        <f>DEC2HEX(E11*HEX2DEC(1000000) +G11*HEX2DEC(10000) +F11)</f>
+        <f t="shared" si="3"/>
         <v>1080391</v>
       </c>
       <c r="I11">
-        <f>HEX2DEC(H11)</f>
+        <f t="shared" si="4"/>
         <v>17302417</v>
       </c>
       <c r="K11">
-        <f>IF(Q11&lt;&gt;"",Q11*116+$B$3,IF(R11&lt;&gt;"",R11*116+$B$3,IF(T11&lt;&gt;"",T11*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v>523163</v>
       </c>
       <c r="L11">
-        <f>IF(J11&lt;&gt;"",J11,K11)</f>
+        <f t="shared" si="6"/>
         <v>523163</v>
       </c>
       <c r="O11" t="s">
@@ -1714,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" ref="U11:U14" si="0">IF(S11="*",D11&amp;" : INT := "&amp;(T11+1)&amp;";")</f>
+        <f t="shared" ref="U11:U14" si="7">IF(S11="*",D11&amp;" : INT := "&amp;(T11+1)&amp;";")</f>
         <v>H2Green : INT := 2;</v>
       </c>
     </row>
@@ -1732,31 +1802,31 @@
         <v>13</v>
       </c>
       <c r="E12" s="1">
-        <f>IF(P12="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <f>IF(L12&lt;&gt;"",FLOOR((L12-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>947</v>
       </c>
       <c r="G12" s="1">
-        <f>IF(MOD(L12-$B$6,2)=1,8+M12,M12)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H12" t="str">
-        <f>DEC2HEX(E12*HEX2DEC(1000000) +G12*HEX2DEC(10000) +F12)</f>
+        <f t="shared" si="3"/>
         <v>10803B3</v>
       </c>
       <c r="I12">
-        <f>HEX2DEC(H12)</f>
+        <f t="shared" si="4"/>
         <v>17302451</v>
       </c>
       <c r="K12">
-        <f>IF(Q12&lt;&gt;"",Q12*116+$B$3,IF(R12&lt;&gt;"",R12*116+$B$3,IF(T12&lt;&gt;"",T12*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v>523231</v>
       </c>
       <c r="L12">
-        <f>IF(J12&lt;&gt;"",J12,K12)</f>
+        <f t="shared" si="6"/>
         <v>523231</v>
       </c>
       <c r="O12" t="s">
@@ -1769,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>H3Orange : INT := 3;</v>
       </c>
     </row>
@@ -1787,31 +1857,31 @@
         <v>14</v>
       </c>
       <c r="E13" s="1">
-        <f>IF(P13="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f>IF(L13&lt;&gt;"",FLOOR((L13-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>981</v>
       </c>
       <c r="G13" s="1">
-        <f>IF(MOD(L13-$B$6,2)=1,8+M13,M13)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H13" t="str">
-        <f>DEC2HEX(E13*HEX2DEC(1000000) +G13*HEX2DEC(10000) +F13)</f>
+        <f t="shared" si="3"/>
         <v>10803D5</v>
       </c>
       <c r="I13">
-        <f>HEX2DEC(H13)</f>
+        <f t="shared" si="4"/>
         <v>17302485</v>
       </c>
       <c r="K13">
-        <f>IF(Q13&lt;&gt;"",Q13*116+$B$3,IF(R13&lt;&gt;"",R13*116+$B$3,IF(T13&lt;&gt;"",T13*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v>523299</v>
       </c>
       <c r="L13">
-        <f>IF(J13&lt;&gt;"",J13,K13)</f>
+        <f t="shared" si="6"/>
         <v>523299</v>
       </c>
       <c r="O13" t="s">
@@ -1824,7 +1894,7 @@
         <v>3</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>H4White : INT := 4;</v>
       </c>
     </row>
@@ -1842,31 +1912,31 @@
         <v>15</v>
       </c>
       <c r="E14" s="1">
-        <f>IF(P14="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <f>IF(L14&lt;&gt;"",FLOOR((L14-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>1015</v>
       </c>
       <c r="G14" s="1">
-        <f>IF(MOD(L14-$B$6,2)=1,8+M14,M14)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H14" t="str">
-        <f>DEC2HEX(E14*HEX2DEC(1000000) +G14*HEX2DEC(10000) +F14)</f>
+        <f t="shared" si="3"/>
         <v>10803F7</v>
       </c>
       <c r="I14">
-        <f>HEX2DEC(H14)</f>
+        <f t="shared" si="4"/>
         <v>17302519</v>
       </c>
       <c r="K14">
-        <f>IF(Q14&lt;&gt;"",Q14*116+$B$3,IF(R14&lt;&gt;"",R14*116+$B$3,IF(T14&lt;&gt;"",T14*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v>523367</v>
       </c>
       <c r="L14">
-        <f>IF(J14&lt;&gt;"",J14,K14)</f>
+        <f t="shared" si="6"/>
         <v>523367</v>
       </c>
       <c r="O14" t="s">
@@ -1879,7 +1949,7 @@
         <v>4</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>Air : INT := 5;</v>
       </c>
     </row>
@@ -1894,31 +1964,31 @@
         <v>6</v>
       </c>
       <c r="E15" s="1">
-        <f>IF(P15="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF(L15&lt;&gt;"",FLOOR((L15-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G15" s="1" t="e">
-        <f>IF(MOD(L15-$B$6,2)=1,8+M15,M15)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H15" t="e">
-        <f>DEC2HEX(E15*HEX2DEC(1000000) +G15*HEX2DEC(10000) +F15)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I15" t="e">
-        <f>HEX2DEC(H15)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K15" t="str">
-        <f>IF(Q15&lt;&gt;"",Q15*116+$B$3,IF(R15&lt;&gt;"",R15*116+$B$3,IF(T15&lt;&gt;"",T15*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f>IF(J15&lt;&gt;"",J15,K15)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -1933,31 +2003,31 @@
         <v>7</v>
       </c>
       <c r="E16" s="1">
-        <f>IF(P16="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF(L16&lt;&gt;"",FLOOR((L16-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G16" s="1" t="e">
-        <f>IF(MOD(L16-$B$6,2)=1,8+M16,M16)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H16" t="e">
-        <f>DEC2HEX(E16*HEX2DEC(1000000) +G16*HEX2DEC(10000) +F16)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I16" t="e">
-        <f>HEX2DEC(H16)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K16" t="str">
-        <f>IF(Q16&lt;&gt;"",Q16*116+$B$3,IF(R16&lt;&gt;"",R16*116+$B$3,IF(T16&lt;&gt;"",T16*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L16" t="str">
-        <f>IF(J16&lt;&gt;"",J16,K16)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -1972,31 +2042,31 @@
         <v>8</v>
       </c>
       <c r="E17" s="1">
-        <f>IF(P17="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF(L17&lt;&gt;"",FLOOR((L17-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G17" s="1" t="e">
-        <f>IF(MOD(L17-$B$6,2)=1,8+M17,M17)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H17" t="e">
-        <f>DEC2HEX(E17*HEX2DEC(1000000) +G17*HEX2DEC(10000) +F17)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I17" t="e">
-        <f>HEX2DEC(H17)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K17" t="str">
-        <f>IF(Q17&lt;&gt;"",Q17*116+$B$3,IF(R17&lt;&gt;"",R17*116+$B$3,IF(T17&lt;&gt;"",T17*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L17" t="str">
-        <f>IF(J17&lt;&gt;"",J17,K17)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2014,31 +2084,31 @@
         <v>71</v>
       </c>
       <c r="E18" s="1">
-        <f>IF(P18="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF(L18&lt;&gt;"",FLOOR((L18-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G18" s="1" t="e">
-        <f>IF(MOD(L18-$B$6,2)=1,8+M18,M18)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H18" t="e">
-        <f>DEC2HEX(E18*HEX2DEC(1000000) +G18*HEX2DEC(10000) +F18)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I18" t="e">
-        <f>HEX2DEC(H18)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K18" t="str">
-        <f>IF(Q18&lt;&gt;"",Q18*116+$B$3,IF(R18&lt;&gt;"",R18*116+$B$3,IF(T18&lt;&gt;"",T18*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L18" t="str">
-        <f>IF(J18&lt;&gt;"",J18,K18)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2053,31 +2123,31 @@
         <v>10</v>
       </c>
       <c r="E19" s="1">
-        <f>IF(P19="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF(L19&lt;&gt;"",FLOOR((L19-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G19" s="1" t="e">
-        <f>IF(MOD(L19-$B$6,2)=1,8+M19,M19)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H19" t="e">
-        <f>DEC2HEX(E19*HEX2DEC(1000000) +G19*HEX2DEC(10000) +F19)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I19" t="e">
-        <f>HEX2DEC(H19)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K19" t="str">
-        <f>IF(Q19&lt;&gt;"",Q19*116+$B$3,IF(R19&lt;&gt;"",R19*116+$B$3,IF(T19&lt;&gt;"",T19*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f>IF(J19&lt;&gt;"",J19,K19)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2092,31 +2162,31 @@
         <v>11</v>
       </c>
       <c r="E20" s="1">
-        <f>IF(P20="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF(L20&lt;&gt;"",FLOOR((L20-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G20" s="1" t="e">
-        <f>IF(MOD(L20-$B$6,2)=1,8+M20,M20)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H20" t="e">
-        <f>DEC2HEX(E20*HEX2DEC(1000000) +G20*HEX2DEC(10000) +F20)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I20" t="e">
-        <f>HEX2DEC(H20)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K20" t="str">
-        <f>IF(Q20&lt;&gt;"",Q20*116+$B$3,IF(R20&lt;&gt;"",R20*116+$B$3,IF(T20&lt;&gt;"",T20*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L20" t="str">
-        <f>IF(J20&lt;&gt;"",J20,K20)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2131,31 +2201,31 @@
         <v>12</v>
       </c>
       <c r="E21" s="1">
-        <f>IF(P21="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF(L21&lt;&gt;"",FLOOR((L21-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G21" s="1" t="e">
-        <f>IF(MOD(L21-$B$6,2)=1,8+M21,M21)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H21" t="e">
-        <f>DEC2HEX(E21*HEX2DEC(1000000) +G21*HEX2DEC(10000) +F21)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I21" t="e">
-        <f>HEX2DEC(H21)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K21" t="str">
-        <f>IF(Q21&lt;&gt;"",Q21*116+$B$3,IF(R21&lt;&gt;"",R21*116+$B$3,IF(T21&lt;&gt;"",T21*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L21" t="str">
-        <f>IF(J21&lt;&gt;"",J21,K21)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2170,31 +2240,31 @@
         <v>13</v>
       </c>
       <c r="E22" s="1">
-        <f>IF(P22="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF(L22&lt;&gt;"",FLOOR((L22-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G22" s="1" t="e">
-        <f>IF(MOD(L22-$B$6,2)=1,8+M22,M22)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H22" t="e">
-        <f>DEC2HEX(E22*HEX2DEC(1000000) +G22*HEX2DEC(10000) +F22)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I22" t="e">
-        <f>HEX2DEC(H22)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K22" t="str">
-        <f>IF(Q22&lt;&gt;"",Q22*116+$B$3,IF(R22&lt;&gt;"",R22*116+$B$3,IF(T22&lt;&gt;"",T22*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L22" t="str">
-        <f>IF(J22&lt;&gt;"",J22,K22)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2209,31 +2279,31 @@
         <v>14</v>
       </c>
       <c r="E23" s="1">
-        <f>IF(P23="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF(L23&lt;&gt;"",FLOOR((L23-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G23" s="1" t="e">
-        <f>IF(MOD(L23-$B$6,2)=1,8+M23,M23)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H23" t="e">
-        <f>DEC2HEX(E23*HEX2DEC(1000000) +G23*HEX2DEC(10000) +F23)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I23" t="e">
-        <f>HEX2DEC(H23)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K23" t="str">
-        <f>IF(Q23&lt;&gt;"",Q23*116+$B$3,IF(R23&lt;&gt;"",R23*116+$B$3,IF(T23&lt;&gt;"",T23*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L23" t="str">
-        <f>IF(J23&lt;&gt;"",J23,K23)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2248,31 +2318,31 @@
         <v>15</v>
       </c>
       <c r="E24" s="1">
-        <f>IF(P24="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF(L24&lt;&gt;"",FLOOR((L24-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G24" s="1" t="e">
-        <f>IF(MOD(L24-$B$6,2)=1,8+M24,M24)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H24" t="e">
-        <f>DEC2HEX(E24*HEX2DEC(1000000) +G24*HEX2DEC(10000) +F24)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I24" t="e">
-        <f>HEX2DEC(H24)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K24" t="str">
-        <f>IF(Q24&lt;&gt;"",Q24*116+$B$3,IF(R24&lt;&gt;"",R24*116+$B$3,IF(T24&lt;&gt;"",T24*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L24" t="str">
-        <f>IF(J24&lt;&gt;"",J24,K24)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M24">
@@ -2290,31 +2360,31 @@
         <v>16</v>
       </c>
       <c r="E25" s="1">
-        <f>IF(P25="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF(L25&lt;&gt;"",FLOOR((L25-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G25" s="1" t="e">
-        <f>IF(MOD(L25-$B$6,2)=1,8+M25,M25)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H25" t="e">
-        <f>DEC2HEX(E25*HEX2DEC(1000000) +G25*HEX2DEC(10000) +F25)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I25" t="e">
-        <f>HEX2DEC(H25)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K25" t="str">
-        <f>IF(Q25&lt;&gt;"",Q25*116+$B$3,IF(R25&lt;&gt;"",R25*116+$B$3,IF(T25&lt;&gt;"",T25*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L25" t="str">
-        <f>IF(J25&lt;&gt;"",J25,K25)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2332,31 +2402,31 @@
         <v>72</v>
       </c>
       <c r="E26" s="1">
-        <f>IF(P26="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <f>IF(L26&lt;&gt;"",FLOOR((L26-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>1049</v>
       </c>
       <c r="G26" s="1">
-        <f>IF(MOD(L26-$B$6,2)=1,8+M26,M26)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H26" t="str">
-        <f>DEC2HEX(E26*HEX2DEC(1000000) +G26*HEX2DEC(10000) +F26)</f>
+        <f t="shared" si="3"/>
         <v>1080419</v>
       </c>
       <c r="I26">
-        <f>HEX2DEC(H26)</f>
+        <f t="shared" si="4"/>
         <v>17302553</v>
       </c>
       <c r="K26">
-        <f>IF(Q26&lt;&gt;"",Q26*116+$B$3,IF(R26&lt;&gt;"",R26*116+$B$3,IF(T26&lt;&gt;"",T26*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v>523435</v>
       </c>
       <c r="L26">
-        <f>IF(J26&lt;&gt;"",J26,K26)</f>
+        <f t="shared" si="6"/>
         <v>523435</v>
       </c>
       <c r="O26" t="s">
@@ -2369,7 +2439,7 @@
         <v>5</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" ref="U26:U27" si="1">IF(S26="*",D26&amp;" : INT := "&amp;(T26+1)&amp;";")</f>
+        <f t="shared" ref="U26:U27" si="8">IF(S26="*",D26&amp;" : INT := "&amp;(T26+1)&amp;";")</f>
         <v>SfA01 : INT := 6;</v>
       </c>
     </row>
@@ -2387,31 +2457,31 @@
         <v>73</v>
       </c>
       <c r="E27" s="1">
-        <f>IF(P27="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <f>IF(L27&lt;&gt;"",FLOOR((L27-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>1083</v>
       </c>
       <c r="G27" s="1">
-        <f>IF(MOD(L27-$B$6,2)=1,8+M27,M27)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H27" t="str">
-        <f>DEC2HEX(E27*HEX2DEC(1000000) +G27*HEX2DEC(10000) +F27)</f>
+        <f t="shared" si="3"/>
         <v>108043B</v>
       </c>
       <c r="I27">
-        <f>HEX2DEC(H27)</f>
+        <f t="shared" si="4"/>
         <v>17302587</v>
       </c>
       <c r="K27">
-        <f>IF(Q27&lt;&gt;"",Q27*116+$B$3,IF(R27&lt;&gt;"",R27*116+$B$3,IF(T27&lt;&gt;"",T27*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v>523503</v>
       </c>
       <c r="L27">
-        <f>IF(J27&lt;&gt;"",J27,K27)</f>
+        <f t="shared" si="6"/>
         <v>523503</v>
       </c>
       <c r="O27" t="s">
@@ -2424,7 +2494,7 @@
         <v>6</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>SfA02 : INT := 7;</v>
       </c>
     </row>
@@ -2439,31 +2509,31 @@
         <v>3</v>
       </c>
       <c r="E28" s="1">
-        <f>IF(P28="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF(L28&lt;&gt;"",FLOOR((L28-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G28" s="1" t="e">
-        <f>IF(MOD(L28-$B$6,2)=1,8+M28,M28)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H28" t="e">
-        <f>DEC2HEX(E28*HEX2DEC(1000000) +G28*HEX2DEC(10000) +F28)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I28" t="e">
-        <f>HEX2DEC(H28)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K28" t="str">
-        <f>IF(Q28&lt;&gt;"",Q28*116+$B$3,IF(R28&lt;&gt;"",R28*116+$B$3,IF(T28&lt;&gt;"",T28*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L28" t="str">
-        <f>IF(J28&lt;&gt;"",J28,K28)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2478,31 +2548,31 @@
         <v>4</v>
       </c>
       <c r="E29" s="1">
-        <f>IF(P29="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF(L29&lt;&gt;"",FLOOR((L29-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G29" s="1" t="e">
-        <f>IF(MOD(L29-$B$6,2)=1,8+M29,M29)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H29" t="e">
-        <f>DEC2HEX(E29*HEX2DEC(1000000) +G29*HEX2DEC(10000) +F29)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I29" t="e">
-        <f>HEX2DEC(H29)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K29" t="str">
-        <f>IF(Q29&lt;&gt;"",Q29*116+$B$3,IF(R29&lt;&gt;"",R29*116+$B$3,IF(T29&lt;&gt;"",T29*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f>IF(J29&lt;&gt;"",J29,K29)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2517,31 +2587,31 @@
         <v>5</v>
       </c>
       <c r="E30" s="1">
-        <f>IF(P30="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF(L30&lt;&gt;"",FLOOR((L30-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G30" s="1" t="e">
-        <f>IF(MOD(L30-$B$6,2)=1,8+M30,M30)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H30" t="e">
-        <f>DEC2HEX(E30*HEX2DEC(1000000) +G30*HEX2DEC(10000) +F30)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I30" t="e">
-        <f>HEX2DEC(H30)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K30" t="str">
-        <f>IF(Q30&lt;&gt;"",Q30*116+$B$3,IF(R30&lt;&gt;"",R30*116+$B$3,IF(T30&lt;&gt;"",T30*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L30" t="str">
-        <f>IF(J30&lt;&gt;"",J30,K30)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2556,31 +2626,31 @@
         <v>6</v>
       </c>
       <c r="E31" s="1">
-        <f>IF(P31="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF(L31&lt;&gt;"",FLOOR((L31-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G31" s="1" t="e">
-        <f>IF(MOD(L31-$B$6,2)=1,8+M31,M31)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H31" t="e">
-        <f>DEC2HEX(E31*HEX2DEC(1000000) +G31*HEX2DEC(10000) +F31)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I31" t="e">
-        <f>HEX2DEC(H31)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K31" t="str">
-        <f>IF(Q31&lt;&gt;"",Q31*116+$B$3,IF(R31&lt;&gt;"",R31*116+$B$3,IF(T31&lt;&gt;"",T31*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L31" t="str">
-        <f>IF(J31&lt;&gt;"",J31,K31)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2595,31 +2665,31 @@
         <v>7</v>
       </c>
       <c r="E32" s="1">
-        <f>IF(P32="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF(L32&lt;&gt;"",FLOOR((L32-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G32" s="1" t="e">
-        <f>IF(MOD(L32-$B$6,2)=1,8+M32,M32)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H32" t="e">
-        <f>DEC2HEX(E32*HEX2DEC(1000000) +G32*HEX2DEC(10000) +F32)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I32" t="e">
-        <f>HEX2DEC(H32)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K32" t="str">
-        <f>IF(Q32&lt;&gt;"",Q32*116+$B$3,IF(R32&lt;&gt;"",R32*116+$B$3,IF(T32&lt;&gt;"",T32*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L32" t="str">
-        <f>IF(J32&lt;&gt;"",J32,K32)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2637,31 +2707,31 @@
         <v>74</v>
       </c>
       <c r="E33" s="1">
-        <f>IF(P33="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F33" s="1">
-        <f>IF(L33&lt;&gt;"",FLOOR((L33-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>1117</v>
       </c>
       <c r="G33" s="1">
-        <f>IF(MOD(L33-$B$6,2)=1,8+M33,M33)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H33" t="str">
-        <f>DEC2HEX(E33*HEX2DEC(1000000) +G33*HEX2DEC(10000) +F33)</f>
+        <f t="shared" si="3"/>
         <v>108045D</v>
       </c>
       <c r="I33">
-        <f>HEX2DEC(H33)</f>
+        <f t="shared" si="4"/>
         <v>17302621</v>
       </c>
       <c r="K33">
-        <f>IF(Q33&lt;&gt;"",Q33*116+$B$3,IF(R33&lt;&gt;"",R33*116+$B$3,IF(T33&lt;&gt;"",T33*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v>523571</v>
       </c>
       <c r="L33">
-        <f>IF(J33&lt;&gt;"",J33,K33)</f>
+        <f t="shared" si="6"/>
         <v>523571</v>
       </c>
       <c r="O33" t="s">
@@ -2674,7 +2744,7 @@
         <v>7</v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" ref="U33:U34" si="2">IF(S33="*",D33&amp;" : INT := "&amp;(T33+1)&amp;";")</f>
+        <f t="shared" ref="U33:U34" si="9">IF(S33="*",D33&amp;" : INT := "&amp;(T33+1)&amp;";")</f>
         <v>SfA03 : INT := 8;</v>
       </c>
     </row>
@@ -2692,31 +2762,31 @@
         <v>75</v>
       </c>
       <c r="E34" s="1">
-        <f>IF(P34="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F34" s="1">
-        <f>IF(L34&lt;&gt;"",FLOOR((L34-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>1151</v>
       </c>
       <c r="G34" s="1">
-        <f>IF(MOD(L34-$B$6,2)=1,8+M34,M34)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H34" t="str">
-        <f>DEC2HEX(E34*HEX2DEC(1000000) +G34*HEX2DEC(10000) +F34)</f>
+        <f t="shared" si="3"/>
         <v>108047F</v>
       </c>
       <c r="I34">
-        <f>HEX2DEC(H34)</f>
+        <f t="shared" si="4"/>
         <v>17302655</v>
       </c>
       <c r="K34">
-        <f>IF(Q34&lt;&gt;"",Q34*116+$B$3,IF(R34&lt;&gt;"",R34*116+$B$3,IF(T34&lt;&gt;"",T34*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v>523639</v>
       </c>
       <c r="L34">
-        <f>IF(J34&lt;&gt;"",J34,K34)</f>
+        <f t="shared" si="6"/>
         <v>523639</v>
       </c>
       <c r="O34" t="s">
@@ -2729,7 +2799,7 @@
         <v>8</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>SpA01 : INT := 9;</v>
       </c>
     </row>
@@ -2744,31 +2814,31 @@
         <v>10</v>
       </c>
       <c r="E35" s="1">
-        <f>IF(P35="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f>IF(L35&lt;&gt;"",FLOOR((L35-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G35" s="1" t="e">
-        <f>IF(MOD(L35-$B$6,2)=1,8+M35,M35)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H35" t="e">
-        <f>DEC2HEX(E35*HEX2DEC(1000000) +G35*HEX2DEC(10000) +F35)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I35" t="e">
-        <f>HEX2DEC(H35)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K35" t="str">
-        <f>IF(Q35&lt;&gt;"",Q35*116+$B$3,IF(R35&lt;&gt;"",R35*116+$B$3,IF(T35&lt;&gt;"",T35*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L35" t="str">
-        <f>IF(J35&lt;&gt;"",J35,K35)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2786,23 +2856,23 @@
         <v>91</v>
       </c>
       <c r="E36" s="1">
-        <f>IF(P36="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F36" s="1">
-        <f>IF(L36&lt;&gt;"",FLOOR((L36-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>362</v>
       </c>
       <c r="G36" s="1">
-        <f>IF(MOD(L36-$B$6,2)=1,8+M36,M36)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H36" t="str">
-        <f>DEC2HEX(E36*HEX2DEC(1000000) +G36*HEX2DEC(10000) +F36)</f>
+        <f t="shared" si="3"/>
         <v>100016A</v>
       </c>
       <c r="I36">
-        <f>HEX2DEC(H36)</f>
+        <f t="shared" si="4"/>
         <v>16777578</v>
       </c>
       <c r="K36">
@@ -2810,7 +2880,7 @@
         <v>522060</v>
       </c>
       <c r="L36">
-        <f>IF(J36&lt;&gt;"",J36,K36)</f>
+        <f t="shared" si="6"/>
         <v>522060</v>
       </c>
       <c r="O36" t="s">
@@ -2837,23 +2907,23 @@
         <v>92</v>
       </c>
       <c r="E37" s="1">
-        <f>IF(P37="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <f>IF(L37&lt;&gt;"",FLOOR((L37-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
       <c r="G37" s="1">
-        <f>IF(MOD(L37-$B$6,2)=1,8+M37,M37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H37" t="str">
-        <f>DEC2HEX(E37*HEX2DEC(1000000) +G37*HEX2DEC(10000) +F37)</f>
+        <f t="shared" si="3"/>
         <v>10001A4</v>
       </c>
       <c r="I37">
-        <f>HEX2DEC(H37)</f>
+        <f t="shared" si="4"/>
         <v>16777636</v>
       </c>
       <c r="K37">
@@ -2861,7 +2931,7 @@
         <v>522176</v>
       </c>
       <c r="L37">
-        <f>IF(J37&lt;&gt;"",J37,K37)</f>
+        <f t="shared" si="6"/>
         <v>522176</v>
       </c>
       <c r="O37" t="s">
@@ -2888,31 +2958,31 @@
         <v>305</v>
       </c>
       <c r="E38" s="1">
-        <f>IF(P38="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <f>IF(L38&lt;&gt;"",FLOOR((L38-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>708</v>
       </c>
       <c r="G38" s="1">
-        <f>IF(MOD(L38-$B$6,2)=1,8+M38,M38)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H38" t="str">
-        <f>DEC2HEX(E38*HEX2DEC(1000000) +G38*HEX2DEC(10000) +F38)</f>
+        <f t="shared" si="3"/>
         <v>10002C4</v>
       </c>
       <c r="I38">
-        <f>HEX2DEC(H38)</f>
+        <f t="shared" si="4"/>
         <v>16777924</v>
       </c>
       <c r="K38">
-        <f>IF(Q38&lt;&gt;"",Q38*116+$B$3,IF(R38&lt;&gt;"",R38*116+$B$3,IF(T38&lt;&gt;"",T38*68+$B$5,"")))</f>
+        <f t="shared" ref="K38:K45" si="10">IF(Q38&lt;&gt;"",Q38*116+$B$3,IF(R38&lt;&gt;"",R38*116+$B$3,IF(T38&lt;&gt;"",T38*68+$B$5,"")))</f>
         <v>522752</v>
       </c>
       <c r="L38">
-        <f>IF(J38&lt;&gt;"",J38,K38)</f>
+        <f t="shared" si="6"/>
         <v>522752</v>
       </c>
       <c r="O38" t="s">
@@ -2939,31 +3009,31 @@
         <v>306</v>
       </c>
       <c r="E39" s="1">
-        <f>IF(P39="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <f>IF(L39&lt;&gt;"",FLOOR((L39-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>708</v>
       </c>
       <c r="G39" s="1">
-        <f>IF(MOD(L39-$B$6,2)=1,8+M39,M39)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H39" t="str">
-        <f>DEC2HEX(E39*HEX2DEC(1000000) +G39*HEX2DEC(10000) +F39)</f>
+        <f t="shared" si="3"/>
         <v>10002C4</v>
       </c>
       <c r="I39">
-        <f>HEX2DEC(H39)</f>
+        <f t="shared" si="4"/>
         <v>16777924</v>
       </c>
       <c r="K39">
-        <f>IF(Q39&lt;&gt;"",Q39*116+$B$3,IF(R39&lt;&gt;"",R39*116+$B$3,IF(T39&lt;&gt;"",T39*68+$B$5,"")))</f>
+        <f t="shared" si="10"/>
         <v>522752</v>
       </c>
       <c r="L39">
-        <f>IF(J39&lt;&gt;"",J39,K39)</f>
+        <f t="shared" si="6"/>
         <v>522752</v>
       </c>
       <c r="O39" t="s">
@@ -2990,31 +3060,31 @@
         <v>76</v>
       </c>
       <c r="E40" s="1">
-        <f>IF(P40="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <f>IF(L40&lt;&gt;"",FLOOR((L40-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>1185</v>
       </c>
       <c r="G40" s="1">
-        <f>IF(MOD(L40-$B$6,2)=1,8+M40,M40)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H40" t="str">
-        <f>DEC2HEX(E40*HEX2DEC(1000000) +G40*HEX2DEC(10000) +F40)</f>
+        <f t="shared" si="3"/>
         <v>10804A1</v>
       </c>
       <c r="I40">
-        <f>HEX2DEC(H40)</f>
+        <f t="shared" si="4"/>
         <v>17302689</v>
       </c>
       <c r="K40">
-        <f>IF(Q40&lt;&gt;"",Q40*116+$B$3,IF(R40&lt;&gt;"",R40*116+$B$3,IF(T40&lt;&gt;"",T40*68+$B$5,"")))</f>
+        <f t="shared" si="10"/>
         <v>523707</v>
       </c>
       <c r="L40">
-        <f>IF(J40&lt;&gt;"",J40,K40)</f>
+        <f t="shared" si="6"/>
         <v>523707</v>
       </c>
       <c r="O40" t="s">
@@ -3027,7 +3097,7 @@
         <v>9</v>
       </c>
       <c r="U40" t="str">
-        <f t="shared" ref="U40:U45" si="3">IF(S40="*",D40&amp;" : INT := "&amp;(T40+1)&amp;";")</f>
+        <f t="shared" ref="U40:U45" si="11">IF(S40="*",D40&amp;" : INT := "&amp;(T40+1)&amp;";")</f>
         <v>SpA02 : INT := 10;</v>
       </c>
     </row>
@@ -3045,31 +3115,31 @@
         <v>77</v>
       </c>
       <c r="E41" s="1">
-        <f>IF(P41="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F41" s="1">
-        <f>IF(L41&lt;&gt;"",FLOOR((L41-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>1219</v>
       </c>
       <c r="G41" s="1">
-        <f>IF(MOD(L41-$B$6,2)=1,8+M41,M41)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H41" t="str">
-        <f>DEC2HEX(E41*HEX2DEC(1000000) +G41*HEX2DEC(10000) +F41)</f>
+        <f t="shared" si="3"/>
         <v>10804C3</v>
       </c>
       <c r="I41">
-        <f>HEX2DEC(H41)</f>
+        <f t="shared" si="4"/>
         <v>17302723</v>
       </c>
       <c r="K41">
-        <f>IF(Q41&lt;&gt;"",Q41*116+$B$3,IF(R41&lt;&gt;"",R41*116+$B$3,IF(T41&lt;&gt;"",T41*68+$B$5,"")))</f>
+        <f t="shared" si="10"/>
         <v>523775</v>
       </c>
       <c r="L41">
-        <f>IF(J41&lt;&gt;"",J41,K41)</f>
+        <f t="shared" si="6"/>
         <v>523775</v>
       </c>
       <c r="O41" t="s">
@@ -3082,7 +3152,7 @@
         <v>10</v>
       </c>
       <c r="U41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>SpA03 : INT := 11;</v>
       </c>
     </row>
@@ -3100,31 +3170,31 @@
         <v>108</v>
       </c>
       <c r="E42" s="1">
-        <f>IF(P42="",$B$2,$B$2)</f>
+        <f t="shared" ref="E42:E73" si="12">IF(P42="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <f>IF(L42&lt;&gt;"",FLOOR((L42-MIN(L:L))/2,1),"")</f>
+        <f t="shared" ref="F42:F73" si="13">IF(L42&lt;&gt;"",FLOOR((L42-MIN(L:L))/2,1),"")</f>
         <v>1253</v>
       </c>
       <c r="G42" s="1">
-        <f>IF(MOD(L42-$B$6,2)=1,8+M42,M42)</f>
+        <f t="shared" ref="G42:G73" si="14">IF(MOD(L42-$B$6,2)=1,8+M42,M42)</f>
         <v>8</v>
       </c>
       <c r="H42" t="str">
-        <f>DEC2HEX(E42*HEX2DEC(1000000) +G42*HEX2DEC(10000) +F42)</f>
+        <f t="shared" ref="H42:H73" si="15">DEC2HEX(E42*HEX2DEC(1000000) +G42*HEX2DEC(10000) +F42)</f>
         <v>10804E5</v>
       </c>
       <c r="I42">
-        <f>HEX2DEC(H42)</f>
+        <f t="shared" ref="I42:I73" si="16">HEX2DEC(H42)</f>
         <v>17302757</v>
       </c>
       <c r="K42">
-        <f>IF(Q42&lt;&gt;"",Q42*116+$B$3,IF(R42&lt;&gt;"",R42*116+$B$3,IF(T42&lt;&gt;"",T42*68+$B$5,"")))</f>
+        <f t="shared" si="10"/>
         <v>523843</v>
       </c>
       <c r="L42">
-        <f>IF(J42&lt;&gt;"",J42,K42)</f>
+        <f t="shared" ref="L42:L73" si="17">IF(J42&lt;&gt;"",J42,K42)</f>
         <v>523843</v>
       </c>
       <c r="O42" t="s">
@@ -3137,7 +3207,7 @@
         <v>11</v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>ASp01 : INT := 12;</v>
       </c>
     </row>
@@ -3155,31 +3225,31 @@
         <v>109</v>
       </c>
       <c r="E43" s="1">
-        <f>IF(P43="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <f>IF(L43&lt;&gt;"",FLOOR((L43-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v>1287</v>
       </c>
       <c r="G43" s="1">
-        <f>IF(MOD(L43-$B$6,2)=1,8+M43,M43)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="H43" t="str">
-        <f>DEC2HEX(E43*HEX2DEC(1000000) +G43*HEX2DEC(10000) +F43)</f>
+        <f t="shared" si="15"/>
         <v>1080507</v>
       </c>
       <c r="I43">
-        <f>HEX2DEC(H43)</f>
+        <f t="shared" si="16"/>
         <v>17302791</v>
       </c>
       <c r="K43">
-        <f>IF(Q43&lt;&gt;"",Q43*116+$B$3,IF(R43&lt;&gt;"",R43*116+$B$3,IF(T43&lt;&gt;"",T43*68+$B$5,"")))</f>
+        <f t="shared" si="10"/>
         <v>523911</v>
       </c>
       <c r="L43">
-        <f>IF(J43&lt;&gt;"",J43,K43)</f>
+        <f t="shared" si="17"/>
         <v>523911</v>
       </c>
       <c r="O43" t="s">
@@ -3192,7 +3262,7 @@
         <v>12</v>
       </c>
       <c r="U43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>ASp02 : INT := 13;</v>
       </c>
     </row>
@@ -3210,31 +3280,31 @@
         <v>110</v>
       </c>
       <c r="E44" s="1">
-        <f>IF(P44="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <f>IF(L44&lt;&gt;"",FLOOR((L44-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v>1321</v>
       </c>
       <c r="G44" s="1">
-        <f>IF(MOD(L44-$B$6,2)=1,8+M44,M44)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="H44" t="str">
-        <f>DEC2HEX(E44*HEX2DEC(1000000) +G44*HEX2DEC(10000) +F44)</f>
+        <f t="shared" si="15"/>
         <v>1080529</v>
       </c>
       <c r="I44">
-        <f>HEX2DEC(H44)</f>
+        <f t="shared" si="16"/>
         <v>17302825</v>
       </c>
       <c r="K44">
-        <f>IF(Q44&lt;&gt;"",Q44*116+$B$3,IF(R44&lt;&gt;"",R44*116+$B$3,IF(T44&lt;&gt;"",T44*68+$B$5,"")))</f>
+        <f t="shared" si="10"/>
         <v>523979</v>
       </c>
       <c r="L44">
-        <f>IF(J44&lt;&gt;"",J44,K44)</f>
+        <f t="shared" si="17"/>
         <v>523979</v>
       </c>
       <c r="O44" t="s">
@@ -3247,7 +3317,7 @@
         <v>13</v>
       </c>
       <c r="U44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>ASp03 : INT := 14;</v>
       </c>
     </row>
@@ -3265,31 +3335,31 @@
         <v>111</v>
       </c>
       <c r="E45" s="1">
-        <f>IF(P45="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F45" s="1">
-        <f>IF(L45&lt;&gt;"",FLOOR((L45-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v>1355</v>
       </c>
       <c r="G45" s="1">
-        <f>IF(MOD(L45-$B$6,2)=1,8+M45,M45)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="H45" t="str">
-        <f>DEC2HEX(E45*HEX2DEC(1000000) +G45*HEX2DEC(10000) +F45)</f>
+        <f t="shared" si="15"/>
         <v>108054B</v>
       </c>
       <c r="I45">
-        <f>HEX2DEC(H45)</f>
+        <f t="shared" si="16"/>
         <v>17302859</v>
       </c>
       <c r="K45">
-        <f>IF(Q45&lt;&gt;"",Q45*116+$B$3,IF(R45&lt;&gt;"",R45*116+$B$3,IF(T45&lt;&gt;"",T45*68+$B$5,"")))</f>
+        <f t="shared" si="10"/>
         <v>524047</v>
       </c>
       <c r="L45">
-        <f>IF(J45&lt;&gt;"",J45,K45)</f>
+        <f t="shared" si="17"/>
         <v>524047</v>
       </c>
       <c r="O45" t="s">
@@ -3302,7 +3372,7 @@
         <v>14</v>
       </c>
       <c r="U45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>ASp04 : INT := 15;</v>
       </c>
     </row>
@@ -3320,23 +3390,23 @@
         <v>78</v>
       </c>
       <c r="E46" s="1">
-        <f>IF(P46="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F46" s="1">
-        <f>IF(L46&lt;&gt;"",FLOOR((L46-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="G46" s="1">
-        <f>IF(MOD(L46-$B$6,2)=1,8+M46,M46)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H46" t="str">
-        <f>DEC2HEX(E46*HEX2DEC(1000000) +G46*HEX2DEC(10000) +F46)</f>
+        <f t="shared" si="15"/>
         <v>100000E</v>
       </c>
       <c r="I46">
-        <f>HEX2DEC(H46)</f>
+        <f t="shared" si="16"/>
         <v>16777230</v>
       </c>
       <c r="K46">
@@ -3344,7 +3414,7 @@
         <v>521364</v>
       </c>
       <c r="L46">
-        <f>IF(J46&lt;&gt;"",J46,K46)</f>
+        <f t="shared" si="17"/>
         <v>521364</v>
       </c>
       <c r="O46" t="s">
@@ -3371,23 +3441,23 @@
         <v>79</v>
       </c>
       <c r="E47" s="1">
-        <f>IF(P47="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F47" s="1">
-        <f>IF(L47&lt;&gt;"",FLOOR((L47-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v>72</v>
       </c>
       <c r="G47" s="1">
-        <f>IF(MOD(L47-$B$6,2)=1,8+M47,M47)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H47" t="str">
-        <f>DEC2HEX(E47*HEX2DEC(1000000) +G47*HEX2DEC(10000) +F47)</f>
+        <f t="shared" si="15"/>
         <v>1000048</v>
       </c>
       <c r="I47">
-        <f>HEX2DEC(H47)</f>
+        <f t="shared" si="16"/>
         <v>16777288</v>
       </c>
       <c r="K47">
@@ -3395,7 +3465,7 @@
         <v>521480</v>
       </c>
       <c r="L47">
-        <f>IF(J47&lt;&gt;"",J47,K47)</f>
+        <f t="shared" si="17"/>
         <v>521480</v>
       </c>
       <c r="O47" t="s">
@@ -3422,31 +3492,31 @@
         <v>87</v>
       </c>
       <c r="E48" s="1">
-        <f>IF(P48="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F48" s="1">
-        <f>IF(L48&lt;&gt;"",FLOOR((L48-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v>1389</v>
       </c>
       <c r="G48" s="1">
-        <f>IF(MOD(L48-$B$6,2)=1,8+M48,M48)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="H48" t="str">
-        <f>DEC2HEX(E48*HEX2DEC(1000000) +G48*HEX2DEC(10000) +F48)</f>
+        <f t="shared" si="15"/>
         <v>108056D</v>
       </c>
       <c r="I48">
-        <f>HEX2DEC(H48)</f>
+        <f t="shared" si="16"/>
         <v>17302893</v>
       </c>
       <c r="K48">
-        <f>IF(Q48&lt;&gt;"",Q48*116+$B$3,IF(R48&lt;&gt;"",R48*116+$B$3,IF(T48&lt;&gt;"",T48*68+$B$5,"")))</f>
+        <f t="shared" ref="K48:K54" si="18">IF(Q48&lt;&gt;"",Q48*116+$B$3,IF(R48&lt;&gt;"",R48*116+$B$3,IF(T48&lt;&gt;"",T48*68+$B$5,"")))</f>
         <v>524115</v>
       </c>
       <c r="L48">
-        <f>IF(J48&lt;&gt;"",J48,K48)</f>
+        <f t="shared" si="17"/>
         <v>524115</v>
       </c>
       <c r="O48" t="s">
@@ -3459,7 +3529,7 @@
         <v>15</v>
       </c>
       <c r="U48" t="str">
-        <f t="shared" ref="U48:U49" si="4">IF(S48="*",D48&amp;" : INT := "&amp;(T48+1)&amp;";")</f>
+        <f t="shared" ref="U48:U49" si="19">IF(S48="*",D48&amp;" : INT := "&amp;(T48+1)&amp;";")</f>
         <v>SfB1 : INT := 16;</v>
       </c>
     </row>
@@ -3477,31 +3547,31 @@
         <v>88</v>
       </c>
       <c r="E49" s="1">
-        <f>IF(P49="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F49" s="1">
-        <f>IF(L49&lt;&gt;"",FLOOR((L49-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v>1423</v>
       </c>
       <c r="G49" s="1">
-        <f>IF(MOD(L49-$B$6,2)=1,8+M49,M49)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="H49" t="str">
-        <f>DEC2HEX(E49*HEX2DEC(1000000) +G49*HEX2DEC(10000) +F49)</f>
+        <f t="shared" si="15"/>
         <v>108058F</v>
       </c>
       <c r="I49">
-        <f>HEX2DEC(H49)</f>
+        <f t="shared" si="16"/>
         <v>17302927</v>
       </c>
       <c r="K49">
-        <f>IF(Q49&lt;&gt;"",Q49*116+$B$3,IF(R49&lt;&gt;"",R49*116+$B$3,IF(T49&lt;&gt;"",T49*68+$B$5,"")))</f>
+        <f t="shared" si="18"/>
         <v>524183</v>
       </c>
       <c r="L49">
-        <f>IF(J49&lt;&gt;"",J49,K49)</f>
+        <f t="shared" si="17"/>
         <v>524183</v>
       </c>
       <c r="O49" t="s">
@@ -3514,7 +3584,7 @@
         <v>16</v>
       </c>
       <c r="U49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>SfB2 : INT := 17;</v>
       </c>
     </row>
@@ -3529,31 +3599,31 @@
         <v>4</v>
       </c>
       <c r="E50" s="1">
-        <f>IF(P50="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f>IF(L50&lt;&gt;"",FLOOR((L50-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G50" s="1" t="e">
-        <f>IF(MOD(L50-$B$6,2)=1,8+M50,M50)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H50" t="e">
-        <f>DEC2HEX(E50*HEX2DEC(1000000) +G50*HEX2DEC(10000) +F50)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I50" t="e">
-        <f>HEX2DEC(H50)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K50" t="str">
-        <f>IF(Q50&lt;&gt;"",Q50*116+$B$3,IF(R50&lt;&gt;"",R50*116+$B$3,IF(T50&lt;&gt;"",T50*68+$B$5,"")))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L50" t="str">
-        <f>IF(J50&lt;&gt;"",J50,K50)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3568,31 +3638,31 @@
         <v>5</v>
       </c>
       <c r="E51" s="1">
-        <f>IF(P51="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f>IF(L51&lt;&gt;"",FLOOR((L51-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G51" s="1" t="e">
-        <f>IF(MOD(L51-$B$6,2)=1,8+M51,M51)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H51" t="e">
-        <f>DEC2HEX(E51*HEX2DEC(1000000) +G51*HEX2DEC(10000) +F51)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I51" t="e">
-        <f>HEX2DEC(H51)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K51" t="str">
-        <f>IF(Q51&lt;&gt;"",Q51*116+$B$3,IF(R51&lt;&gt;"",R51*116+$B$3,IF(T51&lt;&gt;"",T51*68+$B$5,"")))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L51" t="str">
-        <f>IF(J51&lt;&gt;"",J51,K51)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3607,31 +3677,31 @@
         <v>6</v>
       </c>
       <c r="E52" s="1">
-        <f>IF(P52="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f>IF(L52&lt;&gt;"",FLOOR((L52-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G52" s="1" t="e">
-        <f>IF(MOD(L52-$B$6,2)=1,8+M52,M52)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H52" t="e">
-        <f>DEC2HEX(E52*HEX2DEC(1000000) +G52*HEX2DEC(10000) +F52)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I52" t="e">
-        <f>HEX2DEC(H52)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K52" t="str">
-        <f>IF(Q52&lt;&gt;"",Q52*116+$B$3,IF(R52&lt;&gt;"",R52*116+$B$3,IF(T52&lt;&gt;"",T52*68+$B$5,"")))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L52" t="str">
-        <f>IF(J52&lt;&gt;"",J52,K52)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3646,31 +3716,31 @@
         <v>7</v>
       </c>
       <c r="E53" s="1">
-        <f>IF(P53="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f>IF(L53&lt;&gt;"",FLOOR((L53-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G53" s="1" t="e">
-        <f>IF(MOD(L53-$B$6,2)=1,8+M53,M53)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H53" t="e">
-        <f>DEC2HEX(E53*HEX2DEC(1000000) +G53*HEX2DEC(10000) +F53)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I53" t="e">
-        <f>HEX2DEC(H53)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K53" t="str">
-        <f>IF(Q53&lt;&gt;"",Q53*116+$B$3,IF(R53&lt;&gt;"",R53*116+$B$3,IF(T53&lt;&gt;"",T53*68+$B$5,"")))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L53" t="str">
-        <f>IF(J53&lt;&gt;"",J53,K53)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3685,31 +3755,31 @@
         <v>8</v>
       </c>
       <c r="E54" s="1">
-        <f>IF(P54="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f>IF(L54&lt;&gt;"",FLOOR((L54-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G54" s="1" t="e">
-        <f>IF(MOD(L54-$B$6,2)=1,8+M54,M54)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H54" t="e">
-        <f>DEC2HEX(E54*HEX2DEC(1000000) +G54*HEX2DEC(10000) +F54)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I54" t="e">
-        <f>HEX2DEC(H54)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K54" t="str">
-        <f>IF(Q54&lt;&gt;"",Q54*116+$B$3,IF(R54&lt;&gt;"",R54*116+$B$3,IF(T54&lt;&gt;"",T54*68+$B$5,"")))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L54" t="str">
-        <f>IF(J54&lt;&gt;"",J54,K54)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3727,23 +3797,23 @@
         <v>80</v>
       </c>
       <c r="E55" s="1">
-        <f>IF(P55="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F55" s="1">
-        <f>IF(L55&lt;&gt;"",FLOOR((L55-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v>130</v>
       </c>
       <c r="G55" s="1">
-        <f>IF(MOD(L55-$B$6,2)=1,8+M55,M55)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H55" t="str">
-        <f>DEC2HEX(E55*HEX2DEC(1000000) +G55*HEX2DEC(10000) +F55)</f>
+        <f t="shared" si="15"/>
         <v>1000082</v>
       </c>
       <c r="I55">
-        <f>HEX2DEC(H55)</f>
+        <f t="shared" si="16"/>
         <v>16777346</v>
       </c>
       <c r="K55">
@@ -3751,7 +3821,7 @@
         <v>521596</v>
       </c>
       <c r="L55">
-        <f>IF(J55&lt;&gt;"",J55,K55)</f>
+        <f t="shared" si="17"/>
         <v>521596</v>
       </c>
       <c r="O55" t="s">
@@ -3775,31 +3845,31 @@
         <v>15</v>
       </c>
       <c r="E56" s="1">
-        <f>IF(P56="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f>IF(L56&lt;&gt;"",FLOOR((L56-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G56" s="1" t="e">
-        <f>IF(MOD(L56-$B$6,2)=1,8+M56,M56)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H56" t="e">
-        <f>DEC2HEX(E56*HEX2DEC(1000000) +G56*HEX2DEC(10000) +F56)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I56" t="e">
-        <f>HEX2DEC(H56)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K56" t="str">
-        <f>IF(Q56&lt;&gt;"",Q56*116+$B$3,IF(R56&lt;&gt;"",R56*116+$B$3,IF(T56&lt;&gt;"",T56*68+$B$5,"")))</f>
+        <f t="shared" ref="K56:K69" si="20">IF(Q56&lt;&gt;"",Q56*116+$B$3,IF(R56&lt;&gt;"",R56*116+$B$3,IF(T56&lt;&gt;"",T56*68+$B$5,"")))</f>
         <v/>
       </c>
       <c r="L56" t="str">
-        <f>IF(J56&lt;&gt;"",J56,K56)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3814,31 +3884,31 @@
         <v>16</v>
       </c>
       <c r="E57" s="1">
-        <f>IF(P57="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f>IF(L57&lt;&gt;"",FLOOR((L57-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G57" s="1" t="e">
-        <f>IF(MOD(L57-$B$6,2)=1,8+M57,M57)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H57" t="e">
-        <f>DEC2HEX(E57*HEX2DEC(1000000) +G57*HEX2DEC(10000) +F57)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I57" t="e">
-        <f>HEX2DEC(H57)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K57" t="str">
-        <f>IF(Q57&lt;&gt;"",Q57*116+$B$3,IF(R57&lt;&gt;"",R57*116+$B$3,IF(T57&lt;&gt;"",T57*68+$B$5,"")))</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L57" t="str">
-        <f>IF(J57&lt;&gt;"",J57,K57)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3853,31 +3923,31 @@
         <v>5</v>
       </c>
       <c r="E58" s="1">
-        <f>IF(P58="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f>IF(L58&lt;&gt;"",FLOOR((L58-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G58" s="1" t="e">
-        <f>IF(MOD(L58-$B$6,2)=1,8+M58,M58)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H58" t="e">
-        <f>DEC2HEX(E58*HEX2DEC(1000000) +G58*HEX2DEC(10000) +F58)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I58" t="e">
-        <f>HEX2DEC(H58)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K58" t="str">
-        <f>IF(Q58&lt;&gt;"",Q58*116+$B$3,IF(R58&lt;&gt;"",R58*116+$B$3,IF(T58&lt;&gt;"",T58*68+$B$5,"")))</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L58" t="str">
-        <f>IF(J58&lt;&gt;"",J58,K58)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3892,31 +3962,31 @@
         <v>6</v>
       </c>
       <c r="E59" s="1">
-        <f>IF(P59="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f>IF(L59&lt;&gt;"",FLOOR((L59-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G59" s="1" t="e">
-        <f>IF(MOD(L59-$B$6,2)=1,8+M59,M59)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H59" t="e">
-        <f>DEC2HEX(E59*HEX2DEC(1000000) +G59*HEX2DEC(10000) +F59)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I59" t="e">
-        <f>HEX2DEC(H59)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K59" t="str">
-        <f>IF(Q59&lt;&gt;"",Q59*116+$B$3,IF(R59&lt;&gt;"",R59*116+$B$3,IF(T59&lt;&gt;"",T59*68+$B$5,"")))</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L59" t="str">
-        <f>IF(J59&lt;&gt;"",J59,K59)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3931,31 +4001,31 @@
         <v>7</v>
       </c>
       <c r="E60" s="1">
-        <f>IF(P60="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f>IF(L60&lt;&gt;"",FLOOR((L60-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G60" s="1" t="e">
-        <f>IF(MOD(L60-$B$6,2)=1,8+M60,M60)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H60" t="e">
-        <f>DEC2HEX(E60*HEX2DEC(1000000) +G60*HEX2DEC(10000) +F60)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I60" t="e">
-        <f>HEX2DEC(H60)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K60" t="str">
-        <f>IF(Q60&lt;&gt;"",Q60*116+$B$3,IF(R60&lt;&gt;"",R60*116+$B$3,IF(T60&lt;&gt;"",T60*68+$B$5,"")))</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L60" t="str">
-        <f>IF(J60&lt;&gt;"",J60,K60)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3970,31 +4040,31 @@
         <v>8</v>
       </c>
       <c r="E61" s="1">
-        <f>IF(P61="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f>IF(L61&lt;&gt;"",FLOOR((L61-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G61" s="1" t="e">
-        <f>IF(MOD(L61-$B$6,2)=1,8+M61,M61)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H61" t="e">
-        <f>DEC2HEX(E61*HEX2DEC(1000000) +G61*HEX2DEC(10000) +F61)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I61" t="e">
-        <f>HEX2DEC(H61)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K61" t="str">
-        <f>IF(Q61&lt;&gt;"",Q61*116+$B$3,IF(R61&lt;&gt;"",R61*116+$B$3,IF(T61&lt;&gt;"",T61*68+$B$5,"")))</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L61" t="str">
-        <f>IF(J61&lt;&gt;"",J61,K61)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -4009,31 +4079,31 @@
         <v>9</v>
       </c>
       <c r="E62" s="1">
-        <f>IF(P62="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f>IF(L62&lt;&gt;"",FLOOR((L62-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G62" s="1" t="e">
-        <f>IF(MOD(L62-$B$6,2)=1,8+M62,M62)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H62" t="e">
-        <f>DEC2HEX(E62*HEX2DEC(1000000) +G62*HEX2DEC(10000) +F62)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I62" t="e">
-        <f>HEX2DEC(H62)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K62" t="str">
-        <f>IF(Q62&lt;&gt;"",Q62*116+$B$3,IF(R62&lt;&gt;"",R62*116+$B$3,IF(T62&lt;&gt;"",T62*68+$B$5,"")))</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L62" t="str">
-        <f>IF(J62&lt;&gt;"",J62,K62)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -4048,31 +4118,31 @@
         <v>10</v>
       </c>
       <c r="E63" s="1">
-        <f>IF(P63="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f>IF(L63&lt;&gt;"",FLOOR((L63-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G63" s="1" t="e">
-        <f>IF(MOD(L63-$B$6,2)=1,8+M63,M63)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H63" t="e">
-        <f>DEC2HEX(E63*HEX2DEC(1000000) +G63*HEX2DEC(10000) +F63)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I63" t="e">
-        <f>HEX2DEC(H63)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K63" t="str">
-        <f>IF(Q63&lt;&gt;"",Q63*116+$B$3,IF(R63&lt;&gt;"",R63*116+$B$3,IF(T63&lt;&gt;"",T63*68+$B$5,"")))</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L63" t="str">
-        <f>IF(J63&lt;&gt;"",J63,K63)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -4087,31 +4157,31 @@
         <v>11</v>
       </c>
       <c r="E64" s="1">
-        <f>IF(P64="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f>IF(L64&lt;&gt;"",FLOOR((L64-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G64" s="1" t="e">
-        <f>IF(MOD(L64-$B$6,2)=1,8+M64,M64)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H64" t="e">
-        <f>DEC2HEX(E64*HEX2DEC(1000000) +G64*HEX2DEC(10000) +F64)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I64" t="e">
-        <f>HEX2DEC(H64)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K64" t="str">
-        <f>IF(Q64&lt;&gt;"",Q64*116+$B$3,IF(R64&lt;&gt;"",R64*116+$B$3,IF(T64&lt;&gt;"",T64*68+$B$5,"")))</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L64" t="str">
-        <f>IF(J64&lt;&gt;"",J64,K64)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -4126,31 +4196,31 @@
         <v>12</v>
       </c>
       <c r="E65" s="1">
-        <f>IF(P65="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f>IF(L65&lt;&gt;"",FLOOR((L65-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G65" s="1" t="e">
-        <f>IF(MOD(L65-$B$6,2)=1,8+M65,M65)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H65" t="e">
-        <f>DEC2HEX(E65*HEX2DEC(1000000) +G65*HEX2DEC(10000) +F65)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I65" t="e">
-        <f>HEX2DEC(H65)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K65" t="str">
-        <f>IF(Q65&lt;&gt;"",Q65*116+$B$3,IF(R65&lt;&gt;"",R65*116+$B$3,IF(T65&lt;&gt;"",T65*68+$B$5,"")))</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L65" t="str">
-        <f>IF(J65&lt;&gt;"",J65,K65)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -4165,31 +4235,31 @@
         <v>13</v>
       </c>
       <c r="E66" s="1">
-        <f>IF(P66="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f>IF(L66&lt;&gt;"",FLOOR((L66-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G66" s="1" t="e">
-        <f>IF(MOD(L66-$B$6,2)=1,8+M66,M66)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H66" t="e">
-        <f>DEC2HEX(E66*HEX2DEC(1000000) +G66*HEX2DEC(10000) +F66)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I66" t="e">
-        <f>HEX2DEC(H66)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K66" t="str">
-        <f>IF(Q66&lt;&gt;"",Q66*116+$B$3,IF(R66&lt;&gt;"",R66*116+$B$3,IF(T66&lt;&gt;"",T66*68+$B$5,"")))</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L66" t="str">
-        <f>IF(J66&lt;&gt;"",J66,K66)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -4204,31 +4274,31 @@
         <v>14</v>
       </c>
       <c r="E67" s="1">
-        <f>IF(P67="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f>IF(L67&lt;&gt;"",FLOOR((L67-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G67" s="1" t="e">
-        <f>IF(MOD(L67-$B$6,2)=1,8+M67,M67)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H67" t="e">
-        <f>DEC2HEX(E67*HEX2DEC(1000000) +G67*HEX2DEC(10000) +F67)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I67" t="e">
-        <f>HEX2DEC(H67)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K67" t="str">
-        <f>IF(Q67&lt;&gt;"",Q67*116+$B$3,IF(R67&lt;&gt;"",R67*116+$B$3,IF(T67&lt;&gt;"",T67*68+$B$5,"")))</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L67" t="str">
-        <f>IF(J67&lt;&gt;"",J67,K67)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -4243,31 +4313,31 @@
         <v>15</v>
       </c>
       <c r="E68" s="1">
-        <f>IF(P68="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f>IF(L68&lt;&gt;"",FLOOR((L68-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G68" s="1" t="e">
-        <f>IF(MOD(L68-$B$6,2)=1,8+M68,M68)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H68" t="e">
-        <f>DEC2HEX(E68*HEX2DEC(1000000) +G68*HEX2DEC(10000) +F68)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I68" t="e">
-        <f>HEX2DEC(H68)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K68" t="str">
-        <f>IF(Q68&lt;&gt;"",Q68*116+$B$3,IF(R68&lt;&gt;"",R68*116+$B$3,IF(T68&lt;&gt;"",T68*68+$B$5,"")))</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L68" t="str">
-        <f>IF(J68&lt;&gt;"",J68,K68)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -4282,31 +4352,31 @@
         <v>16</v>
       </c>
       <c r="E69" s="1">
-        <f>IF(P69="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f>IF(L69&lt;&gt;"",FLOOR((L69-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G69" s="1" t="e">
-        <f>IF(MOD(L69-$B$6,2)=1,8+M69,M69)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H69" t="e">
-        <f>DEC2HEX(E69*HEX2DEC(1000000) +G69*HEX2DEC(10000) +F69)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I69" t="e">
-        <f>HEX2DEC(H69)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K69" t="str">
-        <f>IF(Q69&lt;&gt;"",Q69*116+$B$3,IF(R69&lt;&gt;"",R69*116+$B$3,IF(T69&lt;&gt;"",T69*68+$B$5,"")))</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L69" t="str">
-        <f>IF(J69&lt;&gt;"",J69,K69)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -4324,23 +4394,23 @@
         <v>124</v>
       </c>
       <c r="E70" s="1">
-        <f>IF(P70="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F70" s="1">
-        <f>IF(L70&lt;&gt;"",FLOOR((L70-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v>478</v>
       </c>
       <c r="G70" s="1">
-        <f>IF(MOD(L70-$B$6,2)=1,8+M70,M70)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H70" t="str">
-        <f>DEC2HEX(E70*HEX2DEC(1000000) +G70*HEX2DEC(10000) +F70)</f>
+        <f t="shared" si="15"/>
         <v>10001DE</v>
       </c>
       <c r="I70">
-        <f>HEX2DEC(H70)</f>
+        <f t="shared" si="16"/>
         <v>16777694</v>
       </c>
       <c r="K70">
@@ -4348,7 +4418,7 @@
         <v>522292</v>
       </c>
       <c r="L70">
-        <f>IF(J70&lt;&gt;"",J70,K70)</f>
+        <f t="shared" si="17"/>
         <v>522292</v>
       </c>
       <c r="O70" t="s">
@@ -4375,23 +4445,23 @@
         <v>125</v>
       </c>
       <c r="E71" s="1">
-        <f>IF(P71="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F71" s="1">
-        <f>IF(L71&lt;&gt;"",FLOOR((L71-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v>534</v>
       </c>
       <c r="G71" s="1">
-        <f>IF(MOD(L71-$B$6,2)=1,8+M71,M71)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H71" t="str">
-        <f>DEC2HEX(E71*HEX2DEC(1000000) +G71*HEX2DEC(10000) +F71)</f>
+        <f t="shared" si="15"/>
         <v>1000216</v>
       </c>
       <c r="I71">
-        <f>HEX2DEC(H71)</f>
+        <f t="shared" si="16"/>
         <v>16777750</v>
       </c>
       <c r="K71">
@@ -4399,7 +4469,7 @@
         <v>522404</v>
       </c>
       <c r="L71">
-        <f>IF(J71&lt;&gt;"",J71,K71)</f>
+        <f t="shared" si="17"/>
         <v>522404</v>
       </c>
       <c r="O71" t="s">
@@ -4426,23 +4496,23 @@
         <v>126</v>
       </c>
       <c r="E72" s="1">
-        <f>IF(P72="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F72" s="1">
-        <f>IF(L72&lt;&gt;"",FLOOR((L72-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v>536</v>
       </c>
       <c r="G72" s="1">
-        <f>IF(MOD(L72-$B$6,2)=1,8+M72,M72)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H72" t="str">
-        <f>DEC2HEX(E72*HEX2DEC(1000000) +G72*HEX2DEC(10000) +F72)</f>
+        <f t="shared" si="15"/>
         <v>1000218</v>
       </c>
       <c r="I72">
-        <f>HEX2DEC(H72)</f>
+        <f t="shared" si="16"/>
         <v>16777752</v>
       </c>
       <c r="K72">
@@ -4450,7 +4520,7 @@
         <v>522408</v>
       </c>
       <c r="L72">
-        <f>IF(J72&lt;&gt;"",J72,K72)</f>
+        <f t="shared" si="17"/>
         <v>522408</v>
       </c>
       <c r="O72" t="s">
@@ -4477,23 +4547,23 @@
         <v>89</v>
       </c>
       <c r="E73" s="1">
-        <f>IF(P73="",$B$2,$B$2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F73" s="1">
-        <f>IF(L73&lt;&gt;"",FLOOR((L73-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v>1457</v>
       </c>
       <c r="G73" s="1">
-        <f>IF(MOD(L73-$B$6,2)=1,8+M73,M73)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="H73" t="str">
-        <f>DEC2HEX(E73*HEX2DEC(1000000) +G73*HEX2DEC(10000) +F73)</f>
+        <f t="shared" si="15"/>
         <v>10805B1</v>
       </c>
       <c r="I73">
-        <f>HEX2DEC(H73)</f>
+        <f t="shared" si="16"/>
         <v>17302961</v>
       </c>
       <c r="K73">
@@ -4501,7 +4571,7 @@
         <v>524251</v>
       </c>
       <c r="L73">
-        <f>IF(J73&lt;&gt;"",J73,K73)</f>
+        <f t="shared" si="17"/>
         <v>524251</v>
       </c>
       <c r="O73" t="s">
@@ -4514,7 +4584,7 @@
         <v>17</v>
       </c>
       <c r="U73" t="str">
-        <f t="shared" ref="U73:U77" si="5">IF(S73="*",D73&amp;" : INT := "&amp;(T73+1)&amp;";")</f>
+        <f t="shared" ref="U73:U77" si="21">IF(S73="*",D73&amp;" : INT := "&amp;(T73+1)&amp;";")</f>
         <v>SpB1 : INT := 18;</v>
       </c>
     </row>
@@ -4532,23 +4602,23 @@
         <v>90</v>
       </c>
       <c r="E74" s="1">
-        <f>IF(P74="",$B$2,$B$2)</f>
+        <f t="shared" ref="E74:E100" si="22">IF(P74="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F74" s="1">
-        <f>IF(L74&lt;&gt;"",FLOOR((L74-MIN(L:L))/2,1),"")</f>
+        <f t="shared" ref="F74:F100" si="23">IF(L74&lt;&gt;"",FLOOR((L74-MIN(L:L))/2,1),"")</f>
         <v>1491</v>
       </c>
       <c r="G74" s="1">
-        <f>IF(MOD(L74-$B$6,2)=1,8+M74,M74)</f>
+        <f t="shared" ref="G74:G100" si="24">IF(MOD(L74-$B$6,2)=1,8+M74,M74)</f>
         <v>8</v>
       </c>
       <c r="H74" t="str">
-        <f>DEC2HEX(E74*HEX2DEC(1000000) +G74*HEX2DEC(10000) +F74)</f>
+        <f t="shared" ref="H74:H105" si="25">DEC2HEX(E74*HEX2DEC(1000000) +G74*HEX2DEC(10000) +F74)</f>
         <v>10805D3</v>
       </c>
       <c r="I74">
-        <f>HEX2DEC(H74)</f>
+        <f t="shared" ref="I74:I105" si="26">HEX2DEC(H74)</f>
         <v>17302995</v>
       </c>
       <c r="K74">
@@ -4556,7 +4626,7 @@
         <v>524319</v>
       </c>
       <c r="L74">
-        <f>IF(J74&lt;&gt;"",J74,K74)</f>
+        <f t="shared" ref="L74:L105" si="27">IF(J74&lt;&gt;"",J74,K74)</f>
         <v>524319</v>
       </c>
       <c r="O74" t="s">
@@ -4569,7 +4639,7 @@
         <v>18</v>
       </c>
       <c r="U74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>SpB2 : INT := 19;</v>
       </c>
     </row>
@@ -4587,23 +4657,23 @@
         <v>85</v>
       </c>
       <c r="E75" s="1">
-        <f>IF(P75="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F75" s="1">
-        <f>IF(L75&lt;&gt;"",FLOOR((L75-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>1525</v>
       </c>
       <c r="G75" s="1">
-        <f>IF(MOD(L75-$B$6,2)=1,8+M75,M75)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="H75" t="str">
-        <f>DEC2HEX(E75*HEX2DEC(1000000) +G75*HEX2DEC(10000) +F75)</f>
+        <f t="shared" si="25"/>
         <v>10805F5</v>
       </c>
       <c r="I75">
-        <f>HEX2DEC(H75)</f>
+        <f t="shared" si="26"/>
         <v>17303029</v>
       </c>
       <c r="K75">
@@ -4611,7 +4681,7 @@
         <v>524387</v>
       </c>
       <c r="L75">
-        <f>IF(J75&lt;&gt;"",J75,K75)</f>
+        <f t="shared" si="27"/>
         <v>524387</v>
       </c>
       <c r="O75" t="s">
@@ -4624,7 +4694,7 @@
         <v>19</v>
       </c>
       <c r="U75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>H1 : INT := 20;</v>
       </c>
     </row>
@@ -4642,23 +4712,23 @@
         <v>84</v>
       </c>
       <c r="E76" s="1">
-        <f>IF(P76="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F76" s="1">
-        <f>IF(L76&lt;&gt;"",FLOOR((L76-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>1559</v>
       </c>
       <c r="G76" s="1">
-        <f>IF(MOD(L76-$B$6,2)=1,8+M76,M76)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="H76" t="str">
-        <f>DEC2HEX(E76*HEX2DEC(1000000) +G76*HEX2DEC(10000) +F76)</f>
+        <f t="shared" si="25"/>
         <v>1080617</v>
       </c>
       <c r="I76">
-        <f>HEX2DEC(H76)</f>
+        <f t="shared" si="26"/>
         <v>17303063</v>
       </c>
       <c r="K76">
@@ -4666,7 +4736,7 @@
         <v>524455</v>
       </c>
       <c r="L76">
-        <f>IF(J76&lt;&gt;"",J76,K76)</f>
+        <f t="shared" si="27"/>
         <v>524455</v>
       </c>
       <c r="O76" t="s">
@@ -4679,7 +4749,7 @@
         <v>20</v>
       </c>
       <c r="U76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>H2 : INT := 21;</v>
       </c>
     </row>
@@ -4697,23 +4767,23 @@
         <v>123</v>
       </c>
       <c r="E77" s="1">
-        <f>IF(P77="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F77" s="1">
-        <f>IF(L77&lt;&gt;"",FLOOR((L77-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>1627</v>
       </c>
       <c r="G77" s="1">
-        <f>IF(MOD(L77-$B$6,2)=1,8+M77,M77)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="H77" t="str">
-        <f>DEC2HEX(E77*HEX2DEC(1000000) +G77*HEX2DEC(10000) +F77)</f>
+        <f t="shared" si="25"/>
         <v>108065B</v>
       </c>
       <c r="I77">
-        <f>HEX2DEC(H77)</f>
+        <f t="shared" si="26"/>
         <v>17303131</v>
       </c>
       <c r="K77">
@@ -4721,7 +4791,7 @@
         <v>524591</v>
       </c>
       <c r="L77">
-        <f>IF(J77&lt;&gt;"",J77,K77)</f>
+        <f t="shared" si="27"/>
         <v>524591</v>
       </c>
       <c r="O77" t="s">
@@ -4734,7 +4804,7 @@
         <v>22</v>
       </c>
       <c r="U77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>CSp1 : INT := 23;</v>
       </c>
     </row>
@@ -4752,23 +4822,23 @@
         <v>101</v>
       </c>
       <c r="E78" s="1">
-        <f>IF(P78="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F78" s="1">
-        <f>IF(L78&lt;&gt;"",FLOOR((L78-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>188</v>
       </c>
       <c r="G78" s="1">
-        <f>IF(MOD(L78-$B$6,2)=1,8+M78,M78)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H78" t="str">
-        <f>DEC2HEX(E78*HEX2DEC(1000000) +G78*HEX2DEC(10000) +F78)</f>
+        <f t="shared" si="25"/>
         <v>10000BC</v>
       </c>
       <c r="I78">
-        <f>HEX2DEC(H78)</f>
+        <f t="shared" si="26"/>
         <v>16777404</v>
       </c>
       <c r="K78">
@@ -4776,7 +4846,7 @@
         <v>521712</v>
       </c>
       <c r="L78">
-        <f>IF(J78&lt;&gt;"",J78,K78)</f>
+        <f t="shared" si="27"/>
         <v>521712</v>
       </c>
       <c r="O78" t="s">
@@ -4803,23 +4873,23 @@
         <v>106</v>
       </c>
       <c r="E79" s="1">
-        <f>IF(P79="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F79" s="1">
-        <f>IF(L79&lt;&gt;"",FLOOR((L79-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>246</v>
       </c>
       <c r="G79" s="1">
-        <f>IF(MOD(L79-$B$6,2)=1,8+M79,M79)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H79" t="str">
-        <f>DEC2HEX(E79*HEX2DEC(1000000) +G79*HEX2DEC(10000) +F79)</f>
+        <f t="shared" si="25"/>
         <v>10000F6</v>
       </c>
       <c r="I79">
-        <f>HEX2DEC(H79)</f>
+        <f t="shared" si="26"/>
         <v>16777462</v>
       </c>
       <c r="K79">
@@ -4827,7 +4897,7 @@
         <v>521828</v>
       </c>
       <c r="L79">
-        <f>IF(J79&lt;&gt;"",J79,K79)</f>
+        <f t="shared" si="27"/>
         <v>521828</v>
       </c>
       <c r="O79" t="s">
@@ -4854,23 +4924,23 @@
         <v>107</v>
       </c>
       <c r="E80" s="1">
-        <f>IF(P80="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F80" s="1">
-        <f>IF(L80&lt;&gt;"",FLOOR((L80-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>304</v>
       </c>
       <c r="G80" s="1">
-        <f>IF(MOD(L80-$B$6,2)=1,8+M80,M80)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H80" t="str">
-        <f>DEC2HEX(E80*HEX2DEC(1000000) +G80*HEX2DEC(10000) +F80)</f>
+        <f t="shared" si="25"/>
         <v>1000130</v>
       </c>
       <c r="I80">
-        <f>HEX2DEC(H80)</f>
+        <f t="shared" si="26"/>
         <v>16777520</v>
       </c>
       <c r="K80">
@@ -4878,7 +4948,7 @@
         <v>521944</v>
       </c>
       <c r="L80">
-        <f>IF(J80&lt;&gt;"",J80,K80)</f>
+        <f t="shared" si="27"/>
         <v>521944</v>
       </c>
       <c r="O80" t="s">
@@ -4905,31 +4975,31 @@
         <v>98</v>
       </c>
       <c r="E81" s="1">
-        <f>IF(P81="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F81" s="1">
-        <f>IF(L81&lt;&gt;"",FLOOR((L81-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>186</v>
       </c>
       <c r="G81" s="1">
-        <f>IF(MOD(L81-$B$6,2)=1,8+M81,M81)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H81" t="str">
-        <f>DEC2HEX(E81*HEX2DEC(1000000) +G81*HEX2DEC(10000) +F81)</f>
+        <f t="shared" si="25"/>
         <v>10000BA</v>
       </c>
       <c r="I81">
-        <f>HEX2DEC(H81)</f>
+        <f t="shared" si="26"/>
         <v>16777402</v>
       </c>
       <c r="K81">
-        <f>IF(Q81&lt;&gt;"",Q81*116+$B$3,IF(R81&lt;&gt;"",R81*116+$B$3,IF(T81&lt;&gt;"",T81*68+$B$5,"")))</f>
+        <f t="shared" ref="K81:K88" si="28">IF(Q81&lt;&gt;"",Q81*116+$B$3,IF(R81&lt;&gt;"",R81*116+$B$3,IF(T81&lt;&gt;"",T81*68+$B$5,"")))</f>
         <v>521708</v>
       </c>
       <c r="L81">
-        <f>IF(J81&lt;&gt;"",J81,K81)</f>
+        <f t="shared" si="27"/>
         <v>521708</v>
       </c>
       <c r="O81" t="s">
@@ -4956,31 +5026,31 @@
         <v>99</v>
       </c>
       <c r="E82" s="1">
-        <f>IF(P82="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F82" s="1">
-        <f>IF(L82&lt;&gt;"",FLOOR((L82-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>244</v>
       </c>
       <c r="G82" s="1">
-        <f>IF(MOD(L82-$B$6,2)=1,8+M82,M82)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H82" t="str">
-        <f>DEC2HEX(E82*HEX2DEC(1000000) +G82*HEX2DEC(10000) +F82)</f>
+        <f t="shared" si="25"/>
         <v>10000F4</v>
       </c>
       <c r="I82">
-        <f>HEX2DEC(H82)</f>
+        <f t="shared" si="26"/>
         <v>16777460</v>
       </c>
       <c r="K82">
-        <f>IF(Q82&lt;&gt;"",Q82*116+$B$3,IF(R82&lt;&gt;"",R82*116+$B$3,IF(T82&lt;&gt;"",T82*68+$B$5,"")))</f>
+        <f t="shared" si="28"/>
         <v>521824</v>
       </c>
       <c r="L82">
-        <f>IF(J82&lt;&gt;"",J82,K82)</f>
+        <f t="shared" si="27"/>
         <v>521824</v>
       </c>
       <c r="O82" t="s">
@@ -5007,31 +5077,31 @@
         <v>100</v>
       </c>
       <c r="E83" s="1">
-        <f>IF(P83="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F83" s="1">
-        <f>IF(L83&lt;&gt;"",FLOOR((L83-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>302</v>
       </c>
       <c r="G83" s="1">
-        <f>IF(MOD(L83-$B$6,2)=1,8+M83,M83)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H83" t="str">
-        <f>DEC2HEX(E83*HEX2DEC(1000000) +G83*HEX2DEC(10000) +F83)</f>
+        <f t="shared" si="25"/>
         <v>100012E</v>
       </c>
       <c r="I83">
-        <f>HEX2DEC(H83)</f>
+        <f t="shared" si="26"/>
         <v>16777518</v>
       </c>
       <c r="K83">
-        <f>IF(Q83&lt;&gt;"",Q83*116+$B$3,IF(R83&lt;&gt;"",R83*116+$B$3,IF(T83&lt;&gt;"",T83*68+$B$5,"")))</f>
+        <f t="shared" si="28"/>
         <v>521940</v>
       </c>
       <c r="L83">
-        <f>IF(J83&lt;&gt;"",J83,K83)</f>
+        <f t="shared" si="27"/>
         <v>521940</v>
       </c>
       <c r="O83" t="s">
@@ -5058,34 +5128,34 @@
         <v>102</v>
       </c>
       <c r="E84" s="1">
-        <f>IF(P84="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F84" s="1">
-        <f>IF(L84&lt;&gt;"",FLOOR((L84-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G84" s="1">
-        <f>IF(MOD(L84-$B$6,2)=1,8+M84,M84)</f>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="H84" t="str">
-        <f>DEC2HEX(E84*HEX2DEC(1000000) +G84*HEX2DEC(10000) +F84)</f>
+        <f t="shared" si="25"/>
         <v>10C0001</v>
       </c>
       <c r="I84">
-        <f>HEX2DEC(H84)</f>
+        <f t="shared" si="26"/>
         <v>17563649</v>
       </c>
       <c r="J84">
         <v>521339</v>
       </c>
       <c r="K84" t="str">
-        <f>IF(Q84&lt;&gt;"",Q84*116+$B$3,IF(R84&lt;&gt;"",R84*116+$B$3,IF(T84&lt;&gt;"",T84*68+$B$5,"")))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="L84">
-        <f>IF(J84&lt;&gt;"",J84,K84)</f>
+        <f t="shared" si="27"/>
         <v>521339</v>
       </c>
       <c r="M84">
@@ -5109,34 +5179,34 @@
         <v>103</v>
       </c>
       <c r="E85" s="1">
-        <f>IF(P85="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F85" s="1">
-        <f>IF(L85&lt;&gt;"",FLOOR((L85-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G85" s="1">
-        <f>IF(MOD(L85-$B$6,2)=1,8+M85,M85)</f>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="H85" t="str">
-        <f>DEC2HEX(E85*HEX2DEC(1000000) +G85*HEX2DEC(10000) +F85)</f>
+        <f t="shared" si="25"/>
         <v>10D0001</v>
       </c>
       <c r="I85">
-        <f>HEX2DEC(H85)</f>
+        <f t="shared" si="26"/>
         <v>17629185</v>
       </c>
       <c r="J85">
         <v>521339</v>
       </c>
       <c r="K85" t="str">
-        <f>IF(Q85&lt;&gt;"",Q85*116+$B$3,IF(R85&lt;&gt;"",R85*116+$B$3,IF(T85&lt;&gt;"",T85*68+$B$5,"")))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="L85">
-        <f>IF(J85&lt;&gt;"",J85,K85)</f>
+        <f t="shared" si="27"/>
         <v>521339</v>
       </c>
       <c r="M85">
@@ -5160,34 +5230,34 @@
         <v>104</v>
       </c>
       <c r="E86" s="1">
-        <f>IF(P86="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F86" s="1">
-        <f>IF(L86&lt;&gt;"",FLOOR((L86-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G86" s="1">
-        <f>IF(MOD(L86-$B$6,2)=1,8+M86,M86)</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="H86" t="str">
-        <f>DEC2HEX(E86*HEX2DEC(1000000) +G86*HEX2DEC(10000) +F86)</f>
+        <f t="shared" si="25"/>
         <v>10E0001</v>
       </c>
       <c r="I86">
-        <f>HEX2DEC(H86)</f>
+        <f t="shared" si="26"/>
         <v>17694721</v>
       </c>
       <c r="J86">
         <v>521339</v>
       </c>
       <c r="K86" t="str">
-        <f>IF(Q86&lt;&gt;"",Q86*116+$B$3,IF(R86&lt;&gt;"",R86*116+$B$3,IF(T86&lt;&gt;"",T86*68+$B$5,"")))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="L86">
-        <f>IF(J86&lt;&gt;"",J86,K86)</f>
+        <f t="shared" si="27"/>
         <v>521339</v>
       </c>
       <c r="M86">
@@ -5211,34 +5281,34 @@
         <v>105</v>
       </c>
       <c r="E87" s="1">
-        <f>IF(P87="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F87" s="1">
-        <f>IF(L87&lt;&gt;"",FLOOR((L87-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G87" s="1">
-        <f>IF(MOD(L87-$B$6,2)=1,8+M87,M87)</f>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="H87" t="str">
-        <f>DEC2HEX(E87*HEX2DEC(1000000) +G87*HEX2DEC(10000) +F87)</f>
+        <f t="shared" si="25"/>
         <v>10F0001</v>
       </c>
       <c r="I87">
-        <f>HEX2DEC(H87)</f>
+        <f t="shared" si="26"/>
         <v>17760257</v>
       </c>
       <c r="J87">
         <v>521339</v>
       </c>
       <c r="K87" t="str">
-        <f>IF(Q87&lt;&gt;"",Q87*116+$B$3,IF(R87&lt;&gt;"",R87*116+$B$3,IF(T87&lt;&gt;"",T87*68+$B$5,"")))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="L87">
-        <f>IF(J87&lt;&gt;"",J87,K87)</f>
+        <f t="shared" si="27"/>
         <v>521339</v>
       </c>
       <c r="M87">
@@ -5259,31 +5329,31 @@
         <v>155</v>
       </c>
       <c r="E88" s="1">
-        <f>IF(P88="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F88" s="1">
-        <f>IF(L88&lt;&gt;"",FLOOR((L88-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>592</v>
       </c>
       <c r="G88" s="1">
-        <f>IF(MOD(L88-$B$6,2)=1,8+M88,M88)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H88" t="str">
-        <f>DEC2HEX(E88*HEX2DEC(1000000) +G88*HEX2DEC(10000) +F88)</f>
+        <f t="shared" si="25"/>
         <v>1000250</v>
       </c>
       <c r="I88">
-        <f>HEX2DEC(H88)</f>
+        <f t="shared" si="26"/>
         <v>16777808</v>
       </c>
       <c r="K88">
-        <f>IF(Q88&lt;&gt;"",Q88*116+$B$3,IF(R88&lt;&gt;"",R88*116+$B$3,IF(T88&lt;&gt;"",T88*68+$B$5,"")))</f>
+        <f t="shared" si="28"/>
         <v>522520</v>
       </c>
       <c r="L88">
-        <f>IF(J88&lt;&gt;"",J88,K88)</f>
+        <f t="shared" si="27"/>
         <v>522520</v>
       </c>
       <c r="O88" t="s">
@@ -5310,23 +5380,23 @@
         <v>156</v>
       </c>
       <c r="E89" s="1">
-        <f>IF(P89="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F89" s="1">
-        <f>IF(L89&lt;&gt;"",FLOOR((L89-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>594</v>
       </c>
       <c r="G89" s="1">
-        <f>IF(MOD(L89-$B$6,2)=1,8+M89,M89)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H89" t="str">
-        <f>DEC2HEX(E89*HEX2DEC(1000000) +G89*HEX2DEC(10000) +F89)</f>
+        <f t="shared" si="25"/>
         <v>1000252</v>
       </c>
       <c r="I89">
-        <f>HEX2DEC(H89)</f>
+        <f t="shared" si="26"/>
         <v>16777810</v>
       </c>
       <c r="K89">
@@ -5334,7 +5404,7 @@
         <v>522524</v>
       </c>
       <c r="L89">
-        <f>IF(J89&lt;&gt;"",J89,K89)</f>
+        <f t="shared" si="27"/>
         <v>522524</v>
       </c>
       <c r="O89" t="s">
@@ -5361,31 +5431,31 @@
         <v>307</v>
       </c>
       <c r="E90" s="1">
-        <f>IF(P90="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F90" s="1">
-        <f>IF(L90&lt;&gt;"",FLOOR((L90-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>1661</v>
       </c>
       <c r="G90" s="1">
-        <f>IF(MOD(L90-$B$6,2)=1,8+M90,M90)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="H90" t="str">
-        <f>DEC2HEX(E90*HEX2DEC(1000000) +G90*HEX2DEC(10000) +F90)</f>
+        <f t="shared" si="25"/>
         <v>108067D</v>
       </c>
       <c r="I90">
-        <f>HEX2DEC(H90)</f>
+        <f t="shared" si="26"/>
         <v>17303165</v>
       </c>
       <c r="K90">
-        <f>IF(Q90&lt;&gt;"",Q90*116+$B$3,IF(R90&lt;&gt;"",R90*116+$B$3,IF(T90&lt;&gt;"",T90*68+$B$5,"")))</f>
+        <f t="shared" ref="K90:K100" si="29">IF(Q90&lt;&gt;"",Q90*116+$B$3,IF(R90&lt;&gt;"",R90*116+$B$3,IF(T90&lt;&gt;"",T90*68+$B$5,"")))</f>
         <v>524659</v>
       </c>
       <c r="L90">
-        <f>IF(J90&lt;&gt;"",J90,K90)</f>
+        <f t="shared" si="27"/>
         <v>524659</v>
       </c>
       <c r="O90" t="s">
@@ -5413,31 +5483,31 @@
         <v>1</v>
       </c>
       <c r="E91" s="1">
-        <f>IF(P91="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f>IF(L91&lt;&gt;"",FLOOR((L91-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G91" s="1" t="e">
-        <f>IF(MOD(L91-$B$6,2)=1,8+M91,M91)</f>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="H91" t="e">
-        <f>DEC2HEX(E91*HEX2DEC(1000000) +G91*HEX2DEC(10000) +F91)</f>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="I91" t="e">
-        <f>HEX2DEC(H91)</f>
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
       <c r="K91" t="str">
-        <f>IF(Q91&lt;&gt;"",Q91*116+$B$3,IF(R91&lt;&gt;"",R91*116+$B$3,IF(T91&lt;&gt;"",T91*68+$B$5,"")))</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L91" t="str">
-        <f>IF(J91&lt;&gt;"",J91,K91)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -5452,31 +5522,31 @@
         <v>2</v>
       </c>
       <c r="E92" s="1">
-        <f>IF(P92="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f>IF(L92&lt;&gt;"",FLOOR((L92-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G92" s="1" t="e">
-        <f>IF(MOD(L92-$B$6,2)=1,8+M92,M92)</f>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="H92" t="e">
-        <f>DEC2HEX(E92*HEX2DEC(1000000) +G92*HEX2DEC(10000) +F92)</f>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="I92" t="e">
-        <f>HEX2DEC(H92)</f>
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
       <c r="K92" t="str">
-        <f>IF(Q92&lt;&gt;"",Q92*116+$B$3,IF(R92&lt;&gt;"",R92*116+$B$3,IF(T92&lt;&gt;"",T92*68+$B$5,"")))</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L92" t="str">
-        <f>IF(J92&lt;&gt;"",J92,K92)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -5491,31 +5561,31 @@
         <v>3</v>
       </c>
       <c r="E93" s="1">
-        <f>IF(P93="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f>IF(L93&lt;&gt;"",FLOOR((L93-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G93" s="1" t="e">
-        <f>IF(MOD(L93-$B$6,2)=1,8+M93,M93)</f>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="H93" t="e">
-        <f>DEC2HEX(E93*HEX2DEC(1000000) +G93*HEX2DEC(10000) +F93)</f>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="I93" t="e">
-        <f>HEX2DEC(H93)</f>
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
       <c r="K93" t="str">
-        <f>IF(Q93&lt;&gt;"",Q93*116+$B$3,IF(R93&lt;&gt;"",R93*116+$B$3,IF(T93&lt;&gt;"",T93*68+$B$5,"")))</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L93" t="str">
-        <f>IF(J93&lt;&gt;"",J93,K93)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -5530,31 +5600,31 @@
         <v>4</v>
       </c>
       <c r="E94" s="1">
-        <f>IF(P94="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f>IF(L94&lt;&gt;"",FLOOR((L94-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G94" s="1" t="e">
-        <f>IF(MOD(L94-$B$6,2)=1,8+M94,M94)</f>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="H94" t="e">
-        <f>DEC2HEX(E94*HEX2DEC(1000000) +G94*HEX2DEC(10000) +F94)</f>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="I94" t="e">
-        <f>HEX2DEC(H94)</f>
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
       <c r="K94" t="str">
-        <f>IF(Q94&lt;&gt;"",Q94*116+$B$3,IF(R94&lt;&gt;"",R94*116+$B$3,IF(T94&lt;&gt;"",T94*68+$B$5,"")))</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L94" t="str">
-        <f>IF(J94&lt;&gt;"",J94,K94)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -5569,31 +5639,31 @@
         <v>5</v>
       </c>
       <c r="E95" s="1">
-        <f>IF(P95="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f>IF(L95&lt;&gt;"",FLOOR((L95-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G95" s="1" t="e">
-        <f>IF(MOD(L95-$B$6,2)=1,8+M95,M95)</f>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="H95" t="e">
-        <f>DEC2HEX(E95*HEX2DEC(1000000) +G95*HEX2DEC(10000) +F95)</f>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="I95" t="e">
-        <f>HEX2DEC(H95)</f>
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
       <c r="K95" t="str">
-        <f>IF(Q95&lt;&gt;"",Q95*116+$B$3,IF(R95&lt;&gt;"",R95*116+$B$3,IF(T95&lt;&gt;"",T95*68+$B$5,"")))</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L95" t="str">
-        <f>IF(J95&lt;&gt;"",J95,K95)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -5608,31 +5678,31 @@
         <v>6</v>
       </c>
       <c r="E96" s="1">
-        <f>IF(P96="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f>IF(L96&lt;&gt;"",FLOOR((L96-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G96" s="1" t="e">
-        <f>IF(MOD(L96-$B$6,2)=1,8+M96,M96)</f>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="H96" t="e">
-        <f>DEC2HEX(E96*HEX2DEC(1000000) +G96*HEX2DEC(10000) +F96)</f>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="I96" t="e">
-        <f>HEX2DEC(H96)</f>
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
       <c r="K96" t="str">
-        <f>IF(Q96&lt;&gt;"",Q96*116+$B$3,IF(R96&lt;&gt;"",R96*116+$B$3,IF(T96&lt;&gt;"",T96*68+$B$5,"")))</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L96" t="str">
-        <f>IF(J96&lt;&gt;"",J96,K96)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -5647,31 +5717,31 @@
         <v>7</v>
       </c>
       <c r="E97" s="1">
-        <f>IF(P97="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f>IF(L97&lt;&gt;"",FLOOR((L97-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G97" s="1" t="e">
-        <f>IF(MOD(L97-$B$6,2)=1,8+M97,M97)</f>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="H97" t="e">
-        <f>DEC2HEX(E97*HEX2DEC(1000000) +G97*HEX2DEC(10000) +F97)</f>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="I97" t="e">
-        <f>HEX2DEC(H97)</f>
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
       <c r="K97" t="str">
-        <f>IF(Q97&lt;&gt;"",Q97*116+$B$3,IF(R97&lt;&gt;"",R97*116+$B$3,IF(T97&lt;&gt;"",T97*68+$B$5,"")))</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L97" t="str">
-        <f>IF(J97&lt;&gt;"",J97,K97)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -5686,31 +5756,31 @@
         <v>8</v>
       </c>
       <c r="E98" s="1">
-        <f>IF(P98="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f>IF(L98&lt;&gt;"",FLOOR((L98-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G98" s="1" t="e">
-        <f>IF(MOD(L98-$B$6,2)=1,8+M98,M98)</f>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="H98" t="e">
-        <f>DEC2HEX(E98*HEX2DEC(1000000) +G98*HEX2DEC(10000) +F98)</f>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="I98" t="e">
-        <f>HEX2DEC(H98)</f>
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
       <c r="K98" t="str">
-        <f>IF(Q98&lt;&gt;"",Q98*116+$B$3,IF(R98&lt;&gt;"",R98*116+$B$3,IF(T98&lt;&gt;"",T98*68+$B$5,"")))</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L98" t="str">
-        <f>IF(J98&lt;&gt;"",J98,K98)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -5728,31 +5798,31 @@
         <v>83</v>
       </c>
       <c r="E99" s="1">
-        <f>IF(P99="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F99" s="1" t="str">
-        <f>IF(L99&lt;&gt;"",FLOOR((L99-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G99" s="1" t="e">
-        <f>IF(MOD(L99-$B$6,2)=1,8+M99,M99)</f>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="H99" t="e">
-        <f>DEC2HEX(E99*HEX2DEC(1000000) +G99*HEX2DEC(10000) +F99)</f>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="I99" t="e">
-        <f>HEX2DEC(H99)</f>
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
       <c r="K99" t="str">
-        <f>IF(Q99&lt;&gt;"",Q99*116+$B$3,IF(R99&lt;&gt;"",R99*116+$B$3,IF(T99&lt;&gt;"",T99*68+$B$5,"")))</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L99" t="str">
-        <f>IF(J99&lt;&gt;"",J99,K99)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="M99">
@@ -5773,31 +5843,31 @@
         <v>308</v>
       </c>
       <c r="E100" s="1">
-        <f>IF(P100="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F100" s="1">
-        <f>IF(L100&lt;&gt;"",FLOOR((L100-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>1593</v>
       </c>
       <c r="G100" s="1">
-        <f>IF(MOD(L100-$B$6,2)=1,8+M100,M100)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="H100" t="str">
-        <f>DEC2HEX(E100*HEX2DEC(1000000) +G100*HEX2DEC(10000) +F100)</f>
+        <f t="shared" si="25"/>
         <v>1080639</v>
       </c>
       <c r="I100">
-        <f>HEX2DEC(H100)</f>
+        <f t="shared" si="26"/>
         <v>17303097</v>
       </c>
       <c r="K100">
-        <f>IF(Q100&lt;&gt;"",Q100*116+$B$3,IF(R100&lt;&gt;"",R100*116+$B$3,IF(T100&lt;&gt;"",T100*68+$B$5,"")))</f>
+        <f t="shared" si="29"/>
         <v>524523</v>
       </c>
       <c r="L100">
-        <f>IF(J100&lt;&gt;"",J100,K100)</f>
+        <f t="shared" si="27"/>
         <v>524523</v>
       </c>
       <c r="O100" t="s">
@@ -5825,34 +5895,34 @@
         <v>12</v>
       </c>
       <c r="E101" s="1">
-        <f t="shared" ref="E74:E105" si="6">IF(P101="",$B$2,$B$2)</f>
+        <f t="shared" ref="E101:E105" si="30">IF(P101="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" ref="F74:F105" si="7">IF(L101&lt;&gt;"",FLOOR((L101-MIN(L:L))/2,1),"")</f>
+        <f t="shared" ref="F101:F105" si="31">IF(L101&lt;&gt;"",FLOOR((L101-MIN(L:L))/2,1),"")</f>
         <v>428</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" ref="G74:G105" si="8">IF(MOD(L101-$B$6,2)=1,8+M101,M101)</f>
+        <f t="shared" ref="G101:G105" si="32">IF(MOD(L101-$B$6,2)=1,8+M101,M101)</f>
         <v>7</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" ref="H74:H105" si="9">DEC2HEX(E101*HEX2DEC(1000000) +G101*HEX2DEC(10000) +F101)</f>
+        <f t="shared" ref="H101:H105" si="33">DEC2HEX(E101*HEX2DEC(1000000) +G101*HEX2DEC(10000) +F101)</f>
         <v>10701AC</v>
       </c>
       <c r="I101">
-        <f t="shared" ref="I91:I105" si="10">HEX2DEC(H101)</f>
+        <f t="shared" ref="I101:I105" si="34">HEX2DEC(H101)</f>
         <v>17236396</v>
       </c>
       <c r="J101">
         <v>522192</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" ref="K90:K121" si="11">IF(Q101&lt;&gt;"",Q101*116+$B$3,IF(R101&lt;&gt;"",R101*116+$B$3,IF(T101&lt;&gt;"",T101*68+$B$5,"")))</f>
+        <f t="shared" ref="K101:K121" si="35">IF(Q101&lt;&gt;"",Q101*116+$B$3,IF(R101&lt;&gt;"",R101*116+$B$3,IF(T101&lt;&gt;"",T101*68+$B$5,"")))</f>
         <v/>
       </c>
       <c r="L101">
-        <f t="shared" ref="L74:L105" si="12">IF(J101&lt;&gt;"",J101,K101)</f>
+        <f t="shared" ref="L101:L105" si="36">IF(J101&lt;&gt;"",J101,K101)</f>
         <v>522192</v>
       </c>
       <c r="M101">
@@ -5870,34 +5940,34 @@
         <v>13</v>
       </c>
       <c r="E102" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>428</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>10801AC</v>
       </c>
       <c r="I102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>17301932</v>
       </c>
       <c r="J102">
         <v>522193</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="36"/>
         <v>522193</v>
       </c>
       <c r="M102">
@@ -5915,34 +5985,34 @@
         <v>14</v>
       </c>
       <c r="E103" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="F103" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>428</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>10901AC</v>
       </c>
       <c r="I103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>17367468</v>
       </c>
       <c r="J103">
         <v>522193</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="36"/>
         <v>522193</v>
       </c>
       <c r="M103">
@@ -5960,31 +6030,31 @@
         <v>15</v>
       </c>
       <c r="E104" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="G104" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="H104" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="I104" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L104" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
@@ -5999,31 +6069,31 @@
         <v>16</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="G105" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="H105" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="I105" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L105" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
@@ -6041,34 +6111,34 @@
         <v>53</v>
       </c>
       <c r="E106" s="1">
-        <f t="shared" ref="E106:E121" si="13">IF(P106="",$B$2,$B$2)</f>
+        <f t="shared" ref="E106:E121" si="37">IF(P106="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" ref="F106:F121" si="14">IF(L106&lt;&gt;"",FLOOR((L106-MIN(L:L))/2,1),"")</f>
+        <f t="shared" ref="F106:F121" si="38">IF(L106&lt;&gt;"",FLOOR((L106-MIN(L:L))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" ref="G106:G121" si="15">IF(MOD(L106-$B$6,2)=1,8+M106,M106)</f>
+        <f t="shared" ref="G106:G121" si="39">IF(MOD(L106-$B$6,2)=1,8+M106,M106)</f>
         <v>7</v>
       </c>
       <c r="H106" t="str">
-        <f t="shared" ref="H106:H137" si="16">DEC2HEX(E106*HEX2DEC(1000000) +G106*HEX2DEC(10000) +F106)</f>
+        <f t="shared" ref="H106:H121" si="40">DEC2HEX(E106*HEX2DEC(1000000) +G106*HEX2DEC(10000) +F106)</f>
         <v>1070000</v>
       </c>
       <c r="I106">
-        <f t="shared" ref="I106:I109" si="17">HEX2DEC(H106)</f>
+        <f t="shared" ref="I106:I109" si="41">HEX2DEC(H106)</f>
         <v>17235968</v>
       </c>
       <c r="J106">
         <v>521336</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L106">
-        <f t="shared" ref="L106:L137" si="18">IF(J106&lt;&gt;"",J106,K106)</f>
+        <f t="shared" ref="L106:L121" si="42">IF(J106&lt;&gt;"",J106,K106)</f>
         <v>521336</v>
       </c>
       <c r="M106">
@@ -6092,34 +6162,34 @@
         <v>54</v>
       </c>
       <c r="E107" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>8</v>
       </c>
       <c r="H107" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>1080000</v>
       </c>
       <c r="I107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>17301504</v>
       </c>
       <c r="J107">
         <v>521337</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>521337</v>
       </c>
       <c r="M107">
@@ -6143,34 +6213,34 @@
         <v>48</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="H108" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>1030000</v>
       </c>
       <c r="I108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>16973824</v>
       </c>
       <c r="J108">
         <v>521336</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L108">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>521336</v>
       </c>
       <c r="M108">
@@ -6191,34 +6261,34 @@
         <v>49</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F109" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="H109" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>1040000</v>
       </c>
       <c r="I109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>17039360</v>
       </c>
       <c r="J109">
         <v>521336</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L109">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>521336</v>
       </c>
       <c r="M109">
@@ -6239,19 +6309,19 @@
         <v>94</v>
       </c>
       <c r="E110" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G110" s="1" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="H110" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="I110" t="e">
@@ -6259,11 +6329,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L110" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
@@ -6281,19 +6351,19 @@
         <v>95</v>
       </c>
       <c r="E111" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F111" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G111" s="1" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="H111" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="I111" t="e">
@@ -6301,11 +6371,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L111" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
@@ -6320,19 +6390,19 @@
         <v>3</v>
       </c>
       <c r="E112" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G112" s="1" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="H112" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="I112" t="e">
@@ -6340,11 +6410,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L112" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
@@ -6359,19 +6429,19 @@
         <v>4</v>
       </c>
       <c r="E113" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F113" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G113" s="1" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="H113" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="I113" t="e">
@@ -6379,11 +6449,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L113" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
@@ -6401,34 +6471,34 @@
         <v>57</v>
       </c>
       <c r="E114" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G114" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="H114" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>1020000</v>
       </c>
       <c r="I114">
-        <f t="shared" ref="I114:I121" si="19">HEX2DEC(H114)</f>
+        <f t="shared" ref="I114:I121" si="43">HEX2DEC(H114)</f>
         <v>16908288</v>
       </c>
       <c r="J114">
         <v>521336</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>521336</v>
       </c>
       <c r="M114">
@@ -6449,34 +6519,34 @@
         <v>50</v>
       </c>
       <c r="E115" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G115" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="H115" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>1050000</v>
       </c>
       <c r="I115">
-        <f t="shared" si="19"/>
+        <f t="shared" si="43"/>
         <v>17104896</v>
       </c>
       <c r="J115">
         <v>521336</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>521336</v>
       </c>
       <c r="M115">
@@ -6497,34 +6567,34 @@
         <v>51</v>
       </c>
       <c r="E116" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G116" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="H116" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>1060000</v>
       </c>
       <c r="I116">
-        <f t="shared" si="19"/>
+        <f t="shared" si="43"/>
         <v>17170432</v>
       </c>
       <c r="J116">
         <v>521336</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>521336</v>
       </c>
       <c r="M116">
@@ -6545,34 +6615,34 @@
         <v>58</v>
       </c>
       <c r="E117" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F117" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G117" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>9</v>
       </c>
       <c r="H117" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>1090000</v>
       </c>
       <c r="I117">
-        <f t="shared" si="19"/>
+        <f t="shared" si="43"/>
         <v>17367040</v>
       </c>
       <c r="J117">
         <v>521337</v>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>521337</v>
       </c>
       <c r="M117">
@@ -6596,34 +6666,34 @@
         <v>70</v>
       </c>
       <c r="E118" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G118" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="H118" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>10A0000</v>
       </c>
       <c r="I118">
-        <f t="shared" si="19"/>
+        <f t="shared" si="43"/>
         <v>17432576</v>
       </c>
       <c r="J118">
         <v>521337</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L118">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>521337</v>
       </c>
       <c r="M118">
@@ -6647,34 +6717,34 @@
         <v>55</v>
       </c>
       <c r="E119" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F119" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G119" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>11</v>
       </c>
       <c r="H119" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>10B0000</v>
       </c>
       <c r="I119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="43"/>
         <v>17498112</v>
       </c>
       <c r="J119">
         <v>521337</v>
       </c>
       <c r="K119" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L119">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>521337</v>
       </c>
       <c r="M119">
@@ -6698,34 +6768,34 @@
         <v>52</v>
       </c>
       <c r="E120" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F120" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G120" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>12</v>
       </c>
       <c r="H120" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>10C0000</v>
       </c>
       <c r="I120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="43"/>
         <v>17563648</v>
       </c>
       <c r="J120">
         <v>521337</v>
       </c>
       <c r="K120" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>521337</v>
       </c>
       <c r="M120">
@@ -6746,34 +6816,34 @@
         <v>56</v>
       </c>
       <c r="E121" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F121" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G121" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>13</v>
       </c>
       <c r="H121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>10D0000</v>
       </c>
       <c r="I121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="43"/>
         <v>17629184</v>
       </c>
       <c r="J121">
         <v>521337</v>
       </c>
       <c r="K121" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>521337</v>
       </c>
       <c r="M121">
@@ -6808,7 +6878,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -8554,7 +8624,7 @@
         <v>8</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" ref="H40:H71" si="19">DEC2HEX(E40*HEX2DEC(1000000) +G40*HEX2DEC(10000) +F40)</f>
+        <f t="shared" ref="H40:H70" si="19">DEC2HEX(E40*HEX2DEC(1000000) +G40*HEX2DEC(10000) +F40)</f>
         <v>2081036</v>
       </c>
       <c r="I40">
@@ -8741,7 +8811,7 @@
         <v/>
       </c>
       <c r="R43" t="str">
-        <f t="shared" ref="R40:R71" si="27">IF(P43="*",D43&amp;" : INT :="&amp;(Q43+1)&amp;";","")</f>
+        <f t="shared" ref="R43:R70" si="27">IF(P43="*",D43&amp;" : INT :="&amp;(Q43+1)&amp;";","")</f>
         <v/>
       </c>
     </row>
@@ -10061,6 +10131,219 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876302DE-7745-46D2-B769-6ACD8E354C60}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -10364,7 +10647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1889F4C6-9650-4581-AFFD-6325DED49E0B}">
   <dimension ref="A1:G59"/>
   <sheetViews>
@@ -11858,7 +12141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69CFC3F-26AD-4FF9-8B91-56700D135D7F}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -12043,7 +12326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AD2CBD-F75F-4320-8EF3-6C46AE9359C1}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -12223,7 +12506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBD1E14-95B0-42A9-B01D-B8348254E65B}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -12403,7 +12686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9076A2-E6C7-41AF-9BDA-E4F0F1478AA5}">
   <dimension ref="A1:B19"/>
   <sheetViews>

--- a/C2B1A1/iotable.xlsx
+++ b/C2B1A1/iotable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAF7949-DD04-432D-AB18-BD230B52D20D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF611D61-8C6A-4A7B-B308-20694BFE71B1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10:O117"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,11 +1683,11 @@
         <v>11</v>
       </c>
       <c r="E10" s="1">
-        <f>IF(P10="",$B$2,$B$2)</f>
+        <f t="shared" ref="E10:E73" si="0">IF(P10="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <f>IF(L10&lt;&gt;"",FLOOR((L10-MIN(L:L))/2,1),"")</f>
+        <f t="shared" ref="F10:F41" si="1">IF(L10&lt;&gt;"",FLOOR((L10-MIN(L:L))/2,1),"")</f>
         <v>879</v>
       </c>
       <c r="G10" s="1">
@@ -1738,31 +1738,31 @@
         <v>12</v>
       </c>
       <c r="E11" s="1">
-        <f>IF(P11="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <f>IF(L11&lt;&gt;"",FLOOR((L11-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>913</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ref="G11:G74" si="0">IF(MOD(L11-$B$6,2)=1,8+M11,M11)</f>
+        <f t="shared" ref="G11:G74" si="2">IF(MOD(L11-$B$6,2)=1,8+M11,M11)</f>
         <v>8</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" ref="H11:H74" si="1">DEC2HEX(E11*HEX2DEC(1000000) +G11*HEX2DEC(10000) +F11)</f>
+        <f t="shared" ref="H11:H74" si="3">DEC2HEX(E11*HEX2DEC(1000000) +G11*HEX2DEC(10000) +F11)</f>
         <v>1080391</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I74" si="2">HEX2DEC(H11)</f>
+        <f t="shared" ref="I11:I74" si="4">HEX2DEC(H11)</f>
         <v>17302417</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:K74" si="3">IF(Q11&lt;&gt;"",Q11*116+$B$3,IF(R11&lt;&gt;"",R11*116+$B$3,IF(T11&lt;&gt;"",T11*68+$B$5,"")))</f>
+        <f t="shared" ref="K11:K74" si="5">IF(Q11&lt;&gt;"",Q11*116+$B$3,IF(R11&lt;&gt;"",R11*116+$B$3,IF(T11&lt;&gt;"",T11*68+$B$5,"")))</f>
         <v>523163</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L74" si="4">IF(J11&lt;&gt;"",J11,K11)</f>
+        <f t="shared" ref="L11:L74" si="6">IF(J11&lt;&gt;"",J11,K11)</f>
         <v>523163</v>
       </c>
       <c r="O11" t="s">
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" ref="U11:U57" si="5">IF(S11="*",D11&amp;" : INT := "&amp;(T11+1)&amp;";","")</f>
+        <f t="shared" ref="U11:U57" si="7">IF(S11="*",D11&amp;" : INT := "&amp;(T11+1)&amp;";","")</f>
         <v>H2Green : INT := 2;</v>
       </c>
     </row>
@@ -1793,31 +1793,31 @@
         <v>13</v>
       </c>
       <c r="E12" s="1">
-        <f>IF(P12="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <f>IF(L12&lt;&gt;"",FLOOR((L12-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>947</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10803B3</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17302451</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>523231</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>523231</v>
       </c>
       <c r="O12" t="s">
@@ -1830,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>H3Orange : INT := 3;</v>
       </c>
     </row>
@@ -1848,31 +1848,31 @@
         <v>14</v>
       </c>
       <c r="E13" s="1">
-        <f>IF(P13="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f>IF(L13&lt;&gt;"",FLOOR((L13-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>981</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10803D5</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17302485</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>523299</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>523299</v>
       </c>
       <c r="O13" t="s">
@@ -1885,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>H4White : INT := 4;</v>
       </c>
     </row>
@@ -1903,31 +1903,31 @@
         <v>15</v>
       </c>
       <c r="E14" s="1">
-        <f>IF(P14="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <f>IF(L14&lt;&gt;"",FLOOR((L14-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>1015</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10803F7</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17302519</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>523367</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>523367</v>
       </c>
       <c r="O14" t="s">
@@ -1940,7 +1940,7 @@
         <v>4</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Air : INT := 5;</v>
       </c>
     </row>
@@ -1955,35 +1955,35 @@
         <v>6</v>
       </c>
       <c r="E15" s="1">
-        <f>IF(P15="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF(L15&lt;&gt;"",FLOOR((L15-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G15" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -1998,35 +1998,35 @@
         <v>7</v>
       </c>
       <c r="E16" s="1">
-        <f>IF(P16="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF(L16&lt;&gt;"",FLOOR((L16-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G16" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I16" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2041,35 +2041,35 @@
         <v>8</v>
       </c>
       <c r="E17" s="1">
-        <f>IF(P17="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF(L17&lt;&gt;"",FLOOR((L17-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G17" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H17" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I17" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2084,35 +2084,35 @@
         <v>9</v>
       </c>
       <c r="E18" s="1">
-        <f>IF(P18="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF(L18&lt;&gt;"",FLOOR((L18-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G18" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2127,35 +2127,35 @@
         <v>10</v>
       </c>
       <c r="E19" s="1">
-        <f>IF(P19="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF(L19&lt;&gt;"",FLOOR((L19-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G19" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H19" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I19" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2170,35 +2170,35 @@
         <v>11</v>
       </c>
       <c r="E20" s="1">
-        <f>IF(P20="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF(L20&lt;&gt;"",FLOOR((L20-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G20" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H20" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2213,35 +2213,35 @@
         <v>12</v>
       </c>
       <c r="E21" s="1">
-        <f>IF(P21="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF(L21&lt;&gt;"",FLOOR((L21-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G21" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H21" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I21" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2256,35 +2256,35 @@
         <v>13</v>
       </c>
       <c r="E22" s="1">
-        <f>IF(P22="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF(L22&lt;&gt;"",FLOOR((L22-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G22" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H22" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I22" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2299,35 +2299,35 @@
         <v>14</v>
       </c>
       <c r="E23" s="1">
-        <f>IF(P23="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF(L23&lt;&gt;"",FLOOR((L23-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G23" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H23" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I23" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2342,38 +2342,38 @@
         <v>15</v>
       </c>
       <c r="E24" s="1">
-        <f>IF(P24="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF(L24&lt;&gt;"",FLOOR((L24-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G24" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H24" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I24" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2388,35 +2388,35 @@
         <v>16</v>
       </c>
       <c r="E25" s="1">
-        <f>IF(P25="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF(L25&lt;&gt;"",FLOOR((L25-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G25" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H25" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I25" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2434,31 +2434,31 @@
         <v>84</v>
       </c>
       <c r="E26" s="1">
-        <f>IF(P26="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <f>IF(L26&lt;&gt;"",FLOOR((L26-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>1389</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108056D</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17302893</v>
       </c>
       <c r="K26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>524115</v>
       </c>
       <c r="L26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>524115</v>
       </c>
       <c r="O26" t="s">
@@ -2489,31 +2489,31 @@
         <v>85</v>
       </c>
       <c r="E27" s="1">
-        <f>IF(P27="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <f>IF(L27&lt;&gt;"",FLOOR((L27-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>1423</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108058F</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17302927</v>
       </c>
       <c r="K27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>524183</v>
       </c>
       <c r="L27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>524183</v>
       </c>
       <c r="O27" t="s">
@@ -2526,7 +2526,7 @@
         <v>16</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>SfB2 : INT := 17;</v>
       </c>
     </row>
@@ -2541,31 +2541,31 @@
         <v>3</v>
       </c>
       <c r="E28" s="1">
-        <f>IF(P28="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF(L28&lt;&gt;"",FLOOR((L28-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G28" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H28" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I28" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U28" t="str">
@@ -2584,35 +2584,35 @@
         <v>4</v>
       </c>
       <c r="E29" s="1">
-        <f>IF(P29="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF(L29&lt;&gt;"",FLOOR((L29-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G29" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H29" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I29" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2627,35 +2627,35 @@
         <v>5</v>
       </c>
       <c r="E30" s="1">
-        <f>IF(P30="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF(L30&lt;&gt;"",FLOOR((L30-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G30" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H30" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I30" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2670,35 +2670,35 @@
         <v>6</v>
       </c>
       <c r="E31" s="1">
-        <f>IF(P31="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF(L31&lt;&gt;"",FLOOR((L31-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G31" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H31" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I31" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2713,35 +2713,35 @@
         <v>7</v>
       </c>
       <c r="E32" s="1">
-        <f>IF(P32="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF(L32&lt;&gt;"",FLOOR((L32-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G32" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H32" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I32" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2755,39 +2755,33 @@
       <c r="C33">
         <v>8</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="E33" s="1">
-        <f>IF(P33="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F33" s="1">
-        <f>IF(L33&lt;&gt;"",FLOOR((L33-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>1457</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10805B1</v>
       </c>
       <c r="I33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17302961</v>
       </c>
       <c r="K33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>524251</v>
       </c>
       <c r="L33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>524251</v>
-      </c>
-      <c r="O33" t="s">
-        <v>261</v>
       </c>
       <c r="S33" t="s">
         <v>38</v>
@@ -2796,7 +2790,7 @@
         <v>17</v>
       </c>
       <c r="U33" t="str">
-        <f>IF(S33="*",D33&amp;" : INT := "&amp;(T33+1)&amp;";","")</f>
+        <f>IF(S33="*",D34&amp;" : INT := "&amp;(T33+1)&amp;";","")</f>
         <v>SpB1 : INT := 18;</v>
       </c>
     </row>
@@ -2808,41 +2802,41 @@
         <v>83</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34" s="1">
-        <f>IF(P34="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F34" s="1">
-        <f>IF(L34&lt;&gt;"",FLOOR((L34-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>1491</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10805D3</v>
       </c>
       <c r="I34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17302995</v>
       </c>
       <c r="K34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>524319</v>
       </c>
       <c r="L34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>524319</v>
       </c>
       <c r="O34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S34" t="s">
         <v>38</v>
@@ -2851,7 +2845,7 @@
         <v>18</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(S34="*",D41&amp;" : INT := "&amp;(T34+1)&amp;";","")</f>
         <v>SpB2 : INT := 19;</v>
       </c>
     </row>
@@ -2863,38 +2857,44 @@
         <v>83</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="E35" s="1">
-        <f>IF(P35="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f>IF(L35&lt;&gt;"",FLOOR((L35-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G35" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H35" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I35" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O35" t="s">
+        <v>304</v>
       </c>
       <c r="U35" t="str">
-        <f>IF(S35="*",D35&amp;" : INT := "&amp;(T35+1)&amp;";","")</f>
+        <f>IF(S35="*",#REF!&amp;" : INT := "&amp;(T35+1)&amp;";","")</f>
         <v/>
       </c>
     </row>
@@ -2906,41 +2906,41 @@
         <v>83</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>88</v>
+        <v>301</v>
       </c>
       <c r="E36" s="1">
-        <f>IF(P36="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F36" s="1">
-        <f>IF(L36&lt;&gt;"",FLOOR((L36-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1000168</v>
       </c>
       <c r="I36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16777576</v>
       </c>
       <c r="K36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>522056</v>
       </c>
       <c r="L36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>522056</v>
       </c>
       <c r="O36" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="P36" t="s">
         <v>38</v>
@@ -2949,7 +2949,7 @@
         <v>6</v>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(S36="*",D37&amp;" : INT := "&amp;(T36+1)&amp;";","")</f>
         <v/>
       </c>
     </row>
@@ -2961,41 +2961,41 @@
         <v>83</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E37" s="1">
-        <f>IF(P37="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <f>IF(L37&lt;&gt;"",FLOOR((L37-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>418</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10001A2</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16777634</v>
       </c>
       <c r="K37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>522172</v>
       </c>
       <c r="L37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>522172</v>
       </c>
       <c r="O37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P37" t="s">
         <v>38</v>
@@ -3004,7 +3004,7 @@
         <v>7</v>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(S37="*",D38&amp;" : INT := "&amp;(T37+1)&amp;";","")</f>
         <v/>
       </c>
     </row>
@@ -3016,41 +3016,41 @@
         <v>83</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>298</v>
+        <v>89</v>
       </c>
       <c r="E38" s="1">
-        <f>IF(P38="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <f>IF(L38&lt;&gt;"",FLOOR((L38-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>708</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10002C4</v>
       </c>
       <c r="I38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16777924</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>522752</v>
       </c>
       <c r="L38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>522752</v>
       </c>
       <c r="O38" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="P38" t="s">
         <v>38</v>
@@ -3059,7 +3059,7 @@
         <v>12</v>
       </c>
       <c r="U38" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(S38="*",D39&amp;" : INT := "&amp;(T38+1)&amp;";","")</f>
         <v/>
       </c>
     </row>
@@ -3071,41 +3071,41 @@
         <v>83</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E39" s="1">
-        <f>IF(P39="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <f>IF(L39&lt;&gt;"",FLOOR((L39-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>708</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10002C4</v>
       </c>
       <c r="I39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16777924</v>
       </c>
       <c r="K39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>522752</v>
       </c>
       <c r="L39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>522752</v>
       </c>
       <c r="O39" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P39" t="s">
         <v>38</v>
@@ -3114,53 +3114,53 @@
         <v>12</v>
       </c>
       <c r="U39" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(S39="*",D40&amp;" : INT := "&amp;(T39+1)&amp;";","")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>30</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E40" s="1">
-        <f>IF(P40="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <f>IF(L40&lt;&gt;"",FLOOR((L40-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>1661</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108067D</v>
       </c>
       <c r="I40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17303165</v>
       </c>
       <c r="K40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>524659</v>
       </c>
       <c r="L40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>524659</v>
       </c>
       <c r="O40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="S40" t="s">
         <v>38</v>
@@ -3168,54 +3168,54 @@
       <c r="T40">
         <v>23</v>
       </c>
-      <c r="U40" t="str">
-        <f>IF(S40="*",D40&amp;" : INT := "&amp;(T40+1)&amp;";","")</f>
-        <v>SpB3 : INT := 24;</v>
+      <c r="U40" t="e">
+        <f>IF(S40="*",#REF!&amp;" : INT := "&amp;(T40+1)&amp;";","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>301</v>
+        <v>87</v>
       </c>
       <c r="E41" s="1">
-        <f>IF(P41="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F41" s="1">
-        <f>IF(L41&lt;&gt;"",FLOOR((L41-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>1593</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1080639</v>
       </c>
       <c r="I41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17303097</v>
       </c>
       <c r="K41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>524523</v>
       </c>
       <c r="L41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>524523</v>
       </c>
       <c r="O41" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="S41" t="s">
         <v>38</v>
@@ -3223,9 +3223,9 @@
       <c r="T41">
         <v>21</v>
       </c>
-      <c r="U41" t="str">
-        <f t="shared" si="5"/>
-        <v>SpB4 : INT := 22;</v>
+      <c r="U41" t="e">
+        <f>IF(S41="*",#REF!&amp;" : INT := "&amp;(T41+1)&amp;";","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -3242,31 +3242,31 @@
         <v>71</v>
       </c>
       <c r="E42" s="1">
-        <f>IF(P42="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <f>IF(L42&lt;&gt;"",FLOOR((L42-MIN(L:L))/2,1),"")</f>
+        <f t="shared" ref="F42:F73" si="8">IF(L42&lt;&gt;"",FLOOR((L42-MIN(L:L))/2,1),"")</f>
         <v>1049</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1080419</v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17302553</v>
       </c>
       <c r="K42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>523435</v>
       </c>
       <c r="L42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>523435</v>
       </c>
       <c r="O42" t="s">
@@ -3279,7 +3279,7 @@
         <v>5</v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>SfA01 : INT := 6;</v>
       </c>
     </row>
@@ -3297,31 +3297,31 @@
         <v>72</v>
       </c>
       <c r="E43" s="1">
-        <f>IF(P43="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <f>IF(L43&lt;&gt;"",FLOOR((L43-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v>1083</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108043B</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17302587</v>
       </c>
       <c r="K43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>523503</v>
       </c>
       <c r="L43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>523503</v>
       </c>
       <c r="O43" t="s">
@@ -3334,7 +3334,7 @@
         <v>6</v>
       </c>
       <c r="U43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>SfA02 : INT := 7;</v>
       </c>
     </row>
@@ -3352,31 +3352,31 @@
         <v>73</v>
       </c>
       <c r="E44" s="1">
-        <f>IF(P44="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <f>IF(L44&lt;&gt;"",FLOOR((L44-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v>1117</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108045D</v>
       </c>
       <c r="I44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17302621</v>
       </c>
       <c r="K44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>523571</v>
       </c>
       <c r="L44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>523571</v>
       </c>
       <c r="O44" t="s">
@@ -3389,7 +3389,7 @@
         <v>7</v>
       </c>
       <c r="U44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>SfA03 : INT := 8;</v>
       </c>
     </row>
@@ -3404,31 +3404,31 @@
         <v>4</v>
       </c>
       <c r="E45" s="1">
-        <f>IF(P45="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f>IF(L45&lt;&gt;"",FLOOR((L45-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G45" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H45" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I45" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U45" t="str">
@@ -3447,35 +3447,35 @@
         <v>5</v>
       </c>
       <c r="E46" s="1">
-        <f>IF(P46="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f>IF(L46&lt;&gt;"",FLOOR((L46-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G46" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H46" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I46" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3490,35 +3490,35 @@
         <v>6</v>
       </c>
       <c r="E47" s="1">
-        <f>IF(P47="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f>IF(L47&lt;&gt;"",FLOOR((L47-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G47" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H47" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I47" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3533,35 +3533,35 @@
         <v>7</v>
       </c>
       <c r="E48" s="1">
-        <f>IF(P48="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f>IF(L48&lt;&gt;"",FLOOR((L48-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G48" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H48" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I48" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3576,35 +3576,35 @@
         <v>8</v>
       </c>
       <c r="E49" s="1">
-        <f>IF(P49="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f>IF(L49&lt;&gt;"",FLOOR((L49-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G49" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H49" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I49" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3622,31 +3622,31 @@
         <v>74</v>
       </c>
       <c r="E50" s="1">
-        <f>IF(P50="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F50" s="1">
-        <f>IF(L50&lt;&gt;"",FLOOR((L50-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v>1151</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108047F</v>
       </c>
       <c r="I50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17302655</v>
       </c>
       <c r="K50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>523639</v>
       </c>
       <c r="L50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>523639</v>
       </c>
       <c r="O50" t="s">
@@ -3677,31 +3677,31 @@
         <v>75</v>
       </c>
       <c r="E51" s="1">
-        <f>IF(P51="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F51" s="1">
-        <f>IF(L51&lt;&gt;"",FLOOR((L51-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v>1185</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10804A1</v>
       </c>
       <c r="I51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17302689</v>
       </c>
       <c r="K51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>523707</v>
       </c>
       <c r="L51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>523707</v>
       </c>
       <c r="O51" t="s">
@@ -3714,7 +3714,7 @@
         <v>9</v>
       </c>
       <c r="U51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>SpA02 : INT := 10;</v>
       </c>
     </row>
@@ -3732,31 +3732,31 @@
         <v>76</v>
       </c>
       <c r="E52" s="1">
-        <f>IF(P52="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F52" s="1">
-        <f>IF(L52&lt;&gt;"",FLOOR((L52-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v>1219</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10804C3</v>
       </c>
       <c r="I52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17302723</v>
       </c>
       <c r="K52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>523775</v>
       </c>
       <c r="L52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>523775</v>
       </c>
       <c r="O52" t="s">
@@ -3769,7 +3769,7 @@
         <v>10</v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>SpA03 : INT := 11;</v>
       </c>
     </row>
@@ -3787,31 +3787,31 @@
         <v>77</v>
       </c>
       <c r="E53" s="1">
-        <f>IF(P53="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F53" s="1">
-        <f>IF(L53&lt;&gt;"",FLOOR((L53-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100000C</v>
       </c>
       <c r="I53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16777228</v>
       </c>
       <c r="K53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>521360</v>
       </c>
       <c r="L53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>521360</v>
       </c>
       <c r="O53" t="s">
@@ -3842,31 +3842,31 @@
         <v>78</v>
       </c>
       <c r="E54" s="1">
-        <f>IF(P54="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F54" s="1">
-        <f>IF(L54&lt;&gt;"",FLOOR((L54-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1000046</v>
       </c>
       <c r="I54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16777286</v>
       </c>
       <c r="K54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>521476</v>
       </c>
       <c r="L54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>521476</v>
       </c>
       <c r="O54" t="s">
@@ -3879,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="U54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3897,31 +3897,31 @@
         <v>79</v>
       </c>
       <c r="E55" s="1">
-        <f>IF(P55="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F55" s="1">
-        <f>IF(L55&lt;&gt;"",FLOOR((L55-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v>128</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1000080</v>
       </c>
       <c r="I55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16777344</v>
       </c>
       <c r="K55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>521592</v>
       </c>
       <c r="L55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>521592</v>
       </c>
       <c r="O55" t="s">
@@ -3934,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="U55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3949,35 +3949,35 @@
         <v>15</v>
       </c>
       <c r="E56" s="1">
-        <f>IF(P56="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f>IF(L56&lt;&gt;"",FLOOR((L56-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G56" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H56" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I56" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3992,35 +3992,35 @@
         <v>16</v>
       </c>
       <c r="E57" s="1">
-        <f>IF(P57="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f>IF(L57&lt;&gt;"",FLOOR((L57-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G57" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H57" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I57" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -4038,31 +4038,31 @@
         <v>116</v>
       </c>
       <c r="E58" s="1">
-        <f>IF(P58="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F58" s="1">
-        <f>IF(L58&lt;&gt;"",FLOOR((L58-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v>1627</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108065B</v>
       </c>
       <c r="I58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17303131</v>
       </c>
       <c r="K58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>524591</v>
       </c>
       <c r="L58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>524591</v>
       </c>
       <c r="O58" t="s">
@@ -4093,31 +4093,31 @@
         <v>117</v>
       </c>
       <c r="E59" s="1">
-        <f>IF(P59="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F59" s="1">
-        <f>IF(L59&lt;&gt;"",FLOOR((L59-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v>476</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10001DC</v>
       </c>
       <c r="I59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16777692</v>
       </c>
       <c r="K59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>522288</v>
       </c>
       <c r="L59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>522288</v>
       </c>
       <c r="O59" t="s">
@@ -4148,31 +4148,31 @@
         <v>118</v>
       </c>
       <c r="E60" s="1">
-        <f>IF(P60="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F60" s="1">
-        <f>IF(L60&lt;&gt;"",FLOOR((L60-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v>534</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1000216</v>
       </c>
       <c r="I60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16777750</v>
       </c>
       <c r="K60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>522404</v>
       </c>
       <c r="L60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>522404</v>
       </c>
       <c r="O60" t="s">
@@ -4185,7 +4185,7 @@
         <v>9</v>
       </c>
       <c r="U60" t="str">
-        <f t="shared" ref="U60:U85" si="6">IF(S60="*",D60&amp;" : INT := "&amp;(T60+1)&amp;";","")</f>
+        <f t="shared" ref="U60:U85" si="9">IF(S60="*",D60&amp;" : INT := "&amp;(T60+1)&amp;";","")</f>
         <v/>
       </c>
     </row>
@@ -4203,31 +4203,31 @@
         <v>119</v>
       </c>
       <c r="E61" s="1">
-        <f>IF(P61="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F61" s="1">
-        <f>IF(L61&lt;&gt;"",FLOOR((L61-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v>534</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1000216</v>
       </c>
       <c r="I61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16777750</v>
       </c>
       <c r="K61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>522404</v>
       </c>
       <c r="L61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>522404</v>
       </c>
       <c r="O61" t="s">
@@ -4240,7 +4240,7 @@
         <v>9</v>
       </c>
       <c r="U61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4255,35 +4255,35 @@
         <v>5</v>
       </c>
       <c r="E62" s="1">
-        <f>IF(P62="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f>IF(L62&lt;&gt;"",FLOOR((L62-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G62" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H62" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I62" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4298,35 +4298,35 @@
         <v>6</v>
       </c>
       <c r="E63" s="1">
-        <f>IF(P63="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f>IF(L63&lt;&gt;"",FLOOR((L63-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G63" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H63" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I63" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4341,35 +4341,35 @@
         <v>7</v>
       </c>
       <c r="E64" s="1">
-        <f>IF(P64="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f>IF(L64&lt;&gt;"",FLOOR((L64-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G64" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H64" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I64" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4384,35 +4384,35 @@
         <v>8</v>
       </c>
       <c r="E65" s="1">
-        <f>IF(P65="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f>IF(L65&lt;&gt;"",FLOOR((L65-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G65" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H65" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I65" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4427,35 +4427,35 @@
         <v>9</v>
       </c>
       <c r="E66" s="1">
-        <f>IF(P66="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f>IF(L66&lt;&gt;"",FLOOR((L66-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G66" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H66" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I66" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U66" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4470,35 +4470,35 @@
         <v>10</v>
       </c>
       <c r="E67" s="1">
-        <f>IF(P67="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f>IF(L67&lt;&gt;"",FLOOR((L67-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G67" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H67" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I67" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U67" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4513,35 +4513,35 @@
         <v>11</v>
       </c>
       <c r="E68" s="1">
-        <f>IF(P68="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f>IF(L68&lt;&gt;"",FLOOR((L68-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G68" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H68" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I68" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U68" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4556,35 +4556,35 @@
         <v>12</v>
       </c>
       <c r="E69" s="1">
-        <f>IF(P69="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f>IF(L69&lt;&gt;"",FLOOR((L69-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G69" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H69" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I69" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U69" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4599,35 +4599,35 @@
         <v>13</v>
       </c>
       <c r="E70" s="1">
-        <f>IF(P70="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f>IF(L70&lt;&gt;"",FLOOR((L70-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G70" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H70" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I70" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4642,35 +4642,35 @@
         <v>14</v>
       </c>
       <c r="E71" s="1">
-        <f>IF(P71="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f>IF(L71&lt;&gt;"",FLOOR((L71-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G71" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H71" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I71" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4685,35 +4685,35 @@
         <v>15</v>
       </c>
       <c r="E72" s="1">
-        <f>IF(P72="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f>IF(L72&lt;&gt;"",FLOOR((L72-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G72" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H72" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I72" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4728,35 +4728,35 @@
         <v>16</v>
       </c>
       <c r="E73" s="1">
-        <f>IF(P73="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f>IF(L73&lt;&gt;"",FLOOR((L73-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G73" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H73" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I73" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4774,31 +4774,31 @@
         <v>92</v>
       </c>
       <c r="E74" s="1">
-        <f>IF(P74="",$B$2,$B$2)</f>
+        <f t="shared" ref="E74:E117" si="10">IF(P74="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F74" s="1">
-        <f>IF(L74&lt;&gt;"",FLOOR((L74-MIN(L:L))/2,1),"")</f>
+        <f t="shared" ref="F74:F105" si="11">IF(L74&lt;&gt;"",FLOOR((L74-MIN(L:L))/2,1),"")</f>
         <v>186</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10000BA</v>
       </c>
       <c r="I74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16777402</v>
       </c>
       <c r="K74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>521708</v>
       </c>
       <c r="L74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>521708</v>
       </c>
       <c r="O74" t="s">
@@ -4811,7 +4811,7 @@
         <v>3</v>
       </c>
       <c r="U74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4829,31 +4829,31 @@
         <v>95</v>
       </c>
       <c r="E75" s="1">
-        <f>IF(P75="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F75" s="1">
-        <f>IF(L75&lt;&gt;"",FLOOR((L75-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>186</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" ref="G75:G117" si="7">IF(MOD(L75-$B$6,2)=1,8+M75,M75)</f>
+        <f t="shared" ref="G75:G117" si="12">IF(MOD(L75-$B$6,2)=1,8+M75,M75)</f>
         <v>0</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" ref="H75:H117" si="8">DEC2HEX(E75*HEX2DEC(1000000) +G75*HEX2DEC(10000) +F75)</f>
+        <f t="shared" ref="H75:H117" si="13">DEC2HEX(E75*HEX2DEC(1000000) +G75*HEX2DEC(10000) +F75)</f>
         <v>10000BA</v>
       </c>
       <c r="I75">
-        <f t="shared" ref="I75:I117" si="9">HEX2DEC(H75)</f>
+        <f t="shared" ref="I75:I117" si="14">HEX2DEC(H75)</f>
         <v>16777402</v>
       </c>
       <c r="K75">
-        <f t="shared" ref="K75:K117" si="10">IF(Q75&lt;&gt;"",Q75*116+$B$3,IF(R75&lt;&gt;"",R75*116+$B$3,IF(T75&lt;&gt;"",T75*68+$B$5,"")))</f>
+        <f t="shared" ref="K75:K117" si="15">IF(Q75&lt;&gt;"",Q75*116+$B$3,IF(R75&lt;&gt;"",R75*116+$B$3,IF(T75&lt;&gt;"",T75*68+$B$5,"")))</f>
         <v>521708</v>
       </c>
       <c r="L75">
-        <f t="shared" ref="L75:L117" si="11">IF(J75&lt;&gt;"",J75,K75)</f>
+        <f t="shared" ref="L75:L117" si="16">IF(J75&lt;&gt;"",J75,K75)</f>
         <v>521708</v>
       </c>
       <c r="O75" t="s">
@@ -4884,31 +4884,31 @@
         <v>148</v>
       </c>
       <c r="E76" s="1">
-        <f>IF(P76="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F76" s="1">
-        <f>IF(L76&lt;&gt;"",FLOOR((L76-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>592</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1000250</v>
       </c>
       <c r="I76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>16777808</v>
       </c>
       <c r="K76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>522520</v>
       </c>
       <c r="L76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>522520</v>
       </c>
       <c r="O76" t="s">
@@ -4921,7 +4921,7 @@
         <v>10</v>
       </c>
       <c r="U76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4939,31 +4939,31 @@
         <v>149</v>
       </c>
       <c r="E77" s="1">
-        <f>IF(P77="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F77" s="1">
-        <f>IF(L77&lt;&gt;"",FLOOR((L77-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>592</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1000250</v>
       </c>
       <c r="I77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>16777808</v>
       </c>
       <c r="K77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>522520</v>
       </c>
       <c r="L77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>522520</v>
       </c>
       <c r="O77" t="s">
@@ -4994,34 +4994,34 @@
         <v>96</v>
       </c>
       <c r="E78" s="1">
-        <f>IF(P78="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F78" s="1">
-        <f>IF(L78&lt;&gt;"",FLOOR((L78-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10C0001</v>
       </c>
       <c r="I78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17563649</v>
       </c>
       <c r="J78">
         <v>521339</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521339</v>
       </c>
       <c r="M78">
@@ -5031,7 +5031,7 @@
         <v>276</v>
       </c>
       <c r="U78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5049,34 +5049,34 @@
         <v>97</v>
       </c>
       <c r="E79" s="1">
-        <f>IF(P79="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F79" s="1">
-        <f>IF(L79&lt;&gt;"",FLOOR((L79-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10D0001</v>
       </c>
       <c r="I79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17629185</v>
       </c>
       <c r="J79">
         <v>521339</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521339</v>
       </c>
       <c r="M79">
@@ -5086,7 +5086,7 @@
         <v>274</v>
       </c>
       <c r="U79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5104,34 +5104,34 @@
         <v>98</v>
       </c>
       <c r="E80" s="1">
-        <f>IF(P80="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F80" s="1">
-        <f>IF(L80&lt;&gt;"",FLOOR((L80-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10E0001</v>
       </c>
       <c r="I80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17694721</v>
       </c>
       <c r="J80">
         <v>521339</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521339</v>
       </c>
       <c r="M80">
@@ -5141,7 +5141,7 @@
         <v>275</v>
       </c>
       <c r="U80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5159,34 +5159,34 @@
         <v>99</v>
       </c>
       <c r="E81" s="1">
-        <f>IF(P81="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F81" s="1">
-        <f>IF(L81&lt;&gt;"",FLOOR((L81-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10F0001</v>
       </c>
       <c r="I81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17760257</v>
       </c>
       <c r="J81">
         <v>521339</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521339</v>
       </c>
       <c r="M81">
@@ -5196,7 +5196,7 @@
         <v>330</v>
       </c>
       <c r="U81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5214,31 +5214,31 @@
         <v>93</v>
       </c>
       <c r="E82" s="1">
-        <f>IF(P82="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F82" s="1">
-        <f>IF(L82&lt;&gt;"",FLOOR((L82-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>244</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10000F4</v>
       </c>
       <c r="I82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>16777460</v>
       </c>
       <c r="K82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>521824</v>
       </c>
       <c r="L82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521824</v>
       </c>
       <c r="O82" t="s">
@@ -5269,31 +5269,31 @@
         <v>100</v>
       </c>
       <c r="E83" s="1">
-        <f>IF(P83="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F83" s="1">
-        <f>IF(L83&lt;&gt;"",FLOOR((L83-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>244</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10000F4</v>
       </c>
       <c r="I83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>16777460</v>
       </c>
       <c r="K83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>521824</v>
       </c>
       <c r="L83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521824</v>
       </c>
       <c r="O83" t="s">
@@ -5306,7 +5306,7 @@
         <v>4</v>
       </c>
       <c r="U83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5324,31 +5324,31 @@
         <v>94</v>
       </c>
       <c r="E84" s="1">
-        <f>IF(P84="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F84" s="1">
-        <f>IF(L84&lt;&gt;"",FLOOR((L84-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>302</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>100012E</v>
       </c>
       <c r="I84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>16777518</v>
       </c>
       <c r="K84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>521940</v>
       </c>
       <c r="L84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521940</v>
       </c>
       <c r="O84" t="s">
@@ -5379,31 +5379,31 @@
         <v>101</v>
       </c>
       <c r="E85" s="1">
-        <f>IF(P85="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F85" s="1">
-        <f>IF(L85&lt;&gt;"",FLOOR((L85-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>302</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>100012E</v>
       </c>
       <c r="I85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>16777518</v>
       </c>
       <c r="K85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>521940</v>
       </c>
       <c r="L85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521940</v>
       </c>
       <c r="O85" t="s">
@@ -5416,7 +5416,7 @@
         <v>5</v>
       </c>
       <c r="U85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5434,31 +5434,31 @@
         <v>102</v>
       </c>
       <c r="E86" s="1">
-        <f>IF(P86="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F86" s="1">
-        <f>IF(L86&lt;&gt;"",FLOOR((L86-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>1253</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10804E5</v>
       </c>
       <c r="I86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17302757</v>
       </c>
       <c r="K86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>523843</v>
       </c>
       <c r="L86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>523843</v>
       </c>
       <c r="O86" t="s">
@@ -5489,31 +5489,31 @@
         <v>103</v>
       </c>
       <c r="E87" s="1">
-        <f>IF(P87="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F87" s="1">
-        <f>IF(L87&lt;&gt;"",FLOOR((L87-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>1287</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1080507</v>
       </c>
       <c r="I87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17302791</v>
       </c>
       <c r="K87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>523911</v>
       </c>
       <c r="L87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>523911</v>
       </c>
       <c r="O87" t="s">
@@ -5526,7 +5526,7 @@
         <v>12</v>
       </c>
       <c r="U87" t="str">
-        <f t="shared" ref="U87:U89" si="12">IF(S87="*",D87&amp;" : INT := "&amp;(T87+1)&amp;";","")</f>
+        <f t="shared" ref="U87:U89" si="17">IF(S87="*",D87&amp;" : INT := "&amp;(T87+1)&amp;";","")</f>
         <v>ASp02 : INT := 13;</v>
       </c>
     </row>
@@ -5544,31 +5544,31 @@
         <v>104</v>
       </c>
       <c r="E88" s="1">
-        <f>IF(P88="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F88" s="1">
-        <f>IF(L88&lt;&gt;"",FLOOR((L88-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>1321</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1080529</v>
       </c>
       <c r="I88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17302825</v>
       </c>
       <c r="K88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>523979</v>
       </c>
       <c r="L88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>523979</v>
       </c>
       <c r="O88" t="s">
@@ -5581,7 +5581,7 @@
         <v>13</v>
       </c>
       <c r="U88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>ASp03 : INT := 14;</v>
       </c>
     </row>
@@ -5599,31 +5599,31 @@
         <v>105</v>
       </c>
       <c r="E89" s="1">
-        <f>IF(P89="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F89" s="1">
-        <f>IF(L89&lt;&gt;"",FLOOR((L89-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>1355</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>108054B</v>
       </c>
       <c r="I89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17302859</v>
       </c>
       <c r="K89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>524047</v>
       </c>
       <c r="L89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>524047</v>
       </c>
       <c r="O89" t="s">
@@ -5636,7 +5636,7 @@
         <v>14</v>
       </c>
       <c r="U89" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>ASp04 : INT := 15;</v>
       </c>
     </row>
@@ -5651,31 +5651,31 @@
         <v>1</v>
       </c>
       <c r="E90" s="1">
-        <f>IF(P90="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f>IF(L90&lt;&gt;"",FLOOR((L90-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G90" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H90" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I90" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L90" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -5690,31 +5690,31 @@
         <v>2</v>
       </c>
       <c r="E91" s="1">
-        <f>IF(P91="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f>IF(L91&lt;&gt;"",FLOOR((L91-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G91" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H91" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I91" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L91" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -5729,31 +5729,31 @@
         <v>3</v>
       </c>
       <c r="E92" s="1">
-        <f>IF(P92="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f>IF(L92&lt;&gt;"",FLOOR((L92-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G92" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H92" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I92" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L92" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -5768,31 +5768,31 @@
         <v>4</v>
       </c>
       <c r="E93" s="1">
-        <f>IF(P93="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f>IF(L93&lt;&gt;"",FLOOR((L93-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G93" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H93" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I93" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K93" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L93" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -5807,31 +5807,31 @@
         <v>5</v>
       </c>
       <c r="E94" s="1">
-        <f>IF(P94="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f>IF(L94&lt;&gt;"",FLOOR((L94-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G94" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H94" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I94" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L94" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -5846,31 +5846,31 @@
         <v>6</v>
       </c>
       <c r="E95" s="1">
-        <f>IF(P95="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f>IF(L95&lt;&gt;"",FLOOR((L95-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G95" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H95" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I95" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L95" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -5885,31 +5885,31 @@
         <v>7</v>
       </c>
       <c r="E96" s="1">
-        <f>IF(P96="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f>IF(L96&lt;&gt;"",FLOOR((L96-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G96" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H96" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I96" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L96" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -5924,31 +5924,31 @@
         <v>8</v>
       </c>
       <c r="E97" s="1">
-        <f>IF(P97="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f>IF(L97&lt;&gt;"",FLOOR((L97-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G97" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H97" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I97" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L97" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -5963,31 +5963,31 @@
         <v>9</v>
       </c>
       <c r="E98" s="1">
-        <f>IF(P98="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f>IF(L98&lt;&gt;"",FLOOR((L98-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G98" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H98" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I98" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K98" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L98" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M98">
@@ -6008,31 +6008,31 @@
         <v>82</v>
       </c>
       <c r="E99" s="1">
-        <f>IF(P99="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F99" s="1">
-        <f>IF(L99&lt;&gt;"",FLOOR((L99-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>1525</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10805F5</v>
       </c>
       <c r="I99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17303029</v>
       </c>
       <c r="K99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>524387</v>
       </c>
       <c r="L99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>524387</v>
       </c>
       <c r="O99" t="s">
@@ -6063,31 +6063,31 @@
         <v>81</v>
       </c>
       <c r="E100" s="1">
-        <f>IF(P100="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F100" s="1">
-        <f>IF(L100&lt;&gt;"",FLOOR((L100-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>1559</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1080617</v>
       </c>
       <c r="I100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17303063</v>
       </c>
       <c r="K100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>524455</v>
       </c>
       <c r="L100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>524455</v>
       </c>
       <c r="O100" t="s">
@@ -6115,34 +6115,34 @@
         <v>12</v>
       </c>
       <c r="E101" s="1">
-        <f>IF(P101="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F101" s="1">
-        <f>IF(L101&lt;&gt;"",FLOOR((L101-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>428</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10701AC</v>
       </c>
       <c r="I101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17236396</v>
       </c>
       <c r="J101">
         <v>522192</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>522192</v>
       </c>
       <c r="M101">
@@ -6160,34 +6160,34 @@
         <v>13</v>
       </c>
       <c r="E102" s="1">
-        <f>IF(P102="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F102" s="1">
-        <f>IF(L102&lt;&gt;"",FLOOR((L102-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>428</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10801AC</v>
       </c>
       <c r="I102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17301932</v>
       </c>
       <c r="J102">
         <v>522193</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>522193</v>
       </c>
       <c r="M102">
@@ -6205,34 +6205,34 @@
         <v>14</v>
       </c>
       <c r="E103" s="1">
-        <f>IF(P103="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F103" s="1">
-        <f>IF(L103&lt;&gt;"",FLOOR((L103-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>428</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10901AC</v>
       </c>
       <c r="I103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17367468</v>
       </c>
       <c r="J103">
         <v>522193</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>522193</v>
       </c>
       <c r="M103">
@@ -6250,31 +6250,31 @@
         <v>15</v>
       </c>
       <c r="E104" s="1">
-        <f>IF(P104="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f>IF(L104&lt;&gt;"",FLOOR((L104-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G104" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H104" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I104" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L104" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -6289,31 +6289,31 @@
         <v>16</v>
       </c>
       <c r="E105" s="1">
-        <f>IF(P105="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f>IF(L105&lt;&gt;"",FLOOR((L105-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G105" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H105" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I105" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L105" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -6331,34 +6331,34 @@
         <v>57</v>
       </c>
       <c r="E106" s="1">
-        <f>IF(P106="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F106" s="1">
-        <f>IF(L106&lt;&gt;"",FLOOR((L106-MIN(L:L))/2,1),"")</f>
+        <f t="shared" ref="F106:F117" si="18">IF(L106&lt;&gt;"",FLOOR((L106-MIN(L:L))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="H106" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1020000</v>
       </c>
       <c r="I106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>16908288</v>
       </c>
       <c r="J106">
         <v>521336</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521336</v>
       </c>
       <c r="M106">
@@ -6382,34 +6382,34 @@
         <v>53</v>
       </c>
       <c r="E107" s="1">
-        <f>IF(P107="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F107" s="1">
-        <f>IF(L107&lt;&gt;"",FLOOR((L107-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="H107" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1070000</v>
       </c>
       <c r="I107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17235968</v>
       </c>
       <c r="J107">
         <v>521336</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521336</v>
       </c>
       <c r="M107">
@@ -6433,34 +6433,34 @@
         <v>54</v>
       </c>
       <c r="E108" s="1">
-        <f>IF(P108="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F108" s="1">
-        <f>IF(L108&lt;&gt;"",FLOOR((L108-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="H108" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1080000</v>
       </c>
       <c r="I108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17301504</v>
       </c>
       <c r="J108">
         <v>521337</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521337</v>
       </c>
       <c r="M108">
@@ -6484,34 +6484,34 @@
         <v>48</v>
       </c>
       <c r="E109" s="1">
-        <f>IF(P109="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F109" s="1">
-        <f>IF(L109&lt;&gt;"",FLOOR((L109-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="H109" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1030000</v>
       </c>
       <c r="I109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>16973824</v>
       </c>
       <c r="J109">
         <v>521336</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521336</v>
       </c>
       <c r="M109">
@@ -6535,34 +6535,34 @@
         <v>49</v>
       </c>
       <c r="E110" s="1">
-        <f>IF(P110="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F110" s="1">
-        <f>IF(L110&lt;&gt;"",FLOOR((L110-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="H110" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1040000</v>
       </c>
       <c r="I110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17039360</v>
       </c>
       <c r="J110">
         <v>521336</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521336</v>
       </c>
       <c r="M110">
@@ -6586,34 +6586,34 @@
         <v>50</v>
       </c>
       <c r="E111" s="1">
-        <f>IF(P111="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F111" s="1">
-        <f>IF(L111&lt;&gt;"",FLOOR((L111-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G111" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="H111" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1050000</v>
       </c>
       <c r="I111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17104896</v>
       </c>
       <c r="J111">
         <v>521336</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521336</v>
       </c>
       <c r="M111">
@@ -6637,34 +6637,34 @@
         <v>51</v>
       </c>
       <c r="E112" s="1">
-        <f>IF(P112="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F112" s="1">
-        <f>IF(L112&lt;&gt;"",FLOOR((L112-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="H112" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1060000</v>
       </c>
       <c r="I112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17170432</v>
       </c>
       <c r="J112">
         <v>521336</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521336</v>
       </c>
       <c r="M112">
@@ -6688,34 +6688,34 @@
         <v>58</v>
       </c>
       <c r="E113" s="1">
-        <f>IF(P113="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F113" s="1">
-        <f>IF(L113&lt;&gt;"",FLOOR((L113-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="H113" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1090000</v>
       </c>
       <c r="I113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17367040</v>
       </c>
       <c r="J113">
         <v>521337</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521337</v>
       </c>
       <c r="M113">
@@ -6739,34 +6739,34 @@
         <v>70</v>
       </c>
       <c r="E114" s="1">
-        <f>IF(P114="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F114" s="1">
-        <f>IF(L114&lt;&gt;"",FLOOR((L114-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G114" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="H114" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10A0000</v>
       </c>
       <c r="I114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17432576</v>
       </c>
       <c r="J114">
         <v>521337</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521337</v>
       </c>
       <c r="M114">
@@ -6790,34 +6790,34 @@
         <v>55</v>
       </c>
       <c r="E115" s="1">
-        <f>IF(P115="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F115" s="1">
-        <f>IF(L115&lt;&gt;"",FLOOR((L115-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G115" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="H115" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10B0000</v>
       </c>
       <c r="I115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17498112</v>
       </c>
       <c r="J115">
         <v>521337</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521337</v>
       </c>
       <c r="M115">
@@ -6841,34 +6841,34 @@
         <v>52</v>
       </c>
       <c r="E116" s="1">
-        <f>IF(P116="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F116" s="1">
-        <f>IF(L116&lt;&gt;"",FLOOR((L116-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G116" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="H116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10C0000</v>
       </c>
       <c r="I116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17563648</v>
       </c>
       <c r="J116">
         <v>521337</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521337</v>
       </c>
       <c r="M116">
@@ -6892,34 +6892,34 @@
         <v>56</v>
       </c>
       <c r="E117" s="1">
-        <f>IF(P117="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F117" s="1">
-        <f>IF(L117&lt;&gt;"",FLOOR((L117-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G117" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H117" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10D0000</v>
       </c>
       <c r="I117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17629184</v>
       </c>
       <c r="J117">
         <v>521337</v>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>521337</v>
       </c>
       <c r="M117">
@@ -6944,7 +6944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBFD5AD-95E3-457F-903E-F0D470C50CCA}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O8" sqref="O8:O70"/>
     </sheetView>
   </sheetViews>

--- a/C2B1A1/iotable.xlsx
+++ b/C2B1A1/iotable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF611D61-8C6A-4A7B-B308-20694BFE71B1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD65231B-2988-45C3-9E3F-31A63D779A71}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="339">
   <si>
     <t>Channel</t>
   </si>
@@ -1498,10 +1498,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E117"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,7 +1541,7 @@
       </c>
       <c r="J2">
         <f>K10-B6</f>
-        <v>1759</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1548,7 +1549,7 @@
         <v>44</v>
       </c>
       <c r="B3">
-        <v>521360</v>
+        <v>533076</v>
       </c>
       <c r="H3">
         <f>QUOTIENT(F10,65535)</f>
@@ -1560,7 +1561,7 @@
         <v>45</v>
       </c>
       <c r="B4">
-        <v>521364</v>
+        <v>533080</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1568,7 +1569,7 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>523095</v>
+        <v>534811</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1577,7 +1578,7 @@
       </c>
       <c r="B6">
         <f>MIN(L:L)</f>
-        <v>521336</v>
+        <v>532990</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>59</v>
@@ -1592,7 +1593,7 @@
       </c>
       <c r="B7">
         <f>MIN(B3:B4)</f>
-        <v>521360</v>
+        <v>533076</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1601,7 +1602,7 @@
       </c>
       <c r="B8">
         <f>COUNTIF(S:S,"*")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1683,12 +1684,12 @@
         <v>11</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ref="E10:E73" si="0">IF(P10="",$B$2,$B$2)</f>
+        <f>IF(P10="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:F41" si="1">IF(L10&lt;&gt;"",FLOOR((L10-MIN(L:L))/2,1),"")</f>
-        <v>879</v>
+        <f>IF(L10&lt;&gt;"",FLOOR((L10-MIN(L:L))/2,1),"")</f>
+        <v>910</v>
       </c>
       <c r="G10" s="1">
         <f>IF(MOD(L10-$B$6,2)=1,8+M10,M10)</f>
@@ -1696,19 +1697,19 @@
       </c>
       <c r="H10" t="str">
         <f>DEC2HEX(E10*HEX2DEC(1000000) +G10*HEX2DEC(10000) +F10)</f>
-        <v>108036F</v>
+        <v>108038E</v>
       </c>
       <c r="I10">
         <f>HEX2DEC(H10)</f>
-        <v>17302383</v>
+        <v>17302414</v>
       </c>
       <c r="K10">
         <f>IF(Q10&lt;&gt;"",Q10*116+$B$3,IF(R10&lt;&gt;"",R10*116+$B$3,IF(T10&lt;&gt;"",T10*68+$B$5,"")))</f>
-        <v>523095</v>
+        <v>534811</v>
       </c>
       <c r="L10">
-        <f>IF(J10&lt;&gt;"",J10,K10)</f>
-        <v>523095</v>
+        <f>IF(AND(J10&lt;&gt;"",D10&lt;&gt;""),J10,K10)</f>
+        <v>534811</v>
       </c>
       <c r="O10" t="s">
         <v>238</v>
@@ -1738,32 +1739,32 @@
         <v>12</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P11="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
-        <v>913</v>
+        <f t="shared" ref="F11:F74" si="0">IF(L11&lt;&gt;"",FLOOR((L11-MIN(L:L))/2,1),"")</f>
+        <v>944</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ref="G11:G74" si="2">IF(MOD(L11-$B$6,2)=1,8+M11,M11)</f>
+        <f t="shared" ref="G11:G74" si="1">IF(MOD(L11-$B$6,2)=1,8+M11,M11)</f>
         <v>8</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" ref="H11:H74" si="3">DEC2HEX(E11*HEX2DEC(1000000) +G11*HEX2DEC(10000) +F11)</f>
-        <v>1080391</v>
+        <f t="shared" ref="H11:H74" si="2">DEC2HEX(E11*HEX2DEC(1000000) +G11*HEX2DEC(10000) +F11)</f>
+        <v>10803B0</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I74" si="4">HEX2DEC(H11)</f>
-        <v>17302417</v>
+        <f t="shared" ref="I11:I74" si="3">HEX2DEC(H11)</f>
+        <v>17302448</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:K74" si="5">IF(Q11&lt;&gt;"",Q11*116+$B$3,IF(R11&lt;&gt;"",R11*116+$B$3,IF(T11&lt;&gt;"",T11*68+$B$5,"")))</f>
-        <v>523163</v>
+        <f t="shared" ref="K11:K14" si="4">IF(Q11&lt;&gt;"",Q11*116+$B$3,IF(R11&lt;&gt;"",R11*116+$B$3,IF(T11&lt;&gt;"",T11*68+$B$5,"")))</f>
+        <v>534879</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L74" si="6">IF(J11&lt;&gt;"",J11,K11)</f>
-        <v>523163</v>
+        <f t="shared" ref="L11:L74" si="5">IF(AND(J11&lt;&gt;"",D11&lt;&gt;""),J11,K11)</f>
+        <v>534879</v>
       </c>
       <c r="O11" t="s">
         <v>239</v>
@@ -1775,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" ref="U11:U57" si="7">IF(S11="*",D11&amp;" : INT := "&amp;(T11+1)&amp;";","")</f>
+        <f>IF(S11="*",D11&amp;" : INT := "&amp;(T11+1)&amp;";","")</f>
         <v>H2Green : INT := 2;</v>
       </c>
     </row>
@@ -1793,32 +1794,32 @@
         <v>13</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P12="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>947</v>
+        <f t="shared" si="0"/>
+        <v>978</v>
       </c>
       <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H12" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H12" t="str">
+        <v>10803D2</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="3"/>
-        <v>10803B3</v>
-      </c>
-      <c r="I12">
+        <v>17302482</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="4"/>
-        <v>17302451</v>
-      </c>
-      <c r="K12">
+        <v>534947</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="5"/>
-        <v>523231</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="6"/>
-        <v>523231</v>
+        <v>534947</v>
       </c>
       <c r="O12" t="s">
         <v>240</v>
@@ -1830,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(S12="*",D12&amp;" : INT := "&amp;(T12+1)&amp;";","")</f>
         <v>H3Orange : INT := 3;</v>
       </c>
     </row>
@@ -1848,32 +1849,32 @@
         <v>14</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P13="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>981</v>
+        <f t="shared" si="0"/>
+        <v>1012</v>
       </c>
       <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H13" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H13" t="str">
+        <v>10803F4</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="3"/>
-        <v>10803D5</v>
-      </c>
-      <c r="I13">
+        <v>17302516</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="4"/>
-        <v>17302485</v>
-      </c>
-      <c r="K13">
+        <v>535015</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="5"/>
-        <v>523299</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="6"/>
-        <v>523299</v>
+        <v>535015</v>
       </c>
       <c r="O13" t="s">
         <v>241</v>
@@ -1885,7 +1886,7 @@
         <v>3</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(S13="*",D13&amp;" : INT := "&amp;(T13+1)&amp;";","")</f>
         <v>H4White : INT := 4;</v>
       </c>
     </row>
@@ -1903,32 +1904,32 @@
         <v>15</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P14="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
-        <v>1015</v>
+        <f t="shared" si="0"/>
+        <v>1046</v>
       </c>
       <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H14" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H14" t="str">
+        <v>1080416</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="3"/>
-        <v>10803F7</v>
-      </c>
-      <c r="I14">
+        <v>17302550</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="4"/>
-        <v>17302519</v>
-      </c>
-      <c r="K14">
+        <v>535083</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="5"/>
-        <v>523367</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="6"/>
-        <v>523367</v>
+        <v>535083</v>
       </c>
       <c r="O14" t="s">
         <v>242</v>
@@ -1940,11 +1941,11 @@
         <v>4</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(S14="*",D14&amp;" : INT := "&amp;(T14+1)&amp;";","")</f>
         <v>Air : INT := 5;</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1955,39 +1956,39 @@
         <v>6</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P15="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G15" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H15" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" t="e">
+      <c r="I15" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I15" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K15" t="str">
+        <f t="shared" ref="K11:K74" si="6">IF(Q15&lt;&gt;"",Q15*116+$B$3,IF(R15&lt;&gt;"",R15*116+$B$3,IF(T15&lt;&gt;"",T15*68+$B$5,"")))</f>
+        <v/>
+      </c>
+      <c r="L15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S15="*",D15&amp;" : INT := "&amp;(T15+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1998,39 +1999,39 @@
         <v>7</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P16="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G16" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H16" t="e">
+      <c r="I16" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I16" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K16" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S16="*",D16&amp;" : INT := "&amp;(T16+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -2041,39 +2042,39 @@
         <v>8</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P17="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H17" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" t="e">
+      <c r="I17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I17" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U17" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S17="*",D17&amp;" : INT := "&amp;(T17+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2084,39 +2085,39 @@
         <v>9</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P18="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G18" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H18" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H18" t="e">
+      <c r="I18" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I18" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L18" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U18" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S18="*",D18&amp;" : INT := "&amp;(T18+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -2127,39 +2128,39 @@
         <v>10</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P19="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G19" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H19" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H19" t="e">
+      <c r="I19" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I19" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U19" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S19="*",D19&amp;" : INT := "&amp;(T19+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -2170,39 +2171,39 @@
         <v>11</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P20="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G20" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H20" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H20" t="e">
+      <c r="I20" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I20" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K20" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S20="*",D20&amp;" : INT := "&amp;(T20+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -2213,39 +2214,39 @@
         <v>12</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P21="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G21" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H21" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H21" t="e">
+      <c r="I21" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I21" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K21" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L21" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L21" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U21" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S21="*",D21&amp;" : INT := "&amp;(T21+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -2256,39 +2257,39 @@
         <v>13</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P22="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G22" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H22" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H22" t="e">
+      <c r="I22" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I22" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L22" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S22="*",D22&amp;" : INT := "&amp;(T22+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -2299,39 +2300,39 @@
         <v>14</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P23="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G23" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H23" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H23" t="e">
+      <c r="I23" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I23" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U23" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S23="*",D23&amp;" : INT := "&amp;(T23+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -2342,42 +2343,42 @@
         <v>15</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P24="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G24" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H24" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H24" t="e">
+      <c r="I24" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I24" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S24="*",D24&amp;" : INT := "&amp;(T24+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -2388,35 +2389,35 @@
         <v>16</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P25="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G25" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H25" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H25" t="e">
+      <c r="I25" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I25" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U25" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(S25="*",D25&amp;" : INT := "&amp;(T25+1)&amp;";","")</f>
         <v/>
       </c>
     </row>
@@ -2434,32 +2435,32 @@
         <v>84</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P26="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="1"/>
-        <v>1389</v>
+        <f t="shared" si="0"/>
+        <v>1420</v>
       </c>
       <c r="G26" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H26" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H26" t="str">
+        <v>108058C</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="3"/>
-        <v>108056D</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="4"/>
-        <v>17302893</v>
+        <v>17302924</v>
       </c>
       <c r="K26">
+        <f t="shared" si="6"/>
+        <v>535831</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="5"/>
-        <v>524115</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="6"/>
-        <v>524115</v>
+        <v>535831</v>
       </c>
       <c r="O26" t="s">
         <v>243</v>
@@ -2489,32 +2490,32 @@
         <v>85</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P27="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="1"/>
-        <v>1423</v>
+        <f t="shared" si="0"/>
+        <v>1454</v>
       </c>
       <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H27" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H27" t="str">
+        <v>10805AE</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="3"/>
-        <v>108058F</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="4"/>
-        <v>17302927</v>
+        <v>17302958</v>
       </c>
       <c r="K27">
+        <f t="shared" si="6"/>
+        <v>535899</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="5"/>
-        <v>524183</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="6"/>
-        <v>524183</v>
+        <v>535899</v>
       </c>
       <c r="O27" t="s">
         <v>244</v>
@@ -2526,11 +2527,11 @@
         <v>16</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(S27="*",D27&amp;" : INT := "&amp;(T27+1)&amp;";","")</f>
         <v>SfB2 : INT := 17;</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18</v>
       </c>
@@ -2541,31 +2542,31 @@
         <v>3</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P28="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G28" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H28" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H28" t="e">
+      <c r="I28" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I28" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K28" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L28" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U28" t="str">
@@ -2573,7 +2574,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>19</v>
       </c>
@@ -2584,39 +2585,39 @@
         <v>4</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P29="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G29" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H29" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H29" t="e">
+      <c r="I29" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I29" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K29" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L29" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S29="*",D29&amp;" : INT := "&amp;(T29+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20</v>
       </c>
@@ -2627,39 +2628,39 @@
         <v>5</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P30="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G30" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H30" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H30" t="e">
+      <c r="I30" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I30" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K30" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U30" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S30="*",D30&amp;" : INT := "&amp;(T30+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>21</v>
       </c>
@@ -2670,39 +2671,39 @@
         <v>6</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P31="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G31" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H31" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H31" t="e">
+      <c r="I31" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I31" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K31" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L31" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U31" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S31="*",D31&amp;" : INT := "&amp;(T31+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>22</v>
       </c>
@@ -2713,39 +2714,39 @@
         <v>7</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P32="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G32" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H32" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H32" t="e">
+      <c r="I32" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I32" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K32" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L32" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L32" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S32="*",D32&amp;" : INT := "&amp;(T32+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>23</v>
       </c>
@@ -2756,32 +2757,32 @@
         <v>8</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P33="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="1"/>
-        <v>1457</v>
+        <f t="shared" si="0"/>
+        <v>1488</v>
       </c>
       <c r="G33" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H33" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H33" t="str">
+        <v>10805D0</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="3"/>
-        <v>10805B1</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="4"/>
-        <v>17302961</v>
+        <v>17302992</v>
       </c>
       <c r="K33">
+        <f t="shared" si="6"/>
+        <v>535967</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="5"/>
-        <v>524251</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="6"/>
-        <v>524251</v>
+        <v>535967</v>
       </c>
       <c r="S33" t="s">
         <v>38</v>
@@ -2808,32 +2809,32 @@
         <v>86</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P34="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="1"/>
-        <v>1491</v>
+        <f t="shared" si="0"/>
+        <v>1522</v>
       </c>
       <c r="G34" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H34" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H34" t="str">
+        <v>10805F2</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="3"/>
-        <v>10805D3</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="4"/>
-        <v>17302995</v>
+        <v>17303026</v>
       </c>
       <c r="K34">
+        <f t="shared" si="6"/>
+        <v>536035</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="5"/>
-        <v>524319</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="6"/>
-        <v>524319</v>
+        <v>536035</v>
       </c>
       <c r="O34" t="s">
         <v>261</v>
@@ -2845,8 +2846,8 @@
         <v>18</v>
       </c>
       <c r="U34" t="str">
-        <f>IF(S34="*",D41&amp;" : INT := "&amp;(T34+1)&amp;";","")</f>
-        <v>SpB2 : INT := 19;</v>
+        <f t="shared" ref="U34:U44" si="7">IF(S34="*",D34&amp;" : INT := "&amp;(T34+1)&amp;";","")</f>
+        <v>SpB1 : INT := 19;</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -2863,39 +2864,45 @@
         <v>300</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G35" s="1" t="e">
+        <f>IF(P35="",$B$2,$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>1658</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H35" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H35" t="e">
+        <v>108067A</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I35" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K35" t="str">
+        <v>17303162</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="6"/>
+        <v>536307</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L35" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <v>536307</v>
       </c>
       <c r="O35" t="s">
         <v>304</v>
       </c>
+      <c r="S35" t="s">
+        <v>38</v>
+      </c>
+      <c r="T35">
+        <v>22</v>
+      </c>
       <c r="U35" t="str">
-        <f>IF(S35="*",#REF!&amp;" : INT := "&amp;(T35+1)&amp;";","")</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>SpB3 : INT := 23;</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -2912,45 +2919,45 @@
         <v>301</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P36="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="1"/>
-        <v>360</v>
+        <f t="shared" si="0"/>
+        <v>1726</v>
       </c>
       <c r="G36" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H36" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H36" t="str">
+        <v>10806BE</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="3"/>
-        <v>1000168</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="4"/>
-        <v>16777576</v>
+        <v>17303230</v>
       </c>
       <c r="K36">
+        <f t="shared" si="6"/>
+        <v>536443</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="5"/>
-        <v>522056</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="6"/>
-        <v>522056</v>
+        <v>536443</v>
       </c>
       <c r="O36" t="s">
         <v>305</v>
       </c>
-      <c r="P36" t="s">
+      <c r="S36" t="s">
         <v>38</v>
       </c>
-      <c r="R36">
-        <v>6</v>
+      <c r="T36">
+        <v>24</v>
       </c>
       <c r="U36" t="str">
-        <f>IF(S36="*",D37&amp;" : INT := "&amp;(T36+1)&amp;";","")</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>SpB4 : INT := 25;</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -2967,32 +2974,32 @@
         <v>88</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P37="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="1"/>
-        <v>418</v>
+        <f t="shared" si="0"/>
+        <v>449</v>
       </c>
       <c r="G37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H37" t="str">
+        <v>10001C1</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="3"/>
-        <v>10001A2</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="4"/>
-        <v>16777634</v>
+        <v>16777665</v>
       </c>
       <c r="K37">
+        <f t="shared" si="6"/>
+        <v>533888</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="5"/>
-        <v>522172</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="6"/>
-        <v>522172</v>
+        <v>533888</v>
       </c>
       <c r="O37" t="s">
         <v>245</v>
@@ -3004,7 +3011,7 @@
         <v>7</v>
       </c>
       <c r="U37" t="str">
-        <f>IF(S37="*",D38&amp;" : INT := "&amp;(T37+1)&amp;";","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3022,32 +3029,32 @@
         <v>89</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P38="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="1"/>
-        <v>708</v>
+        <f t="shared" si="0"/>
+        <v>507</v>
       </c>
       <c r="G38" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H38" t="str">
+        <v>10001FB</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="3"/>
-        <v>10002C4</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="4"/>
-        <v>16777924</v>
+        <v>16777723</v>
       </c>
       <c r="K38">
+        <f t="shared" si="6"/>
+        <v>534004</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="5"/>
-        <v>522752</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="6"/>
-        <v>522752</v>
+        <v>534004</v>
       </c>
       <c r="O38" t="s">
         <v>246</v>
@@ -3055,11 +3062,11 @@
       <c r="P38" t="s">
         <v>38</v>
       </c>
-      <c r="Q38">
-        <v>12</v>
+      <c r="R38">
+        <v>8</v>
       </c>
       <c r="U38" t="str">
-        <f>IF(S38="*",D39&amp;" : INT := "&amp;(T38+1)&amp;";","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3077,32 +3084,32 @@
         <v>298</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P39="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="1"/>
-        <v>708</v>
+        <f t="shared" si="0"/>
+        <v>797</v>
       </c>
       <c r="G39" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H39" t="str">
+        <v>100031D</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="3"/>
-        <v>10002C4</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="4"/>
-        <v>16777924</v>
+        <v>16778013</v>
       </c>
       <c r="K39">
+        <f t="shared" si="6"/>
+        <v>534584</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="5"/>
-        <v>522752</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="6"/>
-        <v>522752</v>
+        <v>534584</v>
       </c>
       <c r="O39" t="s">
         <v>303</v>
@@ -3110,11 +3117,11 @@
       <c r="P39" t="s">
         <v>38</v>
       </c>
-      <c r="R39">
-        <v>12</v>
+      <c r="Q39">
+        <v>13</v>
       </c>
       <c r="U39" t="str">
-        <f>IF(S39="*",D40&amp;" : INT := "&amp;(T39+1)&amp;";","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3132,45 +3139,45 @@
         <v>299</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P40="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="1"/>
-        <v>1661</v>
+        <f t="shared" si="0"/>
+        <v>797</v>
       </c>
       <c r="G40" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H40" t="str">
+        <v>100031D</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="3"/>
-        <v>108067D</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="4"/>
-        <v>17303165</v>
+        <v>16778013</v>
       </c>
       <c r="K40">
+        <f t="shared" si="6"/>
+        <v>534584</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="5"/>
-        <v>524659</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="6"/>
-        <v>524659</v>
+        <v>534584</v>
       </c>
       <c r="O40" t="s">
         <v>302</v>
       </c>
-      <c r="S40" t="s">
+      <c r="P40" t="s">
         <v>38</v>
       </c>
-      <c r="T40">
-        <v>23</v>
-      </c>
-      <c r="U40" t="e">
-        <f>IF(S40="*",#REF!&amp;" : INT := "&amp;(T40+1)&amp;";","")</f>
-        <v>#REF!</v>
+      <c r="R40">
+        <v>13</v>
+      </c>
+      <c r="U40" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -3187,32 +3194,32 @@
         <v>87</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P41="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="1"/>
-        <v>1593</v>
+        <f t="shared" si="0"/>
+        <v>1624</v>
       </c>
       <c r="G41" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H41" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H41" t="str">
+        <v>1080658</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="3"/>
-        <v>1080639</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="4"/>
-        <v>17303097</v>
+        <v>17303128</v>
       </c>
       <c r="K41">
+        <f t="shared" si="6"/>
+        <v>536239</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="5"/>
-        <v>524523</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="6"/>
-        <v>524523</v>
+        <v>536239</v>
       </c>
       <c r="O41" t="s">
         <v>262</v>
@@ -3223,9 +3230,9 @@
       <c r="T41">
         <v>21</v>
       </c>
-      <c r="U41" t="e">
-        <f>IF(S41="*",#REF!&amp;" : INT := "&amp;(T41+1)&amp;";","")</f>
-        <v>#REF!</v>
+      <c r="U41" t="str">
+        <f t="shared" si="7"/>
+        <v>SpB2 : INT := 22;</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -3242,32 +3249,32 @@
         <v>71</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P42="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" ref="F42:F73" si="8">IF(L42&lt;&gt;"",FLOOR((L42-MIN(L:L))/2,1),"")</f>
-        <v>1049</v>
+        <f t="shared" si="0"/>
+        <v>1080</v>
       </c>
       <c r="G42" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H42" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H42" t="str">
+        <v>1080438</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="3"/>
-        <v>1080419</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="4"/>
-        <v>17302553</v>
+        <v>17302584</v>
       </c>
       <c r="K42">
+        <f t="shared" si="6"/>
+        <v>535151</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="5"/>
-        <v>523435</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="6"/>
-        <v>523435</v>
+        <v>535151</v>
       </c>
       <c r="O42" t="s">
         <v>263</v>
@@ -3297,32 +3304,32 @@
         <v>72</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P43="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="8"/>
-        <v>1083</v>
+        <f t="shared" si="0"/>
+        <v>1114</v>
       </c>
       <c r="G43" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H43" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H43" t="str">
+        <v>108045A</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="3"/>
-        <v>108043B</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="4"/>
-        <v>17302587</v>
+        <v>17302618</v>
       </c>
       <c r="K43">
+        <f t="shared" si="6"/>
+        <v>535219</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="5"/>
-        <v>523503</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="6"/>
-        <v>523503</v>
+        <v>535219</v>
       </c>
       <c r="O43" t="s">
         <v>264</v>
@@ -3352,32 +3359,32 @@
         <v>73</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P44="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="8"/>
-        <v>1117</v>
+        <f t="shared" si="0"/>
+        <v>1148</v>
       </c>
       <c r="G44" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H44" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H44" t="str">
+        <v>108047C</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="3"/>
-        <v>108045D</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="4"/>
-        <v>17302621</v>
+        <v>17302652</v>
       </c>
       <c r="K44">
+        <f t="shared" si="6"/>
+        <v>535287</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="5"/>
-        <v>523571</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="6"/>
-        <v>523571</v>
+        <v>535287</v>
       </c>
       <c r="O44" t="s">
         <v>265</v>
@@ -3393,7 +3400,7 @@
         <v>SfA03 : INT := 8;</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>35</v>
       </c>
@@ -3404,31 +3411,31 @@
         <v>4</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P45="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G45" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H45" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H45" t="e">
+      <c r="I45" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I45" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K45" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L45" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L45" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U45" t="str">
@@ -3436,7 +3443,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>36</v>
       </c>
@@ -3447,39 +3454,39 @@
         <v>5</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P46="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G46" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H46" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H46" t="e">
+      <c r="I46" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I46" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K46" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L46" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U46" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S46="*",D46&amp;" : INT := "&amp;(T46+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>37</v>
       </c>
@@ -3490,39 +3497,39 @@
         <v>6</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P47="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G47" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H47" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H47" t="e">
+      <c r="I47" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I47" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K47" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L47" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U47" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S47="*",D47&amp;" : INT := "&amp;(T47+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>38</v>
       </c>
@@ -3533,39 +3540,39 @@
         <v>7</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P48="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G48" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" t="e">
+      <c r="I48" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K48" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L48" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U48" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S48="*",D48&amp;" : INT := "&amp;(T48+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>39</v>
       </c>
@@ -3576,35 +3583,35 @@
         <v>8</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P49="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G49" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H49" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H49" t="e">
+      <c r="I49" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I49" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K49" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L49" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L49" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U49" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(S49="*",D49&amp;" : INT := "&amp;(T49+1)&amp;";","")</f>
         <v/>
       </c>
     </row>
@@ -3622,32 +3629,32 @@
         <v>74</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P50="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="8"/>
-        <v>1151</v>
+        <f t="shared" si="0"/>
+        <v>1182</v>
       </c>
       <c r="G50" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H50" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H50" t="str">
+        <v>108049E</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="3"/>
-        <v>108047F</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="4"/>
-        <v>17302655</v>
+        <v>17302686</v>
       </c>
       <c r="K50">
+        <f t="shared" si="6"/>
+        <v>535355</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="5"/>
-        <v>523639</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="6"/>
-        <v>523639</v>
+        <v>535355</v>
       </c>
       <c r="O50" t="s">
         <v>266</v>
@@ -3659,7 +3666,7 @@
         <v>8</v>
       </c>
       <c r="U50" t="str">
-        <f>IF(S50="*",D50&amp;" : INT := "&amp;(T50+1)&amp;";","")</f>
+        <f t="shared" ref="U50:U55" si="8">IF(S50="*",D50&amp;" : INT := "&amp;(T50+1)&amp;";","")</f>
         <v>SpA01 : INT := 9;</v>
       </c>
     </row>
@@ -3677,32 +3684,32 @@
         <v>75</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P51="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="8"/>
-        <v>1185</v>
+        <f t="shared" si="0"/>
+        <v>1216</v>
       </c>
       <c r="G51" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H51" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H51" t="str">
+        <v>10804C0</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="3"/>
-        <v>10804A1</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="4"/>
-        <v>17302689</v>
+        <v>17302720</v>
       </c>
       <c r="K51">
+        <f t="shared" si="6"/>
+        <v>535423</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="5"/>
-        <v>523707</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="6"/>
-        <v>523707</v>
+        <v>535423</v>
       </c>
       <c r="O51" t="s">
         <v>267</v>
@@ -3714,7 +3721,7 @@
         <v>9</v>
       </c>
       <c r="U51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>SpA02 : INT := 10;</v>
       </c>
     </row>
@@ -3732,32 +3739,32 @@
         <v>76</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P52="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="8"/>
-        <v>1219</v>
+        <f t="shared" si="0"/>
+        <v>1250</v>
       </c>
       <c r="G52" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H52" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H52" t="str">
+        <v>10804E2</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="3"/>
-        <v>10804C3</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="4"/>
-        <v>17302723</v>
+        <v>17302754</v>
       </c>
       <c r="K52">
+        <f t="shared" si="6"/>
+        <v>535491</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="5"/>
-        <v>523775</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="6"/>
-        <v>523775</v>
+        <v>535491</v>
       </c>
       <c r="O52" t="s">
         <v>268</v>
@@ -3769,7 +3776,7 @@
         <v>10</v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>SpA03 : INT := 11;</v>
       </c>
     </row>
@@ -3787,32 +3794,32 @@
         <v>77</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P53="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="G53" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H53" t="str">
+        <v>100002B</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="3"/>
-        <v>100000C</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="4"/>
-        <v>16777228</v>
+        <v>16777259</v>
       </c>
       <c r="K53">
+        <f t="shared" si="6"/>
+        <v>533076</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="5"/>
-        <v>521360</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="6"/>
-        <v>521360</v>
+        <v>533076</v>
       </c>
       <c r="O53" t="s">
         <v>247</v>
@@ -3824,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="U53" t="str">
-        <f>IF(S53="*",D53&amp;" : INT := "&amp;(T53+1)&amp;";","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3842,32 +3849,32 @@
         <v>78</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P54="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="8"/>
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>101</v>
       </c>
       <c r="G54" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H54" t="str">
+        <v>1000065</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="3"/>
-        <v>1000046</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="4"/>
-        <v>16777286</v>
+        <v>16777317</v>
       </c>
       <c r="K54">
+        <f t="shared" si="6"/>
+        <v>533192</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="5"/>
-        <v>521476</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="6"/>
-        <v>521476</v>
+        <v>533192</v>
       </c>
       <c r="O54" t="s">
         <v>248</v>
@@ -3879,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="U54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3897,32 +3904,32 @@
         <v>79</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P55="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="8"/>
-        <v>128</v>
+        <f t="shared" si="0"/>
+        <v>159</v>
       </c>
       <c r="G55" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H55" t="str">
+        <v>100009F</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="3"/>
-        <v>1000080</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="4"/>
-        <v>16777344</v>
+        <v>16777375</v>
       </c>
       <c r="K55">
+        <f t="shared" si="6"/>
+        <v>533308</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="5"/>
-        <v>521592</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="6"/>
-        <v>521592</v>
+        <v>533308</v>
       </c>
       <c r="O55" t="s">
         <v>249</v>
@@ -3934,11 +3941,11 @@
         <v>2</v>
       </c>
       <c r="U55" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>46</v>
       </c>
@@ -3949,39 +3956,39 @@
         <v>15</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P56="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G56" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H56" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H56" t="e">
+      <c r="I56" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I56" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L56" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U56" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S56="*",D56&amp;" : INT := "&amp;(T56+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>47</v>
       </c>
@@ -3992,35 +3999,35 @@
         <v>16</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P57="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G57" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H57" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H57" t="e">
+      <c r="I57" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I57" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K57" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L57" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L57" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U57" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(S57="*",D57&amp;" : INT := "&amp;(T57+1)&amp;";","")</f>
         <v/>
       </c>
     </row>
@@ -4038,32 +4045,32 @@
         <v>116</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P58="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="8"/>
-        <v>1627</v>
+        <f t="shared" si="0"/>
+        <v>1692</v>
       </c>
       <c r="G58" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H58" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H58" t="str">
+        <v>108069C</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="3"/>
-        <v>108065B</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="4"/>
-        <v>17303131</v>
+        <v>17303196</v>
       </c>
       <c r="K58">
+        <f t="shared" si="6"/>
+        <v>536375</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="5"/>
-        <v>524591</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="6"/>
-        <v>524591</v>
+        <v>536375</v>
       </c>
       <c r="O58" t="s">
         <v>269</v>
@@ -4072,11 +4079,11 @@
         <v>38</v>
       </c>
       <c r="T58">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U58" t="str">
-        <f>IF(S58="*",D58&amp;" : INT := "&amp;(T58+1)&amp;";","")</f>
-        <v>CSp1 : INT := 23;</v>
+        <f t="shared" ref="U58:U61" si="9">IF(S58="*",D58&amp;" : INT := "&amp;(T58+1)&amp;";","")</f>
+        <v>CSp1 : INT := 24;</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
@@ -4093,32 +4100,32 @@
         <v>117</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P59="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="8"/>
-        <v>476</v>
+        <f t="shared" si="0"/>
+        <v>507</v>
       </c>
       <c r="G59" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H59" t="str">
+        <v>10001FB</v>
+      </c>
+      <c r="I59">
         <f t="shared" si="3"/>
-        <v>10001DC</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="4"/>
-        <v>16777692</v>
+        <v>16777723</v>
       </c>
       <c r="K59">
+        <f t="shared" si="6"/>
+        <v>534004</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="5"/>
-        <v>522288</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="6"/>
-        <v>522288</v>
+        <v>534004</v>
       </c>
       <c r="O59" t="s">
         <v>250</v>
@@ -4130,7 +4137,7 @@
         <v>8</v>
       </c>
       <c r="U59" t="str">
-        <f>IF(S59="*",D59&amp;" : INT := "&amp;(T59+1)&amp;";","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4148,32 +4155,32 @@
         <v>118</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P60="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="8"/>
-        <v>534</v>
+        <f t="shared" si="0"/>
+        <v>565</v>
       </c>
       <c r="G60" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H60" t="str">
+        <v>1000235</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="3"/>
-        <v>1000216</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="4"/>
-        <v>16777750</v>
+        <v>16777781</v>
       </c>
       <c r="K60">
+        <f t="shared" si="6"/>
+        <v>534120</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="5"/>
-        <v>522404</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="6"/>
-        <v>522404</v>
+        <v>534120</v>
       </c>
       <c r="O60" t="s">
         <v>253</v>
@@ -4185,7 +4192,7 @@
         <v>9</v>
       </c>
       <c r="U60" t="str">
-        <f t="shared" ref="U60:U85" si="9">IF(S60="*",D60&amp;" : INT := "&amp;(T60+1)&amp;";","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4203,32 +4210,32 @@
         <v>119</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P61="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="8"/>
-        <v>534</v>
+        <f t="shared" si="0"/>
+        <v>565</v>
       </c>
       <c r="G61" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H61" t="str">
+        <v>1000235</v>
+      </c>
+      <c r="I61">
         <f t="shared" si="3"/>
-        <v>1000216</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="4"/>
-        <v>16777750</v>
+        <v>16777781</v>
       </c>
       <c r="K61">
+        <f t="shared" si="6"/>
+        <v>534120</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="5"/>
-        <v>522404</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="6"/>
-        <v>522404</v>
+        <v>534120</v>
       </c>
       <c r="O61" t="s">
         <v>251</v>
@@ -4244,7 +4251,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>52</v>
       </c>
@@ -4255,39 +4262,39 @@
         <v>5</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P62="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G62" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H62" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H62" t="e">
+      <c r="I62" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I62" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K62" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L62" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L62" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U62" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S62="*",D62&amp;" : INT := "&amp;(T62+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>53</v>
       </c>
@@ -4298,39 +4305,39 @@
         <v>6</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P63="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G63" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H63" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H63" t="e">
+      <c r="I63" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I63" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L63" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L63" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U63" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S63="*",D63&amp;" : INT := "&amp;(T63+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>54</v>
       </c>
@@ -4341,39 +4348,39 @@
         <v>7</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P64="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G64" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H64" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H64" t="e">
+      <c r="I64" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I64" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K64" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L64" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L64" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U64" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S64="*",D64&amp;" : INT := "&amp;(T64+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>55</v>
       </c>
@@ -4384,39 +4391,39 @@
         <v>8</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P65="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G65" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H65" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H65" t="e">
+      <c r="I65" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I65" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K65" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L65" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L65" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U65" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S65="*",D65&amp;" : INT := "&amp;(T65+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>56</v>
       </c>
@@ -4427,39 +4434,39 @@
         <v>9</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P66="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G66" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H66" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H66" t="e">
+      <c r="I66" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I66" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K66" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L66" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L66" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U66" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S66="*",D66&amp;" : INT := "&amp;(T66+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>57</v>
       </c>
@@ -4470,39 +4477,39 @@
         <v>10</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P67="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G67" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H67" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H67" t="e">
+      <c r="I67" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I67" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K67" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L67" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L67" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S67="*",D67&amp;" : INT := "&amp;(T67+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>58</v>
       </c>
@@ -4513,39 +4520,39 @@
         <v>11</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P68="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G68" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H68" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H68" t="e">
+      <c r="I68" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I68" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K68" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L68" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L68" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U68" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S68="*",D68&amp;" : INT := "&amp;(T68+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>59</v>
       </c>
@@ -4556,39 +4563,39 @@
         <v>12</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P69="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G69" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H69" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H69" t="e">
+      <c r="I69" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I69" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K69" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L69" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L69" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U69" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S69="*",D69&amp;" : INT := "&amp;(T69+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>60</v>
       </c>
@@ -4599,39 +4606,39 @@
         <v>13</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P70="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G70" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H70" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H70" t="e">
+      <c r="I70" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I70" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K70" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L70" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L70" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U70" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S70="*",D70&amp;" : INT := "&amp;(T70+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>61</v>
       </c>
@@ -4642,39 +4649,39 @@
         <v>14</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P71="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G71" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H71" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H71" t="e">
+      <c r="I71" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I71" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K71" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L71" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L71" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U71" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S71="*",D71&amp;" : INT := "&amp;(T71+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>62</v>
       </c>
@@ -4685,39 +4692,39 @@
         <v>15</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P72="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G72" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H72" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H72" t="e">
+      <c r="I72" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I72" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K72" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L72" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L72" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U72" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF(S72="*",D72&amp;" : INT := "&amp;(T72+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>63</v>
       </c>
@@ -4728,35 +4735,35 @@
         <v>16</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P73="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G73" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H73" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H73" t="e">
+      <c r="I73" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I73" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="K73" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L73" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L73" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="U73" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(S73="*",D73&amp;" : INT := "&amp;(T73+1)&amp;";","")</f>
         <v/>
       </c>
     </row>
@@ -4774,32 +4781,32 @@
         <v>92</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" ref="E74:E117" si="10">IF(P74="",$B$2,$B$2)</f>
+        <f>IF(P74="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" ref="F74:F105" si="11">IF(L74&lt;&gt;"",FLOOR((L74-MIN(L:L))/2,1),"")</f>
-        <v>186</v>
+        <f t="shared" si="0"/>
+        <v>217</v>
       </c>
       <c r="G74" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H74" t="str">
+        <v>10000D9</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="3"/>
-        <v>10000BA</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="4"/>
-        <v>16777402</v>
+        <v>16777433</v>
       </c>
       <c r="K74">
+        <f t="shared" si="6"/>
+        <v>533424</v>
+      </c>
+      <c r="L74">
         <f t="shared" si="5"/>
-        <v>521708</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="6"/>
-        <v>521708</v>
+        <v>533424</v>
       </c>
       <c r="O74" t="s">
         <v>256</v>
@@ -4811,7 +4818,7 @@
         <v>3</v>
       </c>
       <c r="U74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="U74:U89" si="10">IF(S74="*",D74&amp;" : INT := "&amp;(T74+1)&amp;";","")</f>
         <v/>
       </c>
     </row>
@@ -4829,12 +4836,12 @@
         <v>95</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P75="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="11"/>
-        <v>186</v>
+        <f t="shared" ref="F75:F117" si="11">IF(L75&lt;&gt;"",FLOOR((L75-MIN(L:L))/2,1),"")</f>
+        <v>217</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" ref="G75:G117" si="12">IF(MOD(L75-$B$6,2)=1,8+M75,M75)</f>
@@ -4842,19 +4849,19 @@
       </c>
       <c r="H75" t="str">
         <f t="shared" ref="H75:H117" si="13">DEC2HEX(E75*HEX2DEC(1000000) +G75*HEX2DEC(10000) +F75)</f>
-        <v>10000BA</v>
+        <v>10000D9</v>
       </c>
       <c r="I75">
         <f t="shared" ref="I75:I117" si="14">HEX2DEC(H75)</f>
-        <v>16777402</v>
+        <v>16777433</v>
       </c>
       <c r="K75">
-        <f t="shared" ref="K75:K117" si="15">IF(Q75&lt;&gt;"",Q75*116+$B$3,IF(R75&lt;&gt;"",R75*116+$B$3,IF(T75&lt;&gt;"",T75*68+$B$5,"")))</f>
-        <v>521708</v>
+        <f t="shared" ref="K75:K89" si="15">IF(Q75&lt;&gt;"",Q75*116+$B$3,IF(R75&lt;&gt;"",R75*116+$B$3,IF(T75&lt;&gt;"",T75*68+$B$5,"")))</f>
+        <v>533424</v>
       </c>
       <c r="L75">
-        <f t="shared" ref="L75:L117" si="16">IF(J75&lt;&gt;"",J75,K75)</f>
-        <v>521708</v>
+        <f t="shared" ref="L75:L117" si="16">IF(AND(J75&lt;&gt;"",D75&lt;&gt;""),J75,K75)</f>
+        <v>533424</v>
       </c>
       <c r="O75" t="s">
         <v>252</v>
@@ -4866,7 +4873,7 @@
         <v>3</v>
       </c>
       <c r="U75" t="str">
-        <f>IF(S75="*",D75&amp;" : INT := "&amp;(T75+1)&amp;";","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -4884,12 +4891,12 @@
         <v>148</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P76="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="11"/>
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="G76" s="1">
         <f t="shared" si="12"/>
@@ -4897,19 +4904,19 @@
       </c>
       <c r="H76" t="str">
         <f t="shared" si="13"/>
-        <v>1000250</v>
+        <v>100026F</v>
       </c>
       <c r="I76">
         <f t="shared" si="14"/>
-        <v>16777808</v>
+        <v>16777839</v>
       </c>
       <c r="K76">
         <f t="shared" si="15"/>
-        <v>522520</v>
+        <v>534236</v>
       </c>
       <c r="L76">
         <f t="shared" si="16"/>
-        <v>522520</v>
+        <v>534236</v>
       </c>
       <c r="O76" t="s">
         <v>259</v>
@@ -4921,7 +4928,7 @@
         <v>10</v>
       </c>
       <c r="U76" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -4939,12 +4946,12 @@
         <v>149</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P77="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="11"/>
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="G77" s="1">
         <f t="shared" si="12"/>
@@ -4952,19 +4959,19 @@
       </c>
       <c r="H77" t="str">
         <f t="shared" si="13"/>
-        <v>1000250</v>
+        <v>100026F</v>
       </c>
       <c r="I77">
         <f t="shared" si="14"/>
-        <v>16777808</v>
+        <v>16777839</v>
       </c>
       <c r="K77">
         <f t="shared" si="15"/>
-        <v>522520</v>
+        <v>534236</v>
       </c>
       <c r="L77">
         <f t="shared" si="16"/>
-        <v>522520</v>
+        <v>534236</v>
       </c>
       <c r="O77" t="s">
         <v>260</v>
@@ -4976,7 +4983,7 @@
         <v>10</v>
       </c>
       <c r="U77" t="str">
-        <f>IF(S77="*",D77&amp;" : INT := "&amp;(T77+1)&amp;";","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -4994,27 +5001,27 @@
         <v>96</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P78="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" s="1">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="13"/>
-        <v>10C0001</v>
+        <v>1040000</v>
       </c>
       <c r="I78">
         <f t="shared" si="14"/>
-        <v>17563649</v>
+        <v>17039360</v>
       </c>
       <c r="J78">
-        <v>521339</v>
+        <v>532990</v>
       </c>
       <c r="K78" t="str">
         <f t="shared" si="15"/>
@@ -5022,7 +5029,7 @@
       </c>
       <c r="L78">
         <f t="shared" si="16"/>
-        <v>521339</v>
+        <v>532990</v>
       </c>
       <c r="M78">
         <v>4</v>
@@ -5031,7 +5038,7 @@
         <v>276</v>
       </c>
       <c r="U78" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -5049,27 +5056,27 @@
         <v>97</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P79="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" s="1">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="13"/>
-        <v>10D0001</v>
+        <v>1050000</v>
       </c>
       <c r="I79">
         <f t="shared" si="14"/>
-        <v>17629185</v>
+        <v>17104896</v>
       </c>
       <c r="J79">
-        <v>521339</v>
+        <v>532990</v>
       </c>
       <c r="K79" t="str">
         <f t="shared" si="15"/>
@@ -5077,7 +5084,7 @@
       </c>
       <c r="L79">
         <f t="shared" si="16"/>
-        <v>521339</v>
+        <v>532990</v>
       </c>
       <c r="M79">
         <v>5</v>
@@ -5086,7 +5093,7 @@
         <v>274</v>
       </c>
       <c r="U79" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -5104,27 +5111,27 @@
         <v>98</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P80="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" s="1">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="13"/>
-        <v>10E0001</v>
+        <v>1060000</v>
       </c>
       <c r="I80">
         <f t="shared" si="14"/>
-        <v>17694721</v>
+        <v>17170432</v>
       </c>
       <c r="J80">
-        <v>521339</v>
+        <v>532990</v>
       </c>
       <c r="K80" t="str">
         <f t="shared" si="15"/>
@@ -5132,7 +5139,7 @@
       </c>
       <c r="L80">
         <f t="shared" si="16"/>
-        <v>521339</v>
+        <v>532990</v>
       </c>
       <c r="M80">
         <v>6</v>
@@ -5141,7 +5148,7 @@
         <v>275</v>
       </c>
       <c r="U80" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -5159,27 +5166,27 @@
         <v>99</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P81="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" s="1">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="13"/>
-        <v>10F0001</v>
+        <v>1070000</v>
       </c>
       <c r="I81">
         <f t="shared" si="14"/>
-        <v>17760257</v>
+        <v>17235968</v>
       </c>
       <c r="J81">
-        <v>521339</v>
+        <v>532990</v>
       </c>
       <c r="K81" t="str">
         <f t="shared" si="15"/>
@@ -5187,7 +5194,7 @@
       </c>
       <c r="L81">
         <f t="shared" si="16"/>
-        <v>521339</v>
+        <v>532990</v>
       </c>
       <c r="M81">
         <v>7</v>
@@ -5196,7 +5203,7 @@
         <v>330</v>
       </c>
       <c r="U81" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -5214,12 +5221,12 @@
         <v>93</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P82="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="11"/>
-        <v>244</v>
+        <v>33</v>
       </c>
       <c r="G82" s="1">
         <f t="shared" si="12"/>
@@ -5227,19 +5234,22 @@
       </c>
       <c r="H82" t="str">
         <f t="shared" si="13"/>
-        <v>10000F4</v>
+        <v>1000021</v>
       </c>
       <c r="I82">
         <f t="shared" si="14"/>
-        <v>16777460</v>
+        <v>16777249</v>
+      </c>
+      <c r="J82">
+        <v>533056</v>
       </c>
       <c r="K82">
         <f t="shared" si="15"/>
-        <v>521824</v>
+        <v>533540</v>
       </c>
       <c r="L82">
         <f t="shared" si="16"/>
-        <v>521824</v>
+        <v>533056</v>
       </c>
       <c r="O82" t="s">
         <v>257</v>
@@ -5251,7 +5261,7 @@
         <v>4</v>
       </c>
       <c r="U82" t="str">
-        <f>IF(S82="*",D82&amp;" : INT := "&amp;(T82+1)&amp;";","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -5269,12 +5279,12 @@
         <v>100</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P83="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="11"/>
-        <v>244</v>
+        <v>33</v>
       </c>
       <c r="G83" s="1">
         <f t="shared" si="12"/>
@@ -5282,19 +5292,22 @@
       </c>
       <c r="H83" t="str">
         <f t="shared" si="13"/>
-        <v>10000F4</v>
+        <v>1000021</v>
       </c>
       <c r="I83">
         <f t="shared" si="14"/>
-        <v>16777460</v>
+        <v>16777249</v>
+      </c>
+      <c r="J83">
+        <v>533056</v>
       </c>
       <c r="K83">
         <f t="shared" si="15"/>
-        <v>521824</v>
+        <v>533540</v>
       </c>
       <c r="L83">
         <f t="shared" si="16"/>
-        <v>521824</v>
+        <v>533056</v>
       </c>
       <c r="O83" t="s">
         <v>254</v>
@@ -5306,7 +5319,7 @@
         <v>4</v>
       </c>
       <c r="U83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -5324,32 +5337,35 @@
         <v>94</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P84="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="11"/>
-        <v>302</v>
+        <v>33</v>
       </c>
       <c r="G84" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="13"/>
-        <v>100012E</v>
+        <v>1080021</v>
       </c>
       <c r="I84">
         <f t="shared" si="14"/>
-        <v>16777518</v>
+        <v>17301537</v>
+      </c>
+      <c r="J84">
+        <v>533057</v>
       </c>
       <c r="K84">
         <f t="shared" si="15"/>
-        <v>521940</v>
+        <v>533656</v>
       </c>
       <c r="L84">
         <f t="shared" si="16"/>
-        <v>521940</v>
+        <v>533057</v>
       </c>
       <c r="O84" t="s">
         <v>258</v>
@@ -5361,7 +5377,7 @@
         <v>5</v>
       </c>
       <c r="U84" t="str">
-        <f>IF(S84="*",D84&amp;" : INT := "&amp;(T84+1)&amp;";","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -5379,12 +5395,12 @@
         <v>101</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P85="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="11"/>
-        <v>302</v>
+        <v>33</v>
       </c>
       <c r="G85" s="1">
         <f t="shared" si="12"/>
@@ -5392,19 +5408,22 @@
       </c>
       <c r="H85" t="str">
         <f t="shared" si="13"/>
-        <v>100012E</v>
+        <v>1000021</v>
       </c>
       <c r="I85">
         <f t="shared" si="14"/>
-        <v>16777518</v>
+        <v>16777249</v>
+      </c>
+      <c r="J85">
+        <v>533056</v>
       </c>
       <c r="K85">
         <f t="shared" si="15"/>
-        <v>521940</v>
+        <v>533656</v>
       </c>
       <c r="L85">
         <f t="shared" si="16"/>
-        <v>521940</v>
+        <v>533056</v>
       </c>
       <c r="O85" t="s">
         <v>255</v>
@@ -5416,7 +5435,7 @@
         <v>5</v>
       </c>
       <c r="U85" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -5434,32 +5453,35 @@
         <v>102</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P86="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="11"/>
-        <v>1253</v>
+        <v>33</v>
       </c>
       <c r="G86" s="1">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="13"/>
-        <v>10804E5</v>
+        <v>1000021</v>
       </c>
       <c r="I86">
         <f t="shared" si="14"/>
-        <v>17302757</v>
+        <v>16777249</v>
+      </c>
+      <c r="J86">
+        <v>533056</v>
       </c>
       <c r="K86">
         <f t="shared" si="15"/>
-        <v>523843</v>
+        <v>535559</v>
       </c>
       <c r="L86">
         <f t="shared" si="16"/>
-        <v>523843</v>
+        <v>533056</v>
       </c>
       <c r="O86" t="s">
         <v>270</v>
@@ -5471,7 +5493,7 @@
         <v>11</v>
       </c>
       <c r="U86" t="str">
-        <f>IF(S86="*",D86&amp;" : INT := "&amp;(T86+1)&amp;";","")</f>
+        <f t="shared" si="10"/>
         <v>ASp01 : INT := 12;</v>
       </c>
     </row>
@@ -5489,32 +5511,35 @@
         <v>103</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P87="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="11"/>
-        <v>1287</v>
+        <v>33</v>
       </c>
       <c r="G87" s="1">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="13"/>
-        <v>1080507</v>
+        <v>1000021</v>
       </c>
       <c r="I87">
         <f t="shared" si="14"/>
-        <v>17302791</v>
+        <v>16777249</v>
+      </c>
+      <c r="J87">
+        <v>533056</v>
       </c>
       <c r="K87">
         <f t="shared" si="15"/>
-        <v>523911</v>
+        <v>535627</v>
       </c>
       <c r="L87">
         <f t="shared" si="16"/>
-        <v>523911</v>
+        <v>533056</v>
       </c>
       <c r="O87" t="s">
         <v>271</v>
@@ -5526,7 +5551,7 @@
         <v>12</v>
       </c>
       <c r="U87" t="str">
-        <f t="shared" ref="U87:U89" si="17">IF(S87="*",D87&amp;" : INT := "&amp;(T87+1)&amp;";","")</f>
+        <f t="shared" si="10"/>
         <v>ASp02 : INT := 13;</v>
       </c>
     </row>
@@ -5544,32 +5569,35 @@
         <v>104</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P88="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="11"/>
-        <v>1321</v>
+        <v>33</v>
       </c>
       <c r="G88" s="1">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="13"/>
-        <v>1080529</v>
+        <v>1000021</v>
       </c>
       <c r="I88">
         <f t="shared" si="14"/>
-        <v>17302825</v>
+        <v>16777249</v>
+      </c>
+      <c r="J88">
+        <v>533056</v>
       </c>
       <c r="K88">
         <f t="shared" si="15"/>
-        <v>523979</v>
+        <v>535695</v>
       </c>
       <c r="L88">
         <f t="shared" si="16"/>
-        <v>523979</v>
+        <v>533056</v>
       </c>
       <c r="O88" t="s">
         <v>272</v>
@@ -5581,7 +5609,7 @@
         <v>13</v>
       </c>
       <c r="U88" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>ASp03 : INT := 14;</v>
       </c>
     </row>
@@ -5599,12 +5627,12 @@
         <v>105</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P89="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="11"/>
-        <v>1355</v>
+        <v>33</v>
       </c>
       <c r="G89" s="1">
         <f t="shared" si="12"/>
@@ -5612,19 +5640,22 @@
       </c>
       <c r="H89" t="str">
         <f t="shared" si="13"/>
-        <v>108054B</v>
+        <v>1080021</v>
       </c>
       <c r="I89">
         <f t="shared" si="14"/>
-        <v>17302859</v>
+        <v>17301537</v>
+      </c>
+      <c r="J89">
+        <v>533057</v>
       </c>
       <c r="K89">
         <f t="shared" si="15"/>
-        <v>524047</v>
+        <v>535763</v>
       </c>
       <c r="L89">
         <f t="shared" si="16"/>
-        <v>524047</v>
+        <v>533057</v>
       </c>
       <c r="O89" t="s">
         <v>273</v>
@@ -5636,11 +5667,11 @@
         <v>14</v>
       </c>
       <c r="U89" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>ASp04 : INT := 15;</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>80</v>
       </c>
@@ -5651,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P90="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F90" s="1" t="str">
@@ -5671,7 +5702,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="K75:K117" si="17">IF(Q90&lt;&gt;"",Q90*116+$B$3,IF(R90&lt;&gt;"",R90*116+$B$3,IF(T90&lt;&gt;"",T90*68+$B$5,"")))</f>
         <v/>
       </c>
       <c r="L90" t="str">
@@ -5679,7 +5710,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>81</v>
       </c>
@@ -5690,7 +5721,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P91="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F91" s="1" t="str">
@@ -5710,7 +5741,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L91" t="str">
@@ -5718,7 +5749,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>82</v>
       </c>
@@ -5729,7 +5760,7 @@
         <v>3</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P92="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F92" s="1" t="str">
@@ -5749,7 +5780,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L92" t="str">
@@ -5757,7 +5788,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>83</v>
       </c>
@@ -5768,7 +5799,7 @@
         <v>4</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P93="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F93" s="1" t="str">
@@ -5788,7 +5819,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K93" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L93" t="str">
@@ -5796,7 +5827,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>84</v>
       </c>
@@ -5807,7 +5838,7 @@
         <v>5</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P94="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F94" s="1" t="str">
@@ -5827,7 +5858,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L94" t="str">
@@ -5835,7 +5866,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>85</v>
       </c>
@@ -5846,7 +5877,7 @@
         <v>6</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P95="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F95" s="1" t="str">
@@ -5866,7 +5897,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L95" t="str">
@@ -5874,7 +5905,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>86</v>
       </c>
@@ -5885,7 +5916,7 @@
         <v>7</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P96="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F96" s="1" t="str">
@@ -5905,7 +5936,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L96" t="str">
@@ -5913,7 +5944,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>87</v>
       </c>
@@ -5924,7 +5955,7 @@
         <v>8</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P97="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F97" s="1" t="str">
@@ -5944,7 +5975,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L97" t="str">
@@ -5952,7 +5983,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>88</v>
       </c>
@@ -5963,7 +5994,7 @@
         <v>9</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P98="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F98" s="1" t="str">
@@ -5983,15 +6014,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="K98" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L98" t="str">
         <f t="shared" si="16"/>
         <v/>
-      </c>
-      <c r="M98">
-        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -6008,12 +6036,12 @@
         <v>82</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P99="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="11"/>
-        <v>1525</v>
+        <v>1556</v>
       </c>
       <c r="G99" s="1">
         <f t="shared" si="12"/>
@@ -6021,19 +6049,19 @@
       </c>
       <c r="H99" t="str">
         <f t="shared" si="13"/>
-        <v>10805F5</v>
+        <v>1080614</v>
       </c>
       <c r="I99">
         <f t="shared" si="14"/>
-        <v>17303029</v>
+        <v>17303060</v>
       </c>
       <c r="K99">
-        <f t="shared" si="15"/>
-        <v>524387</v>
+        <f t="shared" si="17"/>
+        <v>536103</v>
       </c>
       <c r="L99">
         <f t="shared" si="16"/>
-        <v>524387</v>
+        <v>536103</v>
       </c>
       <c r="O99" t="s">
         <v>277</v>
@@ -6063,12 +6091,12 @@
         <v>81</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P100="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="11"/>
-        <v>1559</v>
+        <v>1590</v>
       </c>
       <c r="G100" s="1">
         <f t="shared" si="12"/>
@@ -6076,19 +6104,19 @@
       </c>
       <c r="H100" t="str">
         <f t="shared" si="13"/>
-        <v>1080617</v>
+        <v>1080636</v>
       </c>
       <c r="I100">
         <f t="shared" si="14"/>
-        <v>17303063</v>
+        <v>17303094</v>
       </c>
       <c r="K100">
-        <f t="shared" si="15"/>
-        <v>524455</v>
+        <f t="shared" si="17"/>
+        <v>536171</v>
       </c>
       <c r="L100">
         <f t="shared" si="16"/>
-        <v>524455</v>
+        <v>536171</v>
       </c>
       <c r="O100" t="s">
         <v>278</v>
@@ -6104,7 +6132,7 @@
         <v>H2 : INT := 21;</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>91</v>
       </c>
@@ -6115,41 +6143,35 @@
         <v>12</v>
       </c>
       <c r="E101" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="F101" s="1">
+        <f>IF(P101="",$B$2,$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F101" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>428</v>
-      </c>
-      <c r="G101" s="1">
+        <v/>
+      </c>
+      <c r="G101" s="1" t="e">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="H101" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H101" t="e">
         <f t="shared" si="13"/>
-        <v>10701AC</v>
-      </c>
-      <c r="I101">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I101" t="e">
         <f t="shared" si="14"/>
-        <v>17236396</v>
-      </c>
-      <c r="J101">
-        <v>522192</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="L101">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L101" t="str">
         <f t="shared" si="16"/>
-        <v>522192</v>
-      </c>
-      <c r="M101">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>92</v>
       </c>
@@ -6160,41 +6182,35 @@
         <v>13</v>
       </c>
       <c r="E102" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="F102" s="1">
+        <f>IF(P102="",$B$2,$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F102" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>428</v>
-      </c>
-      <c r="G102" s="1">
+        <v/>
+      </c>
+      <c r="G102" s="1" t="e">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="H102" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H102" t="e">
         <f t="shared" si="13"/>
-        <v>10801AC</v>
-      </c>
-      <c r="I102">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I102" t="e">
         <f t="shared" si="14"/>
-        <v>17301932</v>
-      </c>
-      <c r="J102">
-        <v>522193</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="L102">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L102" t="str">
         <f t="shared" si="16"/>
-        <v>522193</v>
-      </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>93</v>
       </c>
@@ -6205,41 +6221,35 @@
         <v>14</v>
       </c>
       <c r="E103" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="F103" s="1">
+        <f>IF(P103="",$B$2,$B$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F103" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>428</v>
-      </c>
-      <c r="G103" s="1">
+        <v/>
+      </c>
+      <c r="G103" s="1" t="e">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="H103" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H103" t="e">
         <f t="shared" si="13"/>
-        <v>10901AC</v>
-      </c>
-      <c r="I103">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I103" t="e">
         <f t="shared" si="14"/>
-        <v>17367468</v>
-      </c>
-      <c r="J103">
-        <v>522193</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="L103">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L103" t="str">
         <f t="shared" si="16"/>
-        <v>522193</v>
-      </c>
-      <c r="M103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>94</v>
       </c>
@@ -6250,7 +6260,7 @@
         <v>15</v>
       </c>
       <c r="E104" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P104="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F104" s="1" t="str">
@@ -6270,7 +6280,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L104" t="str">
@@ -6278,7 +6288,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>95</v>
       </c>
@@ -6289,7 +6299,7 @@
         <v>16</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P105="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F105" s="1" t="str">
@@ -6309,7 +6319,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L105" t="str">
@@ -6331,12 +6341,12 @@
         <v>57</v>
       </c>
       <c r="E106" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P106="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" ref="F106:F117" si="18">IF(L106&lt;&gt;"",FLOOR((L106-MIN(L:L))/2,1),"")</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="G106" s="1">
         <f t="shared" si="12"/>
@@ -6344,22 +6354,22 @@
       </c>
       <c r="H106" t="str">
         <f t="shared" si="13"/>
-        <v>1020000</v>
+        <v>1020021</v>
       </c>
       <c r="I106">
         <f t="shared" si="14"/>
-        <v>16908288</v>
+        <v>16908321</v>
       </c>
       <c r="J106">
-        <v>521336</v>
+        <v>533056</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L106">
         <f t="shared" si="16"/>
-        <v>521336</v>
+        <v>533056</v>
       </c>
       <c r="M106">
         <v>2</v>
@@ -6382,12 +6392,12 @@
         <v>53</v>
       </c>
       <c r="E107" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P107="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="G107" s="1">
         <f t="shared" si="12"/>
@@ -6395,22 +6405,22 @@
       </c>
       <c r="H107" t="str">
         <f t="shared" si="13"/>
-        <v>1070000</v>
+        <v>1070021</v>
       </c>
       <c r="I107">
         <f t="shared" si="14"/>
-        <v>17235968</v>
+        <v>17236001</v>
       </c>
       <c r="J107">
-        <v>521336</v>
+        <v>533056</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L107">
         <f t="shared" si="16"/>
-        <v>521336</v>
+        <v>533056</v>
       </c>
       <c r="M107">
         <v>7</v>
@@ -6433,12 +6443,12 @@
         <v>54</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P108="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="G108" s="1">
         <f t="shared" si="12"/>
@@ -6446,22 +6456,22 @@
       </c>
       <c r="H108" t="str">
         <f t="shared" si="13"/>
-        <v>1080000</v>
+        <v>1080021</v>
       </c>
       <c r="I108">
         <f t="shared" si="14"/>
-        <v>17301504</v>
+        <v>17301537</v>
       </c>
       <c r="J108">
-        <v>521337</v>
+        <v>533057</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L108">
         <f t="shared" si="16"/>
-        <v>521337</v>
+        <v>533057</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -6484,12 +6494,12 @@
         <v>48</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P109="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F109" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="G109" s="1">
         <f t="shared" si="12"/>
@@ -6497,22 +6507,22 @@
       </c>
       <c r="H109" t="str">
         <f t="shared" si="13"/>
-        <v>1030000</v>
+        <v>1030021</v>
       </c>
       <c r="I109">
         <f t="shared" si="14"/>
-        <v>16973824</v>
+        <v>16973857</v>
       </c>
       <c r="J109">
-        <v>521336</v>
+        <v>533056</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L109">
         <f t="shared" si="16"/>
-        <v>521336</v>
+        <v>533056</v>
       </c>
       <c r="M109">
         <v>3</v>
@@ -6535,12 +6545,12 @@
         <v>49</v>
       </c>
       <c r="E110" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P110="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="G110" s="1">
         <f t="shared" si="12"/>
@@ -6548,22 +6558,22 @@
       </c>
       <c r="H110" t="str">
         <f t="shared" si="13"/>
-        <v>1040000</v>
+        <v>1040021</v>
       </c>
       <c r="I110">
         <f t="shared" si="14"/>
-        <v>17039360</v>
+        <v>17039393</v>
       </c>
       <c r="J110">
-        <v>521336</v>
+        <v>533056</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L110">
         <f t="shared" si="16"/>
-        <v>521336</v>
+        <v>533056</v>
       </c>
       <c r="M110">
         <v>4</v>
@@ -6586,12 +6596,12 @@
         <v>50</v>
       </c>
       <c r="E111" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P111="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F111" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="G111" s="1">
         <f t="shared" si="12"/>
@@ -6599,22 +6609,22 @@
       </c>
       <c r="H111" t="str">
         <f t="shared" si="13"/>
-        <v>1050000</v>
+        <v>1050021</v>
       </c>
       <c r="I111">
         <f t="shared" si="14"/>
-        <v>17104896</v>
+        <v>17104929</v>
       </c>
       <c r="J111">
-        <v>521336</v>
+        <v>533056</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L111">
         <f t="shared" si="16"/>
-        <v>521336</v>
+        <v>533056</v>
       </c>
       <c r="M111">
         <v>5</v>
@@ -6637,12 +6647,12 @@
         <v>51</v>
       </c>
       <c r="E112" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P112="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F112" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="G112" s="1">
         <f t="shared" si="12"/>
@@ -6650,22 +6660,22 @@
       </c>
       <c r="H112" t="str">
         <f t="shared" si="13"/>
-        <v>1060000</v>
+        <v>1060021</v>
       </c>
       <c r="I112">
         <f t="shared" si="14"/>
-        <v>17170432</v>
+        <v>17170465</v>
       </c>
       <c r="J112">
-        <v>521336</v>
+        <v>533056</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L112">
         <f t="shared" si="16"/>
-        <v>521336</v>
+        <v>533056</v>
       </c>
       <c r="M112">
         <v>6</v>
@@ -6688,12 +6698,12 @@
         <v>58</v>
       </c>
       <c r="E113" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P113="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F113" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="G113" s="1">
         <f t="shared" si="12"/>
@@ -6701,22 +6711,22 @@
       </c>
       <c r="H113" t="str">
         <f t="shared" si="13"/>
-        <v>1090000</v>
+        <v>1090021</v>
       </c>
       <c r="I113">
         <f t="shared" si="14"/>
-        <v>17367040</v>
+        <v>17367073</v>
       </c>
       <c r="J113">
-        <v>521337</v>
+        <v>533057</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L113">
         <f t="shared" si="16"/>
-        <v>521337</v>
+        <v>533057</v>
       </c>
       <c r="M113">
         <v>1</v>
@@ -6739,12 +6749,12 @@
         <v>70</v>
       </c>
       <c r="E114" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P114="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="G114" s="1">
         <f t="shared" si="12"/>
@@ -6752,22 +6762,22 @@
       </c>
       <c r="H114" t="str">
         <f t="shared" si="13"/>
-        <v>10A0000</v>
+        <v>10A0021</v>
       </c>
       <c r="I114">
         <f t="shared" si="14"/>
-        <v>17432576</v>
+        <v>17432609</v>
       </c>
       <c r="J114">
-        <v>521337</v>
+        <v>533057</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L114">
         <f t="shared" si="16"/>
-        <v>521337</v>
+        <v>533057</v>
       </c>
       <c r="M114">
         <v>2</v>
@@ -6790,12 +6800,12 @@
         <v>55</v>
       </c>
       <c r="E115" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P115="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="G115" s="1">
         <f t="shared" si="12"/>
@@ -6803,22 +6813,22 @@
       </c>
       <c r="H115" t="str">
         <f t="shared" si="13"/>
-        <v>10B0000</v>
+        <v>10B0021</v>
       </c>
       <c r="I115">
         <f t="shared" si="14"/>
-        <v>17498112</v>
+        <v>17498145</v>
       </c>
       <c r="J115">
-        <v>521337</v>
+        <v>533057</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L115">
         <f t="shared" si="16"/>
-        <v>521337</v>
+        <v>533057</v>
       </c>
       <c r="M115">
         <v>3</v>
@@ -6841,12 +6851,12 @@
         <v>52</v>
       </c>
       <c r="E116" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P116="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="G116" s="1">
         <f t="shared" si="12"/>
@@ -6854,22 +6864,22 @@
       </c>
       <c r="H116" t="str">
         <f t="shared" si="13"/>
-        <v>10C0000</v>
+        <v>10C0021</v>
       </c>
       <c r="I116">
         <f t="shared" si="14"/>
-        <v>17563648</v>
+        <v>17563681</v>
       </c>
       <c r="J116">
-        <v>521337</v>
+        <v>533057</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L116">
         <f t="shared" si="16"/>
-        <v>521337</v>
+        <v>533057</v>
       </c>
       <c r="M116">
         <v>4</v>
@@ -6892,12 +6902,12 @@
         <v>56</v>
       </c>
       <c r="E117" s="1">
-        <f t="shared" si="10"/>
+        <f>IF(P117="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F117" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="G117" s="1">
         <f t="shared" si="12"/>
@@ -6905,22 +6915,22 @@
       </c>
       <c r="H117" t="str">
         <f t="shared" si="13"/>
-        <v>10D0000</v>
+        <v>10D0021</v>
       </c>
       <c r="I117">
         <f t="shared" si="14"/>
-        <v>17629184</v>
+        <v>17629217</v>
       </c>
       <c r="J117">
-        <v>521337</v>
+        <v>533057</v>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L117">
         <f t="shared" si="16"/>
-        <v>521337</v>
+        <v>533057</v>
       </c>
       <c r="M117">
         <v>5</v>
@@ -6930,7 +6940,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:U117" xr:uid="{DA039C0E-5BBC-4474-9091-B3419F3F19D1}"/>
+  <autoFilter ref="A9:U117" xr:uid="{DA039C0E-5BBC-4474-9091-B3419F3F19D1}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState ref="A10:U117">
+      <sortCondition ref="A9:A117"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A10:U117">
     <sortCondition ref="B10:B117"/>
     <sortCondition ref="C10:C117"/>
@@ -6942,10 +6961,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBFD5AD-95E3-457F-903E-F0D470C50CCA}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:O70"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6984,7 +7004,7 @@
       </c>
       <c r="K2">
         <f>K8-B4</f>
-        <v>7953</v>
+        <v>19637</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -6992,7 +7012,7 @@
         <v>69</v>
       </c>
       <c r="B3">
-        <v>521358</v>
+        <v>533074</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -7001,7 +7021,7 @@
       </c>
       <c r="B4">
         <f>MIN(L:L)</f>
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>59</v>
@@ -7016,7 +7036,7 @@
       </c>
       <c r="B5">
         <f>MIN(K:K)</f>
-        <v>7953</v>
+        <v>19637</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -7103,7 +7123,7 @@
       </c>
       <c r="F8" s="1">
         <f>IF(L8&lt;&gt;"",FLOOR((L8-$B$4)/2,1),"")</f>
-        <v>3976</v>
+        <v>9818</v>
       </c>
       <c r="G8" s="1">
         <f>IF(MOD(L8-$B$4,2)=1,8+M8,M8)</f>
@@ -7111,19 +7131,19 @@
       </c>
       <c r="H8" t="str">
         <f>DEC2HEX(E8*HEX2DEC(1000000) +G8*HEX2DEC(10000) +F8)</f>
-        <v>2080F88</v>
+        <v>208265A</v>
       </c>
       <c r="I8">
         <f>HEX2DEC(H8)</f>
-        <v>34082696</v>
+        <v>34088538</v>
       </c>
       <c r="K8">
         <f>IF(Q8&lt;&gt;"",$B$3+Q8*116,"")</f>
-        <v>521358</v>
+        <v>533074</v>
       </c>
       <c r="L8">
-        <f>IF(J8&lt;&gt;"",J8,K8)</f>
-        <v>521358</v>
+        <f>IF(AND(J8&lt;&gt;"",D8&lt;&gt;""),J8,K8)</f>
+        <v>533074</v>
       </c>
       <c r="N8" t="s">
         <v>224</v>
@@ -7161,7 +7181,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" ref="F9:F70" si="1">IF(L9&lt;&gt;"",FLOOR((L9-$B$4)/2,1),"")</f>
-        <v>4034</v>
+        <v>9876</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ref="G9:G70" si="2">IF(MOD(L9-$B$4,2)=1,8+M9,M9)</f>
@@ -7169,19 +7189,19 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" ref="H9:H70" si="3">DEC2HEX(E9*HEX2DEC(1000000) +G9*HEX2DEC(10000) +F9)</f>
-        <v>2080FC2</v>
+        <v>2082694</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:I70" si="4">HEX2DEC(H9)</f>
-        <v>34082754</v>
+        <f t="shared" ref="I9:I12" si="4">HEX2DEC(H9)</f>
+        <v>34088596</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K70" si="5">IF(Q9&lt;&gt;"",$B$3+Q9*116,"")</f>
-        <v>521474</v>
+        <v>533190</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9:L70" si="6">IF(J9&lt;&gt;"",J9,K9)</f>
-        <v>521474</v>
+        <f t="shared" ref="L9:L70" si="6">IF(AND(J9&lt;&gt;"",D9&lt;&gt;""),J9,K9)</f>
+        <v>533190</v>
       </c>
       <c r="N9" t="s">
         <v>225</v>
@@ -7219,7 +7239,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>4092</v>
+        <v>9934</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="2"/>
@@ -7227,19 +7247,19 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
-        <v>2080FFC</v>
+        <v>20826CE</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>34082812</v>
+        <v>34088654</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>521590</v>
+        <v>533306</v>
       </c>
       <c r="L10">
         <f t="shared" si="6"/>
-        <v>521590</v>
+        <v>533306</v>
       </c>
       <c r="N10" t="s">
         <v>226</v>
@@ -7277,7 +7297,7 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>4614</v>
+        <v>10456</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="2"/>
@@ -7285,19 +7305,19 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
-        <v>2081206</v>
+        <v>20828D8</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>34083334</v>
+        <v>34089176</v>
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
-        <v>522634</v>
+        <v>534350</v>
       </c>
       <c r="L11">
         <f t="shared" si="6"/>
-        <v>522634</v>
+        <v>534350</v>
       </c>
       <c r="N11" t="s">
         <v>235</v>
@@ -7335,7 +7355,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>4556</v>
+        <v>10398</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="2"/>
@@ -7343,19 +7363,19 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
-        <v>20811CC</v>
+        <v>208289E</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>34083276</v>
+        <v>34089118</v>
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
-        <v>522518</v>
+        <v>534234</v>
       </c>
       <c r="L12">
         <f t="shared" si="6"/>
-        <v>522518</v>
+        <v>534234</v>
       </c>
       <c r="N12" t="s">
         <v>234</v>
@@ -7374,7 +7394,7 @@
         <v>ACy04 : INT :=11;</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -7401,7 +7421,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I9:I70" si="8">HEX2DEC(H13)</f>
         <v>#VALUE!</v>
       </c>
       <c r="K13" t="str">
@@ -7417,7 +7437,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -7444,7 +7464,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I14" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K14" t="str">
@@ -7463,7 +7483,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -7490,7 +7510,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I15" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K15" t="str">
@@ -7536,11 +7556,11 @@
         <v>2000000</v>
       </c>
       <c r="I16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33554432</v>
       </c>
       <c r="J16">
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="5"/>
@@ -7548,7 +7568,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -7591,11 +7611,11 @@
         <v>2010000</v>
       </c>
       <c r="I17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33619968</v>
       </c>
       <c r="J17">
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="5"/>
@@ -7603,7 +7623,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="6"/>
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -7646,11 +7666,11 @@
         <v>2020000</v>
       </c>
       <c r="I18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33685504</v>
       </c>
       <c r="J18">
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="5"/>
@@ -7658,7 +7678,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="6"/>
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="M18">
         <v>2</v>
@@ -7701,11 +7721,11 @@
         <v>2030000</v>
       </c>
       <c r="I19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33751040</v>
       </c>
       <c r="J19">
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="5"/>
@@ -7713,7 +7733,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="6"/>
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="M19">
         <v>3</v>
@@ -7756,11 +7776,11 @@
         <v>2040000</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33816576</v>
       </c>
       <c r="J20">
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="5"/>
@@ -7768,7 +7788,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="6"/>
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="M20">
         <v>4</v>
@@ -7811,11 +7831,11 @@
         <v>2050000</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33882112</v>
       </c>
       <c r="J21">
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="5"/>
@@ -7823,7 +7843,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="6"/>
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="M21">
         <v>5</v>
@@ -7866,11 +7886,11 @@
         <v>2060000</v>
       </c>
       <c r="I22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33947648</v>
       </c>
       <c r="J22">
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="5"/>
@@ -7878,7 +7898,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="6"/>
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="M22">
         <v>6</v>
@@ -7921,11 +7941,11 @@
         <v>2070000</v>
       </c>
       <c r="I23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>34013184</v>
       </c>
       <c r="J23">
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="5"/>
@@ -7933,7 +7953,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="6"/>
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="M23">
         <v>7</v>
@@ -7965,7 +7985,7 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
-        <v>4440</v>
+        <v>10282</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="2"/>
@@ -7973,19 +7993,19 @@
       </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
-        <v>2081158</v>
+        <v>208282A</v>
       </c>
       <c r="I24">
-        <f t="shared" si="4"/>
-        <v>34083160</v>
+        <f t="shared" si="8"/>
+        <v>34089002</v>
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
-        <v>522286</v>
+        <v>534002</v>
       </c>
       <c r="L24">
         <f t="shared" si="6"/>
-        <v>522286</v>
+        <v>534002</v>
       </c>
       <c r="N24" t="s">
         <v>232</v>
@@ -8023,7 +8043,7 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
-        <v>4498</v>
+        <v>10340</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="2"/>
@@ -8031,19 +8051,19 @@
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
-        <v>2081192</v>
+        <v>2082864</v>
       </c>
       <c r="I25">
-        <f t="shared" si="4"/>
-        <v>34083218</v>
+        <f t="shared" si="8"/>
+        <v>34089060</v>
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
-        <v>522402</v>
+        <v>534118</v>
       </c>
       <c r="L25">
         <f t="shared" si="6"/>
-        <v>522402</v>
+        <v>534118</v>
       </c>
       <c r="N25" t="s">
         <v>233</v>
@@ -8062,7 +8082,7 @@
         <v>CCy2 : INT :=10;</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
@@ -8089,7 +8109,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I26" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K26" t="str">
@@ -8105,7 +8125,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
@@ -8132,7 +8152,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I27" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K27" t="str">
@@ -8148,7 +8168,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
@@ -8175,7 +8195,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I28" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K28" t="str">
@@ -8191,7 +8211,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
@@ -8218,7 +8238,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I29" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K29" t="str">
@@ -8234,7 +8254,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>22</v>
       </c>
@@ -8261,7 +8281,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I30" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K30" t="str">
@@ -8277,7 +8297,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23</v>
       </c>
@@ -8304,7 +8324,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I31" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K31" t="str">
@@ -8320,7 +8340,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24</v>
       </c>
@@ -8347,7 +8367,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I32" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K32" t="str">
@@ -8363,7 +8383,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>25</v>
       </c>
@@ -8390,7 +8410,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I33" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K33" t="str">
@@ -8406,7 +8426,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>26</v>
       </c>
@@ -8433,7 +8453,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I34" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K34" t="str">
@@ -8449,7 +8469,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>27</v>
       </c>
@@ -8476,7 +8496,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I35" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K35" t="str">
@@ -8492,7 +8512,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>28</v>
       </c>
@@ -8519,7 +8539,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I36" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K36" t="str">
@@ -8535,7 +8555,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>29</v>
       </c>
@@ -8562,7 +8582,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I37" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K37" t="str">
@@ -8578,7 +8598,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
@@ -8605,7 +8625,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I38" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K38" t="str">
@@ -8621,7 +8641,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
@@ -8648,7 +8668,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I39" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K39" t="str">
@@ -8683,7 +8703,7 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" si="1"/>
-        <v>4150</v>
+        <v>9992</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="2"/>
@@ -8691,19 +8711,19 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" si="3"/>
-        <v>2081036</v>
+        <v>2082708</v>
       </c>
       <c r="I40">
-        <f t="shared" si="4"/>
-        <v>34082870</v>
+        <f t="shared" si="8"/>
+        <v>34088712</v>
       </c>
       <c r="K40">
         <f t="shared" si="5"/>
-        <v>521706</v>
+        <v>533422</v>
       </c>
       <c r="L40">
         <f t="shared" si="6"/>
-        <v>521706</v>
+        <v>533422</v>
       </c>
       <c r="N40" t="s">
         <v>227</v>
@@ -8741,7 +8761,7 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="1"/>
-        <v>4208</v>
+        <v>10050</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="2"/>
@@ -8749,19 +8769,19 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" si="3"/>
-        <v>2081070</v>
+        <v>2082742</v>
       </c>
       <c r="I41">
-        <f t="shared" si="4"/>
-        <v>34082928</v>
+        <f t="shared" si="8"/>
+        <v>34088770</v>
       </c>
       <c r="K41">
         <f t="shared" si="5"/>
-        <v>521822</v>
+        <v>533538</v>
       </c>
       <c r="L41">
         <f t="shared" si="6"/>
-        <v>521822</v>
+        <v>533538</v>
       </c>
       <c r="N41" t="s">
         <v>228</v>
@@ -8799,7 +8819,7 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" si="1"/>
-        <v>4266</v>
+        <v>10108</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="2"/>
@@ -8807,19 +8827,19 @@
       </c>
       <c r="H42" t="str">
         <f t="shared" si="3"/>
-        <v>20810AA</v>
+        <v>208277C</v>
       </c>
       <c r="I42">
-        <f t="shared" si="4"/>
-        <v>34082986</v>
+        <f t="shared" si="8"/>
+        <v>34088828</v>
       </c>
       <c r="K42">
         <f t="shared" si="5"/>
-        <v>521938</v>
+        <v>533654</v>
       </c>
       <c r="L42">
         <f t="shared" si="6"/>
-        <v>521938</v>
+        <v>533654</v>
       </c>
       <c r="N42" t="s">
         <v>229</v>
@@ -8838,7 +8858,7 @@
         <v>ACy03 : INT :=6;</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>35</v>
       </c>
@@ -8865,7 +8885,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I43" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K43" t="str">
@@ -8881,7 +8901,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>36</v>
       </c>
@@ -8908,7 +8928,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I44" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K44" t="str">
@@ -8924,7 +8944,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>37</v>
       </c>
@@ -8938,21 +8958,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F45" s="1">
-        <f t="shared" si="1"/>
-        <v>4393</v>
-      </c>
-      <c r="G45" s="1">
+      <c r="F45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G45" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H45" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H45" t="e">
         <f t="shared" si="3"/>
-        <v>2081129</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="4"/>
-        <v>34083113</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I45" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J45">
         <v>522192</v>
@@ -8961,9 +8981,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L45">
+      <c r="L45" t="str">
         <f t="shared" si="6"/>
-        <v>522192</v>
+        <v/>
       </c>
       <c r="M45">
         <v>0</v>
@@ -8973,7 +8993,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>38</v>
       </c>
@@ -8987,21 +9007,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F46" s="1">
-        <f t="shared" si="1"/>
-        <v>4393</v>
-      </c>
-      <c r="G46" s="1">
+      <c r="F46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G46" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H46" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H46" t="e">
         <f t="shared" si="3"/>
-        <v>2091129</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="4"/>
-        <v>34148649</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I46" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J46">
         <v>522192</v>
@@ -9010,9 +9030,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L46">
+      <c r="L46" t="str">
         <f t="shared" si="6"/>
-        <v>522192</v>
+        <v/>
       </c>
       <c r="M46">
         <v>1</v>
@@ -9022,7 +9042,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>39</v>
       </c>
@@ -9036,21 +9056,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F47" s="1">
-        <f t="shared" si="1"/>
-        <v>4393</v>
-      </c>
-      <c r="G47" s="1">
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G47" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H47" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H47" t="e">
         <f t="shared" si="3"/>
-        <v>20A1129</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="4"/>
-        <v>34214185</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I47" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J47">
         <v>522192</v>
@@ -9059,9 +9079,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L47">
+      <c r="L47" t="str">
         <f t="shared" si="6"/>
-        <v>522192</v>
+        <v/>
       </c>
       <c r="M47">
         <v>2</v>
@@ -9071,7 +9091,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>40</v>
       </c>
@@ -9085,21 +9105,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F48" s="1">
-        <f t="shared" si="1"/>
-        <v>4393</v>
-      </c>
-      <c r="G48" s="1">
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G48" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="H48" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" t="e">
         <f t="shared" si="3"/>
-        <v>20B1129</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="4"/>
-        <v>34279721</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I48" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J48">
         <v>522192</v>
@@ -9108,9 +9128,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L48">
+      <c r="L48" t="str">
         <f t="shared" si="6"/>
-        <v>522192</v>
+        <v/>
       </c>
       <c r="M48">
         <v>3</v>
@@ -9120,7 +9140,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>41</v>
       </c>
@@ -9134,21 +9154,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F49" s="1">
-        <f t="shared" si="1"/>
-        <v>4329</v>
-      </c>
-      <c r="G49" s="1">
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G49" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H49" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H49" t="e">
         <f t="shared" si="3"/>
-        <v>20210E9</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="4"/>
-        <v>33689833</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I49" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J49">
         <v>522063</v>
@@ -9157,9 +9177,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L49">
+      <c r="L49" t="str">
         <f t="shared" si="6"/>
-        <v>522063</v>
+        <v/>
       </c>
       <c r="M49">
         <v>2</v>
@@ -9169,7 +9189,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>42</v>
       </c>
@@ -9183,21 +9203,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F50" s="1">
-        <f t="shared" si="1"/>
-        <v>4329</v>
-      </c>
-      <c r="G50" s="1">
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G50" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H50" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" t="e">
         <f t="shared" si="3"/>
-        <v>20310E9</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="4"/>
-        <v>33755369</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I50" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J50">
         <v>522063</v>
@@ -9206,9 +9226,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L50">
+      <c r="L50" t="str">
         <f t="shared" si="6"/>
-        <v>522063</v>
+        <v/>
       </c>
       <c r="M50">
         <v>3</v>
@@ -9218,7 +9238,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>43</v>
       </c>
@@ -9232,21 +9252,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F51" s="1">
-        <f t="shared" si="1"/>
-        <v>4329</v>
-      </c>
-      <c r="G51" s="1">
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G51" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H51" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H51" t="e">
         <f t="shared" si="3"/>
-        <v>20010E9</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="4"/>
-        <v>33558761</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I51" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J51">
         <v>522063</v>
@@ -9255,9 +9275,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L51">
+      <c r="L51" t="str">
         <f t="shared" si="6"/>
-        <v>522063</v>
+        <v/>
       </c>
       <c r="M51">
         <v>0</v>
@@ -9267,7 +9287,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>44</v>
       </c>
@@ -9281,21 +9301,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F52" s="1">
-        <f t="shared" si="1"/>
-        <v>4329</v>
-      </c>
-      <c r="G52" s="1">
+      <c r="F52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G52" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H52" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H52" t="e">
         <f t="shared" si="3"/>
-        <v>20110E9</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="4"/>
-        <v>33624297</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I52" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J52">
         <v>522063</v>
@@ -9304,9 +9324,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L52">
+      <c r="L52" t="str">
         <f t="shared" si="6"/>
-        <v>522063</v>
+        <v/>
       </c>
       <c r="M52">
         <v>1</v>
@@ -9335,7 +9355,7 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="1"/>
-        <v>4324</v>
+        <v>10166</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="2"/>
@@ -9343,19 +9363,19 @@
       </c>
       <c r="H53" t="str">
         <f t="shared" si="3"/>
-        <v>20810E4</v>
+        <v>20827B6</v>
       </c>
       <c r="I53">
-        <f t="shared" si="4"/>
-        <v>34083044</v>
+        <f t="shared" si="8"/>
+        <v>34088886</v>
       </c>
       <c r="K53">
         <f t="shared" si="5"/>
-        <v>522054</v>
+        <v>533770</v>
       </c>
       <c r="L53">
         <f t="shared" si="6"/>
-        <v>522054</v>
+        <v>533770</v>
       </c>
       <c r="N53" t="s">
         <v>230</v>
@@ -9393,7 +9413,7 @@
       </c>
       <c r="F54" s="1">
         <f t="shared" si="1"/>
-        <v>4382</v>
+        <v>10224</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="2"/>
@@ -9401,19 +9421,19 @@
       </c>
       <c r="H54" t="str">
         <f t="shared" si="3"/>
-        <v>208111E</v>
+        <v>20827F0</v>
       </c>
       <c r="I54">
-        <f t="shared" si="4"/>
-        <v>34083102</v>
+        <f t="shared" si="8"/>
+        <v>34088944</v>
       </c>
       <c r="K54">
         <f t="shared" si="5"/>
-        <v>522170</v>
+        <v>533886</v>
       </c>
       <c r="L54">
         <f t="shared" si="6"/>
-        <v>522170</v>
+        <v>533886</v>
       </c>
       <c r="N54" t="s">
         <v>231</v>
@@ -9451,7 +9471,7 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" si="1"/>
-        <v>4672</v>
+        <v>10514</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="2"/>
@@ -9459,19 +9479,19 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" si="3"/>
-        <v>2081240</v>
+        <v>2082912</v>
       </c>
       <c r="I55">
-        <f t="shared" si="4"/>
-        <v>34083392</v>
+        <f t="shared" si="8"/>
+        <v>34089234</v>
       </c>
       <c r="K55">
         <f t="shared" si="5"/>
-        <v>522750</v>
+        <v>534466</v>
       </c>
       <c r="L55">
         <f t="shared" si="6"/>
-        <v>522750</v>
+        <v>534466</v>
       </c>
       <c r="N55" t="s">
         <v>234</v>
@@ -9490,7 +9510,7 @@
         <v>CyB3 : INT :=13;</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>48</v>
       </c>
@@ -9517,7 +9537,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I56" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K56" t="str">
@@ -9533,7 +9553,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>49</v>
       </c>
@@ -9560,7 +9580,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I57" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K57" t="str">
@@ -9576,7 +9596,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>50</v>
       </c>
@@ -9603,7 +9623,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I58" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K58" t="str">
@@ -9619,7 +9639,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>51</v>
       </c>
@@ -9646,7 +9666,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I59" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K59" t="str">
@@ -9662,7 +9682,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>52</v>
       </c>
@@ -9689,7 +9709,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I60" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K60" t="str">
@@ -9705,7 +9725,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>53</v>
       </c>
@@ -9732,7 +9752,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I61" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K61" t="str">
@@ -9748,7 +9768,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>54</v>
       </c>
@@ -9775,7 +9795,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I62" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K62" t="str">
@@ -9791,7 +9811,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>55</v>
       </c>
@@ -9818,7 +9838,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I63" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K63" t="str">
@@ -9834,7 +9854,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>56</v>
       </c>
@@ -9861,7 +9881,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K64" t="str">
@@ -9877,7 +9897,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>57</v>
       </c>
@@ -9904,7 +9924,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I65" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K65" t="str">
@@ -9939,7 +9959,7 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" si="1"/>
-        <v>3966</v>
+        <v>9810</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="2"/>
@@ -9947,14 +9967,14 @@
       </c>
       <c r="H66" t="str">
         <f t="shared" si="3"/>
-        <v>2060F7E</v>
+        <v>2062652</v>
       </c>
       <c r="I66">
-        <f t="shared" si="4"/>
-        <v>33951614</v>
+        <f t="shared" si="8"/>
+        <v>33957458</v>
       </c>
       <c r="J66">
-        <v>521337</v>
+        <v>533057</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" si="5"/>
@@ -9962,7 +9982,7 @@
       </c>
       <c r="L66">
         <f t="shared" si="6"/>
-        <v>521337</v>
+        <v>533057</v>
       </c>
       <c r="M66">
         <v>6</v>
@@ -9994,7 +10014,7 @@
       </c>
       <c r="F67" s="1">
         <f t="shared" si="1"/>
-        <v>3966</v>
+        <v>9810</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" si="2"/>
@@ -10002,14 +10022,14 @@
       </c>
       <c r="H67" t="str">
         <f t="shared" si="3"/>
-        <v>2080F7E</v>
+        <v>2082652</v>
       </c>
       <c r="I67">
-        <f t="shared" si="4"/>
-        <v>34082686</v>
+        <f t="shared" si="8"/>
+        <v>34088530</v>
       </c>
       <c r="J67">
-        <v>521338</v>
+        <v>533058</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" si="5"/>
@@ -10017,7 +10037,7 @@
       </c>
       <c r="L67">
         <f t="shared" si="6"/>
-        <v>521338</v>
+        <v>533058</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -10049,7 +10069,7 @@
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>3965</v>
+        <v>9809</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" si="2"/>
@@ -10057,14 +10077,14 @@
       </c>
       <c r="H68" t="str">
         <f t="shared" si="3"/>
-        <v>2080F7D</v>
+        <v>2082651</v>
       </c>
       <c r="I68">
-        <f t="shared" si="4"/>
-        <v>34082685</v>
+        <f t="shared" si="8"/>
+        <v>34088529</v>
       </c>
       <c r="J68">
-        <v>521336</v>
+        <v>533056</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="5"/>
@@ -10072,7 +10092,7 @@
       </c>
       <c r="L68">
         <f t="shared" si="6"/>
-        <v>521336</v>
+        <v>533056</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -10104,7 +10124,7 @@
       </c>
       <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>3965</v>
+        <v>9809</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" si="2"/>
@@ -10112,14 +10132,14 @@
       </c>
       <c r="H69" t="str">
         <f t="shared" si="3"/>
-        <v>2090F7D</v>
+        <v>2092651</v>
       </c>
       <c r="I69">
-        <f t="shared" si="4"/>
-        <v>34148221</v>
+        <f t="shared" si="8"/>
+        <v>34154065</v>
       </c>
       <c r="J69">
-        <v>521336</v>
+        <v>533056</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" si="5"/>
@@ -10127,7 +10147,7 @@
       </c>
       <c r="L69">
         <f t="shared" si="6"/>
-        <v>521336</v>
+        <v>533056</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -10159,7 +10179,7 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" si="1"/>
-        <v>3966</v>
+        <v>9810</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" si="2"/>
@@ -10167,14 +10187,14 @@
       </c>
       <c r="H70" t="str">
         <f t="shared" si="3"/>
-        <v>2070F7E</v>
+        <v>2072652</v>
       </c>
       <c r="I70">
-        <f t="shared" si="4"/>
-        <v>34017150</v>
+        <f t="shared" si="8"/>
+        <v>34022994</v>
       </c>
       <c r="J70">
-        <v>521337</v>
+        <v>533057</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="5"/>
@@ -10182,7 +10202,7 @@
       </c>
       <c r="L70">
         <f t="shared" si="6"/>
-        <v>521337</v>
+        <v>533057</v>
       </c>
       <c r="M70">
         <v>7</v>
@@ -10197,6 +10217,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:R70" xr:uid="{8998380E-F444-46A0-9507-09ED559E5F46}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState ref="A8:R70">
       <sortCondition ref="B8:B70"/>
       <sortCondition ref="C8:C70"/>
